--- a/Entrenamiento_Casa.xlsx
+++ b/Entrenamiento_Casa.xlsx
@@ -8,11 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Registro" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Rutinas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Progreso" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Instrucciones" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Datos" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Rutinas" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Progreso" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Instrucciones" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="Dia_Lunes">Datos!$A$2:$A$7</definedName>
+    <definedName name="Dia_Martes">Datos!$B$2:$B$7</definedName>
+    <definedName name="Dia_Miercoles">Datos!$C$2:$C$7</definedName>
+    <definedName name="Dia_Jueves">Datos!$D$2:$D$7</definedName>
+    <definedName name="Dia_Viernes">Datos!$E$2:$E$7</definedName>
+    <definedName name="Dias_Lookup">Datos!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Registro'!$A$11:$H$200</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +31,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -59,6 +66,10 @@
       <name val="Calibri"/>
       <color rgb="00333333"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+      <sz val="1"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -151,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -174,22 +185,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -587,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:I200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
@@ -604,6 +616,7 @@
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
+    <col hidden="1" width="0.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -702,29 +715,33 @@
       <c r="F6" s="9" t="inlineStr"/>
       <c r="G6" s="9" t="inlineStr"/>
       <c r="H6" s="9" t="inlineStr"/>
+      <c r="I6" s="10">
+        <f>IF(B6="","",IF(LEFT(B6,5)="Lunes","Dia_Lunes",IF(LEFT(B6,6)="Martes","Dia_Martes",IF(LEFT(B6,4)="Miér","Dia_Miercoles",IF(LEFT(B6,6)="Jueves","Dia_Jueves",IF(LEFT(B6,7)="Viernes","Dia_Viernes",""))))))</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>▶ REGISTRAR ENTRADA</t>
         </is>
       </c>
-      <c r="C8" s="11" t="n"/>
-      <c r="E8" s="12" t="inlineStr">
+      <c r="C8" s="12" t="n"/>
+      <c r="E8" s="13" t="inlineStr">
         <is>
           <t>✕ LIMPIAR CAMPOS</t>
         </is>
       </c>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="14" t="inlineStr">
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="15" t="inlineStr">
         <is>
           <t>⟳ DESHACER ÚLTIMO</t>
         </is>
       </c>
-      <c r="H8" s="15" t="n"/>
+      <c r="H8" s="16" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="A10" s="17" t="inlineStr">
         <is>
           <t>HISTORIAL DE ENTRENAMIENTOS</t>
         </is>
@@ -738,1936 +755,1936 @@
       <c r="H10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="inlineStr">
+      <c r="A11" s="18" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B11" s="17" t="inlineStr">
+      <c r="B11" s="18" t="inlineStr">
         <is>
           <t>Día / Rutina</t>
         </is>
       </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="D11" s="17" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Series</t>
         </is>
       </c>
-      <c r="E11" s="17" t="inlineStr">
+      <c r="E11" s="18" t="inlineStr">
         <is>
           <t>Reps</t>
         </is>
       </c>
-      <c r="F11" s="17" t="inlineStr">
+      <c r="F11" s="18" t="inlineStr">
         <is>
           <t>Peso (kg)</t>
         </is>
       </c>
-      <c r="G11" s="17" t="inlineStr">
+      <c r="G11" s="18" t="inlineStr">
         <is>
           <t>Descanso (s)</t>
         </is>
       </c>
-      <c r="H11" s="17" t="inlineStr">
+      <c r="H11" s="18" t="inlineStr">
         <is>
           <t>Notas</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="inlineStr"/>
-      <c r="B12" s="19" t="inlineStr"/>
-      <c r="C12" s="19" t="inlineStr"/>
-      <c r="D12" s="19" t="inlineStr"/>
-      <c r="E12" s="19" t="inlineStr"/>
-      <c r="F12" s="19" t="inlineStr"/>
-      <c r="G12" s="19" t="inlineStr"/>
-      <c r="H12" s="19" t="inlineStr"/>
+      <c r="A12" s="19" t="inlineStr"/>
+      <c r="B12" s="20" t="inlineStr"/>
+      <c r="C12" s="20" t="inlineStr"/>
+      <c r="D12" s="20" t="inlineStr"/>
+      <c r="E12" s="20" t="inlineStr"/>
+      <c r="F12" s="20" t="inlineStr"/>
+      <c r="G12" s="20" t="inlineStr"/>
+      <c r="H12" s="20" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="inlineStr"/>
-      <c r="B13" s="21" t="inlineStr"/>
-      <c r="C13" s="21" t="inlineStr"/>
-      <c r="D13" s="21" t="inlineStr"/>
-      <c r="E13" s="21" t="inlineStr"/>
-      <c r="F13" s="21" t="inlineStr"/>
-      <c r="G13" s="21" t="inlineStr"/>
-      <c r="H13" s="21" t="inlineStr"/>
+      <c r="A13" s="21" t="inlineStr"/>
+      <c r="B13" s="22" t="inlineStr"/>
+      <c r="C13" s="22" t="inlineStr"/>
+      <c r="D13" s="22" t="inlineStr"/>
+      <c r="E13" s="22" t="inlineStr"/>
+      <c r="F13" s="22" t="inlineStr"/>
+      <c r="G13" s="22" t="inlineStr"/>
+      <c r="H13" s="22" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="inlineStr"/>
-      <c r="B14" s="19" t="inlineStr"/>
-      <c r="C14" s="19" t="inlineStr"/>
-      <c r="D14" s="19" t="inlineStr"/>
-      <c r="E14" s="19" t="inlineStr"/>
-      <c r="F14" s="19" t="inlineStr"/>
-      <c r="G14" s="19" t="inlineStr"/>
-      <c r="H14" s="19" t="inlineStr"/>
+      <c r="A14" s="19" t="inlineStr"/>
+      <c r="B14" s="20" t="inlineStr"/>
+      <c r="C14" s="20" t="inlineStr"/>
+      <c r="D14" s="20" t="inlineStr"/>
+      <c r="E14" s="20" t="inlineStr"/>
+      <c r="F14" s="20" t="inlineStr"/>
+      <c r="G14" s="20" t="inlineStr"/>
+      <c r="H14" s="20" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="inlineStr"/>
-      <c r="B15" s="21" t="inlineStr"/>
-      <c r="C15" s="21" t="inlineStr"/>
-      <c r="D15" s="21" t="inlineStr"/>
-      <c r="E15" s="21" t="inlineStr"/>
-      <c r="F15" s="21" t="inlineStr"/>
-      <c r="G15" s="21" t="inlineStr"/>
-      <c r="H15" s="21" t="inlineStr"/>
+      <c r="A15" s="21" t="inlineStr"/>
+      <c r="B15" s="22" t="inlineStr"/>
+      <c r="C15" s="22" t="inlineStr"/>
+      <c r="D15" s="22" t="inlineStr"/>
+      <c r="E15" s="22" t="inlineStr"/>
+      <c r="F15" s="22" t="inlineStr"/>
+      <c r="G15" s="22" t="inlineStr"/>
+      <c r="H15" s="22" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="inlineStr"/>
-      <c r="B16" s="19" t="inlineStr"/>
-      <c r="C16" s="19" t="inlineStr"/>
-      <c r="D16" s="19" t="inlineStr"/>
-      <c r="E16" s="19" t="inlineStr"/>
-      <c r="F16" s="19" t="inlineStr"/>
-      <c r="G16" s="19" t="inlineStr"/>
-      <c r="H16" s="19" t="inlineStr"/>
+      <c r="A16" s="19" t="inlineStr"/>
+      <c r="B16" s="20" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="inlineStr"/>
+      <c r="G16" s="20" t="inlineStr"/>
+      <c r="H16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="inlineStr"/>
-      <c r="B17" s="21" t="inlineStr"/>
-      <c r="C17" s="21" t="inlineStr"/>
-      <c r="D17" s="21" t="inlineStr"/>
-      <c r="E17" s="21" t="inlineStr"/>
-      <c r="F17" s="21" t="inlineStr"/>
-      <c r="G17" s="21" t="inlineStr"/>
-      <c r="H17" s="21" t="inlineStr"/>
+      <c r="A17" s="21" t="inlineStr"/>
+      <c r="B17" s="22" t="inlineStr"/>
+      <c r="C17" s="22" t="inlineStr"/>
+      <c r="D17" s="22" t="inlineStr"/>
+      <c r="E17" s="22" t="inlineStr"/>
+      <c r="F17" s="22" t="inlineStr"/>
+      <c r="G17" s="22" t="inlineStr"/>
+      <c r="H17" s="22" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="inlineStr"/>
-      <c r="B18" s="19" t="inlineStr"/>
-      <c r="C18" s="19" t="inlineStr"/>
-      <c r="D18" s="19" t="inlineStr"/>
-      <c r="E18" s="19" t="inlineStr"/>
-      <c r="F18" s="19" t="inlineStr"/>
-      <c r="G18" s="19" t="inlineStr"/>
-      <c r="H18" s="19" t="inlineStr"/>
+      <c r="A18" s="19" t="inlineStr"/>
+      <c r="B18" s="20" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="inlineStr"/>
+      <c r="H18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="20" t="inlineStr"/>
-      <c r="B19" s="21" t="inlineStr"/>
-      <c r="C19" s="21" t="inlineStr"/>
-      <c r="D19" s="21" t="inlineStr"/>
-      <c r="E19" s="21" t="inlineStr"/>
-      <c r="F19" s="21" t="inlineStr"/>
-      <c r="G19" s="21" t="inlineStr"/>
-      <c r="H19" s="21" t="inlineStr"/>
+      <c r="A19" s="21" t="inlineStr"/>
+      <c r="B19" s="22" t="inlineStr"/>
+      <c r="C19" s="22" t="inlineStr"/>
+      <c r="D19" s="22" t="inlineStr"/>
+      <c r="E19" s="22" t="inlineStr"/>
+      <c r="F19" s="22" t="inlineStr"/>
+      <c r="G19" s="22" t="inlineStr"/>
+      <c r="H19" s="22" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="inlineStr"/>
-      <c r="B20" s="19" t="inlineStr"/>
-      <c r="C20" s="19" t="inlineStr"/>
-      <c r="D20" s="19" t="inlineStr"/>
-      <c r="E20" s="19" t="inlineStr"/>
-      <c r="F20" s="19" t="inlineStr"/>
-      <c r="G20" s="19" t="inlineStr"/>
-      <c r="H20" s="19" t="inlineStr"/>
+      <c r="A20" s="19" t="inlineStr"/>
+      <c r="B20" s="20" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
+      <c r="D20" s="20" t="inlineStr"/>
+      <c r="E20" s="20" t="inlineStr"/>
+      <c r="F20" s="20" t="inlineStr"/>
+      <c r="G20" s="20" t="inlineStr"/>
+      <c r="H20" s="20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="20" t="inlineStr"/>
-      <c r="B21" s="21" t="inlineStr"/>
-      <c r="C21" s="21" t="inlineStr"/>
-      <c r="D21" s="21" t="inlineStr"/>
-      <c r="E21" s="21" t="inlineStr"/>
-      <c r="F21" s="21" t="inlineStr"/>
-      <c r="G21" s="21" t="inlineStr"/>
-      <c r="H21" s="21" t="inlineStr"/>
+      <c r="A21" s="21" t="inlineStr"/>
+      <c r="B21" s="22" t="inlineStr"/>
+      <c r="C21" s="22" t="inlineStr"/>
+      <c r="D21" s="22" t="inlineStr"/>
+      <c r="E21" s="22" t="inlineStr"/>
+      <c r="F21" s="22" t="inlineStr"/>
+      <c r="G21" s="22" t="inlineStr"/>
+      <c r="H21" s="22" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="inlineStr"/>
-      <c r="B22" s="19" t="inlineStr"/>
-      <c r="C22" s="19" t="inlineStr"/>
-      <c r="D22" s="19" t="inlineStr"/>
-      <c r="E22" s="19" t="inlineStr"/>
-      <c r="F22" s="19" t="inlineStr"/>
-      <c r="G22" s="19" t="inlineStr"/>
-      <c r="H22" s="19" t="inlineStr"/>
+      <c r="A22" s="19" t="inlineStr"/>
+      <c r="B22" s="20" t="inlineStr"/>
+      <c r="C22" s="20" t="inlineStr"/>
+      <c r="D22" s="20" t="inlineStr"/>
+      <c r="E22" s="20" t="inlineStr"/>
+      <c r="F22" s="20" t="inlineStr"/>
+      <c r="G22" s="20" t="inlineStr"/>
+      <c r="H22" s="20" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="inlineStr"/>
-      <c r="B23" s="21" t="inlineStr"/>
-      <c r="C23" s="21" t="inlineStr"/>
-      <c r="D23" s="21" t="inlineStr"/>
-      <c r="E23" s="21" t="inlineStr"/>
-      <c r="F23" s="21" t="inlineStr"/>
-      <c r="G23" s="21" t="inlineStr"/>
-      <c r="H23" s="21" t="inlineStr"/>
+      <c r="A23" s="21" t="inlineStr"/>
+      <c r="B23" s="22" t="inlineStr"/>
+      <c r="C23" s="22" t="inlineStr"/>
+      <c r="D23" s="22" t="inlineStr"/>
+      <c r="E23" s="22" t="inlineStr"/>
+      <c r="F23" s="22" t="inlineStr"/>
+      <c r="G23" s="22" t="inlineStr"/>
+      <c r="H23" s="22" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="inlineStr"/>
-      <c r="B24" s="19" t="inlineStr"/>
-      <c r="C24" s="19" t="inlineStr"/>
-      <c r="D24" s="19" t="inlineStr"/>
-      <c r="E24" s="19" t="inlineStr"/>
-      <c r="F24" s="19" t="inlineStr"/>
-      <c r="G24" s="19" t="inlineStr"/>
-      <c r="H24" s="19" t="inlineStr"/>
+      <c r="A24" s="19" t="inlineStr"/>
+      <c r="B24" s="20" t="inlineStr"/>
+      <c r="C24" s="20" t="inlineStr"/>
+      <c r="D24" s="20" t="inlineStr"/>
+      <c r="E24" s="20" t="inlineStr"/>
+      <c r="F24" s="20" t="inlineStr"/>
+      <c r="G24" s="20" t="inlineStr"/>
+      <c r="H24" s="20" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="inlineStr"/>
-      <c r="B25" s="21" t="inlineStr"/>
-      <c r="C25" s="21" t="inlineStr"/>
-      <c r="D25" s="21" t="inlineStr"/>
-      <c r="E25" s="21" t="inlineStr"/>
-      <c r="F25" s="21" t="inlineStr"/>
-      <c r="G25" s="21" t="inlineStr"/>
-      <c r="H25" s="21" t="inlineStr"/>
+      <c r="A25" s="21" t="inlineStr"/>
+      <c r="B25" s="22" t="inlineStr"/>
+      <c r="C25" s="22" t="inlineStr"/>
+      <c r="D25" s="22" t="inlineStr"/>
+      <c r="E25" s="22" t="inlineStr"/>
+      <c r="F25" s="22" t="inlineStr"/>
+      <c r="G25" s="22" t="inlineStr"/>
+      <c r="H25" s="22" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="inlineStr"/>
-      <c r="B26" s="19" t="inlineStr"/>
-      <c r="C26" s="19" t="inlineStr"/>
-      <c r="D26" s="19" t="inlineStr"/>
-      <c r="E26" s="19" t="inlineStr"/>
-      <c r="F26" s="19" t="inlineStr"/>
-      <c r="G26" s="19" t="inlineStr"/>
-      <c r="H26" s="19" t="inlineStr"/>
+      <c r="A26" s="19" t="inlineStr"/>
+      <c r="B26" s="20" t="inlineStr"/>
+      <c r="C26" s="20" t="inlineStr"/>
+      <c r="D26" s="20" t="inlineStr"/>
+      <c r="E26" s="20" t="inlineStr"/>
+      <c r="F26" s="20" t="inlineStr"/>
+      <c r="G26" s="20" t="inlineStr"/>
+      <c r="H26" s="20" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="20" t="inlineStr"/>
-      <c r="B27" s="21" t="inlineStr"/>
-      <c r="C27" s="21" t="inlineStr"/>
-      <c r="D27" s="21" t="inlineStr"/>
-      <c r="E27" s="21" t="inlineStr"/>
-      <c r="F27" s="21" t="inlineStr"/>
-      <c r="G27" s="21" t="inlineStr"/>
-      <c r="H27" s="21" t="inlineStr"/>
+      <c r="A27" s="21" t="inlineStr"/>
+      <c r="B27" s="22" t="inlineStr"/>
+      <c r="C27" s="22" t="inlineStr"/>
+      <c r="D27" s="22" t="inlineStr"/>
+      <c r="E27" s="22" t="inlineStr"/>
+      <c r="F27" s="22" t="inlineStr"/>
+      <c r="G27" s="22" t="inlineStr"/>
+      <c r="H27" s="22" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="18" t="inlineStr"/>
-      <c r="B28" s="19" t="inlineStr"/>
-      <c r="C28" s="19" t="inlineStr"/>
-      <c r="D28" s="19" t="inlineStr"/>
-      <c r="E28" s="19" t="inlineStr"/>
-      <c r="F28" s="19" t="inlineStr"/>
-      <c r="G28" s="19" t="inlineStr"/>
-      <c r="H28" s="19" t="inlineStr"/>
+      <c r="A28" s="19" t="inlineStr"/>
+      <c r="B28" s="20" t="inlineStr"/>
+      <c r="C28" s="20" t="inlineStr"/>
+      <c r="D28" s="20" t="inlineStr"/>
+      <c r="E28" s="20" t="inlineStr"/>
+      <c r="F28" s="20" t="inlineStr"/>
+      <c r="G28" s="20" t="inlineStr"/>
+      <c r="H28" s="20" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="inlineStr"/>
-      <c r="B29" s="21" t="inlineStr"/>
-      <c r="C29" s="21" t="inlineStr"/>
-      <c r="D29" s="21" t="inlineStr"/>
-      <c r="E29" s="21" t="inlineStr"/>
-      <c r="F29" s="21" t="inlineStr"/>
-      <c r="G29" s="21" t="inlineStr"/>
-      <c r="H29" s="21" t="inlineStr"/>
+      <c r="A29" s="21" t="inlineStr"/>
+      <c r="B29" s="22" t="inlineStr"/>
+      <c r="C29" s="22" t="inlineStr"/>
+      <c r="D29" s="22" t="inlineStr"/>
+      <c r="E29" s="22" t="inlineStr"/>
+      <c r="F29" s="22" t="inlineStr"/>
+      <c r="G29" s="22" t="inlineStr"/>
+      <c r="H29" s="22" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="18" t="inlineStr"/>
-      <c r="B30" s="19" t="inlineStr"/>
-      <c r="C30" s="19" t="inlineStr"/>
-      <c r="D30" s="19" t="inlineStr"/>
-      <c r="E30" s="19" t="inlineStr"/>
-      <c r="F30" s="19" t="inlineStr"/>
-      <c r="G30" s="19" t="inlineStr"/>
-      <c r="H30" s="19" t="inlineStr"/>
+      <c r="A30" s="19" t="inlineStr"/>
+      <c r="B30" s="20" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
+      <c r="D30" s="20" t="inlineStr"/>
+      <c r="E30" s="20" t="inlineStr"/>
+      <c r="F30" s="20" t="inlineStr"/>
+      <c r="G30" s="20" t="inlineStr"/>
+      <c r="H30" s="20" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="20" t="inlineStr"/>
-      <c r="B31" s="21" t="inlineStr"/>
-      <c r="C31" s="21" t="inlineStr"/>
-      <c r="D31" s="21" t="inlineStr"/>
-      <c r="E31" s="21" t="inlineStr"/>
-      <c r="F31" s="21" t="inlineStr"/>
-      <c r="G31" s="21" t="inlineStr"/>
-      <c r="H31" s="21" t="inlineStr"/>
+      <c r="A31" s="21" t="inlineStr"/>
+      <c r="B31" s="22" t="inlineStr"/>
+      <c r="C31" s="22" t="inlineStr"/>
+      <c r="D31" s="22" t="inlineStr"/>
+      <c r="E31" s="22" t="inlineStr"/>
+      <c r="F31" s="22" t="inlineStr"/>
+      <c r="G31" s="22" t="inlineStr"/>
+      <c r="H31" s="22" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="18" t="inlineStr"/>
-      <c r="B32" s="19" t="inlineStr"/>
-      <c r="C32" s="19" t="inlineStr"/>
-      <c r="D32" s="19" t="inlineStr"/>
-      <c r="E32" s="19" t="inlineStr"/>
-      <c r="F32" s="19" t="inlineStr"/>
-      <c r="G32" s="19" t="inlineStr"/>
-      <c r="H32" s="19" t="inlineStr"/>
+      <c r="A32" s="19" t="inlineStr"/>
+      <c r="B32" s="20" t="inlineStr"/>
+      <c r="C32" s="20" t="inlineStr"/>
+      <c r="D32" s="20" t="inlineStr"/>
+      <c r="E32" s="20" t="inlineStr"/>
+      <c r="F32" s="20" t="inlineStr"/>
+      <c r="G32" s="20" t="inlineStr"/>
+      <c r="H32" s="20" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="20" t="inlineStr"/>
-      <c r="B33" s="21" t="inlineStr"/>
-      <c r="C33" s="21" t="inlineStr"/>
-      <c r="D33" s="21" t="inlineStr"/>
-      <c r="E33" s="21" t="inlineStr"/>
-      <c r="F33" s="21" t="inlineStr"/>
-      <c r="G33" s="21" t="inlineStr"/>
-      <c r="H33" s="21" t="inlineStr"/>
+      <c r="A33" s="21" t="inlineStr"/>
+      <c r="B33" s="22" t="inlineStr"/>
+      <c r="C33" s="22" t="inlineStr"/>
+      <c r="D33" s="22" t="inlineStr"/>
+      <c r="E33" s="22" t="inlineStr"/>
+      <c r="F33" s="22" t="inlineStr"/>
+      <c r="G33" s="22" t="inlineStr"/>
+      <c r="H33" s="22" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="18" t="inlineStr"/>
-      <c r="B34" s="19" t="inlineStr"/>
-      <c r="C34" s="19" t="inlineStr"/>
-      <c r="D34" s="19" t="inlineStr"/>
-      <c r="E34" s="19" t="inlineStr"/>
-      <c r="F34" s="19" t="inlineStr"/>
-      <c r="G34" s="19" t="inlineStr"/>
-      <c r="H34" s="19" t="inlineStr"/>
+      <c r="A34" s="19" t="inlineStr"/>
+      <c r="B34" s="20" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
+      <c r="D34" s="20" t="inlineStr"/>
+      <c r="E34" s="20" t="inlineStr"/>
+      <c r="F34" s="20" t="inlineStr"/>
+      <c r="G34" s="20" t="inlineStr"/>
+      <c r="H34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="20" t="inlineStr"/>
-      <c r="B35" s="21" t="inlineStr"/>
-      <c r="C35" s="21" t="inlineStr"/>
-      <c r="D35" s="21" t="inlineStr"/>
-      <c r="E35" s="21" t="inlineStr"/>
-      <c r="F35" s="21" t="inlineStr"/>
-      <c r="G35" s="21" t="inlineStr"/>
-      <c r="H35" s="21" t="inlineStr"/>
+      <c r="A35" s="21" t="inlineStr"/>
+      <c r="B35" s="22" t="inlineStr"/>
+      <c r="C35" s="22" t="inlineStr"/>
+      <c r="D35" s="22" t="inlineStr"/>
+      <c r="E35" s="22" t="inlineStr"/>
+      <c r="F35" s="22" t="inlineStr"/>
+      <c r="G35" s="22" t="inlineStr"/>
+      <c r="H35" s="22" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="18" t="inlineStr"/>
-      <c r="B36" s="19" t="inlineStr"/>
-      <c r="C36" s="19" t="inlineStr"/>
-      <c r="D36" s="19" t="inlineStr"/>
-      <c r="E36" s="19" t="inlineStr"/>
-      <c r="F36" s="19" t="inlineStr"/>
-      <c r="G36" s="19" t="inlineStr"/>
-      <c r="H36" s="19" t="inlineStr"/>
+      <c r="A36" s="19" t="inlineStr"/>
+      <c r="B36" s="20" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
+      <c r="D36" s="20" t="inlineStr"/>
+      <c r="E36" s="20" t="inlineStr"/>
+      <c r="F36" s="20" t="inlineStr"/>
+      <c r="G36" s="20" t="inlineStr"/>
+      <c r="H36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="20" t="inlineStr"/>
-      <c r="B37" s="21" t="inlineStr"/>
-      <c r="C37" s="21" t="inlineStr"/>
-      <c r="D37" s="21" t="inlineStr"/>
-      <c r="E37" s="21" t="inlineStr"/>
-      <c r="F37" s="21" t="inlineStr"/>
-      <c r="G37" s="21" t="inlineStr"/>
-      <c r="H37" s="21" t="inlineStr"/>
+      <c r="A37" s="21" t="inlineStr"/>
+      <c r="B37" s="22" t="inlineStr"/>
+      <c r="C37" s="22" t="inlineStr"/>
+      <c r="D37" s="22" t="inlineStr"/>
+      <c r="E37" s="22" t="inlineStr"/>
+      <c r="F37" s="22" t="inlineStr"/>
+      <c r="G37" s="22" t="inlineStr"/>
+      <c r="H37" s="22" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="18" t="inlineStr"/>
-      <c r="B38" s="19" t="inlineStr"/>
-      <c r="C38" s="19" t="inlineStr"/>
-      <c r="D38" s="19" t="inlineStr"/>
-      <c r="E38" s="19" t="inlineStr"/>
-      <c r="F38" s="19" t="inlineStr"/>
-      <c r="G38" s="19" t="inlineStr"/>
-      <c r="H38" s="19" t="inlineStr"/>
+      <c r="A38" s="19" t="inlineStr"/>
+      <c r="B38" s="20" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
+      <c r="D38" s="20" t="inlineStr"/>
+      <c r="E38" s="20" t="inlineStr"/>
+      <c r="F38" s="20" t="inlineStr"/>
+      <c r="G38" s="20" t="inlineStr"/>
+      <c r="H38" s="20" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="20" t="inlineStr"/>
-      <c r="B39" s="21" t="inlineStr"/>
-      <c r="C39" s="21" t="inlineStr"/>
-      <c r="D39" s="21" t="inlineStr"/>
-      <c r="E39" s="21" t="inlineStr"/>
-      <c r="F39" s="21" t="inlineStr"/>
-      <c r="G39" s="21" t="inlineStr"/>
-      <c r="H39" s="21" t="inlineStr"/>
+      <c r="A39" s="21" t="inlineStr"/>
+      <c r="B39" s="22" t="inlineStr"/>
+      <c r="C39" s="22" t="inlineStr"/>
+      <c r="D39" s="22" t="inlineStr"/>
+      <c r="E39" s="22" t="inlineStr"/>
+      <c r="F39" s="22" t="inlineStr"/>
+      <c r="G39" s="22" t="inlineStr"/>
+      <c r="H39" s="22" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="18" t="inlineStr"/>
-      <c r="B40" s="19" t="inlineStr"/>
-      <c r="C40" s="19" t="inlineStr"/>
-      <c r="D40" s="19" t="inlineStr"/>
-      <c r="E40" s="19" t="inlineStr"/>
-      <c r="F40" s="19" t="inlineStr"/>
-      <c r="G40" s="19" t="inlineStr"/>
-      <c r="H40" s="19" t="inlineStr"/>
+      <c r="A40" s="19" t="inlineStr"/>
+      <c r="B40" s="20" t="inlineStr"/>
+      <c r="C40" s="20" t="inlineStr"/>
+      <c r="D40" s="20" t="inlineStr"/>
+      <c r="E40" s="20" t="inlineStr"/>
+      <c r="F40" s="20" t="inlineStr"/>
+      <c r="G40" s="20" t="inlineStr"/>
+      <c r="H40" s="20" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="20" t="inlineStr"/>
-      <c r="B41" s="21" t="inlineStr"/>
-      <c r="C41" s="21" t="inlineStr"/>
-      <c r="D41" s="21" t="inlineStr"/>
-      <c r="E41" s="21" t="inlineStr"/>
-      <c r="F41" s="21" t="inlineStr"/>
-      <c r="G41" s="21" t="inlineStr"/>
-      <c r="H41" s="21" t="inlineStr"/>
+      <c r="A41" s="21" t="inlineStr"/>
+      <c r="B41" s="22" t="inlineStr"/>
+      <c r="C41" s="22" t="inlineStr"/>
+      <c r="D41" s="22" t="inlineStr"/>
+      <c r="E41" s="22" t="inlineStr"/>
+      <c r="F41" s="22" t="inlineStr"/>
+      <c r="G41" s="22" t="inlineStr"/>
+      <c r="H41" s="22" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="18" t="inlineStr"/>
-      <c r="B42" s="19" t="inlineStr"/>
-      <c r="C42" s="19" t="inlineStr"/>
-      <c r="D42" s="19" t="inlineStr"/>
-      <c r="E42" s="19" t="inlineStr"/>
-      <c r="F42" s="19" t="inlineStr"/>
-      <c r="G42" s="19" t="inlineStr"/>
-      <c r="H42" s="19" t="inlineStr"/>
+      <c r="A42" s="19" t="inlineStr"/>
+      <c r="B42" s="20" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
+      <c r="D42" s="20" t="inlineStr"/>
+      <c r="E42" s="20" t="inlineStr"/>
+      <c r="F42" s="20" t="inlineStr"/>
+      <c r="G42" s="20" t="inlineStr"/>
+      <c r="H42" s="20" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="20" t="inlineStr"/>
-      <c r="B43" s="21" t="inlineStr"/>
-      <c r="C43" s="21" t="inlineStr"/>
-      <c r="D43" s="21" t="inlineStr"/>
-      <c r="E43" s="21" t="inlineStr"/>
-      <c r="F43" s="21" t="inlineStr"/>
-      <c r="G43" s="21" t="inlineStr"/>
-      <c r="H43" s="21" t="inlineStr"/>
+      <c r="A43" s="21" t="inlineStr"/>
+      <c r="B43" s="22" t="inlineStr"/>
+      <c r="C43" s="22" t="inlineStr"/>
+      <c r="D43" s="22" t="inlineStr"/>
+      <c r="E43" s="22" t="inlineStr"/>
+      <c r="F43" s="22" t="inlineStr"/>
+      <c r="G43" s="22" t="inlineStr"/>
+      <c r="H43" s="22" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="18" t="inlineStr"/>
-      <c r="B44" s="19" t="inlineStr"/>
-      <c r="C44" s="19" t="inlineStr"/>
-      <c r="D44" s="19" t="inlineStr"/>
-      <c r="E44" s="19" t="inlineStr"/>
-      <c r="F44" s="19" t="inlineStr"/>
-      <c r="G44" s="19" t="inlineStr"/>
-      <c r="H44" s="19" t="inlineStr"/>
+      <c r="A44" s="19" t="inlineStr"/>
+      <c r="B44" s="20" t="inlineStr"/>
+      <c r="C44" s="20" t="inlineStr"/>
+      <c r="D44" s="20" t="inlineStr"/>
+      <c r="E44" s="20" t="inlineStr"/>
+      <c r="F44" s="20" t="inlineStr"/>
+      <c r="G44" s="20" t="inlineStr"/>
+      <c r="H44" s="20" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="20" t="inlineStr"/>
-      <c r="B45" s="21" t="inlineStr"/>
-      <c r="C45" s="21" t="inlineStr"/>
-      <c r="D45" s="21" t="inlineStr"/>
-      <c r="E45" s="21" t="inlineStr"/>
-      <c r="F45" s="21" t="inlineStr"/>
-      <c r="G45" s="21" t="inlineStr"/>
-      <c r="H45" s="21" t="inlineStr"/>
+      <c r="A45" s="21" t="inlineStr"/>
+      <c r="B45" s="22" t="inlineStr"/>
+      <c r="C45" s="22" t="inlineStr"/>
+      <c r="D45" s="22" t="inlineStr"/>
+      <c r="E45" s="22" t="inlineStr"/>
+      <c r="F45" s="22" t="inlineStr"/>
+      <c r="G45" s="22" t="inlineStr"/>
+      <c r="H45" s="22" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="18" t="inlineStr"/>
-      <c r="B46" s="19" t="inlineStr"/>
-      <c r="C46" s="19" t="inlineStr"/>
-      <c r="D46" s="19" t="inlineStr"/>
-      <c r="E46" s="19" t="inlineStr"/>
-      <c r="F46" s="19" t="inlineStr"/>
-      <c r="G46" s="19" t="inlineStr"/>
-      <c r="H46" s="19" t="inlineStr"/>
+      <c r="A46" s="19" t="inlineStr"/>
+      <c r="B46" s="20" t="inlineStr"/>
+      <c r="C46" s="20" t="inlineStr"/>
+      <c r="D46" s="20" t="inlineStr"/>
+      <c r="E46" s="20" t="inlineStr"/>
+      <c r="F46" s="20" t="inlineStr"/>
+      <c r="G46" s="20" t="inlineStr"/>
+      <c r="H46" s="20" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="20" t="inlineStr"/>
-      <c r="B47" s="21" t="inlineStr"/>
-      <c r="C47" s="21" t="inlineStr"/>
-      <c r="D47" s="21" t="inlineStr"/>
-      <c r="E47" s="21" t="inlineStr"/>
-      <c r="F47" s="21" t="inlineStr"/>
-      <c r="G47" s="21" t="inlineStr"/>
-      <c r="H47" s="21" t="inlineStr"/>
+      <c r="A47" s="21" t="inlineStr"/>
+      <c r="B47" s="22" t="inlineStr"/>
+      <c r="C47" s="22" t="inlineStr"/>
+      <c r="D47" s="22" t="inlineStr"/>
+      <c r="E47" s="22" t="inlineStr"/>
+      <c r="F47" s="22" t="inlineStr"/>
+      <c r="G47" s="22" t="inlineStr"/>
+      <c r="H47" s="22" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="18" t="inlineStr"/>
-      <c r="B48" s="19" t="inlineStr"/>
-      <c r="C48" s="19" t="inlineStr"/>
-      <c r="D48" s="19" t="inlineStr"/>
-      <c r="E48" s="19" t="inlineStr"/>
-      <c r="F48" s="19" t="inlineStr"/>
-      <c r="G48" s="19" t="inlineStr"/>
-      <c r="H48" s="19" t="inlineStr"/>
+      <c r="A48" s="19" t="inlineStr"/>
+      <c r="B48" s="20" t="inlineStr"/>
+      <c r="C48" s="20" t="inlineStr"/>
+      <c r="D48" s="20" t="inlineStr"/>
+      <c r="E48" s="20" t="inlineStr"/>
+      <c r="F48" s="20" t="inlineStr"/>
+      <c r="G48" s="20" t="inlineStr"/>
+      <c r="H48" s="20" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="20" t="inlineStr"/>
-      <c r="B49" s="21" t="inlineStr"/>
-      <c r="C49" s="21" t="inlineStr"/>
-      <c r="D49" s="21" t="inlineStr"/>
-      <c r="E49" s="21" t="inlineStr"/>
-      <c r="F49" s="21" t="inlineStr"/>
-      <c r="G49" s="21" t="inlineStr"/>
-      <c r="H49" s="21" t="inlineStr"/>
+      <c r="A49" s="21" t="inlineStr"/>
+      <c r="B49" s="22" t="inlineStr"/>
+      <c r="C49" s="22" t="inlineStr"/>
+      <c r="D49" s="22" t="inlineStr"/>
+      <c r="E49" s="22" t="inlineStr"/>
+      <c r="F49" s="22" t="inlineStr"/>
+      <c r="G49" s="22" t="inlineStr"/>
+      <c r="H49" s="22" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="18" t="inlineStr"/>
-      <c r="B50" s="19" t="inlineStr"/>
-      <c r="C50" s="19" t="inlineStr"/>
-      <c r="D50" s="19" t="inlineStr"/>
-      <c r="E50" s="19" t="inlineStr"/>
-      <c r="F50" s="19" t="inlineStr"/>
-      <c r="G50" s="19" t="inlineStr"/>
-      <c r="H50" s="19" t="inlineStr"/>
+      <c r="A50" s="19" t="inlineStr"/>
+      <c r="B50" s="20" t="inlineStr"/>
+      <c r="C50" s="20" t="inlineStr"/>
+      <c r="D50" s="20" t="inlineStr"/>
+      <c r="E50" s="20" t="inlineStr"/>
+      <c r="F50" s="20" t="inlineStr"/>
+      <c r="G50" s="20" t="inlineStr"/>
+      <c r="H50" s="20" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="20" t="inlineStr"/>
-      <c r="B51" s="21" t="inlineStr"/>
-      <c r="C51" s="21" t="inlineStr"/>
-      <c r="D51" s="21" t="inlineStr"/>
-      <c r="E51" s="21" t="inlineStr"/>
-      <c r="F51" s="21" t="inlineStr"/>
-      <c r="G51" s="21" t="inlineStr"/>
-      <c r="H51" s="21" t="inlineStr"/>
+      <c r="A51" s="21" t="inlineStr"/>
+      <c r="B51" s="22" t="inlineStr"/>
+      <c r="C51" s="22" t="inlineStr"/>
+      <c r="D51" s="22" t="inlineStr"/>
+      <c r="E51" s="22" t="inlineStr"/>
+      <c r="F51" s="22" t="inlineStr"/>
+      <c r="G51" s="22" t="inlineStr"/>
+      <c r="H51" s="22" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="18" t="inlineStr"/>
-      <c r="B52" s="19" t="inlineStr"/>
-      <c r="C52" s="19" t="inlineStr"/>
-      <c r="D52" s="19" t="inlineStr"/>
-      <c r="E52" s="19" t="inlineStr"/>
-      <c r="F52" s="19" t="inlineStr"/>
-      <c r="G52" s="19" t="inlineStr"/>
-      <c r="H52" s="19" t="inlineStr"/>
+      <c r="A52" s="19" t="inlineStr"/>
+      <c r="B52" s="20" t="inlineStr"/>
+      <c r="C52" s="20" t="inlineStr"/>
+      <c r="D52" s="20" t="inlineStr"/>
+      <c r="E52" s="20" t="inlineStr"/>
+      <c r="F52" s="20" t="inlineStr"/>
+      <c r="G52" s="20" t="inlineStr"/>
+      <c r="H52" s="20" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="20" t="inlineStr"/>
-      <c r="B53" s="21" t="inlineStr"/>
-      <c r="C53" s="21" t="inlineStr"/>
-      <c r="D53" s="21" t="inlineStr"/>
-      <c r="E53" s="21" t="inlineStr"/>
-      <c r="F53" s="21" t="inlineStr"/>
-      <c r="G53" s="21" t="inlineStr"/>
-      <c r="H53" s="21" t="inlineStr"/>
+      <c r="A53" s="21" t="inlineStr"/>
+      <c r="B53" s="22" t="inlineStr"/>
+      <c r="C53" s="22" t="inlineStr"/>
+      <c r="D53" s="22" t="inlineStr"/>
+      <c r="E53" s="22" t="inlineStr"/>
+      <c r="F53" s="22" t="inlineStr"/>
+      <c r="G53" s="22" t="inlineStr"/>
+      <c r="H53" s="22" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="18" t="inlineStr"/>
-      <c r="B54" s="19" t="inlineStr"/>
-      <c r="C54" s="19" t="inlineStr"/>
-      <c r="D54" s="19" t="inlineStr"/>
-      <c r="E54" s="19" t="inlineStr"/>
-      <c r="F54" s="19" t="inlineStr"/>
-      <c r="G54" s="19" t="inlineStr"/>
-      <c r="H54" s="19" t="inlineStr"/>
+      <c r="A54" s="19" t="inlineStr"/>
+      <c r="B54" s="20" t="inlineStr"/>
+      <c r="C54" s="20" t="inlineStr"/>
+      <c r="D54" s="20" t="inlineStr"/>
+      <c r="E54" s="20" t="inlineStr"/>
+      <c r="F54" s="20" t="inlineStr"/>
+      <c r="G54" s="20" t="inlineStr"/>
+      <c r="H54" s="20" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="20" t="inlineStr"/>
-      <c r="B55" s="21" t="inlineStr"/>
-      <c r="C55" s="21" t="inlineStr"/>
-      <c r="D55" s="21" t="inlineStr"/>
-      <c r="E55" s="21" t="inlineStr"/>
-      <c r="F55" s="21" t="inlineStr"/>
-      <c r="G55" s="21" t="inlineStr"/>
-      <c r="H55" s="21" t="inlineStr"/>
+      <c r="A55" s="21" t="inlineStr"/>
+      <c r="B55" s="22" t="inlineStr"/>
+      <c r="C55" s="22" t="inlineStr"/>
+      <c r="D55" s="22" t="inlineStr"/>
+      <c r="E55" s="22" t="inlineStr"/>
+      <c r="F55" s="22" t="inlineStr"/>
+      <c r="G55" s="22" t="inlineStr"/>
+      <c r="H55" s="22" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="18" t="inlineStr"/>
-      <c r="B56" s="19" t="inlineStr"/>
-      <c r="C56" s="19" t="inlineStr"/>
-      <c r="D56" s="19" t="inlineStr"/>
-      <c r="E56" s="19" t="inlineStr"/>
-      <c r="F56" s="19" t="inlineStr"/>
-      <c r="G56" s="19" t="inlineStr"/>
-      <c r="H56" s="19" t="inlineStr"/>
+      <c r="A56" s="19" t="inlineStr"/>
+      <c r="B56" s="20" t="inlineStr"/>
+      <c r="C56" s="20" t="inlineStr"/>
+      <c r="D56" s="20" t="inlineStr"/>
+      <c r="E56" s="20" t="inlineStr"/>
+      <c r="F56" s="20" t="inlineStr"/>
+      <c r="G56" s="20" t="inlineStr"/>
+      <c r="H56" s="20" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="20" t="inlineStr"/>
-      <c r="B57" s="21" t="inlineStr"/>
-      <c r="C57" s="21" t="inlineStr"/>
-      <c r="D57" s="21" t="inlineStr"/>
-      <c r="E57" s="21" t="inlineStr"/>
-      <c r="F57" s="21" t="inlineStr"/>
-      <c r="G57" s="21" t="inlineStr"/>
-      <c r="H57" s="21" t="inlineStr"/>
+      <c r="A57" s="21" t="inlineStr"/>
+      <c r="B57" s="22" t="inlineStr"/>
+      <c r="C57" s="22" t="inlineStr"/>
+      <c r="D57" s="22" t="inlineStr"/>
+      <c r="E57" s="22" t="inlineStr"/>
+      <c r="F57" s="22" t="inlineStr"/>
+      <c r="G57" s="22" t="inlineStr"/>
+      <c r="H57" s="22" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="18" t="inlineStr"/>
-      <c r="B58" s="19" t="inlineStr"/>
-      <c r="C58" s="19" t="inlineStr"/>
-      <c r="D58" s="19" t="inlineStr"/>
-      <c r="E58" s="19" t="inlineStr"/>
-      <c r="F58" s="19" t="inlineStr"/>
-      <c r="G58" s="19" t="inlineStr"/>
-      <c r="H58" s="19" t="inlineStr"/>
+      <c r="A58" s="19" t="inlineStr"/>
+      <c r="B58" s="20" t="inlineStr"/>
+      <c r="C58" s="20" t="inlineStr"/>
+      <c r="D58" s="20" t="inlineStr"/>
+      <c r="E58" s="20" t="inlineStr"/>
+      <c r="F58" s="20" t="inlineStr"/>
+      <c r="G58" s="20" t="inlineStr"/>
+      <c r="H58" s="20" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="20" t="inlineStr"/>
-      <c r="B59" s="21" t="inlineStr"/>
-      <c r="C59" s="21" t="inlineStr"/>
-      <c r="D59" s="21" t="inlineStr"/>
-      <c r="E59" s="21" t="inlineStr"/>
-      <c r="F59" s="21" t="inlineStr"/>
-      <c r="G59" s="21" t="inlineStr"/>
-      <c r="H59" s="21" t="inlineStr"/>
+      <c r="A59" s="21" t="inlineStr"/>
+      <c r="B59" s="22" t="inlineStr"/>
+      <c r="C59" s="22" t="inlineStr"/>
+      <c r="D59" s="22" t="inlineStr"/>
+      <c r="E59" s="22" t="inlineStr"/>
+      <c r="F59" s="22" t="inlineStr"/>
+      <c r="G59" s="22" t="inlineStr"/>
+      <c r="H59" s="22" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="18" t="inlineStr"/>
-      <c r="B60" s="19" t="inlineStr"/>
-      <c r="C60" s="19" t="inlineStr"/>
-      <c r="D60" s="19" t="inlineStr"/>
-      <c r="E60" s="19" t="inlineStr"/>
-      <c r="F60" s="19" t="inlineStr"/>
-      <c r="G60" s="19" t="inlineStr"/>
-      <c r="H60" s="19" t="inlineStr"/>
+      <c r="A60" s="19" t="inlineStr"/>
+      <c r="B60" s="20" t="inlineStr"/>
+      <c r="C60" s="20" t="inlineStr"/>
+      <c r="D60" s="20" t="inlineStr"/>
+      <c r="E60" s="20" t="inlineStr"/>
+      <c r="F60" s="20" t="inlineStr"/>
+      <c r="G60" s="20" t="inlineStr"/>
+      <c r="H60" s="20" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="20" t="inlineStr"/>
-      <c r="B61" s="21" t="inlineStr"/>
-      <c r="C61" s="21" t="inlineStr"/>
-      <c r="D61" s="21" t="inlineStr"/>
-      <c r="E61" s="21" t="inlineStr"/>
-      <c r="F61" s="21" t="inlineStr"/>
-      <c r="G61" s="21" t="inlineStr"/>
-      <c r="H61" s="21" t="inlineStr"/>
+      <c r="A61" s="21" t="inlineStr"/>
+      <c r="B61" s="22" t="inlineStr"/>
+      <c r="C61" s="22" t="inlineStr"/>
+      <c r="D61" s="22" t="inlineStr"/>
+      <c r="E61" s="22" t="inlineStr"/>
+      <c r="F61" s="22" t="inlineStr"/>
+      <c r="G61" s="22" t="inlineStr"/>
+      <c r="H61" s="22" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="18" t="inlineStr"/>
-      <c r="B62" s="19" t="inlineStr"/>
-      <c r="C62" s="19" t="inlineStr"/>
-      <c r="D62" s="19" t="inlineStr"/>
-      <c r="E62" s="19" t="inlineStr"/>
-      <c r="F62" s="19" t="inlineStr"/>
-      <c r="G62" s="19" t="inlineStr"/>
-      <c r="H62" s="19" t="inlineStr"/>
+      <c r="A62" s="19" t="inlineStr"/>
+      <c r="B62" s="20" t="inlineStr"/>
+      <c r="C62" s="20" t="inlineStr"/>
+      <c r="D62" s="20" t="inlineStr"/>
+      <c r="E62" s="20" t="inlineStr"/>
+      <c r="F62" s="20" t="inlineStr"/>
+      <c r="G62" s="20" t="inlineStr"/>
+      <c r="H62" s="20" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="20" t="inlineStr"/>
-      <c r="B63" s="21" t="inlineStr"/>
-      <c r="C63" s="21" t="inlineStr"/>
-      <c r="D63" s="21" t="inlineStr"/>
-      <c r="E63" s="21" t="inlineStr"/>
-      <c r="F63" s="21" t="inlineStr"/>
-      <c r="G63" s="21" t="inlineStr"/>
-      <c r="H63" s="21" t="inlineStr"/>
+      <c r="A63" s="21" t="inlineStr"/>
+      <c r="B63" s="22" t="inlineStr"/>
+      <c r="C63" s="22" t="inlineStr"/>
+      <c r="D63" s="22" t="inlineStr"/>
+      <c r="E63" s="22" t="inlineStr"/>
+      <c r="F63" s="22" t="inlineStr"/>
+      <c r="G63" s="22" t="inlineStr"/>
+      <c r="H63" s="22" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="18" t="inlineStr"/>
-      <c r="B64" s="19" t="inlineStr"/>
-      <c r="C64" s="19" t="inlineStr"/>
-      <c r="D64" s="19" t="inlineStr"/>
-      <c r="E64" s="19" t="inlineStr"/>
-      <c r="F64" s="19" t="inlineStr"/>
-      <c r="G64" s="19" t="inlineStr"/>
-      <c r="H64" s="19" t="inlineStr"/>
+      <c r="A64" s="19" t="inlineStr"/>
+      <c r="B64" s="20" t="inlineStr"/>
+      <c r="C64" s="20" t="inlineStr"/>
+      <c r="D64" s="20" t="inlineStr"/>
+      <c r="E64" s="20" t="inlineStr"/>
+      <c r="F64" s="20" t="inlineStr"/>
+      <c r="G64" s="20" t="inlineStr"/>
+      <c r="H64" s="20" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="20" t="inlineStr"/>
-      <c r="B65" s="21" t="inlineStr"/>
-      <c r="C65" s="21" t="inlineStr"/>
-      <c r="D65" s="21" t="inlineStr"/>
-      <c r="E65" s="21" t="inlineStr"/>
-      <c r="F65" s="21" t="inlineStr"/>
-      <c r="G65" s="21" t="inlineStr"/>
-      <c r="H65" s="21" t="inlineStr"/>
+      <c r="A65" s="21" t="inlineStr"/>
+      <c r="B65" s="22" t="inlineStr"/>
+      <c r="C65" s="22" t="inlineStr"/>
+      <c r="D65" s="22" t="inlineStr"/>
+      <c r="E65" s="22" t="inlineStr"/>
+      <c r="F65" s="22" t="inlineStr"/>
+      <c r="G65" s="22" t="inlineStr"/>
+      <c r="H65" s="22" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="18" t="inlineStr"/>
-      <c r="B66" s="19" t="inlineStr"/>
-      <c r="C66" s="19" t="inlineStr"/>
-      <c r="D66" s="19" t="inlineStr"/>
-      <c r="E66" s="19" t="inlineStr"/>
-      <c r="F66" s="19" t="inlineStr"/>
-      <c r="G66" s="19" t="inlineStr"/>
-      <c r="H66" s="19" t="inlineStr"/>
+      <c r="A66" s="19" t="inlineStr"/>
+      <c r="B66" s="20" t="inlineStr"/>
+      <c r="C66" s="20" t="inlineStr"/>
+      <c r="D66" s="20" t="inlineStr"/>
+      <c r="E66" s="20" t="inlineStr"/>
+      <c r="F66" s="20" t="inlineStr"/>
+      <c r="G66" s="20" t="inlineStr"/>
+      <c r="H66" s="20" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="20" t="inlineStr"/>
-      <c r="B67" s="21" t="inlineStr"/>
-      <c r="C67" s="21" t="inlineStr"/>
-      <c r="D67" s="21" t="inlineStr"/>
-      <c r="E67" s="21" t="inlineStr"/>
-      <c r="F67" s="21" t="inlineStr"/>
-      <c r="G67" s="21" t="inlineStr"/>
-      <c r="H67" s="21" t="inlineStr"/>
+      <c r="A67" s="21" t="inlineStr"/>
+      <c r="B67" s="22" t="inlineStr"/>
+      <c r="C67" s="22" t="inlineStr"/>
+      <c r="D67" s="22" t="inlineStr"/>
+      <c r="E67" s="22" t="inlineStr"/>
+      <c r="F67" s="22" t="inlineStr"/>
+      <c r="G67" s="22" t="inlineStr"/>
+      <c r="H67" s="22" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="18" t="inlineStr"/>
-      <c r="B68" s="19" t="inlineStr"/>
-      <c r="C68" s="19" t="inlineStr"/>
-      <c r="D68" s="19" t="inlineStr"/>
-      <c r="E68" s="19" t="inlineStr"/>
-      <c r="F68" s="19" t="inlineStr"/>
-      <c r="G68" s="19" t="inlineStr"/>
-      <c r="H68" s="19" t="inlineStr"/>
+      <c r="A68" s="19" t="inlineStr"/>
+      <c r="B68" s="20" t="inlineStr"/>
+      <c r="C68" s="20" t="inlineStr"/>
+      <c r="D68" s="20" t="inlineStr"/>
+      <c r="E68" s="20" t="inlineStr"/>
+      <c r="F68" s="20" t="inlineStr"/>
+      <c r="G68" s="20" t="inlineStr"/>
+      <c r="H68" s="20" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="20" t="inlineStr"/>
-      <c r="B69" s="21" t="inlineStr"/>
-      <c r="C69" s="21" t="inlineStr"/>
-      <c r="D69" s="21" t="inlineStr"/>
-      <c r="E69" s="21" t="inlineStr"/>
-      <c r="F69" s="21" t="inlineStr"/>
-      <c r="G69" s="21" t="inlineStr"/>
-      <c r="H69" s="21" t="inlineStr"/>
+      <c r="A69" s="21" t="inlineStr"/>
+      <c r="B69" s="22" t="inlineStr"/>
+      <c r="C69" s="22" t="inlineStr"/>
+      <c r="D69" s="22" t="inlineStr"/>
+      <c r="E69" s="22" t="inlineStr"/>
+      <c r="F69" s="22" t="inlineStr"/>
+      <c r="G69" s="22" t="inlineStr"/>
+      <c r="H69" s="22" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="18" t="inlineStr"/>
-      <c r="B70" s="19" t="inlineStr"/>
-      <c r="C70" s="19" t="inlineStr"/>
-      <c r="D70" s="19" t="inlineStr"/>
-      <c r="E70" s="19" t="inlineStr"/>
-      <c r="F70" s="19" t="inlineStr"/>
-      <c r="G70" s="19" t="inlineStr"/>
-      <c r="H70" s="19" t="inlineStr"/>
+      <c r="A70" s="19" t="inlineStr"/>
+      <c r="B70" s="20" t="inlineStr"/>
+      <c r="C70" s="20" t="inlineStr"/>
+      <c r="D70" s="20" t="inlineStr"/>
+      <c r="E70" s="20" t="inlineStr"/>
+      <c r="F70" s="20" t="inlineStr"/>
+      <c r="G70" s="20" t="inlineStr"/>
+      <c r="H70" s="20" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="20" t="inlineStr"/>
-      <c r="B71" s="21" t="inlineStr"/>
-      <c r="C71" s="21" t="inlineStr"/>
-      <c r="D71" s="21" t="inlineStr"/>
-      <c r="E71" s="21" t="inlineStr"/>
-      <c r="F71" s="21" t="inlineStr"/>
-      <c r="G71" s="21" t="inlineStr"/>
-      <c r="H71" s="21" t="inlineStr"/>
+      <c r="A71" s="21" t="inlineStr"/>
+      <c r="B71" s="22" t="inlineStr"/>
+      <c r="C71" s="22" t="inlineStr"/>
+      <c r="D71" s="22" t="inlineStr"/>
+      <c r="E71" s="22" t="inlineStr"/>
+      <c r="F71" s="22" t="inlineStr"/>
+      <c r="G71" s="22" t="inlineStr"/>
+      <c r="H71" s="22" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="18" t="inlineStr"/>
-      <c r="B72" s="19" t="inlineStr"/>
-      <c r="C72" s="19" t="inlineStr"/>
-      <c r="D72" s="19" t="inlineStr"/>
-      <c r="E72" s="19" t="inlineStr"/>
-      <c r="F72" s="19" t="inlineStr"/>
-      <c r="G72" s="19" t="inlineStr"/>
-      <c r="H72" s="19" t="inlineStr"/>
+      <c r="A72" s="19" t="inlineStr"/>
+      <c r="B72" s="20" t="inlineStr"/>
+      <c r="C72" s="20" t="inlineStr"/>
+      <c r="D72" s="20" t="inlineStr"/>
+      <c r="E72" s="20" t="inlineStr"/>
+      <c r="F72" s="20" t="inlineStr"/>
+      <c r="G72" s="20" t="inlineStr"/>
+      <c r="H72" s="20" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="20" t="inlineStr"/>
-      <c r="B73" s="21" t="inlineStr"/>
-      <c r="C73" s="21" t="inlineStr"/>
-      <c r="D73" s="21" t="inlineStr"/>
-      <c r="E73" s="21" t="inlineStr"/>
-      <c r="F73" s="21" t="inlineStr"/>
-      <c r="G73" s="21" t="inlineStr"/>
-      <c r="H73" s="21" t="inlineStr"/>
+      <c r="A73" s="21" t="inlineStr"/>
+      <c r="B73" s="22" t="inlineStr"/>
+      <c r="C73" s="22" t="inlineStr"/>
+      <c r="D73" s="22" t="inlineStr"/>
+      <c r="E73" s="22" t="inlineStr"/>
+      <c r="F73" s="22" t="inlineStr"/>
+      <c r="G73" s="22" t="inlineStr"/>
+      <c r="H73" s="22" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="18" t="inlineStr"/>
-      <c r="B74" s="19" t="inlineStr"/>
-      <c r="C74" s="19" t="inlineStr"/>
-      <c r="D74" s="19" t="inlineStr"/>
-      <c r="E74" s="19" t="inlineStr"/>
-      <c r="F74" s="19" t="inlineStr"/>
-      <c r="G74" s="19" t="inlineStr"/>
-      <c r="H74" s="19" t="inlineStr"/>
+      <c r="A74" s="19" t="inlineStr"/>
+      <c r="B74" s="20" t="inlineStr"/>
+      <c r="C74" s="20" t="inlineStr"/>
+      <c r="D74" s="20" t="inlineStr"/>
+      <c r="E74" s="20" t="inlineStr"/>
+      <c r="F74" s="20" t="inlineStr"/>
+      <c r="G74" s="20" t="inlineStr"/>
+      <c r="H74" s="20" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="20" t="inlineStr"/>
-      <c r="B75" s="21" t="inlineStr"/>
-      <c r="C75" s="21" t="inlineStr"/>
-      <c r="D75" s="21" t="inlineStr"/>
-      <c r="E75" s="21" t="inlineStr"/>
-      <c r="F75" s="21" t="inlineStr"/>
-      <c r="G75" s="21" t="inlineStr"/>
-      <c r="H75" s="21" t="inlineStr"/>
+      <c r="A75" s="21" t="inlineStr"/>
+      <c r="B75" s="22" t="inlineStr"/>
+      <c r="C75" s="22" t="inlineStr"/>
+      <c r="D75" s="22" t="inlineStr"/>
+      <c r="E75" s="22" t="inlineStr"/>
+      <c r="F75" s="22" t="inlineStr"/>
+      <c r="G75" s="22" t="inlineStr"/>
+      <c r="H75" s="22" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="18" t="inlineStr"/>
-      <c r="B76" s="19" t="inlineStr"/>
-      <c r="C76" s="19" t="inlineStr"/>
-      <c r="D76" s="19" t="inlineStr"/>
-      <c r="E76" s="19" t="inlineStr"/>
-      <c r="F76" s="19" t="inlineStr"/>
-      <c r="G76" s="19" t="inlineStr"/>
-      <c r="H76" s="19" t="inlineStr"/>
+      <c r="A76" s="19" t="inlineStr"/>
+      <c r="B76" s="20" t="inlineStr"/>
+      <c r="C76" s="20" t="inlineStr"/>
+      <c r="D76" s="20" t="inlineStr"/>
+      <c r="E76" s="20" t="inlineStr"/>
+      <c r="F76" s="20" t="inlineStr"/>
+      <c r="G76" s="20" t="inlineStr"/>
+      <c r="H76" s="20" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="20" t="inlineStr"/>
-      <c r="B77" s="21" t="inlineStr"/>
-      <c r="C77" s="21" t="inlineStr"/>
-      <c r="D77" s="21" t="inlineStr"/>
-      <c r="E77" s="21" t="inlineStr"/>
-      <c r="F77" s="21" t="inlineStr"/>
-      <c r="G77" s="21" t="inlineStr"/>
-      <c r="H77" s="21" t="inlineStr"/>
+      <c r="A77" s="21" t="inlineStr"/>
+      <c r="B77" s="22" t="inlineStr"/>
+      <c r="C77" s="22" t="inlineStr"/>
+      <c r="D77" s="22" t="inlineStr"/>
+      <c r="E77" s="22" t="inlineStr"/>
+      <c r="F77" s="22" t="inlineStr"/>
+      <c r="G77" s="22" t="inlineStr"/>
+      <c r="H77" s="22" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="18" t="inlineStr"/>
-      <c r="B78" s="19" t="inlineStr"/>
-      <c r="C78" s="19" t="inlineStr"/>
-      <c r="D78" s="19" t="inlineStr"/>
-      <c r="E78" s="19" t="inlineStr"/>
-      <c r="F78" s="19" t="inlineStr"/>
-      <c r="G78" s="19" t="inlineStr"/>
-      <c r="H78" s="19" t="inlineStr"/>
+      <c r="A78" s="19" t="inlineStr"/>
+      <c r="B78" s="20" t="inlineStr"/>
+      <c r="C78" s="20" t="inlineStr"/>
+      <c r="D78" s="20" t="inlineStr"/>
+      <c r="E78" s="20" t="inlineStr"/>
+      <c r="F78" s="20" t="inlineStr"/>
+      <c r="G78" s="20" t="inlineStr"/>
+      <c r="H78" s="20" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="20" t="inlineStr"/>
-      <c r="B79" s="21" t="inlineStr"/>
-      <c r="C79" s="21" t="inlineStr"/>
-      <c r="D79" s="21" t="inlineStr"/>
-      <c r="E79" s="21" t="inlineStr"/>
-      <c r="F79" s="21" t="inlineStr"/>
-      <c r="G79" s="21" t="inlineStr"/>
-      <c r="H79" s="21" t="inlineStr"/>
+      <c r="A79" s="21" t="inlineStr"/>
+      <c r="B79" s="22" t="inlineStr"/>
+      <c r="C79" s="22" t="inlineStr"/>
+      <c r="D79" s="22" t="inlineStr"/>
+      <c r="E79" s="22" t="inlineStr"/>
+      <c r="F79" s="22" t="inlineStr"/>
+      <c r="G79" s="22" t="inlineStr"/>
+      <c r="H79" s="22" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="18" t="inlineStr"/>
-      <c r="B80" s="19" t="inlineStr"/>
-      <c r="C80" s="19" t="inlineStr"/>
-      <c r="D80" s="19" t="inlineStr"/>
-      <c r="E80" s="19" t="inlineStr"/>
-      <c r="F80" s="19" t="inlineStr"/>
-      <c r="G80" s="19" t="inlineStr"/>
-      <c r="H80" s="19" t="inlineStr"/>
+      <c r="A80" s="19" t="inlineStr"/>
+      <c r="B80" s="20" t="inlineStr"/>
+      <c r="C80" s="20" t="inlineStr"/>
+      <c r="D80" s="20" t="inlineStr"/>
+      <c r="E80" s="20" t="inlineStr"/>
+      <c r="F80" s="20" t="inlineStr"/>
+      <c r="G80" s="20" t="inlineStr"/>
+      <c r="H80" s="20" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="20" t="inlineStr"/>
-      <c r="B81" s="21" t="inlineStr"/>
-      <c r="C81" s="21" t="inlineStr"/>
-      <c r="D81" s="21" t="inlineStr"/>
-      <c r="E81" s="21" t="inlineStr"/>
-      <c r="F81" s="21" t="inlineStr"/>
-      <c r="G81" s="21" t="inlineStr"/>
-      <c r="H81" s="21" t="inlineStr"/>
+      <c r="A81" s="21" t="inlineStr"/>
+      <c r="B81" s="22" t="inlineStr"/>
+      <c r="C81" s="22" t="inlineStr"/>
+      <c r="D81" s="22" t="inlineStr"/>
+      <c r="E81" s="22" t="inlineStr"/>
+      <c r="F81" s="22" t="inlineStr"/>
+      <c r="G81" s="22" t="inlineStr"/>
+      <c r="H81" s="22" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="18" t="inlineStr"/>
-      <c r="B82" s="19" t="inlineStr"/>
-      <c r="C82" s="19" t="inlineStr"/>
-      <c r="D82" s="19" t="inlineStr"/>
-      <c r="E82" s="19" t="inlineStr"/>
-      <c r="F82" s="19" t="inlineStr"/>
-      <c r="G82" s="19" t="inlineStr"/>
-      <c r="H82" s="19" t="inlineStr"/>
+      <c r="A82" s="19" t="inlineStr"/>
+      <c r="B82" s="20" t="inlineStr"/>
+      <c r="C82" s="20" t="inlineStr"/>
+      <c r="D82" s="20" t="inlineStr"/>
+      <c r="E82" s="20" t="inlineStr"/>
+      <c r="F82" s="20" t="inlineStr"/>
+      <c r="G82" s="20" t="inlineStr"/>
+      <c r="H82" s="20" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="20" t="inlineStr"/>
-      <c r="B83" s="21" t="inlineStr"/>
-      <c r="C83" s="21" t="inlineStr"/>
-      <c r="D83" s="21" t="inlineStr"/>
-      <c r="E83" s="21" t="inlineStr"/>
-      <c r="F83" s="21" t="inlineStr"/>
-      <c r="G83" s="21" t="inlineStr"/>
-      <c r="H83" s="21" t="inlineStr"/>
+      <c r="A83" s="21" t="inlineStr"/>
+      <c r="B83" s="22" t="inlineStr"/>
+      <c r="C83" s="22" t="inlineStr"/>
+      <c r="D83" s="22" t="inlineStr"/>
+      <c r="E83" s="22" t="inlineStr"/>
+      <c r="F83" s="22" t="inlineStr"/>
+      <c r="G83" s="22" t="inlineStr"/>
+      <c r="H83" s="22" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="18" t="inlineStr"/>
-      <c r="B84" s="19" t="inlineStr"/>
-      <c r="C84" s="19" t="inlineStr"/>
-      <c r="D84" s="19" t="inlineStr"/>
-      <c r="E84" s="19" t="inlineStr"/>
-      <c r="F84" s="19" t="inlineStr"/>
-      <c r="G84" s="19" t="inlineStr"/>
-      <c r="H84" s="19" t="inlineStr"/>
+      <c r="A84" s="19" t="inlineStr"/>
+      <c r="B84" s="20" t="inlineStr"/>
+      <c r="C84" s="20" t="inlineStr"/>
+      <c r="D84" s="20" t="inlineStr"/>
+      <c r="E84" s="20" t="inlineStr"/>
+      <c r="F84" s="20" t="inlineStr"/>
+      <c r="G84" s="20" t="inlineStr"/>
+      <c r="H84" s="20" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="20" t="inlineStr"/>
-      <c r="B85" s="21" t="inlineStr"/>
-      <c r="C85" s="21" t="inlineStr"/>
-      <c r="D85" s="21" t="inlineStr"/>
-      <c r="E85" s="21" t="inlineStr"/>
-      <c r="F85" s="21" t="inlineStr"/>
-      <c r="G85" s="21" t="inlineStr"/>
-      <c r="H85" s="21" t="inlineStr"/>
+      <c r="A85" s="21" t="inlineStr"/>
+      <c r="B85" s="22" t="inlineStr"/>
+      <c r="C85" s="22" t="inlineStr"/>
+      <c r="D85" s="22" t="inlineStr"/>
+      <c r="E85" s="22" t="inlineStr"/>
+      <c r="F85" s="22" t="inlineStr"/>
+      <c r="G85" s="22" t="inlineStr"/>
+      <c r="H85" s="22" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="18" t="inlineStr"/>
-      <c r="B86" s="19" t="inlineStr"/>
-      <c r="C86" s="19" t="inlineStr"/>
-      <c r="D86" s="19" t="inlineStr"/>
-      <c r="E86" s="19" t="inlineStr"/>
-      <c r="F86" s="19" t="inlineStr"/>
-      <c r="G86" s="19" t="inlineStr"/>
-      <c r="H86" s="19" t="inlineStr"/>
+      <c r="A86" s="19" t="inlineStr"/>
+      <c r="B86" s="20" t="inlineStr"/>
+      <c r="C86" s="20" t="inlineStr"/>
+      <c r="D86" s="20" t="inlineStr"/>
+      <c r="E86" s="20" t="inlineStr"/>
+      <c r="F86" s="20" t="inlineStr"/>
+      <c r="G86" s="20" t="inlineStr"/>
+      <c r="H86" s="20" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="20" t="inlineStr"/>
-      <c r="B87" s="21" t="inlineStr"/>
-      <c r="C87" s="21" t="inlineStr"/>
-      <c r="D87" s="21" t="inlineStr"/>
-      <c r="E87" s="21" t="inlineStr"/>
-      <c r="F87" s="21" t="inlineStr"/>
-      <c r="G87" s="21" t="inlineStr"/>
-      <c r="H87" s="21" t="inlineStr"/>
+      <c r="A87" s="21" t="inlineStr"/>
+      <c r="B87" s="22" t="inlineStr"/>
+      <c r="C87" s="22" t="inlineStr"/>
+      <c r="D87" s="22" t="inlineStr"/>
+      <c r="E87" s="22" t="inlineStr"/>
+      <c r="F87" s="22" t="inlineStr"/>
+      <c r="G87" s="22" t="inlineStr"/>
+      <c r="H87" s="22" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="18" t="inlineStr"/>
-      <c r="B88" s="19" t="inlineStr"/>
-      <c r="C88" s="19" t="inlineStr"/>
-      <c r="D88" s="19" t="inlineStr"/>
-      <c r="E88" s="19" t="inlineStr"/>
-      <c r="F88" s="19" t="inlineStr"/>
-      <c r="G88" s="19" t="inlineStr"/>
-      <c r="H88" s="19" t="inlineStr"/>
+      <c r="A88" s="19" t="inlineStr"/>
+      <c r="B88" s="20" t="inlineStr"/>
+      <c r="C88" s="20" t="inlineStr"/>
+      <c r="D88" s="20" t="inlineStr"/>
+      <c r="E88" s="20" t="inlineStr"/>
+      <c r="F88" s="20" t="inlineStr"/>
+      <c r="G88" s="20" t="inlineStr"/>
+      <c r="H88" s="20" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="20" t="inlineStr"/>
-      <c r="B89" s="21" t="inlineStr"/>
-      <c r="C89" s="21" t="inlineStr"/>
-      <c r="D89" s="21" t="inlineStr"/>
-      <c r="E89" s="21" t="inlineStr"/>
-      <c r="F89" s="21" t="inlineStr"/>
-      <c r="G89" s="21" t="inlineStr"/>
-      <c r="H89" s="21" t="inlineStr"/>
+      <c r="A89" s="21" t="inlineStr"/>
+      <c r="B89" s="22" t="inlineStr"/>
+      <c r="C89" s="22" t="inlineStr"/>
+      <c r="D89" s="22" t="inlineStr"/>
+      <c r="E89" s="22" t="inlineStr"/>
+      <c r="F89" s="22" t="inlineStr"/>
+      <c r="G89" s="22" t="inlineStr"/>
+      <c r="H89" s="22" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="18" t="inlineStr"/>
-      <c r="B90" s="19" t="inlineStr"/>
-      <c r="C90" s="19" t="inlineStr"/>
-      <c r="D90" s="19" t="inlineStr"/>
-      <c r="E90" s="19" t="inlineStr"/>
-      <c r="F90" s="19" t="inlineStr"/>
-      <c r="G90" s="19" t="inlineStr"/>
-      <c r="H90" s="19" t="inlineStr"/>
+      <c r="A90" s="19" t="inlineStr"/>
+      <c r="B90" s="20" t="inlineStr"/>
+      <c r="C90" s="20" t="inlineStr"/>
+      <c r="D90" s="20" t="inlineStr"/>
+      <c r="E90" s="20" t="inlineStr"/>
+      <c r="F90" s="20" t="inlineStr"/>
+      <c r="G90" s="20" t="inlineStr"/>
+      <c r="H90" s="20" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="20" t="inlineStr"/>
-      <c r="B91" s="21" t="inlineStr"/>
-      <c r="C91" s="21" t="inlineStr"/>
-      <c r="D91" s="21" t="inlineStr"/>
-      <c r="E91" s="21" t="inlineStr"/>
-      <c r="F91" s="21" t="inlineStr"/>
-      <c r="G91" s="21" t="inlineStr"/>
-      <c r="H91" s="21" t="inlineStr"/>
+      <c r="A91" s="21" t="inlineStr"/>
+      <c r="B91" s="22" t="inlineStr"/>
+      <c r="C91" s="22" t="inlineStr"/>
+      <c r="D91" s="22" t="inlineStr"/>
+      <c r="E91" s="22" t="inlineStr"/>
+      <c r="F91" s="22" t="inlineStr"/>
+      <c r="G91" s="22" t="inlineStr"/>
+      <c r="H91" s="22" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="18" t="inlineStr"/>
-      <c r="B92" s="19" t="inlineStr"/>
-      <c r="C92" s="19" t="inlineStr"/>
-      <c r="D92" s="19" t="inlineStr"/>
-      <c r="E92" s="19" t="inlineStr"/>
-      <c r="F92" s="19" t="inlineStr"/>
-      <c r="G92" s="19" t="inlineStr"/>
-      <c r="H92" s="19" t="inlineStr"/>
+      <c r="A92" s="19" t="inlineStr"/>
+      <c r="B92" s="20" t="inlineStr"/>
+      <c r="C92" s="20" t="inlineStr"/>
+      <c r="D92" s="20" t="inlineStr"/>
+      <c r="E92" s="20" t="inlineStr"/>
+      <c r="F92" s="20" t="inlineStr"/>
+      <c r="G92" s="20" t="inlineStr"/>
+      <c r="H92" s="20" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="20" t="inlineStr"/>
-      <c r="B93" s="21" t="inlineStr"/>
-      <c r="C93" s="21" t="inlineStr"/>
-      <c r="D93" s="21" t="inlineStr"/>
-      <c r="E93" s="21" t="inlineStr"/>
-      <c r="F93" s="21" t="inlineStr"/>
-      <c r="G93" s="21" t="inlineStr"/>
-      <c r="H93" s="21" t="inlineStr"/>
+      <c r="A93" s="21" t="inlineStr"/>
+      <c r="B93" s="22" t="inlineStr"/>
+      <c r="C93" s="22" t="inlineStr"/>
+      <c r="D93" s="22" t="inlineStr"/>
+      <c r="E93" s="22" t="inlineStr"/>
+      <c r="F93" s="22" t="inlineStr"/>
+      <c r="G93" s="22" t="inlineStr"/>
+      <c r="H93" s="22" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="18" t="inlineStr"/>
-      <c r="B94" s="19" t="inlineStr"/>
-      <c r="C94" s="19" t="inlineStr"/>
-      <c r="D94" s="19" t="inlineStr"/>
-      <c r="E94" s="19" t="inlineStr"/>
-      <c r="F94" s="19" t="inlineStr"/>
-      <c r="G94" s="19" t="inlineStr"/>
-      <c r="H94" s="19" t="inlineStr"/>
+      <c r="A94" s="19" t="inlineStr"/>
+      <c r="B94" s="20" t="inlineStr"/>
+      <c r="C94" s="20" t="inlineStr"/>
+      <c r="D94" s="20" t="inlineStr"/>
+      <c r="E94" s="20" t="inlineStr"/>
+      <c r="F94" s="20" t="inlineStr"/>
+      <c r="G94" s="20" t="inlineStr"/>
+      <c r="H94" s="20" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="20" t="inlineStr"/>
-      <c r="B95" s="21" t="inlineStr"/>
-      <c r="C95" s="21" t="inlineStr"/>
-      <c r="D95" s="21" t="inlineStr"/>
-      <c r="E95" s="21" t="inlineStr"/>
-      <c r="F95" s="21" t="inlineStr"/>
-      <c r="G95" s="21" t="inlineStr"/>
-      <c r="H95" s="21" t="inlineStr"/>
+      <c r="A95" s="21" t="inlineStr"/>
+      <c r="B95" s="22" t="inlineStr"/>
+      <c r="C95" s="22" t="inlineStr"/>
+      <c r="D95" s="22" t="inlineStr"/>
+      <c r="E95" s="22" t="inlineStr"/>
+      <c r="F95" s="22" t="inlineStr"/>
+      <c r="G95" s="22" t="inlineStr"/>
+      <c r="H95" s="22" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="18" t="inlineStr"/>
-      <c r="B96" s="19" t="inlineStr"/>
-      <c r="C96" s="19" t="inlineStr"/>
-      <c r="D96" s="19" t="inlineStr"/>
-      <c r="E96" s="19" t="inlineStr"/>
-      <c r="F96" s="19" t="inlineStr"/>
-      <c r="G96" s="19" t="inlineStr"/>
-      <c r="H96" s="19" t="inlineStr"/>
+      <c r="A96" s="19" t="inlineStr"/>
+      <c r="B96" s="20" t="inlineStr"/>
+      <c r="C96" s="20" t="inlineStr"/>
+      <c r="D96" s="20" t="inlineStr"/>
+      <c r="E96" s="20" t="inlineStr"/>
+      <c r="F96" s="20" t="inlineStr"/>
+      <c r="G96" s="20" t="inlineStr"/>
+      <c r="H96" s="20" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="20" t="inlineStr"/>
-      <c r="B97" s="21" t="inlineStr"/>
-      <c r="C97" s="21" t="inlineStr"/>
-      <c r="D97" s="21" t="inlineStr"/>
-      <c r="E97" s="21" t="inlineStr"/>
-      <c r="F97" s="21" t="inlineStr"/>
-      <c r="G97" s="21" t="inlineStr"/>
-      <c r="H97" s="21" t="inlineStr"/>
+      <c r="A97" s="21" t="inlineStr"/>
+      <c r="B97" s="22" t="inlineStr"/>
+      <c r="C97" s="22" t="inlineStr"/>
+      <c r="D97" s="22" t="inlineStr"/>
+      <c r="E97" s="22" t="inlineStr"/>
+      <c r="F97" s="22" t="inlineStr"/>
+      <c r="G97" s="22" t="inlineStr"/>
+      <c r="H97" s="22" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="18" t="inlineStr"/>
-      <c r="B98" s="19" t="inlineStr"/>
-      <c r="C98" s="19" t="inlineStr"/>
-      <c r="D98" s="19" t="inlineStr"/>
-      <c r="E98" s="19" t="inlineStr"/>
-      <c r="F98" s="19" t="inlineStr"/>
-      <c r="G98" s="19" t="inlineStr"/>
-      <c r="H98" s="19" t="inlineStr"/>
+      <c r="A98" s="19" t="inlineStr"/>
+      <c r="B98" s="20" t="inlineStr"/>
+      <c r="C98" s="20" t="inlineStr"/>
+      <c r="D98" s="20" t="inlineStr"/>
+      <c r="E98" s="20" t="inlineStr"/>
+      <c r="F98" s="20" t="inlineStr"/>
+      <c r="G98" s="20" t="inlineStr"/>
+      <c r="H98" s="20" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="20" t="inlineStr"/>
-      <c r="B99" s="21" t="inlineStr"/>
-      <c r="C99" s="21" t="inlineStr"/>
-      <c r="D99" s="21" t="inlineStr"/>
-      <c r="E99" s="21" t="inlineStr"/>
-      <c r="F99" s="21" t="inlineStr"/>
-      <c r="G99" s="21" t="inlineStr"/>
-      <c r="H99" s="21" t="inlineStr"/>
+      <c r="A99" s="21" t="inlineStr"/>
+      <c r="B99" s="22" t="inlineStr"/>
+      <c r="C99" s="22" t="inlineStr"/>
+      <c r="D99" s="22" t="inlineStr"/>
+      <c r="E99" s="22" t="inlineStr"/>
+      <c r="F99" s="22" t="inlineStr"/>
+      <c r="G99" s="22" t="inlineStr"/>
+      <c r="H99" s="22" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="18" t="inlineStr"/>
-      <c r="B100" s="19" t="inlineStr"/>
-      <c r="C100" s="19" t="inlineStr"/>
-      <c r="D100" s="19" t="inlineStr"/>
-      <c r="E100" s="19" t="inlineStr"/>
-      <c r="F100" s="19" t="inlineStr"/>
-      <c r="G100" s="19" t="inlineStr"/>
-      <c r="H100" s="19" t="inlineStr"/>
+      <c r="A100" s="19" t="inlineStr"/>
+      <c r="B100" s="20" t="inlineStr"/>
+      <c r="C100" s="20" t="inlineStr"/>
+      <c r="D100" s="20" t="inlineStr"/>
+      <c r="E100" s="20" t="inlineStr"/>
+      <c r="F100" s="20" t="inlineStr"/>
+      <c r="G100" s="20" t="inlineStr"/>
+      <c r="H100" s="20" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="20" t="inlineStr"/>
-      <c r="B101" s="21" t="inlineStr"/>
-      <c r="C101" s="21" t="inlineStr"/>
-      <c r="D101" s="21" t="inlineStr"/>
-      <c r="E101" s="21" t="inlineStr"/>
-      <c r="F101" s="21" t="inlineStr"/>
-      <c r="G101" s="21" t="inlineStr"/>
-      <c r="H101" s="21" t="inlineStr"/>
+      <c r="A101" s="21" t="inlineStr"/>
+      <c r="B101" s="22" t="inlineStr"/>
+      <c r="C101" s="22" t="inlineStr"/>
+      <c r="D101" s="22" t="inlineStr"/>
+      <c r="E101" s="22" t="inlineStr"/>
+      <c r="F101" s="22" t="inlineStr"/>
+      <c r="G101" s="22" t="inlineStr"/>
+      <c r="H101" s="22" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="18" t="inlineStr"/>
-      <c r="B102" s="19" t="inlineStr"/>
-      <c r="C102" s="19" t="inlineStr"/>
-      <c r="D102" s="19" t="inlineStr"/>
-      <c r="E102" s="19" t="inlineStr"/>
-      <c r="F102" s="19" t="inlineStr"/>
-      <c r="G102" s="19" t="inlineStr"/>
-      <c r="H102" s="19" t="inlineStr"/>
+      <c r="A102" s="19" t="inlineStr"/>
+      <c r="B102" s="20" t="inlineStr"/>
+      <c r="C102" s="20" t="inlineStr"/>
+      <c r="D102" s="20" t="inlineStr"/>
+      <c r="E102" s="20" t="inlineStr"/>
+      <c r="F102" s="20" t="inlineStr"/>
+      <c r="G102" s="20" t="inlineStr"/>
+      <c r="H102" s="20" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="20" t="inlineStr"/>
-      <c r="B103" s="21" t="inlineStr"/>
-      <c r="C103" s="21" t="inlineStr"/>
-      <c r="D103" s="21" t="inlineStr"/>
-      <c r="E103" s="21" t="inlineStr"/>
-      <c r="F103" s="21" t="inlineStr"/>
-      <c r="G103" s="21" t="inlineStr"/>
-      <c r="H103" s="21" t="inlineStr"/>
+      <c r="A103" s="21" t="inlineStr"/>
+      <c r="B103" s="22" t="inlineStr"/>
+      <c r="C103" s="22" t="inlineStr"/>
+      <c r="D103" s="22" t="inlineStr"/>
+      <c r="E103" s="22" t="inlineStr"/>
+      <c r="F103" s="22" t="inlineStr"/>
+      <c r="G103" s="22" t="inlineStr"/>
+      <c r="H103" s="22" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="18" t="inlineStr"/>
-      <c r="B104" s="19" t="inlineStr"/>
-      <c r="C104" s="19" t="inlineStr"/>
-      <c r="D104" s="19" t="inlineStr"/>
-      <c r="E104" s="19" t="inlineStr"/>
-      <c r="F104" s="19" t="inlineStr"/>
-      <c r="G104" s="19" t="inlineStr"/>
-      <c r="H104" s="19" t="inlineStr"/>
+      <c r="A104" s="19" t="inlineStr"/>
+      <c r="B104" s="20" t="inlineStr"/>
+      <c r="C104" s="20" t="inlineStr"/>
+      <c r="D104" s="20" t="inlineStr"/>
+      <c r="E104" s="20" t="inlineStr"/>
+      <c r="F104" s="20" t="inlineStr"/>
+      <c r="G104" s="20" t="inlineStr"/>
+      <c r="H104" s="20" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="20" t="inlineStr"/>
-      <c r="B105" s="21" t="inlineStr"/>
-      <c r="C105" s="21" t="inlineStr"/>
-      <c r="D105" s="21" t="inlineStr"/>
-      <c r="E105" s="21" t="inlineStr"/>
-      <c r="F105" s="21" t="inlineStr"/>
-      <c r="G105" s="21" t="inlineStr"/>
-      <c r="H105" s="21" t="inlineStr"/>
+      <c r="A105" s="21" t="inlineStr"/>
+      <c r="B105" s="22" t="inlineStr"/>
+      <c r="C105" s="22" t="inlineStr"/>
+      <c r="D105" s="22" t="inlineStr"/>
+      <c r="E105" s="22" t="inlineStr"/>
+      <c r="F105" s="22" t="inlineStr"/>
+      <c r="G105" s="22" t="inlineStr"/>
+      <c r="H105" s="22" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="18" t="inlineStr"/>
-      <c r="B106" s="19" t="inlineStr"/>
-      <c r="C106" s="19" t="inlineStr"/>
-      <c r="D106" s="19" t="inlineStr"/>
-      <c r="E106" s="19" t="inlineStr"/>
-      <c r="F106" s="19" t="inlineStr"/>
-      <c r="G106" s="19" t="inlineStr"/>
-      <c r="H106" s="19" t="inlineStr"/>
+      <c r="A106" s="19" t="inlineStr"/>
+      <c r="B106" s="20" t="inlineStr"/>
+      <c r="C106" s="20" t="inlineStr"/>
+      <c r="D106" s="20" t="inlineStr"/>
+      <c r="E106" s="20" t="inlineStr"/>
+      <c r="F106" s="20" t="inlineStr"/>
+      <c r="G106" s="20" t="inlineStr"/>
+      <c r="H106" s="20" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="20" t="inlineStr"/>
-      <c r="B107" s="21" t="inlineStr"/>
-      <c r="C107" s="21" t="inlineStr"/>
-      <c r="D107" s="21" t="inlineStr"/>
-      <c r="E107" s="21" t="inlineStr"/>
-      <c r="F107" s="21" t="inlineStr"/>
-      <c r="G107" s="21" t="inlineStr"/>
-      <c r="H107" s="21" t="inlineStr"/>
+      <c r="A107" s="21" t="inlineStr"/>
+      <c r="B107" s="22" t="inlineStr"/>
+      <c r="C107" s="22" t="inlineStr"/>
+      <c r="D107" s="22" t="inlineStr"/>
+      <c r="E107" s="22" t="inlineStr"/>
+      <c r="F107" s="22" t="inlineStr"/>
+      <c r="G107" s="22" t="inlineStr"/>
+      <c r="H107" s="22" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="18" t="inlineStr"/>
-      <c r="B108" s="19" t="inlineStr"/>
-      <c r="C108" s="19" t="inlineStr"/>
-      <c r="D108" s="19" t="inlineStr"/>
-      <c r="E108" s="19" t="inlineStr"/>
-      <c r="F108" s="19" t="inlineStr"/>
-      <c r="G108" s="19" t="inlineStr"/>
-      <c r="H108" s="19" t="inlineStr"/>
+      <c r="A108" s="19" t="inlineStr"/>
+      <c r="B108" s="20" t="inlineStr"/>
+      <c r="C108" s="20" t="inlineStr"/>
+      <c r="D108" s="20" t="inlineStr"/>
+      <c r="E108" s="20" t="inlineStr"/>
+      <c r="F108" s="20" t="inlineStr"/>
+      <c r="G108" s="20" t="inlineStr"/>
+      <c r="H108" s="20" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="20" t="inlineStr"/>
-      <c r="B109" s="21" t="inlineStr"/>
-      <c r="C109" s="21" t="inlineStr"/>
-      <c r="D109" s="21" t="inlineStr"/>
-      <c r="E109" s="21" t="inlineStr"/>
-      <c r="F109" s="21" t="inlineStr"/>
-      <c r="G109" s="21" t="inlineStr"/>
-      <c r="H109" s="21" t="inlineStr"/>
+      <c r="A109" s="21" t="inlineStr"/>
+      <c r="B109" s="22" t="inlineStr"/>
+      <c r="C109" s="22" t="inlineStr"/>
+      <c r="D109" s="22" t="inlineStr"/>
+      <c r="E109" s="22" t="inlineStr"/>
+      <c r="F109" s="22" t="inlineStr"/>
+      <c r="G109" s="22" t="inlineStr"/>
+      <c r="H109" s="22" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="18" t="inlineStr"/>
-      <c r="B110" s="19" t="inlineStr"/>
-      <c r="C110" s="19" t="inlineStr"/>
-      <c r="D110" s="19" t="inlineStr"/>
-      <c r="E110" s="19" t="inlineStr"/>
-      <c r="F110" s="19" t="inlineStr"/>
-      <c r="G110" s="19" t="inlineStr"/>
-      <c r="H110" s="19" t="inlineStr"/>
+      <c r="A110" s="19" t="inlineStr"/>
+      <c r="B110" s="20" t="inlineStr"/>
+      <c r="C110" s="20" t="inlineStr"/>
+      <c r="D110" s="20" t="inlineStr"/>
+      <c r="E110" s="20" t="inlineStr"/>
+      <c r="F110" s="20" t="inlineStr"/>
+      <c r="G110" s="20" t="inlineStr"/>
+      <c r="H110" s="20" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="20" t="inlineStr"/>
-      <c r="B111" s="21" t="inlineStr"/>
-      <c r="C111" s="21" t="inlineStr"/>
-      <c r="D111" s="21" t="inlineStr"/>
-      <c r="E111" s="21" t="inlineStr"/>
-      <c r="F111" s="21" t="inlineStr"/>
-      <c r="G111" s="21" t="inlineStr"/>
-      <c r="H111" s="21" t="inlineStr"/>
+      <c r="A111" s="21" t="inlineStr"/>
+      <c r="B111" s="22" t="inlineStr"/>
+      <c r="C111" s="22" t="inlineStr"/>
+      <c r="D111" s="22" t="inlineStr"/>
+      <c r="E111" s="22" t="inlineStr"/>
+      <c r="F111" s="22" t="inlineStr"/>
+      <c r="G111" s="22" t="inlineStr"/>
+      <c r="H111" s="22" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="18" t="inlineStr"/>
-      <c r="B112" s="19" t="inlineStr"/>
-      <c r="C112" s="19" t="inlineStr"/>
-      <c r="D112" s="19" t="inlineStr"/>
-      <c r="E112" s="19" t="inlineStr"/>
-      <c r="F112" s="19" t="inlineStr"/>
-      <c r="G112" s="19" t="inlineStr"/>
-      <c r="H112" s="19" t="inlineStr"/>
+      <c r="A112" s="19" t="inlineStr"/>
+      <c r="B112" s="20" t="inlineStr"/>
+      <c r="C112" s="20" t="inlineStr"/>
+      <c r="D112" s="20" t="inlineStr"/>
+      <c r="E112" s="20" t="inlineStr"/>
+      <c r="F112" s="20" t="inlineStr"/>
+      <c r="G112" s="20" t="inlineStr"/>
+      <c r="H112" s="20" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="20" t="inlineStr"/>
-      <c r="B113" s="21" t="inlineStr"/>
-      <c r="C113" s="21" t="inlineStr"/>
-      <c r="D113" s="21" t="inlineStr"/>
-      <c r="E113" s="21" t="inlineStr"/>
-      <c r="F113" s="21" t="inlineStr"/>
-      <c r="G113" s="21" t="inlineStr"/>
-      <c r="H113" s="21" t="inlineStr"/>
+      <c r="A113" s="21" t="inlineStr"/>
+      <c r="B113" s="22" t="inlineStr"/>
+      <c r="C113" s="22" t="inlineStr"/>
+      <c r="D113" s="22" t="inlineStr"/>
+      <c r="E113" s="22" t="inlineStr"/>
+      <c r="F113" s="22" t="inlineStr"/>
+      <c r="G113" s="22" t="inlineStr"/>
+      <c r="H113" s="22" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="18" t="inlineStr"/>
-      <c r="B114" s="19" t="inlineStr"/>
-      <c r="C114" s="19" t="inlineStr"/>
-      <c r="D114" s="19" t="inlineStr"/>
-      <c r="E114" s="19" t="inlineStr"/>
-      <c r="F114" s="19" t="inlineStr"/>
-      <c r="G114" s="19" t="inlineStr"/>
-      <c r="H114" s="19" t="inlineStr"/>
+      <c r="A114" s="19" t="inlineStr"/>
+      <c r="B114" s="20" t="inlineStr"/>
+      <c r="C114" s="20" t="inlineStr"/>
+      <c r="D114" s="20" t="inlineStr"/>
+      <c r="E114" s="20" t="inlineStr"/>
+      <c r="F114" s="20" t="inlineStr"/>
+      <c r="G114" s="20" t="inlineStr"/>
+      <c r="H114" s="20" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="20" t="inlineStr"/>
-      <c r="B115" s="21" t="inlineStr"/>
-      <c r="C115" s="21" t="inlineStr"/>
-      <c r="D115" s="21" t="inlineStr"/>
-      <c r="E115" s="21" t="inlineStr"/>
-      <c r="F115" s="21" t="inlineStr"/>
-      <c r="G115" s="21" t="inlineStr"/>
-      <c r="H115" s="21" t="inlineStr"/>
+      <c r="A115" s="21" t="inlineStr"/>
+      <c r="B115" s="22" t="inlineStr"/>
+      <c r="C115" s="22" t="inlineStr"/>
+      <c r="D115" s="22" t="inlineStr"/>
+      <c r="E115" s="22" t="inlineStr"/>
+      <c r="F115" s="22" t="inlineStr"/>
+      <c r="G115" s="22" t="inlineStr"/>
+      <c r="H115" s="22" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="18" t="inlineStr"/>
-      <c r="B116" s="19" t="inlineStr"/>
-      <c r="C116" s="19" t="inlineStr"/>
-      <c r="D116" s="19" t="inlineStr"/>
-      <c r="E116" s="19" t="inlineStr"/>
-      <c r="F116" s="19" t="inlineStr"/>
-      <c r="G116" s="19" t="inlineStr"/>
-      <c r="H116" s="19" t="inlineStr"/>
+      <c r="A116" s="19" t="inlineStr"/>
+      <c r="B116" s="20" t="inlineStr"/>
+      <c r="C116" s="20" t="inlineStr"/>
+      <c r="D116" s="20" t="inlineStr"/>
+      <c r="E116" s="20" t="inlineStr"/>
+      <c r="F116" s="20" t="inlineStr"/>
+      <c r="G116" s="20" t="inlineStr"/>
+      <c r="H116" s="20" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="20" t="inlineStr"/>
-      <c r="B117" s="21" t="inlineStr"/>
-      <c r="C117" s="21" t="inlineStr"/>
-      <c r="D117" s="21" t="inlineStr"/>
-      <c r="E117" s="21" t="inlineStr"/>
-      <c r="F117" s="21" t="inlineStr"/>
-      <c r="G117" s="21" t="inlineStr"/>
-      <c r="H117" s="21" t="inlineStr"/>
+      <c r="A117" s="21" t="inlineStr"/>
+      <c r="B117" s="22" t="inlineStr"/>
+      <c r="C117" s="22" t="inlineStr"/>
+      <c r="D117" s="22" t="inlineStr"/>
+      <c r="E117" s="22" t="inlineStr"/>
+      <c r="F117" s="22" t="inlineStr"/>
+      <c r="G117" s="22" t="inlineStr"/>
+      <c r="H117" s="22" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="18" t="inlineStr"/>
-      <c r="B118" s="19" t="inlineStr"/>
-      <c r="C118" s="19" t="inlineStr"/>
-      <c r="D118" s="19" t="inlineStr"/>
-      <c r="E118" s="19" t="inlineStr"/>
-      <c r="F118" s="19" t="inlineStr"/>
-      <c r="G118" s="19" t="inlineStr"/>
-      <c r="H118" s="19" t="inlineStr"/>
+      <c r="A118" s="19" t="inlineStr"/>
+      <c r="B118" s="20" t="inlineStr"/>
+      <c r="C118" s="20" t="inlineStr"/>
+      <c r="D118" s="20" t="inlineStr"/>
+      <c r="E118" s="20" t="inlineStr"/>
+      <c r="F118" s="20" t="inlineStr"/>
+      <c r="G118" s="20" t="inlineStr"/>
+      <c r="H118" s="20" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="20" t="inlineStr"/>
-      <c r="B119" s="21" t="inlineStr"/>
-      <c r="C119" s="21" t="inlineStr"/>
-      <c r="D119" s="21" t="inlineStr"/>
-      <c r="E119" s="21" t="inlineStr"/>
-      <c r="F119" s="21" t="inlineStr"/>
-      <c r="G119" s="21" t="inlineStr"/>
-      <c r="H119" s="21" t="inlineStr"/>
+      <c r="A119" s="21" t="inlineStr"/>
+      <c r="B119" s="22" t="inlineStr"/>
+      <c r="C119" s="22" t="inlineStr"/>
+      <c r="D119" s="22" t="inlineStr"/>
+      <c r="E119" s="22" t="inlineStr"/>
+      <c r="F119" s="22" t="inlineStr"/>
+      <c r="G119" s="22" t="inlineStr"/>
+      <c r="H119" s="22" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="18" t="inlineStr"/>
-      <c r="B120" s="19" t="inlineStr"/>
-      <c r="C120" s="19" t="inlineStr"/>
-      <c r="D120" s="19" t="inlineStr"/>
-      <c r="E120" s="19" t="inlineStr"/>
-      <c r="F120" s="19" t="inlineStr"/>
-      <c r="G120" s="19" t="inlineStr"/>
-      <c r="H120" s="19" t="inlineStr"/>
+      <c r="A120" s="19" t="inlineStr"/>
+      <c r="B120" s="20" t="inlineStr"/>
+      <c r="C120" s="20" t="inlineStr"/>
+      <c r="D120" s="20" t="inlineStr"/>
+      <c r="E120" s="20" t="inlineStr"/>
+      <c r="F120" s="20" t="inlineStr"/>
+      <c r="G120" s="20" t="inlineStr"/>
+      <c r="H120" s="20" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="20" t="inlineStr"/>
-      <c r="B121" s="21" t="inlineStr"/>
-      <c r="C121" s="21" t="inlineStr"/>
-      <c r="D121" s="21" t="inlineStr"/>
-      <c r="E121" s="21" t="inlineStr"/>
-      <c r="F121" s="21" t="inlineStr"/>
-      <c r="G121" s="21" t="inlineStr"/>
-      <c r="H121" s="21" t="inlineStr"/>
+      <c r="A121" s="21" t="inlineStr"/>
+      <c r="B121" s="22" t="inlineStr"/>
+      <c r="C121" s="22" t="inlineStr"/>
+      <c r="D121" s="22" t="inlineStr"/>
+      <c r="E121" s="22" t="inlineStr"/>
+      <c r="F121" s="22" t="inlineStr"/>
+      <c r="G121" s="22" t="inlineStr"/>
+      <c r="H121" s="22" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="18" t="inlineStr"/>
-      <c r="B122" s="19" t="inlineStr"/>
-      <c r="C122" s="19" t="inlineStr"/>
-      <c r="D122" s="19" t="inlineStr"/>
-      <c r="E122" s="19" t="inlineStr"/>
-      <c r="F122" s="19" t="inlineStr"/>
-      <c r="G122" s="19" t="inlineStr"/>
-      <c r="H122" s="19" t="inlineStr"/>
+      <c r="A122" s="19" t="inlineStr"/>
+      <c r="B122" s="20" t="inlineStr"/>
+      <c r="C122" s="20" t="inlineStr"/>
+      <c r="D122" s="20" t="inlineStr"/>
+      <c r="E122" s="20" t="inlineStr"/>
+      <c r="F122" s="20" t="inlineStr"/>
+      <c r="G122" s="20" t="inlineStr"/>
+      <c r="H122" s="20" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="20" t="inlineStr"/>
-      <c r="B123" s="21" t="inlineStr"/>
-      <c r="C123" s="21" t="inlineStr"/>
-      <c r="D123" s="21" t="inlineStr"/>
-      <c r="E123" s="21" t="inlineStr"/>
-      <c r="F123" s="21" t="inlineStr"/>
-      <c r="G123" s="21" t="inlineStr"/>
-      <c r="H123" s="21" t="inlineStr"/>
+      <c r="A123" s="21" t="inlineStr"/>
+      <c r="B123" s="22" t="inlineStr"/>
+      <c r="C123" s="22" t="inlineStr"/>
+      <c r="D123" s="22" t="inlineStr"/>
+      <c r="E123" s="22" t="inlineStr"/>
+      <c r="F123" s="22" t="inlineStr"/>
+      <c r="G123" s="22" t="inlineStr"/>
+      <c r="H123" s="22" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="18" t="inlineStr"/>
-      <c r="B124" s="19" t="inlineStr"/>
-      <c r="C124" s="19" t="inlineStr"/>
-      <c r="D124" s="19" t="inlineStr"/>
-      <c r="E124" s="19" t="inlineStr"/>
-      <c r="F124" s="19" t="inlineStr"/>
-      <c r="G124" s="19" t="inlineStr"/>
-      <c r="H124" s="19" t="inlineStr"/>
+      <c r="A124" s="19" t="inlineStr"/>
+      <c r="B124" s="20" t="inlineStr"/>
+      <c r="C124" s="20" t="inlineStr"/>
+      <c r="D124" s="20" t="inlineStr"/>
+      <c r="E124" s="20" t="inlineStr"/>
+      <c r="F124" s="20" t="inlineStr"/>
+      <c r="G124" s="20" t="inlineStr"/>
+      <c r="H124" s="20" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="20" t="inlineStr"/>
-      <c r="B125" s="21" t="inlineStr"/>
-      <c r="C125" s="21" t="inlineStr"/>
-      <c r="D125" s="21" t="inlineStr"/>
-      <c r="E125" s="21" t="inlineStr"/>
-      <c r="F125" s="21" t="inlineStr"/>
-      <c r="G125" s="21" t="inlineStr"/>
-      <c r="H125" s="21" t="inlineStr"/>
+      <c r="A125" s="21" t="inlineStr"/>
+      <c r="B125" s="22" t="inlineStr"/>
+      <c r="C125" s="22" t="inlineStr"/>
+      <c r="D125" s="22" t="inlineStr"/>
+      <c r="E125" s="22" t="inlineStr"/>
+      <c r="F125" s="22" t="inlineStr"/>
+      <c r="G125" s="22" t="inlineStr"/>
+      <c r="H125" s="22" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="18" t="inlineStr"/>
-      <c r="B126" s="19" t="inlineStr"/>
-      <c r="C126" s="19" t="inlineStr"/>
-      <c r="D126" s="19" t="inlineStr"/>
-      <c r="E126" s="19" t="inlineStr"/>
-      <c r="F126" s="19" t="inlineStr"/>
-      <c r="G126" s="19" t="inlineStr"/>
-      <c r="H126" s="19" t="inlineStr"/>
+      <c r="A126" s="19" t="inlineStr"/>
+      <c r="B126" s="20" t="inlineStr"/>
+      <c r="C126" s="20" t="inlineStr"/>
+      <c r="D126" s="20" t="inlineStr"/>
+      <c r="E126" s="20" t="inlineStr"/>
+      <c r="F126" s="20" t="inlineStr"/>
+      <c r="G126" s="20" t="inlineStr"/>
+      <c r="H126" s="20" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="20" t="inlineStr"/>
-      <c r="B127" s="21" t="inlineStr"/>
-      <c r="C127" s="21" t="inlineStr"/>
-      <c r="D127" s="21" t="inlineStr"/>
-      <c r="E127" s="21" t="inlineStr"/>
-      <c r="F127" s="21" t="inlineStr"/>
-      <c r="G127" s="21" t="inlineStr"/>
-      <c r="H127" s="21" t="inlineStr"/>
+      <c r="A127" s="21" t="inlineStr"/>
+      <c r="B127" s="22" t="inlineStr"/>
+      <c r="C127" s="22" t="inlineStr"/>
+      <c r="D127" s="22" t="inlineStr"/>
+      <c r="E127" s="22" t="inlineStr"/>
+      <c r="F127" s="22" t="inlineStr"/>
+      <c r="G127" s="22" t="inlineStr"/>
+      <c r="H127" s="22" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="18" t="inlineStr"/>
-      <c r="B128" s="19" t="inlineStr"/>
-      <c r="C128" s="19" t="inlineStr"/>
-      <c r="D128" s="19" t="inlineStr"/>
-      <c r="E128" s="19" t="inlineStr"/>
-      <c r="F128" s="19" t="inlineStr"/>
-      <c r="G128" s="19" t="inlineStr"/>
-      <c r="H128" s="19" t="inlineStr"/>
+      <c r="A128" s="19" t="inlineStr"/>
+      <c r="B128" s="20" t="inlineStr"/>
+      <c r="C128" s="20" t="inlineStr"/>
+      <c r="D128" s="20" t="inlineStr"/>
+      <c r="E128" s="20" t="inlineStr"/>
+      <c r="F128" s="20" t="inlineStr"/>
+      <c r="G128" s="20" t="inlineStr"/>
+      <c r="H128" s="20" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="20" t="inlineStr"/>
-      <c r="B129" s="21" t="inlineStr"/>
-      <c r="C129" s="21" t="inlineStr"/>
-      <c r="D129" s="21" t="inlineStr"/>
-      <c r="E129" s="21" t="inlineStr"/>
-      <c r="F129" s="21" t="inlineStr"/>
-      <c r="G129" s="21" t="inlineStr"/>
-      <c r="H129" s="21" t="inlineStr"/>
+      <c r="A129" s="21" t="inlineStr"/>
+      <c r="B129" s="22" t="inlineStr"/>
+      <c r="C129" s="22" t="inlineStr"/>
+      <c r="D129" s="22" t="inlineStr"/>
+      <c r="E129" s="22" t="inlineStr"/>
+      <c r="F129" s="22" t="inlineStr"/>
+      <c r="G129" s="22" t="inlineStr"/>
+      <c r="H129" s="22" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="18" t="inlineStr"/>
-      <c r="B130" s="19" t="inlineStr"/>
-      <c r="C130" s="19" t="inlineStr"/>
-      <c r="D130" s="19" t="inlineStr"/>
-      <c r="E130" s="19" t="inlineStr"/>
-      <c r="F130" s="19" t="inlineStr"/>
-      <c r="G130" s="19" t="inlineStr"/>
-      <c r="H130" s="19" t="inlineStr"/>
+      <c r="A130" s="19" t="inlineStr"/>
+      <c r="B130" s="20" t="inlineStr"/>
+      <c r="C130" s="20" t="inlineStr"/>
+      <c r="D130" s="20" t="inlineStr"/>
+      <c r="E130" s="20" t="inlineStr"/>
+      <c r="F130" s="20" t="inlineStr"/>
+      <c r="G130" s="20" t="inlineStr"/>
+      <c r="H130" s="20" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="20" t="inlineStr"/>
-      <c r="B131" s="21" t="inlineStr"/>
-      <c r="C131" s="21" t="inlineStr"/>
-      <c r="D131" s="21" t="inlineStr"/>
-      <c r="E131" s="21" t="inlineStr"/>
-      <c r="F131" s="21" t="inlineStr"/>
-      <c r="G131" s="21" t="inlineStr"/>
-      <c r="H131" s="21" t="inlineStr"/>
+      <c r="A131" s="21" t="inlineStr"/>
+      <c r="B131" s="22" t="inlineStr"/>
+      <c r="C131" s="22" t="inlineStr"/>
+      <c r="D131" s="22" t="inlineStr"/>
+      <c r="E131" s="22" t="inlineStr"/>
+      <c r="F131" s="22" t="inlineStr"/>
+      <c r="G131" s="22" t="inlineStr"/>
+      <c r="H131" s="22" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="18" t="inlineStr"/>
-      <c r="B132" s="19" t="inlineStr"/>
-      <c r="C132" s="19" t="inlineStr"/>
-      <c r="D132" s="19" t="inlineStr"/>
-      <c r="E132" s="19" t="inlineStr"/>
-      <c r="F132" s="19" t="inlineStr"/>
-      <c r="G132" s="19" t="inlineStr"/>
-      <c r="H132" s="19" t="inlineStr"/>
+      <c r="A132" s="19" t="inlineStr"/>
+      <c r="B132" s="20" t="inlineStr"/>
+      <c r="C132" s="20" t="inlineStr"/>
+      <c r="D132" s="20" t="inlineStr"/>
+      <c r="E132" s="20" t="inlineStr"/>
+      <c r="F132" s="20" t="inlineStr"/>
+      <c r="G132" s="20" t="inlineStr"/>
+      <c r="H132" s="20" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="20" t="inlineStr"/>
-      <c r="B133" s="21" t="inlineStr"/>
-      <c r="C133" s="21" t="inlineStr"/>
-      <c r="D133" s="21" t="inlineStr"/>
-      <c r="E133" s="21" t="inlineStr"/>
-      <c r="F133" s="21" t="inlineStr"/>
-      <c r="G133" s="21" t="inlineStr"/>
-      <c r="H133" s="21" t="inlineStr"/>
+      <c r="A133" s="21" t="inlineStr"/>
+      <c r="B133" s="22" t="inlineStr"/>
+      <c r="C133" s="22" t="inlineStr"/>
+      <c r="D133" s="22" t="inlineStr"/>
+      <c r="E133" s="22" t="inlineStr"/>
+      <c r="F133" s="22" t="inlineStr"/>
+      <c r="G133" s="22" t="inlineStr"/>
+      <c r="H133" s="22" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="18" t="inlineStr"/>
-      <c r="B134" s="19" t="inlineStr"/>
-      <c r="C134" s="19" t="inlineStr"/>
-      <c r="D134" s="19" t="inlineStr"/>
-      <c r="E134" s="19" t="inlineStr"/>
-      <c r="F134" s="19" t="inlineStr"/>
-      <c r="G134" s="19" t="inlineStr"/>
-      <c r="H134" s="19" t="inlineStr"/>
+      <c r="A134" s="19" t="inlineStr"/>
+      <c r="B134" s="20" t="inlineStr"/>
+      <c r="C134" s="20" t="inlineStr"/>
+      <c r="D134" s="20" t="inlineStr"/>
+      <c r="E134" s="20" t="inlineStr"/>
+      <c r="F134" s="20" t="inlineStr"/>
+      <c r="G134" s="20" t="inlineStr"/>
+      <c r="H134" s="20" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="20" t="inlineStr"/>
-      <c r="B135" s="21" t="inlineStr"/>
-      <c r="C135" s="21" t="inlineStr"/>
-      <c r="D135" s="21" t="inlineStr"/>
-      <c r="E135" s="21" t="inlineStr"/>
-      <c r="F135" s="21" t="inlineStr"/>
-      <c r="G135" s="21" t="inlineStr"/>
-      <c r="H135" s="21" t="inlineStr"/>
+      <c r="A135" s="21" t="inlineStr"/>
+      <c r="B135" s="22" t="inlineStr"/>
+      <c r="C135" s="22" t="inlineStr"/>
+      <c r="D135" s="22" t="inlineStr"/>
+      <c r="E135" s="22" t="inlineStr"/>
+      <c r="F135" s="22" t="inlineStr"/>
+      <c r="G135" s="22" t="inlineStr"/>
+      <c r="H135" s="22" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="18" t="inlineStr"/>
-      <c r="B136" s="19" t="inlineStr"/>
-      <c r="C136" s="19" t="inlineStr"/>
-      <c r="D136" s="19" t="inlineStr"/>
-      <c r="E136" s="19" t="inlineStr"/>
-      <c r="F136" s="19" t="inlineStr"/>
-      <c r="G136" s="19" t="inlineStr"/>
-      <c r="H136" s="19" t="inlineStr"/>
+      <c r="A136" s="19" t="inlineStr"/>
+      <c r="B136" s="20" t="inlineStr"/>
+      <c r="C136" s="20" t="inlineStr"/>
+      <c r="D136" s="20" t="inlineStr"/>
+      <c r="E136" s="20" t="inlineStr"/>
+      <c r="F136" s="20" t="inlineStr"/>
+      <c r="G136" s="20" t="inlineStr"/>
+      <c r="H136" s="20" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="20" t="inlineStr"/>
-      <c r="B137" s="21" t="inlineStr"/>
-      <c r="C137" s="21" t="inlineStr"/>
-      <c r="D137" s="21" t="inlineStr"/>
-      <c r="E137" s="21" t="inlineStr"/>
-      <c r="F137" s="21" t="inlineStr"/>
-      <c r="G137" s="21" t="inlineStr"/>
-      <c r="H137" s="21" t="inlineStr"/>
+      <c r="A137" s="21" t="inlineStr"/>
+      <c r="B137" s="22" t="inlineStr"/>
+      <c r="C137" s="22" t="inlineStr"/>
+      <c r="D137" s="22" t="inlineStr"/>
+      <c r="E137" s="22" t="inlineStr"/>
+      <c r="F137" s="22" t="inlineStr"/>
+      <c r="G137" s="22" t="inlineStr"/>
+      <c r="H137" s="22" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="18" t="inlineStr"/>
-      <c r="B138" s="19" t="inlineStr"/>
-      <c r="C138" s="19" t="inlineStr"/>
-      <c r="D138" s="19" t="inlineStr"/>
-      <c r="E138" s="19" t="inlineStr"/>
-      <c r="F138" s="19" t="inlineStr"/>
-      <c r="G138" s="19" t="inlineStr"/>
-      <c r="H138" s="19" t="inlineStr"/>
+      <c r="A138" s="19" t="inlineStr"/>
+      <c r="B138" s="20" t="inlineStr"/>
+      <c r="C138" s="20" t="inlineStr"/>
+      <c r="D138" s="20" t="inlineStr"/>
+      <c r="E138" s="20" t="inlineStr"/>
+      <c r="F138" s="20" t="inlineStr"/>
+      <c r="G138" s="20" t="inlineStr"/>
+      <c r="H138" s="20" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="20" t="inlineStr"/>
-      <c r="B139" s="21" t="inlineStr"/>
-      <c r="C139" s="21" t="inlineStr"/>
-      <c r="D139" s="21" t="inlineStr"/>
-      <c r="E139" s="21" t="inlineStr"/>
-      <c r="F139" s="21" t="inlineStr"/>
-      <c r="G139" s="21" t="inlineStr"/>
-      <c r="H139" s="21" t="inlineStr"/>
+      <c r="A139" s="21" t="inlineStr"/>
+      <c r="B139" s="22" t="inlineStr"/>
+      <c r="C139" s="22" t="inlineStr"/>
+      <c r="D139" s="22" t="inlineStr"/>
+      <c r="E139" s="22" t="inlineStr"/>
+      <c r="F139" s="22" t="inlineStr"/>
+      <c r="G139" s="22" t="inlineStr"/>
+      <c r="H139" s="22" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="18" t="inlineStr"/>
-      <c r="B140" s="19" t="inlineStr"/>
-      <c r="C140" s="19" t="inlineStr"/>
-      <c r="D140" s="19" t="inlineStr"/>
-      <c r="E140" s="19" t="inlineStr"/>
-      <c r="F140" s="19" t="inlineStr"/>
-      <c r="G140" s="19" t="inlineStr"/>
-      <c r="H140" s="19" t="inlineStr"/>
+      <c r="A140" s="19" t="inlineStr"/>
+      <c r="B140" s="20" t="inlineStr"/>
+      <c r="C140" s="20" t="inlineStr"/>
+      <c r="D140" s="20" t="inlineStr"/>
+      <c r="E140" s="20" t="inlineStr"/>
+      <c r="F140" s="20" t="inlineStr"/>
+      <c r="G140" s="20" t="inlineStr"/>
+      <c r="H140" s="20" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="20" t="inlineStr"/>
-      <c r="B141" s="21" t="inlineStr"/>
-      <c r="C141" s="21" t="inlineStr"/>
-      <c r="D141" s="21" t="inlineStr"/>
-      <c r="E141" s="21" t="inlineStr"/>
-      <c r="F141" s="21" t="inlineStr"/>
-      <c r="G141" s="21" t="inlineStr"/>
-      <c r="H141" s="21" t="inlineStr"/>
+      <c r="A141" s="21" t="inlineStr"/>
+      <c r="B141" s="22" t="inlineStr"/>
+      <c r="C141" s="22" t="inlineStr"/>
+      <c r="D141" s="22" t="inlineStr"/>
+      <c r="E141" s="22" t="inlineStr"/>
+      <c r="F141" s="22" t="inlineStr"/>
+      <c r="G141" s="22" t="inlineStr"/>
+      <c r="H141" s="22" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="18" t="inlineStr"/>
-      <c r="B142" s="19" t="inlineStr"/>
-      <c r="C142" s="19" t="inlineStr"/>
-      <c r="D142" s="19" t="inlineStr"/>
-      <c r="E142" s="19" t="inlineStr"/>
-      <c r="F142" s="19" t="inlineStr"/>
-      <c r="G142" s="19" t="inlineStr"/>
-      <c r="H142" s="19" t="inlineStr"/>
+      <c r="A142" s="19" t="inlineStr"/>
+      <c r="B142" s="20" t="inlineStr"/>
+      <c r="C142" s="20" t="inlineStr"/>
+      <c r="D142" s="20" t="inlineStr"/>
+      <c r="E142" s="20" t="inlineStr"/>
+      <c r="F142" s="20" t="inlineStr"/>
+      <c r="G142" s="20" t="inlineStr"/>
+      <c r="H142" s="20" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="20" t="inlineStr"/>
-      <c r="B143" s="21" t="inlineStr"/>
-      <c r="C143" s="21" t="inlineStr"/>
-      <c r="D143" s="21" t="inlineStr"/>
-      <c r="E143" s="21" t="inlineStr"/>
-      <c r="F143" s="21" t="inlineStr"/>
-      <c r="G143" s="21" t="inlineStr"/>
-      <c r="H143" s="21" t="inlineStr"/>
+      <c r="A143" s="21" t="inlineStr"/>
+      <c r="B143" s="22" t="inlineStr"/>
+      <c r="C143" s="22" t="inlineStr"/>
+      <c r="D143" s="22" t="inlineStr"/>
+      <c r="E143" s="22" t="inlineStr"/>
+      <c r="F143" s="22" t="inlineStr"/>
+      <c r="G143" s="22" t="inlineStr"/>
+      <c r="H143" s="22" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="18" t="inlineStr"/>
-      <c r="B144" s="19" t="inlineStr"/>
-      <c r="C144" s="19" t="inlineStr"/>
-      <c r="D144" s="19" t="inlineStr"/>
-      <c r="E144" s="19" t="inlineStr"/>
-      <c r="F144" s="19" t="inlineStr"/>
-      <c r="G144" s="19" t="inlineStr"/>
-      <c r="H144" s="19" t="inlineStr"/>
+      <c r="A144" s="19" t="inlineStr"/>
+      <c r="B144" s="20" t="inlineStr"/>
+      <c r="C144" s="20" t="inlineStr"/>
+      <c r="D144" s="20" t="inlineStr"/>
+      <c r="E144" s="20" t="inlineStr"/>
+      <c r="F144" s="20" t="inlineStr"/>
+      <c r="G144" s="20" t="inlineStr"/>
+      <c r="H144" s="20" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="20" t="inlineStr"/>
-      <c r="B145" s="21" t="inlineStr"/>
-      <c r="C145" s="21" t="inlineStr"/>
-      <c r="D145" s="21" t="inlineStr"/>
-      <c r="E145" s="21" t="inlineStr"/>
-      <c r="F145" s="21" t="inlineStr"/>
-      <c r="G145" s="21" t="inlineStr"/>
-      <c r="H145" s="21" t="inlineStr"/>
+      <c r="A145" s="21" t="inlineStr"/>
+      <c r="B145" s="22" t="inlineStr"/>
+      <c r="C145" s="22" t="inlineStr"/>
+      <c r="D145" s="22" t="inlineStr"/>
+      <c r="E145" s="22" t="inlineStr"/>
+      <c r="F145" s="22" t="inlineStr"/>
+      <c r="G145" s="22" t="inlineStr"/>
+      <c r="H145" s="22" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="18" t="inlineStr"/>
-      <c r="B146" s="19" t="inlineStr"/>
-      <c r="C146" s="19" t="inlineStr"/>
-      <c r="D146" s="19" t="inlineStr"/>
-      <c r="E146" s="19" t="inlineStr"/>
-      <c r="F146" s="19" t="inlineStr"/>
-      <c r="G146" s="19" t="inlineStr"/>
-      <c r="H146" s="19" t="inlineStr"/>
+      <c r="A146" s="19" t="inlineStr"/>
+      <c r="B146" s="20" t="inlineStr"/>
+      <c r="C146" s="20" t="inlineStr"/>
+      <c r="D146" s="20" t="inlineStr"/>
+      <c r="E146" s="20" t="inlineStr"/>
+      <c r="F146" s="20" t="inlineStr"/>
+      <c r="G146" s="20" t="inlineStr"/>
+      <c r="H146" s="20" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="20" t="inlineStr"/>
-      <c r="B147" s="21" t="inlineStr"/>
-      <c r="C147" s="21" t="inlineStr"/>
-      <c r="D147" s="21" t="inlineStr"/>
-      <c r="E147" s="21" t="inlineStr"/>
-      <c r="F147" s="21" t="inlineStr"/>
-      <c r="G147" s="21" t="inlineStr"/>
-      <c r="H147" s="21" t="inlineStr"/>
+      <c r="A147" s="21" t="inlineStr"/>
+      <c r="B147" s="22" t="inlineStr"/>
+      <c r="C147" s="22" t="inlineStr"/>
+      <c r="D147" s="22" t="inlineStr"/>
+      <c r="E147" s="22" t="inlineStr"/>
+      <c r="F147" s="22" t="inlineStr"/>
+      <c r="G147" s="22" t="inlineStr"/>
+      <c r="H147" s="22" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="18" t="inlineStr"/>
-      <c r="B148" s="19" t="inlineStr"/>
-      <c r="C148" s="19" t="inlineStr"/>
-      <c r="D148" s="19" t="inlineStr"/>
-      <c r="E148" s="19" t="inlineStr"/>
-      <c r="F148" s="19" t="inlineStr"/>
-      <c r="G148" s="19" t="inlineStr"/>
-      <c r="H148" s="19" t="inlineStr"/>
+      <c r="A148" s="19" t="inlineStr"/>
+      <c r="B148" s="20" t="inlineStr"/>
+      <c r="C148" s="20" t="inlineStr"/>
+      <c r="D148" s="20" t="inlineStr"/>
+      <c r="E148" s="20" t="inlineStr"/>
+      <c r="F148" s="20" t="inlineStr"/>
+      <c r="G148" s="20" t="inlineStr"/>
+      <c r="H148" s="20" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="20" t="inlineStr"/>
-      <c r="B149" s="21" t="inlineStr"/>
-      <c r="C149" s="21" t="inlineStr"/>
-      <c r="D149" s="21" t="inlineStr"/>
-      <c r="E149" s="21" t="inlineStr"/>
-      <c r="F149" s="21" t="inlineStr"/>
-      <c r="G149" s="21" t="inlineStr"/>
-      <c r="H149" s="21" t="inlineStr"/>
+      <c r="A149" s="21" t="inlineStr"/>
+      <c r="B149" s="22" t="inlineStr"/>
+      <c r="C149" s="22" t="inlineStr"/>
+      <c r="D149" s="22" t="inlineStr"/>
+      <c r="E149" s="22" t="inlineStr"/>
+      <c r="F149" s="22" t="inlineStr"/>
+      <c r="G149" s="22" t="inlineStr"/>
+      <c r="H149" s="22" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="18" t="inlineStr"/>
-      <c r="B150" s="19" t="inlineStr"/>
-      <c r="C150" s="19" t="inlineStr"/>
-      <c r="D150" s="19" t="inlineStr"/>
-      <c r="E150" s="19" t="inlineStr"/>
-      <c r="F150" s="19" t="inlineStr"/>
-      <c r="G150" s="19" t="inlineStr"/>
-      <c r="H150" s="19" t="inlineStr"/>
+      <c r="A150" s="19" t="inlineStr"/>
+      <c r="B150" s="20" t="inlineStr"/>
+      <c r="C150" s="20" t="inlineStr"/>
+      <c r="D150" s="20" t="inlineStr"/>
+      <c r="E150" s="20" t="inlineStr"/>
+      <c r="F150" s="20" t="inlineStr"/>
+      <c r="G150" s="20" t="inlineStr"/>
+      <c r="H150" s="20" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="20" t="inlineStr"/>
-      <c r="B151" s="21" t="inlineStr"/>
-      <c r="C151" s="21" t="inlineStr"/>
-      <c r="D151" s="21" t="inlineStr"/>
-      <c r="E151" s="21" t="inlineStr"/>
-      <c r="F151" s="21" t="inlineStr"/>
-      <c r="G151" s="21" t="inlineStr"/>
-      <c r="H151" s="21" t="inlineStr"/>
+      <c r="A151" s="21" t="inlineStr"/>
+      <c r="B151" s="22" t="inlineStr"/>
+      <c r="C151" s="22" t="inlineStr"/>
+      <c r="D151" s="22" t="inlineStr"/>
+      <c r="E151" s="22" t="inlineStr"/>
+      <c r="F151" s="22" t="inlineStr"/>
+      <c r="G151" s="22" t="inlineStr"/>
+      <c r="H151" s="22" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="18" t="inlineStr"/>
-      <c r="B152" s="19" t="inlineStr"/>
-      <c r="C152" s="19" t="inlineStr"/>
-      <c r="D152" s="19" t="inlineStr"/>
-      <c r="E152" s="19" t="inlineStr"/>
-      <c r="F152" s="19" t="inlineStr"/>
-      <c r="G152" s="19" t="inlineStr"/>
-      <c r="H152" s="19" t="inlineStr"/>
+      <c r="A152" s="19" t="inlineStr"/>
+      <c r="B152" s="20" t="inlineStr"/>
+      <c r="C152" s="20" t="inlineStr"/>
+      <c r="D152" s="20" t="inlineStr"/>
+      <c r="E152" s="20" t="inlineStr"/>
+      <c r="F152" s="20" t="inlineStr"/>
+      <c r="G152" s="20" t="inlineStr"/>
+      <c r="H152" s="20" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" s="20" t="inlineStr"/>
-      <c r="B153" s="21" t="inlineStr"/>
-      <c r="C153" s="21" t="inlineStr"/>
-      <c r="D153" s="21" t="inlineStr"/>
-      <c r="E153" s="21" t="inlineStr"/>
-      <c r="F153" s="21" t="inlineStr"/>
-      <c r="G153" s="21" t="inlineStr"/>
-      <c r="H153" s="21" t="inlineStr"/>
+      <c r="A153" s="21" t="inlineStr"/>
+      <c r="B153" s="22" t="inlineStr"/>
+      <c r="C153" s="22" t="inlineStr"/>
+      <c r="D153" s="22" t="inlineStr"/>
+      <c r="E153" s="22" t="inlineStr"/>
+      <c r="F153" s="22" t="inlineStr"/>
+      <c r="G153" s="22" t="inlineStr"/>
+      <c r="H153" s="22" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="18" t="inlineStr"/>
-      <c r="B154" s="19" t="inlineStr"/>
-      <c r="C154" s="19" t="inlineStr"/>
-      <c r="D154" s="19" t="inlineStr"/>
-      <c r="E154" s="19" t="inlineStr"/>
-      <c r="F154" s="19" t="inlineStr"/>
-      <c r="G154" s="19" t="inlineStr"/>
-      <c r="H154" s="19" t="inlineStr"/>
+      <c r="A154" s="19" t="inlineStr"/>
+      <c r="B154" s="20" t="inlineStr"/>
+      <c r="C154" s="20" t="inlineStr"/>
+      <c r="D154" s="20" t="inlineStr"/>
+      <c r="E154" s="20" t="inlineStr"/>
+      <c r="F154" s="20" t="inlineStr"/>
+      <c r="G154" s="20" t="inlineStr"/>
+      <c r="H154" s="20" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" s="20" t="inlineStr"/>
-      <c r="B155" s="21" t="inlineStr"/>
-      <c r="C155" s="21" t="inlineStr"/>
-      <c r="D155" s="21" t="inlineStr"/>
-      <c r="E155" s="21" t="inlineStr"/>
-      <c r="F155" s="21" t="inlineStr"/>
-      <c r="G155" s="21" t="inlineStr"/>
-      <c r="H155" s="21" t="inlineStr"/>
+      <c r="A155" s="21" t="inlineStr"/>
+      <c r="B155" s="22" t="inlineStr"/>
+      <c r="C155" s="22" t="inlineStr"/>
+      <c r="D155" s="22" t="inlineStr"/>
+      <c r="E155" s="22" t="inlineStr"/>
+      <c r="F155" s="22" t="inlineStr"/>
+      <c r="G155" s="22" t="inlineStr"/>
+      <c r="H155" s="22" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="18" t="inlineStr"/>
-      <c r="B156" s="19" t="inlineStr"/>
-      <c r="C156" s="19" t="inlineStr"/>
-      <c r="D156" s="19" t="inlineStr"/>
-      <c r="E156" s="19" t="inlineStr"/>
-      <c r="F156" s="19" t="inlineStr"/>
-      <c r="G156" s="19" t="inlineStr"/>
-      <c r="H156" s="19" t="inlineStr"/>
+      <c r="A156" s="19" t="inlineStr"/>
+      <c r="B156" s="20" t="inlineStr"/>
+      <c r="C156" s="20" t="inlineStr"/>
+      <c r="D156" s="20" t="inlineStr"/>
+      <c r="E156" s="20" t="inlineStr"/>
+      <c r="F156" s="20" t="inlineStr"/>
+      <c r="G156" s="20" t="inlineStr"/>
+      <c r="H156" s="20" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="20" t="inlineStr"/>
-      <c r="B157" s="21" t="inlineStr"/>
-      <c r="C157" s="21" t="inlineStr"/>
-      <c r="D157" s="21" t="inlineStr"/>
-      <c r="E157" s="21" t="inlineStr"/>
-      <c r="F157" s="21" t="inlineStr"/>
-      <c r="G157" s="21" t="inlineStr"/>
-      <c r="H157" s="21" t="inlineStr"/>
+      <c r="A157" s="21" t="inlineStr"/>
+      <c r="B157" s="22" t="inlineStr"/>
+      <c r="C157" s="22" t="inlineStr"/>
+      <c r="D157" s="22" t="inlineStr"/>
+      <c r="E157" s="22" t="inlineStr"/>
+      <c r="F157" s="22" t="inlineStr"/>
+      <c r="G157" s="22" t="inlineStr"/>
+      <c r="H157" s="22" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="18" t="inlineStr"/>
-      <c r="B158" s="19" t="inlineStr"/>
-      <c r="C158" s="19" t="inlineStr"/>
-      <c r="D158" s="19" t="inlineStr"/>
-      <c r="E158" s="19" t="inlineStr"/>
-      <c r="F158" s="19" t="inlineStr"/>
-      <c r="G158" s="19" t="inlineStr"/>
-      <c r="H158" s="19" t="inlineStr"/>
+      <c r="A158" s="19" t="inlineStr"/>
+      <c r="B158" s="20" t="inlineStr"/>
+      <c r="C158" s="20" t="inlineStr"/>
+      <c r="D158" s="20" t="inlineStr"/>
+      <c r="E158" s="20" t="inlineStr"/>
+      <c r="F158" s="20" t="inlineStr"/>
+      <c r="G158" s="20" t="inlineStr"/>
+      <c r="H158" s="20" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="20" t="inlineStr"/>
-      <c r="B159" s="21" t="inlineStr"/>
-      <c r="C159" s="21" t="inlineStr"/>
-      <c r="D159" s="21" t="inlineStr"/>
-      <c r="E159" s="21" t="inlineStr"/>
-      <c r="F159" s="21" t="inlineStr"/>
-      <c r="G159" s="21" t="inlineStr"/>
-      <c r="H159" s="21" t="inlineStr"/>
+      <c r="A159" s="21" t="inlineStr"/>
+      <c r="B159" s="22" t="inlineStr"/>
+      <c r="C159" s="22" t="inlineStr"/>
+      <c r="D159" s="22" t="inlineStr"/>
+      <c r="E159" s="22" t="inlineStr"/>
+      <c r="F159" s="22" t="inlineStr"/>
+      <c r="G159" s="22" t="inlineStr"/>
+      <c r="H159" s="22" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="18" t="inlineStr"/>
-      <c r="B160" s="19" t="inlineStr"/>
-      <c r="C160" s="19" t="inlineStr"/>
-      <c r="D160" s="19" t="inlineStr"/>
-      <c r="E160" s="19" t="inlineStr"/>
-      <c r="F160" s="19" t="inlineStr"/>
-      <c r="G160" s="19" t="inlineStr"/>
-      <c r="H160" s="19" t="inlineStr"/>
+      <c r="A160" s="19" t="inlineStr"/>
+      <c r="B160" s="20" t="inlineStr"/>
+      <c r="C160" s="20" t="inlineStr"/>
+      <c r="D160" s="20" t="inlineStr"/>
+      <c r="E160" s="20" t="inlineStr"/>
+      <c r="F160" s="20" t="inlineStr"/>
+      <c r="G160" s="20" t="inlineStr"/>
+      <c r="H160" s="20" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="20" t="inlineStr"/>
-      <c r="B161" s="21" t="inlineStr"/>
-      <c r="C161" s="21" t="inlineStr"/>
-      <c r="D161" s="21" t="inlineStr"/>
-      <c r="E161" s="21" t="inlineStr"/>
-      <c r="F161" s="21" t="inlineStr"/>
-      <c r="G161" s="21" t="inlineStr"/>
-      <c r="H161" s="21" t="inlineStr"/>
+      <c r="A161" s="21" t="inlineStr"/>
+      <c r="B161" s="22" t="inlineStr"/>
+      <c r="C161" s="22" t="inlineStr"/>
+      <c r="D161" s="22" t="inlineStr"/>
+      <c r="E161" s="22" t="inlineStr"/>
+      <c r="F161" s="22" t="inlineStr"/>
+      <c r="G161" s="22" t="inlineStr"/>
+      <c r="H161" s="22" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="18" t="inlineStr"/>
-      <c r="B162" s="19" t="inlineStr"/>
-      <c r="C162" s="19" t="inlineStr"/>
-      <c r="D162" s="19" t="inlineStr"/>
-      <c r="E162" s="19" t="inlineStr"/>
-      <c r="F162" s="19" t="inlineStr"/>
-      <c r="G162" s="19" t="inlineStr"/>
-      <c r="H162" s="19" t="inlineStr"/>
+      <c r="A162" s="19" t="inlineStr"/>
+      <c r="B162" s="20" t="inlineStr"/>
+      <c r="C162" s="20" t="inlineStr"/>
+      <c r="D162" s="20" t="inlineStr"/>
+      <c r="E162" s="20" t="inlineStr"/>
+      <c r="F162" s="20" t="inlineStr"/>
+      <c r="G162" s="20" t="inlineStr"/>
+      <c r="H162" s="20" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" s="20" t="inlineStr"/>
-      <c r="B163" s="21" t="inlineStr"/>
-      <c r="C163" s="21" t="inlineStr"/>
-      <c r="D163" s="21" t="inlineStr"/>
-      <c r="E163" s="21" t="inlineStr"/>
-      <c r="F163" s="21" t="inlineStr"/>
-      <c r="G163" s="21" t="inlineStr"/>
-      <c r="H163" s="21" t="inlineStr"/>
+      <c r="A163" s="21" t="inlineStr"/>
+      <c r="B163" s="22" t="inlineStr"/>
+      <c r="C163" s="22" t="inlineStr"/>
+      <c r="D163" s="22" t="inlineStr"/>
+      <c r="E163" s="22" t="inlineStr"/>
+      <c r="F163" s="22" t="inlineStr"/>
+      <c r="G163" s="22" t="inlineStr"/>
+      <c r="H163" s="22" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="18" t="inlineStr"/>
-      <c r="B164" s="19" t="inlineStr"/>
-      <c r="C164" s="19" t="inlineStr"/>
-      <c r="D164" s="19" t="inlineStr"/>
-      <c r="E164" s="19" t="inlineStr"/>
-      <c r="F164" s="19" t="inlineStr"/>
-      <c r="G164" s="19" t="inlineStr"/>
-      <c r="H164" s="19" t="inlineStr"/>
+      <c r="A164" s="19" t="inlineStr"/>
+      <c r="B164" s="20" t="inlineStr"/>
+      <c r="C164" s="20" t="inlineStr"/>
+      <c r="D164" s="20" t="inlineStr"/>
+      <c r="E164" s="20" t="inlineStr"/>
+      <c r="F164" s="20" t="inlineStr"/>
+      <c r="G164" s="20" t="inlineStr"/>
+      <c r="H164" s="20" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="20" t="inlineStr"/>
-      <c r="B165" s="21" t="inlineStr"/>
-      <c r="C165" s="21" t="inlineStr"/>
-      <c r="D165" s="21" t="inlineStr"/>
-      <c r="E165" s="21" t="inlineStr"/>
-      <c r="F165" s="21" t="inlineStr"/>
-      <c r="G165" s="21" t="inlineStr"/>
-      <c r="H165" s="21" t="inlineStr"/>
+      <c r="A165" s="21" t="inlineStr"/>
+      <c r="B165" s="22" t="inlineStr"/>
+      <c r="C165" s="22" t="inlineStr"/>
+      <c r="D165" s="22" t="inlineStr"/>
+      <c r="E165" s="22" t="inlineStr"/>
+      <c r="F165" s="22" t="inlineStr"/>
+      <c r="G165" s="22" t="inlineStr"/>
+      <c r="H165" s="22" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="18" t="inlineStr"/>
-      <c r="B166" s="19" t="inlineStr"/>
-      <c r="C166" s="19" t="inlineStr"/>
-      <c r="D166" s="19" t="inlineStr"/>
-      <c r="E166" s="19" t="inlineStr"/>
-      <c r="F166" s="19" t="inlineStr"/>
-      <c r="G166" s="19" t="inlineStr"/>
-      <c r="H166" s="19" t="inlineStr"/>
+      <c r="A166" s="19" t="inlineStr"/>
+      <c r="B166" s="20" t="inlineStr"/>
+      <c r="C166" s="20" t="inlineStr"/>
+      <c r="D166" s="20" t="inlineStr"/>
+      <c r="E166" s="20" t="inlineStr"/>
+      <c r="F166" s="20" t="inlineStr"/>
+      <c r="G166" s="20" t="inlineStr"/>
+      <c r="H166" s="20" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="20" t="inlineStr"/>
-      <c r="B167" s="21" t="inlineStr"/>
-      <c r="C167" s="21" t="inlineStr"/>
-      <c r="D167" s="21" t="inlineStr"/>
-      <c r="E167" s="21" t="inlineStr"/>
-      <c r="F167" s="21" t="inlineStr"/>
-      <c r="G167" s="21" t="inlineStr"/>
-      <c r="H167" s="21" t="inlineStr"/>
+      <c r="A167" s="21" t="inlineStr"/>
+      <c r="B167" s="22" t="inlineStr"/>
+      <c r="C167" s="22" t="inlineStr"/>
+      <c r="D167" s="22" t="inlineStr"/>
+      <c r="E167" s="22" t="inlineStr"/>
+      <c r="F167" s="22" t="inlineStr"/>
+      <c r="G167" s="22" t="inlineStr"/>
+      <c r="H167" s="22" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="18" t="inlineStr"/>
-      <c r="B168" s="19" t="inlineStr"/>
-      <c r="C168" s="19" t="inlineStr"/>
-      <c r="D168" s="19" t="inlineStr"/>
-      <c r="E168" s="19" t="inlineStr"/>
-      <c r="F168" s="19" t="inlineStr"/>
-      <c r="G168" s="19" t="inlineStr"/>
-      <c r="H168" s="19" t="inlineStr"/>
+      <c r="A168" s="19" t="inlineStr"/>
+      <c r="B168" s="20" t="inlineStr"/>
+      <c r="C168" s="20" t="inlineStr"/>
+      <c r="D168" s="20" t="inlineStr"/>
+      <c r="E168" s="20" t="inlineStr"/>
+      <c r="F168" s="20" t="inlineStr"/>
+      <c r="G168" s="20" t="inlineStr"/>
+      <c r="H168" s="20" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="20" t="inlineStr"/>
-      <c r="B169" s="21" t="inlineStr"/>
-      <c r="C169" s="21" t="inlineStr"/>
-      <c r="D169" s="21" t="inlineStr"/>
-      <c r="E169" s="21" t="inlineStr"/>
-      <c r="F169" s="21" t="inlineStr"/>
-      <c r="G169" s="21" t="inlineStr"/>
-      <c r="H169" s="21" t="inlineStr"/>
+      <c r="A169" s="21" t="inlineStr"/>
+      <c r="B169" s="22" t="inlineStr"/>
+      <c r="C169" s="22" t="inlineStr"/>
+      <c r="D169" s="22" t="inlineStr"/>
+      <c r="E169" s="22" t="inlineStr"/>
+      <c r="F169" s="22" t="inlineStr"/>
+      <c r="G169" s="22" t="inlineStr"/>
+      <c r="H169" s="22" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" s="18" t="inlineStr"/>
-      <c r="B170" s="19" t="inlineStr"/>
-      <c r="C170" s="19" t="inlineStr"/>
-      <c r="D170" s="19" t="inlineStr"/>
-      <c r="E170" s="19" t="inlineStr"/>
-      <c r="F170" s="19" t="inlineStr"/>
-      <c r="G170" s="19" t="inlineStr"/>
-      <c r="H170" s="19" t="inlineStr"/>
+      <c r="A170" s="19" t="inlineStr"/>
+      <c r="B170" s="20" t="inlineStr"/>
+      <c r="C170" s="20" t="inlineStr"/>
+      <c r="D170" s="20" t="inlineStr"/>
+      <c r="E170" s="20" t="inlineStr"/>
+      <c r="F170" s="20" t="inlineStr"/>
+      <c r="G170" s="20" t="inlineStr"/>
+      <c r="H170" s="20" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="20" t="inlineStr"/>
-      <c r="B171" s="21" t="inlineStr"/>
-      <c r="C171" s="21" t="inlineStr"/>
-      <c r="D171" s="21" t="inlineStr"/>
-      <c r="E171" s="21" t="inlineStr"/>
-      <c r="F171" s="21" t="inlineStr"/>
-      <c r="G171" s="21" t="inlineStr"/>
-      <c r="H171" s="21" t="inlineStr"/>
+      <c r="A171" s="21" t="inlineStr"/>
+      <c r="B171" s="22" t="inlineStr"/>
+      <c r="C171" s="22" t="inlineStr"/>
+      <c r="D171" s="22" t="inlineStr"/>
+      <c r="E171" s="22" t="inlineStr"/>
+      <c r="F171" s="22" t="inlineStr"/>
+      <c r="G171" s="22" t="inlineStr"/>
+      <c r="H171" s="22" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="18" t="inlineStr"/>
-      <c r="B172" s="19" t="inlineStr"/>
-      <c r="C172" s="19" t="inlineStr"/>
-      <c r="D172" s="19" t="inlineStr"/>
-      <c r="E172" s="19" t="inlineStr"/>
-      <c r="F172" s="19" t="inlineStr"/>
-      <c r="G172" s="19" t="inlineStr"/>
-      <c r="H172" s="19" t="inlineStr"/>
+      <c r="A172" s="19" t="inlineStr"/>
+      <c r="B172" s="20" t="inlineStr"/>
+      <c r="C172" s="20" t="inlineStr"/>
+      <c r="D172" s="20" t="inlineStr"/>
+      <c r="E172" s="20" t="inlineStr"/>
+      <c r="F172" s="20" t="inlineStr"/>
+      <c r="G172" s="20" t="inlineStr"/>
+      <c r="H172" s="20" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" s="20" t="inlineStr"/>
-      <c r="B173" s="21" t="inlineStr"/>
-      <c r="C173" s="21" t="inlineStr"/>
-      <c r="D173" s="21" t="inlineStr"/>
-      <c r="E173" s="21" t="inlineStr"/>
-      <c r="F173" s="21" t="inlineStr"/>
-      <c r="G173" s="21" t="inlineStr"/>
-      <c r="H173" s="21" t="inlineStr"/>
+      <c r="A173" s="21" t="inlineStr"/>
+      <c r="B173" s="22" t="inlineStr"/>
+      <c r="C173" s="22" t="inlineStr"/>
+      <c r="D173" s="22" t="inlineStr"/>
+      <c r="E173" s="22" t="inlineStr"/>
+      <c r="F173" s="22" t="inlineStr"/>
+      <c r="G173" s="22" t="inlineStr"/>
+      <c r="H173" s="22" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="18" t="inlineStr"/>
-      <c r="B174" s="19" t="inlineStr"/>
-      <c r="C174" s="19" t="inlineStr"/>
-      <c r="D174" s="19" t="inlineStr"/>
-      <c r="E174" s="19" t="inlineStr"/>
-      <c r="F174" s="19" t="inlineStr"/>
-      <c r="G174" s="19" t="inlineStr"/>
-      <c r="H174" s="19" t="inlineStr"/>
+      <c r="A174" s="19" t="inlineStr"/>
+      <c r="B174" s="20" t="inlineStr"/>
+      <c r="C174" s="20" t="inlineStr"/>
+      <c r="D174" s="20" t="inlineStr"/>
+      <c r="E174" s="20" t="inlineStr"/>
+      <c r="F174" s="20" t="inlineStr"/>
+      <c r="G174" s="20" t="inlineStr"/>
+      <c r="H174" s="20" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="20" t="inlineStr"/>
-      <c r="B175" s="21" t="inlineStr"/>
-      <c r="C175" s="21" t="inlineStr"/>
-      <c r="D175" s="21" t="inlineStr"/>
-      <c r="E175" s="21" t="inlineStr"/>
-      <c r="F175" s="21" t="inlineStr"/>
-      <c r="G175" s="21" t="inlineStr"/>
-      <c r="H175" s="21" t="inlineStr"/>
+      <c r="A175" s="21" t="inlineStr"/>
+      <c r="B175" s="22" t="inlineStr"/>
+      <c r="C175" s="22" t="inlineStr"/>
+      <c r="D175" s="22" t="inlineStr"/>
+      <c r="E175" s="22" t="inlineStr"/>
+      <c r="F175" s="22" t="inlineStr"/>
+      <c r="G175" s="22" t="inlineStr"/>
+      <c r="H175" s="22" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="18" t="inlineStr"/>
-      <c r="B176" s="19" t="inlineStr"/>
-      <c r="C176" s="19" t="inlineStr"/>
-      <c r="D176" s="19" t="inlineStr"/>
-      <c r="E176" s="19" t="inlineStr"/>
-      <c r="F176" s="19" t="inlineStr"/>
-      <c r="G176" s="19" t="inlineStr"/>
-      <c r="H176" s="19" t="inlineStr"/>
+      <c r="A176" s="19" t="inlineStr"/>
+      <c r="B176" s="20" t="inlineStr"/>
+      <c r="C176" s="20" t="inlineStr"/>
+      <c r="D176" s="20" t="inlineStr"/>
+      <c r="E176" s="20" t="inlineStr"/>
+      <c r="F176" s="20" t="inlineStr"/>
+      <c r="G176" s="20" t="inlineStr"/>
+      <c r="H176" s="20" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="20" t="inlineStr"/>
-      <c r="B177" s="21" t="inlineStr"/>
-      <c r="C177" s="21" t="inlineStr"/>
-      <c r="D177" s="21" t="inlineStr"/>
-      <c r="E177" s="21" t="inlineStr"/>
-      <c r="F177" s="21" t="inlineStr"/>
-      <c r="G177" s="21" t="inlineStr"/>
-      <c r="H177" s="21" t="inlineStr"/>
+      <c r="A177" s="21" t="inlineStr"/>
+      <c r="B177" s="22" t="inlineStr"/>
+      <c r="C177" s="22" t="inlineStr"/>
+      <c r="D177" s="22" t="inlineStr"/>
+      <c r="E177" s="22" t="inlineStr"/>
+      <c r="F177" s="22" t="inlineStr"/>
+      <c r="G177" s="22" t="inlineStr"/>
+      <c r="H177" s="22" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" s="18" t="inlineStr"/>
-      <c r="B178" s="19" t="inlineStr"/>
-      <c r="C178" s="19" t="inlineStr"/>
-      <c r="D178" s="19" t="inlineStr"/>
-      <c r="E178" s="19" t="inlineStr"/>
-      <c r="F178" s="19" t="inlineStr"/>
-      <c r="G178" s="19" t="inlineStr"/>
-      <c r="H178" s="19" t="inlineStr"/>
+      <c r="A178" s="19" t="inlineStr"/>
+      <c r="B178" s="20" t="inlineStr"/>
+      <c r="C178" s="20" t="inlineStr"/>
+      <c r="D178" s="20" t="inlineStr"/>
+      <c r="E178" s="20" t="inlineStr"/>
+      <c r="F178" s="20" t="inlineStr"/>
+      <c r="G178" s="20" t="inlineStr"/>
+      <c r="H178" s="20" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="20" t="inlineStr"/>
-      <c r="B179" s="21" t="inlineStr"/>
-      <c r="C179" s="21" t="inlineStr"/>
-      <c r="D179" s="21" t="inlineStr"/>
-      <c r="E179" s="21" t="inlineStr"/>
-      <c r="F179" s="21" t="inlineStr"/>
-      <c r="G179" s="21" t="inlineStr"/>
-      <c r="H179" s="21" t="inlineStr"/>
+      <c r="A179" s="21" t="inlineStr"/>
+      <c r="B179" s="22" t="inlineStr"/>
+      <c r="C179" s="22" t="inlineStr"/>
+      <c r="D179" s="22" t="inlineStr"/>
+      <c r="E179" s="22" t="inlineStr"/>
+      <c r="F179" s="22" t="inlineStr"/>
+      <c r="G179" s="22" t="inlineStr"/>
+      <c r="H179" s="22" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="18" t="inlineStr"/>
-      <c r="B180" s="19" t="inlineStr"/>
-      <c r="C180" s="19" t="inlineStr"/>
-      <c r="D180" s="19" t="inlineStr"/>
-      <c r="E180" s="19" t="inlineStr"/>
-      <c r="F180" s="19" t="inlineStr"/>
-      <c r="G180" s="19" t="inlineStr"/>
-      <c r="H180" s="19" t="inlineStr"/>
+      <c r="A180" s="19" t="inlineStr"/>
+      <c r="B180" s="20" t="inlineStr"/>
+      <c r="C180" s="20" t="inlineStr"/>
+      <c r="D180" s="20" t="inlineStr"/>
+      <c r="E180" s="20" t="inlineStr"/>
+      <c r="F180" s="20" t="inlineStr"/>
+      <c r="G180" s="20" t="inlineStr"/>
+      <c r="H180" s="20" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="20" t="inlineStr"/>
-      <c r="B181" s="21" t="inlineStr"/>
-      <c r="C181" s="21" t="inlineStr"/>
-      <c r="D181" s="21" t="inlineStr"/>
-      <c r="E181" s="21" t="inlineStr"/>
-      <c r="F181" s="21" t="inlineStr"/>
-      <c r="G181" s="21" t="inlineStr"/>
-      <c r="H181" s="21" t="inlineStr"/>
+      <c r="A181" s="21" t="inlineStr"/>
+      <c r="B181" s="22" t="inlineStr"/>
+      <c r="C181" s="22" t="inlineStr"/>
+      <c r="D181" s="22" t="inlineStr"/>
+      <c r="E181" s="22" t="inlineStr"/>
+      <c r="F181" s="22" t="inlineStr"/>
+      <c r="G181" s="22" t="inlineStr"/>
+      <c r="H181" s="22" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="18" t="inlineStr"/>
-      <c r="B182" s="19" t="inlineStr"/>
-      <c r="C182" s="19" t="inlineStr"/>
-      <c r="D182" s="19" t="inlineStr"/>
-      <c r="E182" s="19" t="inlineStr"/>
-      <c r="F182" s="19" t="inlineStr"/>
-      <c r="G182" s="19" t="inlineStr"/>
-      <c r="H182" s="19" t="inlineStr"/>
+      <c r="A182" s="19" t="inlineStr"/>
+      <c r="B182" s="20" t="inlineStr"/>
+      <c r="C182" s="20" t="inlineStr"/>
+      <c r="D182" s="20" t="inlineStr"/>
+      <c r="E182" s="20" t="inlineStr"/>
+      <c r="F182" s="20" t="inlineStr"/>
+      <c r="G182" s="20" t="inlineStr"/>
+      <c r="H182" s="20" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="20" t="inlineStr"/>
-      <c r="B183" s="21" t="inlineStr"/>
-      <c r="C183" s="21" t="inlineStr"/>
-      <c r="D183" s="21" t="inlineStr"/>
-      <c r="E183" s="21" t="inlineStr"/>
-      <c r="F183" s="21" t="inlineStr"/>
-      <c r="G183" s="21" t="inlineStr"/>
-      <c r="H183" s="21" t="inlineStr"/>
+      <c r="A183" s="21" t="inlineStr"/>
+      <c r="B183" s="22" t="inlineStr"/>
+      <c r="C183" s="22" t="inlineStr"/>
+      <c r="D183" s="22" t="inlineStr"/>
+      <c r="E183" s="22" t="inlineStr"/>
+      <c r="F183" s="22" t="inlineStr"/>
+      <c r="G183" s="22" t="inlineStr"/>
+      <c r="H183" s="22" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="18" t="inlineStr"/>
-      <c r="B184" s="19" t="inlineStr"/>
-      <c r="C184" s="19" t="inlineStr"/>
-      <c r="D184" s="19" t="inlineStr"/>
-      <c r="E184" s="19" t="inlineStr"/>
-      <c r="F184" s="19" t="inlineStr"/>
-      <c r="G184" s="19" t="inlineStr"/>
-      <c r="H184" s="19" t="inlineStr"/>
+      <c r="A184" s="19" t="inlineStr"/>
+      <c r="B184" s="20" t="inlineStr"/>
+      <c r="C184" s="20" t="inlineStr"/>
+      <c r="D184" s="20" t="inlineStr"/>
+      <c r="E184" s="20" t="inlineStr"/>
+      <c r="F184" s="20" t="inlineStr"/>
+      <c r="G184" s="20" t="inlineStr"/>
+      <c r="H184" s="20" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="20" t="inlineStr"/>
-      <c r="B185" s="21" t="inlineStr"/>
-      <c r="C185" s="21" t="inlineStr"/>
-      <c r="D185" s="21" t="inlineStr"/>
-      <c r="E185" s="21" t="inlineStr"/>
-      <c r="F185" s="21" t="inlineStr"/>
-      <c r="G185" s="21" t="inlineStr"/>
-      <c r="H185" s="21" t="inlineStr"/>
+      <c r="A185" s="21" t="inlineStr"/>
+      <c r="B185" s="22" t="inlineStr"/>
+      <c r="C185" s="22" t="inlineStr"/>
+      <c r="D185" s="22" t="inlineStr"/>
+      <c r="E185" s="22" t="inlineStr"/>
+      <c r="F185" s="22" t="inlineStr"/>
+      <c r="G185" s="22" t="inlineStr"/>
+      <c r="H185" s="22" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="18" t="inlineStr"/>
-      <c r="B186" s="19" t="inlineStr"/>
-      <c r="C186" s="19" t="inlineStr"/>
-      <c r="D186" s="19" t="inlineStr"/>
-      <c r="E186" s="19" t="inlineStr"/>
-      <c r="F186" s="19" t="inlineStr"/>
-      <c r="G186" s="19" t="inlineStr"/>
-      <c r="H186" s="19" t="inlineStr"/>
+      <c r="A186" s="19" t="inlineStr"/>
+      <c r="B186" s="20" t="inlineStr"/>
+      <c r="C186" s="20" t="inlineStr"/>
+      <c r="D186" s="20" t="inlineStr"/>
+      <c r="E186" s="20" t="inlineStr"/>
+      <c r="F186" s="20" t="inlineStr"/>
+      <c r="G186" s="20" t="inlineStr"/>
+      <c r="H186" s="20" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="20" t="inlineStr"/>
-      <c r="B187" s="21" t="inlineStr"/>
-      <c r="C187" s="21" t="inlineStr"/>
-      <c r="D187" s="21" t="inlineStr"/>
-      <c r="E187" s="21" t="inlineStr"/>
-      <c r="F187" s="21" t="inlineStr"/>
-      <c r="G187" s="21" t="inlineStr"/>
-      <c r="H187" s="21" t="inlineStr"/>
+      <c r="A187" s="21" t="inlineStr"/>
+      <c r="B187" s="22" t="inlineStr"/>
+      <c r="C187" s="22" t="inlineStr"/>
+      <c r="D187" s="22" t="inlineStr"/>
+      <c r="E187" s="22" t="inlineStr"/>
+      <c r="F187" s="22" t="inlineStr"/>
+      <c r="G187" s="22" t="inlineStr"/>
+      <c r="H187" s="22" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="18" t="inlineStr"/>
-      <c r="B188" s="19" t="inlineStr"/>
-      <c r="C188" s="19" t="inlineStr"/>
-      <c r="D188" s="19" t="inlineStr"/>
-      <c r="E188" s="19" t="inlineStr"/>
-      <c r="F188" s="19" t="inlineStr"/>
-      <c r="G188" s="19" t="inlineStr"/>
-      <c r="H188" s="19" t="inlineStr"/>
+      <c r="A188" s="19" t="inlineStr"/>
+      <c r="B188" s="20" t="inlineStr"/>
+      <c r="C188" s="20" t="inlineStr"/>
+      <c r="D188" s="20" t="inlineStr"/>
+      <c r="E188" s="20" t="inlineStr"/>
+      <c r="F188" s="20" t="inlineStr"/>
+      <c r="G188" s="20" t="inlineStr"/>
+      <c r="H188" s="20" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="20" t="inlineStr"/>
-      <c r="B189" s="21" t="inlineStr"/>
-      <c r="C189" s="21" t="inlineStr"/>
-      <c r="D189" s="21" t="inlineStr"/>
-      <c r="E189" s="21" t="inlineStr"/>
-      <c r="F189" s="21" t="inlineStr"/>
-      <c r="G189" s="21" t="inlineStr"/>
-      <c r="H189" s="21" t="inlineStr"/>
+      <c r="A189" s="21" t="inlineStr"/>
+      <c r="B189" s="22" t="inlineStr"/>
+      <c r="C189" s="22" t="inlineStr"/>
+      <c r="D189" s="22" t="inlineStr"/>
+      <c r="E189" s="22" t="inlineStr"/>
+      <c r="F189" s="22" t="inlineStr"/>
+      <c r="G189" s="22" t="inlineStr"/>
+      <c r="H189" s="22" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="18" t="inlineStr"/>
-      <c r="B190" s="19" t="inlineStr"/>
-      <c r="C190" s="19" t="inlineStr"/>
-      <c r="D190" s="19" t="inlineStr"/>
-      <c r="E190" s="19" t="inlineStr"/>
-      <c r="F190" s="19" t="inlineStr"/>
-      <c r="G190" s="19" t="inlineStr"/>
-      <c r="H190" s="19" t="inlineStr"/>
+      <c r="A190" s="19" t="inlineStr"/>
+      <c r="B190" s="20" t="inlineStr"/>
+      <c r="C190" s="20" t="inlineStr"/>
+      <c r="D190" s="20" t="inlineStr"/>
+      <c r="E190" s="20" t="inlineStr"/>
+      <c r="F190" s="20" t="inlineStr"/>
+      <c r="G190" s="20" t="inlineStr"/>
+      <c r="H190" s="20" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="20" t="inlineStr"/>
-      <c r="B191" s="21" t="inlineStr"/>
-      <c r="C191" s="21" t="inlineStr"/>
-      <c r="D191" s="21" t="inlineStr"/>
-      <c r="E191" s="21" t="inlineStr"/>
-      <c r="F191" s="21" t="inlineStr"/>
-      <c r="G191" s="21" t="inlineStr"/>
-      <c r="H191" s="21" t="inlineStr"/>
+      <c r="A191" s="21" t="inlineStr"/>
+      <c r="B191" s="22" t="inlineStr"/>
+      <c r="C191" s="22" t="inlineStr"/>
+      <c r="D191" s="22" t="inlineStr"/>
+      <c r="E191" s="22" t="inlineStr"/>
+      <c r="F191" s="22" t="inlineStr"/>
+      <c r="G191" s="22" t="inlineStr"/>
+      <c r="H191" s="22" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" s="18" t="inlineStr"/>
-      <c r="B192" s="19" t="inlineStr"/>
-      <c r="C192" s="19" t="inlineStr"/>
-      <c r="D192" s="19" t="inlineStr"/>
-      <c r="E192" s="19" t="inlineStr"/>
-      <c r="F192" s="19" t="inlineStr"/>
-      <c r="G192" s="19" t="inlineStr"/>
-      <c r="H192" s="19" t="inlineStr"/>
+      <c r="A192" s="19" t="inlineStr"/>
+      <c r="B192" s="20" t="inlineStr"/>
+      <c r="C192" s="20" t="inlineStr"/>
+      <c r="D192" s="20" t="inlineStr"/>
+      <c r="E192" s="20" t="inlineStr"/>
+      <c r="F192" s="20" t="inlineStr"/>
+      <c r="G192" s="20" t="inlineStr"/>
+      <c r="H192" s="20" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="20" t="inlineStr"/>
-      <c r="B193" s="21" t="inlineStr"/>
-      <c r="C193" s="21" t="inlineStr"/>
-      <c r="D193" s="21" t="inlineStr"/>
-      <c r="E193" s="21" t="inlineStr"/>
-      <c r="F193" s="21" t="inlineStr"/>
-      <c r="G193" s="21" t="inlineStr"/>
-      <c r="H193" s="21" t="inlineStr"/>
+      <c r="A193" s="21" t="inlineStr"/>
+      <c r="B193" s="22" t="inlineStr"/>
+      <c r="C193" s="22" t="inlineStr"/>
+      <c r="D193" s="22" t="inlineStr"/>
+      <c r="E193" s="22" t="inlineStr"/>
+      <c r="F193" s="22" t="inlineStr"/>
+      <c r="G193" s="22" t="inlineStr"/>
+      <c r="H193" s="22" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="18" t="inlineStr"/>
-      <c r="B194" s="19" t="inlineStr"/>
-      <c r="C194" s="19" t="inlineStr"/>
-      <c r="D194" s="19" t="inlineStr"/>
-      <c r="E194" s="19" t="inlineStr"/>
-      <c r="F194" s="19" t="inlineStr"/>
-      <c r="G194" s="19" t="inlineStr"/>
-      <c r="H194" s="19" t="inlineStr"/>
+      <c r="A194" s="19" t="inlineStr"/>
+      <c r="B194" s="20" t="inlineStr"/>
+      <c r="C194" s="20" t="inlineStr"/>
+      <c r="D194" s="20" t="inlineStr"/>
+      <c r="E194" s="20" t="inlineStr"/>
+      <c r="F194" s="20" t="inlineStr"/>
+      <c r="G194" s="20" t="inlineStr"/>
+      <c r="H194" s="20" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="20" t="inlineStr"/>
-      <c r="B195" s="21" t="inlineStr"/>
-      <c r="C195" s="21" t="inlineStr"/>
-      <c r="D195" s="21" t="inlineStr"/>
-      <c r="E195" s="21" t="inlineStr"/>
-      <c r="F195" s="21" t="inlineStr"/>
-      <c r="G195" s="21" t="inlineStr"/>
-      <c r="H195" s="21" t="inlineStr"/>
+      <c r="A195" s="21" t="inlineStr"/>
+      <c r="B195" s="22" t="inlineStr"/>
+      <c r="C195" s="22" t="inlineStr"/>
+      <c r="D195" s="22" t="inlineStr"/>
+      <c r="E195" s="22" t="inlineStr"/>
+      <c r="F195" s="22" t="inlineStr"/>
+      <c r="G195" s="22" t="inlineStr"/>
+      <c r="H195" s="22" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" s="18" t="inlineStr"/>
-      <c r="B196" s="19" t="inlineStr"/>
-      <c r="C196" s="19" t="inlineStr"/>
-      <c r="D196" s="19" t="inlineStr"/>
-      <c r="E196" s="19" t="inlineStr"/>
-      <c r="F196" s="19" t="inlineStr"/>
-      <c r="G196" s="19" t="inlineStr"/>
-      <c r="H196" s="19" t="inlineStr"/>
+      <c r="A196" s="19" t="inlineStr"/>
+      <c r="B196" s="20" t="inlineStr"/>
+      <c r="C196" s="20" t="inlineStr"/>
+      <c r="D196" s="20" t="inlineStr"/>
+      <c r="E196" s="20" t="inlineStr"/>
+      <c r="F196" s="20" t="inlineStr"/>
+      <c r="G196" s="20" t="inlineStr"/>
+      <c r="H196" s="20" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" s="20" t="inlineStr"/>
-      <c r="B197" s="21" t="inlineStr"/>
-      <c r="C197" s="21" t="inlineStr"/>
-      <c r="D197" s="21" t="inlineStr"/>
-      <c r="E197" s="21" t="inlineStr"/>
-      <c r="F197" s="21" t="inlineStr"/>
-      <c r="G197" s="21" t="inlineStr"/>
-      <c r="H197" s="21" t="inlineStr"/>
+      <c r="A197" s="21" t="inlineStr"/>
+      <c r="B197" s="22" t="inlineStr"/>
+      <c r="C197" s="22" t="inlineStr"/>
+      <c r="D197" s="22" t="inlineStr"/>
+      <c r="E197" s="22" t="inlineStr"/>
+      <c r="F197" s="22" t="inlineStr"/>
+      <c r="G197" s="22" t="inlineStr"/>
+      <c r="H197" s="22" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" s="18" t="inlineStr"/>
-      <c r="B198" s="19" t="inlineStr"/>
-      <c r="C198" s="19" t="inlineStr"/>
-      <c r="D198" s="19" t="inlineStr"/>
-      <c r="E198" s="19" t="inlineStr"/>
-      <c r="F198" s="19" t="inlineStr"/>
-      <c r="G198" s="19" t="inlineStr"/>
-      <c r="H198" s="19" t="inlineStr"/>
+      <c r="A198" s="19" t="inlineStr"/>
+      <c r="B198" s="20" t="inlineStr"/>
+      <c r="C198" s="20" t="inlineStr"/>
+      <c r="D198" s="20" t="inlineStr"/>
+      <c r="E198" s="20" t="inlineStr"/>
+      <c r="F198" s="20" t="inlineStr"/>
+      <c r="G198" s="20" t="inlineStr"/>
+      <c r="H198" s="20" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="20" t="inlineStr"/>
-      <c r="B199" s="21" t="inlineStr"/>
-      <c r="C199" s="21" t="inlineStr"/>
-      <c r="D199" s="21" t="inlineStr"/>
-      <c r="E199" s="21" t="inlineStr"/>
-      <c r="F199" s="21" t="inlineStr"/>
-      <c r="G199" s="21" t="inlineStr"/>
-      <c r="H199" s="21" t="inlineStr"/>
+      <c r="A199" s="21" t="inlineStr"/>
+      <c r="B199" s="22" t="inlineStr"/>
+      <c r="C199" s="22" t="inlineStr"/>
+      <c r="D199" s="22" t="inlineStr"/>
+      <c r="E199" s="22" t="inlineStr"/>
+      <c r="F199" s="22" t="inlineStr"/>
+      <c r="G199" s="22" t="inlineStr"/>
+      <c r="H199" s="22" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="18" t="inlineStr"/>
-      <c r="B200" s="19" t="inlineStr"/>
-      <c r="C200" s="19" t="inlineStr"/>
-      <c r="D200" s="19" t="inlineStr"/>
-      <c r="E200" s="19" t="inlineStr"/>
-      <c r="F200" s="19" t="inlineStr"/>
-      <c r="G200" s="19" t="inlineStr"/>
-      <c r="H200" s="19" t="inlineStr"/>
+      <c r="A200" s="19" t="inlineStr"/>
+      <c r="B200" s="20" t="inlineStr"/>
+      <c r="C200" s="20" t="inlineStr"/>
+      <c r="D200" s="20" t="inlineStr"/>
+      <c r="E200" s="20" t="inlineStr"/>
+      <c r="F200" s="20" t="inlineStr"/>
+      <c r="G200" s="20" t="inlineStr"/>
+      <c r="H200" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:H200"/>
@@ -2680,9 +2697,12 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Día inválido" error="Selecciona un día válido" promptTitle="Día" prompt="Selecciona el día de rutina" type="list">
       <formula1>"Lunes - Pecho y Tríceps,Martes - Espalda y Bíceps,Miércoles - Piernas,Jueves - Hombros y Core,Viernes - Full Body"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Ejercicio inválido" error="Selecciona un ejercicio de la rutina" promptTitle="Ejercicio" prompt="Selecciona un ejercicio de la rutina del día" type="list">
+      <formula1>=INDIRECT(I6)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2690,6 +2710,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Lunes - Pecho y Tríceps</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Martes - Espalda y Bíceps</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Miércoles - Piernas</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Jueves - Hombros y Core</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Viernes - Full Body</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Flexiones clásicas</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Remo con mancuernas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Sentadillas</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Press militar con mancuernas</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Burpees</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Flexiones diamante</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dominadas (o banda elástica)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sentadilla búlgara</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Elevaciones laterales</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sentadilla con salto</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Flexiones declinadas</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Remo invertido (mesa)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Zancadas</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Elevaciones frontales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Flexiones</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fondos en silla</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Curl bíceps con mancuerna</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Peso muerto rumano</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Plancha frontal (seg)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Remo con mancuernas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Flexiones abiertas</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Curl martillo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elevación de talones</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Plancha lateral (seg)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Zancadas con salto</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Extensión tríceps con mancuerna</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Superman</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Puente de glúteos</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Crunch abdominal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mountain climbers</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0027AE60"/>
@@ -2725,16 +2953,16 @@
       <c r="F1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="inlineStr">
+      <c r="A2" s="23" t="inlineStr">
         <is>
           <t>Personaliza tus rutinas aquí. Los ejercicios aparecerán en la hoja de Registro.</t>
         </is>
       </c>
-      <c r="B2" s="23" t="n"/>
-      <c r="C2" s="23" t="n"/>
-      <c r="D2" s="23" t="n"/>
-      <c r="E2" s="23" t="n"/>
-      <c r="F2" s="23" t="n"/>
+      <c r="B2" s="24" t="n"/>
+      <c r="C2" s="24" t="n"/>
+      <c r="D2" s="24" t="n"/>
+      <c r="E2" s="24" t="n"/>
+      <c r="F2" s="24" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -2749,120 +2977,120 @@
       <c r="F4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D5" s="10" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E5" s="10" t="inlineStr">
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>Reps Obj.</t>
         </is>
       </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="inlineStr">
+      <c r="B6" s="25" t="inlineStr">
         <is>
           <t>Flexiones clásicas</t>
         </is>
       </c>
-      <c r="C6" s="21" t="inlineStr"/>
-      <c r="D6" s="21" t="inlineStr"/>
-      <c r="E6" s="21" t="inlineStr"/>
-      <c r="F6" s="21" t="inlineStr"/>
+      <c r="C6" s="22" t="inlineStr"/>
+      <c r="D6" s="22" t="inlineStr"/>
+      <c r="E6" s="22" t="inlineStr"/>
+      <c r="F6" s="22" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n">
+      <c r="A7" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="inlineStr">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>Flexiones diamante</t>
         </is>
       </c>
-      <c r="C7" s="19" t="inlineStr"/>
-      <c r="D7" s="19" t="inlineStr"/>
-      <c r="E7" s="19" t="inlineStr"/>
-      <c r="F7" s="19" t="inlineStr"/>
+      <c r="C7" s="20" t="inlineStr"/>
+      <c r="D7" s="20" t="inlineStr"/>
+      <c r="E7" s="20" t="inlineStr"/>
+      <c r="F7" s="20" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="24" t="inlineStr">
+      <c r="B8" s="25" t="inlineStr">
         <is>
           <t>Flexiones declinadas</t>
         </is>
       </c>
-      <c r="C8" s="21" t="inlineStr"/>
-      <c r="D8" s="21" t="inlineStr"/>
-      <c r="E8" s="21" t="inlineStr"/>
-      <c r="F8" s="21" t="inlineStr"/>
+      <c r="C8" s="22" t="inlineStr"/>
+      <c r="D8" s="22" t="inlineStr"/>
+      <c r="E8" s="22" t="inlineStr"/>
+      <c r="F8" s="22" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="n">
+      <c r="A9" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="inlineStr">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Fondos en silla</t>
         </is>
       </c>
-      <c r="C9" s="19" t="inlineStr"/>
-      <c r="D9" s="19" t="inlineStr"/>
-      <c r="E9" s="19" t="inlineStr"/>
-      <c r="F9" s="19" t="inlineStr"/>
+      <c r="C9" s="20" t="inlineStr"/>
+      <c r="D9" s="20" t="inlineStr"/>
+      <c r="E9" s="20" t="inlineStr"/>
+      <c r="F9" s="20" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="25" t="inlineStr">
         <is>
           <t>Flexiones abiertas</t>
         </is>
       </c>
-      <c r="C10" s="21" t="inlineStr"/>
-      <c r="D10" s="21" t="inlineStr"/>
-      <c r="E10" s="21" t="inlineStr"/>
-      <c r="F10" s="21" t="inlineStr"/>
+      <c r="C10" s="22" t="inlineStr"/>
+      <c r="D10" s="22" t="inlineStr"/>
+      <c r="E10" s="22" t="inlineStr"/>
+      <c r="F10" s="22" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="n">
+      <c r="A11" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="25" t="inlineStr">
+      <c r="B11" s="26" t="inlineStr">
         <is>
           <t>Extensión tríceps con mancuerna</t>
         </is>
       </c>
-      <c r="C11" s="19" t="inlineStr"/>
-      <c r="D11" s="19" t="inlineStr"/>
-      <c r="E11" s="19" t="inlineStr"/>
-      <c r="F11" s="19" t="inlineStr"/>
+      <c r="C11" s="20" t="inlineStr"/>
+      <c r="D11" s="20" t="inlineStr"/>
+      <c r="E11" s="20" t="inlineStr"/>
+      <c r="F11" s="20" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
@@ -2877,120 +3105,120 @@
       <c r="F13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D14" s="10" t="inlineStr">
+      <c r="D14" s="11" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E14" s="10" t="inlineStr">
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Reps Obj.</t>
         </is>
       </c>
-      <c r="F14" s="10" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="24" t="inlineStr">
+      <c r="B15" s="25" t="inlineStr">
         <is>
           <t>Remo con mancuernas</t>
         </is>
       </c>
-      <c r="C15" s="21" t="inlineStr"/>
-      <c r="D15" s="21" t="inlineStr"/>
-      <c r="E15" s="21" t="inlineStr"/>
-      <c r="F15" s="21" t="inlineStr"/>
+      <c r="C15" s="22" t="inlineStr"/>
+      <c r="D15" s="22" t="inlineStr"/>
+      <c r="E15" s="22" t="inlineStr"/>
+      <c r="F15" s="22" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="n">
+      <c r="A16" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="inlineStr">
+      <c r="B16" s="26" t="inlineStr">
         <is>
           <t>Dominadas (o banda elástica)</t>
         </is>
       </c>
-      <c r="C16" s="19" t="inlineStr"/>
-      <c r="D16" s="19" t="inlineStr"/>
-      <c r="E16" s="19" t="inlineStr"/>
-      <c r="F16" s="19" t="inlineStr"/>
+      <c r="C16" s="20" t="inlineStr"/>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="n">
+      <c r="A17" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="24" t="inlineStr">
+      <c r="B17" s="25" t="inlineStr">
         <is>
           <t>Remo invertido (mesa)</t>
         </is>
       </c>
-      <c r="C17" s="21" t="inlineStr"/>
-      <c r="D17" s="21" t="inlineStr"/>
-      <c r="E17" s="21" t="inlineStr"/>
-      <c r="F17" s="21" t="inlineStr"/>
+      <c r="C17" s="22" t="inlineStr"/>
+      <c r="D17" s="22" t="inlineStr"/>
+      <c r="E17" s="22" t="inlineStr"/>
+      <c r="F17" s="22" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="n">
+      <c r="A18" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="25" t="inlineStr">
+      <c r="B18" s="26" t="inlineStr">
         <is>
           <t>Curl bíceps con mancuerna</t>
         </is>
       </c>
-      <c r="C18" s="19" t="inlineStr"/>
-      <c r="D18" s="19" t="inlineStr"/>
-      <c r="E18" s="19" t="inlineStr"/>
-      <c r="F18" s="19" t="inlineStr"/>
+      <c r="C18" s="20" t="inlineStr"/>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="n">
+      <c r="A19" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B19" s="24" t="inlineStr">
+      <c r="B19" s="25" t="inlineStr">
         <is>
           <t>Curl martillo</t>
         </is>
       </c>
-      <c r="C19" s="21" t="inlineStr"/>
-      <c r="D19" s="21" t="inlineStr"/>
-      <c r="E19" s="21" t="inlineStr"/>
-      <c r="F19" s="21" t="inlineStr"/>
+      <c r="C19" s="22" t="inlineStr"/>
+      <c r="D19" s="22" t="inlineStr"/>
+      <c r="E19" s="22" t="inlineStr"/>
+      <c r="F19" s="22" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="n">
+      <c r="A20" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B20" s="25" t="inlineStr">
+      <c r="B20" s="26" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="C20" s="19" t="inlineStr"/>
-      <c r="D20" s="19" t="inlineStr"/>
-      <c r="E20" s="19" t="inlineStr"/>
-      <c r="F20" s="19" t="inlineStr"/>
+      <c r="C20" s="20" t="inlineStr"/>
+      <c r="D20" s="20" t="inlineStr"/>
+      <c r="E20" s="20" t="inlineStr"/>
+      <c r="F20" s="20" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
@@ -3005,120 +3233,120 @@
       <c r="F22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="inlineStr">
+      <c r="A23" s="11" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="D23" s="11" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E23" s="11" t="inlineStr">
         <is>
           <t>Reps Obj.</t>
         </is>
       </c>
-      <c r="F23" s="10" t="inlineStr">
+      <c r="F23" s="11" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="n">
+      <c r="A24" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="24" t="inlineStr">
+      <c r="B24" s="25" t="inlineStr">
         <is>
           <t>Sentadillas</t>
         </is>
       </c>
-      <c r="C24" s="21" t="inlineStr"/>
-      <c r="D24" s="21" t="inlineStr"/>
-      <c r="E24" s="21" t="inlineStr"/>
-      <c r="F24" s="21" t="inlineStr"/>
+      <c r="C24" s="22" t="inlineStr"/>
+      <c r="D24" s="22" t="inlineStr"/>
+      <c r="E24" s="22" t="inlineStr"/>
+      <c r="F24" s="22" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="n">
+      <c r="A25" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="25" t="inlineStr">
+      <c r="B25" s="26" t="inlineStr">
         <is>
           <t>Sentadilla búlgara</t>
         </is>
       </c>
-      <c r="C25" s="19" t="inlineStr"/>
-      <c r="D25" s="19" t="inlineStr"/>
-      <c r="E25" s="19" t="inlineStr"/>
-      <c r="F25" s="19" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
+      <c r="D25" s="20" t="inlineStr"/>
+      <c r="E25" s="20" t="inlineStr"/>
+      <c r="F25" s="20" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="n">
+      <c r="A26" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="24" t="inlineStr">
+      <c r="B26" s="25" t="inlineStr">
         <is>
           <t>Zancadas</t>
         </is>
       </c>
-      <c r="C26" s="21" t="inlineStr"/>
-      <c r="D26" s="21" t="inlineStr"/>
-      <c r="E26" s="21" t="inlineStr"/>
-      <c r="F26" s="21" t="inlineStr"/>
+      <c r="C26" s="22" t="inlineStr"/>
+      <c r="D26" s="22" t="inlineStr"/>
+      <c r="E26" s="22" t="inlineStr"/>
+      <c r="F26" s="22" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="n">
+      <c r="A27" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="25" t="inlineStr">
+      <c r="B27" s="26" t="inlineStr">
         <is>
           <t>Peso muerto rumano</t>
         </is>
       </c>
-      <c r="C27" s="19" t="inlineStr"/>
-      <c r="D27" s="19" t="inlineStr"/>
-      <c r="E27" s="19" t="inlineStr"/>
-      <c r="F27" s="19" t="inlineStr"/>
+      <c r="C27" s="20" t="inlineStr"/>
+      <c r="D27" s="20" t="inlineStr"/>
+      <c r="E27" s="20" t="inlineStr"/>
+      <c r="F27" s="20" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="n">
+      <c r="A28" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B28" s="24" t="inlineStr">
+      <c r="B28" s="25" t="inlineStr">
         <is>
           <t>Elevación de talones</t>
         </is>
       </c>
-      <c r="C28" s="21" t="inlineStr"/>
-      <c r="D28" s="21" t="inlineStr"/>
-      <c r="E28" s="21" t="inlineStr"/>
-      <c r="F28" s="21" t="inlineStr"/>
+      <c r="C28" s="22" t="inlineStr"/>
+      <c r="D28" s="22" t="inlineStr"/>
+      <c r="E28" s="22" t="inlineStr"/>
+      <c r="F28" s="22" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="n">
+      <c r="A29" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B29" s="25" t="inlineStr">
+      <c r="B29" s="26" t="inlineStr">
         <is>
           <t>Puente de glúteos</t>
         </is>
       </c>
-      <c r="C29" s="19" t="inlineStr"/>
-      <c r="D29" s="19" t="inlineStr"/>
-      <c r="E29" s="19" t="inlineStr"/>
-      <c r="F29" s="19" t="inlineStr"/>
+      <c r="C29" s="20" t="inlineStr"/>
+      <c r="D29" s="20" t="inlineStr"/>
+      <c r="E29" s="20" t="inlineStr"/>
+      <c r="F29" s="20" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
@@ -3133,120 +3361,120 @@
       <c r="F31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="inlineStr">
+      <c r="A32" s="11" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="B32" s="11" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C32" s="10" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D32" s="10" t="inlineStr">
+      <c r="D32" s="11" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E32" s="10" t="inlineStr">
+      <c r="E32" s="11" t="inlineStr">
         <is>
           <t>Reps Obj.</t>
         </is>
       </c>
-      <c r="F32" s="10" t="inlineStr">
+      <c r="F32" s="11" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="n">
+      <c r="A33" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="24" t="inlineStr">
+      <c r="B33" s="25" t="inlineStr">
         <is>
           <t>Press militar con mancuernas</t>
         </is>
       </c>
-      <c r="C33" s="21" t="inlineStr"/>
-      <c r="D33" s="21" t="inlineStr"/>
-      <c r="E33" s="21" t="inlineStr"/>
-      <c r="F33" s="21" t="inlineStr"/>
+      <c r="C33" s="22" t="inlineStr"/>
+      <c r="D33" s="22" t="inlineStr"/>
+      <c r="E33" s="22" t="inlineStr"/>
+      <c r="F33" s="22" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="n">
+      <c r="A34" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="25" t="inlineStr">
+      <c r="B34" s="26" t="inlineStr">
         <is>
           <t>Elevaciones laterales</t>
         </is>
       </c>
-      <c r="C34" s="19" t="inlineStr"/>
-      <c r="D34" s="19" t="inlineStr"/>
-      <c r="E34" s="19" t="inlineStr"/>
-      <c r="F34" s="19" t="inlineStr"/>
+      <c r="C34" s="20" t="inlineStr"/>
+      <c r="D34" s="20" t="inlineStr"/>
+      <c r="E34" s="20" t="inlineStr"/>
+      <c r="F34" s="20" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="n">
+      <c r="A35" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B35" s="24" t="inlineStr">
+      <c r="B35" s="25" t="inlineStr">
         <is>
           <t>Elevaciones frontales</t>
         </is>
       </c>
-      <c r="C35" s="21" t="inlineStr"/>
-      <c r="D35" s="21" t="inlineStr"/>
-      <c r="E35" s="21" t="inlineStr"/>
-      <c r="F35" s="21" t="inlineStr"/>
+      <c r="C35" s="22" t="inlineStr"/>
+      <c r="D35" s="22" t="inlineStr"/>
+      <c r="E35" s="22" t="inlineStr"/>
+      <c r="F35" s="22" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="n">
+      <c r="A36" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B36" s="25" t="inlineStr">
+      <c r="B36" s="26" t="inlineStr">
         <is>
           <t>Plancha frontal (seg)</t>
         </is>
       </c>
-      <c r="C36" s="19" t="inlineStr"/>
-      <c r="D36" s="19" t="inlineStr"/>
-      <c r="E36" s="19" t="inlineStr"/>
-      <c r="F36" s="19" t="inlineStr"/>
+      <c r="C36" s="20" t="inlineStr"/>
+      <c r="D36" s="20" t="inlineStr"/>
+      <c r="E36" s="20" t="inlineStr"/>
+      <c r="F36" s="20" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="n">
+      <c r="A37" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B37" s="24" t="inlineStr">
+      <c r="B37" s="25" t="inlineStr">
         <is>
           <t>Plancha lateral (seg)</t>
         </is>
       </c>
-      <c r="C37" s="21" t="inlineStr"/>
-      <c r="D37" s="21" t="inlineStr"/>
-      <c r="E37" s="21" t="inlineStr"/>
-      <c r="F37" s="21" t="inlineStr"/>
+      <c r="C37" s="22" t="inlineStr"/>
+      <c r="D37" s="22" t="inlineStr"/>
+      <c r="E37" s="22" t="inlineStr"/>
+      <c r="F37" s="22" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="n">
+      <c r="A38" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B38" s="25" t="inlineStr">
+      <c r="B38" s="26" t="inlineStr">
         <is>
           <t>Crunch abdominal</t>
         </is>
       </c>
-      <c r="C38" s="19" t="inlineStr"/>
-      <c r="D38" s="19" t="inlineStr"/>
-      <c r="E38" s="19" t="inlineStr"/>
-      <c r="F38" s="19" t="inlineStr"/>
+      <c r="C38" s="20" t="inlineStr"/>
+      <c r="D38" s="20" t="inlineStr"/>
+      <c r="E38" s="20" t="inlineStr"/>
+      <c r="F38" s="20" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
@@ -3261,120 +3489,120 @@
       <c r="F40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="inlineStr">
+      <c r="A41" s="11" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B41" s="10" t="inlineStr">
+      <c r="B41" s="11" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C41" s="10" t="inlineStr">
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D41" s="10" t="inlineStr">
+      <c r="D41" s="11" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E41" s="10" t="inlineStr">
+      <c r="E41" s="11" t="inlineStr">
         <is>
           <t>Reps Obj.</t>
         </is>
       </c>
-      <c r="F41" s="10" t="inlineStr">
+      <c r="F41" s="11" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="n">
+      <c r="A42" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="24" t="inlineStr">
+      <c r="B42" s="25" t="inlineStr">
         <is>
           <t>Burpees</t>
         </is>
       </c>
-      <c r="C42" s="21" t="inlineStr"/>
-      <c r="D42" s="21" t="inlineStr"/>
-      <c r="E42" s="21" t="inlineStr"/>
-      <c r="F42" s="21" t="inlineStr"/>
+      <c r="C42" s="22" t="inlineStr"/>
+      <c r="D42" s="22" t="inlineStr"/>
+      <c r="E42" s="22" t="inlineStr"/>
+      <c r="F42" s="22" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="n">
+      <c r="A43" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="25" t="inlineStr">
+      <c r="B43" s="26" t="inlineStr">
         <is>
           <t>Sentadilla con salto</t>
         </is>
       </c>
-      <c r="C43" s="19" t="inlineStr"/>
-      <c r="D43" s="19" t="inlineStr"/>
-      <c r="E43" s="19" t="inlineStr"/>
-      <c r="F43" s="19" t="inlineStr"/>
+      <c r="C43" s="20" t="inlineStr"/>
+      <c r="D43" s="20" t="inlineStr"/>
+      <c r="E43" s="20" t="inlineStr"/>
+      <c r="F43" s="20" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="n">
+      <c r="A44" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="24" t="inlineStr">
+      <c r="B44" s="25" t="inlineStr">
         <is>
           <t>Flexiones</t>
         </is>
       </c>
-      <c r="C44" s="21" t="inlineStr"/>
-      <c r="D44" s="21" t="inlineStr"/>
-      <c r="E44" s="21" t="inlineStr"/>
-      <c r="F44" s="21" t="inlineStr"/>
+      <c r="C44" s="22" t="inlineStr"/>
+      <c r="D44" s="22" t="inlineStr"/>
+      <c r="E44" s="22" t="inlineStr"/>
+      <c r="F44" s="22" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="19" t="n">
+      <c r="A45" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B45" s="25" t="inlineStr">
+      <c r="B45" s="26" t="inlineStr">
         <is>
           <t>Remo con mancuernas</t>
         </is>
       </c>
-      <c r="C45" s="19" t="inlineStr"/>
-      <c r="D45" s="19" t="inlineStr"/>
-      <c r="E45" s="19" t="inlineStr"/>
-      <c r="F45" s="19" t="inlineStr"/>
+      <c r="C45" s="20" t="inlineStr"/>
+      <c r="D45" s="20" t="inlineStr"/>
+      <c r="E45" s="20" t="inlineStr"/>
+      <c r="F45" s="20" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="n">
+      <c r="A46" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B46" s="24" t="inlineStr">
+      <c r="B46" s="25" t="inlineStr">
         <is>
           <t>Zancadas con salto</t>
         </is>
       </c>
-      <c r="C46" s="21" t="inlineStr"/>
-      <c r="D46" s="21" t="inlineStr"/>
-      <c r="E46" s="21" t="inlineStr"/>
-      <c r="F46" s="21" t="inlineStr"/>
+      <c r="C46" s="22" t="inlineStr"/>
+      <c r="D46" s="22" t="inlineStr"/>
+      <c r="E46" s="22" t="inlineStr"/>
+      <c r="F46" s="22" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="19" t="n">
+      <c r="A47" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B47" s="25" t="inlineStr">
+      <c r="B47" s="26" t="inlineStr">
         <is>
           <t>Mountain climbers</t>
         </is>
       </c>
-      <c r="C47" s="19" t="inlineStr"/>
-      <c r="D47" s="19" t="inlineStr"/>
-      <c r="E47" s="19" t="inlineStr"/>
-      <c r="F47" s="19" t="inlineStr"/>
+      <c r="C47" s="20" t="inlineStr"/>
+      <c r="D47" s="20" t="inlineStr"/>
+      <c r="E47" s="20" t="inlineStr"/>
+      <c r="F47" s="20" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3390,7 +3618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00E67E22"/>
@@ -3424,15 +3652,15 @@
       <c r="E1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="inlineStr">
+      <c r="A2" s="27" t="inlineStr">
         <is>
           <t>Estadísticas calculadas automáticamente desde tu historial.</t>
         </is>
       </c>
-      <c r="B2" s="27" t="n"/>
-      <c r="C2" s="27" t="n"/>
-      <c r="D2" s="27" t="n"/>
-      <c r="E2" s="27" t="n"/>
+      <c r="B2" s="28" t="n"/>
+      <c r="C2" s="28" t="n"/>
+      <c r="D2" s="28" t="n"/>
+      <c r="E2" s="28" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -3446,7 +3674,7 @@
       <c r="E4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="inlineStr">
+      <c r="A5" s="29" t="inlineStr">
         <is>
           <t>Total sesiones registradas</t>
         </is>
@@ -3458,7 +3686,7 @@
       <c r="C5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="inlineStr">
+      <c r="A6" s="29" t="inlineStr">
         <is>
           <t>Último entrenamiento</t>
         </is>
@@ -3470,7 +3698,7 @@
       <c r="C6" s="4" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="28" t="inlineStr">
+      <c r="A7" s="29" t="inlineStr">
         <is>
           <t>Peso máximo levantado (kg)</t>
         </is>
@@ -3482,7 +3710,7 @@
       <c r="C7" s="4" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="28" t="inlineStr">
+      <c r="A8" s="29" t="inlineStr">
         <is>
           <t>Promedio de repeticiones</t>
         </is>
@@ -3494,7 +3722,7 @@
       <c r="C8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="28" t="inlineStr">
+      <c r="A9" s="29" t="inlineStr">
         <is>
           <t>Ejercicio más frecuente</t>
         </is>
@@ -3517,143 +3745,143 @@
       <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>Día / Rutina</t>
         </is>
       </c>
-      <c r="B13" s="10" t="inlineStr">
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>Sesiones</t>
         </is>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Total Series</t>
         </is>
       </c>
-      <c r="D13" s="10" t="inlineStr">
+      <c r="D13" s="11" t="inlineStr">
         <is>
           <t>Total Reps</t>
         </is>
       </c>
-      <c r="E13" s="10" t="inlineStr">
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Peso Prom. (kg)</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="inlineStr">
+      <c r="A14" s="26" t="inlineStr">
         <is>
           <t>Lunes - Pecho y Tríceps</t>
         </is>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <f>COUNTIF(Registro!B12:B200,A14)</f>
         <v/>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="20">
         <f>SUMIF(Registro!B12:B200,A14,Registro!D12:D200)</f>
         <v/>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="20">
         <f>SUMIF(Registro!B12:B200,A14,Registro!E12:E200)</f>
         <v/>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="20">
         <f>IFERROR(AVERAGEIF(Registro!B12:B200,A14,Registro!F12:F200),"")</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="inlineStr">
+      <c r="A15" s="25" t="inlineStr">
         <is>
           <t>Martes - Espalda y Bíceps</t>
         </is>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <f>COUNTIF(Registro!B12:B200,A15)</f>
         <v/>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="22">
         <f>SUMIF(Registro!B12:B200,A15,Registro!D12:D200)</f>
         <v/>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="22">
         <f>SUMIF(Registro!B12:B200,A15,Registro!E12:E200)</f>
         <v/>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="22">
         <f>IFERROR(AVERAGEIF(Registro!B12:B200,A15,Registro!F12:F200),"")</f>
         <v/>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="inlineStr">
+      <c r="A16" s="26" t="inlineStr">
         <is>
           <t>Miércoles - Piernas</t>
         </is>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <f>COUNTIF(Registro!B12:B200,A16)</f>
         <v/>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="20">
         <f>SUMIF(Registro!B12:B200,A16,Registro!D12:D200)</f>
         <v/>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="20">
         <f>SUMIF(Registro!B12:B200,A16,Registro!E12:E200)</f>
         <v/>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="20">
         <f>IFERROR(AVERAGEIF(Registro!B12:B200,A16,Registro!F12:F200),"")</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="inlineStr">
+      <c r="A17" s="25" t="inlineStr">
         <is>
           <t>Jueves - Hombros y Core</t>
         </is>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <f>COUNTIF(Registro!B12:B200,A17)</f>
         <v/>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="22">
         <f>SUMIF(Registro!B12:B200,A17,Registro!D12:D200)</f>
         <v/>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="22">
         <f>SUMIF(Registro!B12:B200,A17,Registro!E12:E200)</f>
         <v/>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="22">
         <f>IFERROR(AVERAGEIF(Registro!B12:B200,A17,Registro!F12:F200),"")</f>
         <v/>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="inlineStr">
+      <c r="A18" s="26" t="inlineStr">
         <is>
           <t>Viernes - Full Body</t>
         </is>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="20">
         <f>COUNTIF(Registro!B12:B200,A18)</f>
         <v/>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="20">
         <f>SUMIF(Registro!B12:B200,A18,Registro!D12:D200)</f>
         <v/>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="20">
         <f>SUMIF(Registro!B12:B200,A18,Registro!E12:E200)</f>
         <v/>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="20">
         <f>IFERROR(AVERAGEIF(Registro!B12:B200,A18,Registro!F12:F200),"")</f>
         <v/>
       </c>
@@ -3670,248 +3898,248 @@
       <c r="E21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="11" t="inlineStr">
         <is>
           <t>Rutina</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="D22" s="10" t="inlineStr">
+      <c r="D22" s="11" t="inlineStr">
         <is>
           <t>Reps</t>
         </is>
       </c>
-      <c r="E22" s="10" t="inlineStr">
+      <c r="E22" s="11" t="inlineStr">
         <is>
           <t>Peso (kg)</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="18">
+      <c r="A23" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20">
+      <c r="A24" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="20">
+      <c r="A26" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="18">
+      <c r="A27" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="20">
+      <c r="A28" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="18">
+      <c r="A29" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="20">
+      <c r="A30" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="18">
+      <c r="A31" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="20">
+      <c r="A32" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
@@ -3933,7 +4161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="0095A5A6"/>
@@ -3969,108 +4197,108 @@
       <c r="B3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B4" s="25" t="inlineStr">
+      <c r="B4" s="26" t="inlineStr">
         <is>
           <t>Esta es tu hoja principal. Aquí registras cada ejercicio que hagas.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="inlineStr">
+      <c r="A5" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B5" s="25" t="inlineStr">
+      <c r="B5" s="26" t="inlineStr">
         <is>
           <t>1. La FECHA se llena automáticamente con el día de hoy.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="inlineStr">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B6" s="25" t="inlineStr">
+      <c r="B6" s="26" t="inlineStr">
         <is>
           <t>2. Selecciona el DÍA/RUTINA del desplegable (Lunes-Pecho, Martes-Espalda, etc.).</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="inlineStr">
+      <c r="A7" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B7" s="25" t="inlineStr">
+      <c r="B7" s="26" t="inlineStr">
         <is>
           <t>3. Escribe el nombre del EJERCICIO que realizaste.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="inlineStr">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B8" s="25" t="inlineStr">
+      <c r="B8" s="26" t="inlineStr">
         <is>
           <t>4. Ingresa el número de SERIES, REPETICIONES y PESO usado.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="inlineStr">
+      <c r="A9" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B9" s="25" t="inlineStr">
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>5. Opcionalmente agrega el tiempo de DESCANSO y NOTAS.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="inlineStr">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B10" s="25" t="inlineStr">
+      <c r="B10" s="26" t="inlineStr">
         <is>
           <t>6. Haz clic en '▶ REGISTRAR ENTRADA' para mover los datos al historial.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="inlineStr">
+      <c r="A11" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B11" s="25" t="inlineStr">
+      <c r="B11" s="26" t="inlineStr">
         <is>
           <t>7. Usa '✕ LIMPIAR CAMPOS' para borrar la zona de entrada.</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B12" s="25" t="inlineStr">
+      <c r="B12" s="26" t="inlineStr">
         <is>
           <t>8. Usa '⟳ DESHACER ÚLTIMO' para eliminar el último registro.</t>
         </is>
@@ -4085,36 +4313,36 @@
       <c r="B14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="inlineStr">
+      <c r="A15" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B15" s="25" t="inlineStr">
+      <c r="B15" s="26" t="inlineStr">
         <is>
           <t>Aquí están las rutinas predefinidas para 5 días de la semana.</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="inlineStr">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B16" s="25" t="inlineStr">
+      <c r="B16" s="26" t="inlineStr">
         <is>
           <t>Puedes editar los ejercicios, agregar objetivos de series/reps/peso.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="inlineStr">
+      <c r="A17" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B17" s="25" t="inlineStr">
+      <c r="B17" s="26" t="inlineStr">
         <is>
           <t>Los nombres de los ejercicios te sirven de guía al llenar el Registro.</t>
         </is>
@@ -4129,36 +4357,36 @@
       <c r="B19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="inlineStr">
+      <c r="A20" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B20" s="25" t="inlineStr">
+      <c r="B20" s="26" t="inlineStr">
         <is>
           <t>Muestra estadísticas automáticas calculadas desde tu historial.</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="inlineStr">
+      <c r="A21" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B21" s="25" t="inlineStr">
+      <c r="B21" s="26" t="inlineStr">
         <is>
           <t>Total de sesiones, peso máximo, promedios y volumen por día.</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="inlineStr">
+      <c r="A22" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B22" s="25" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
         <is>
           <t>Los últimos 10 registros se muestran al final.</t>
         </is>
@@ -4173,48 +4401,48 @@
       <c r="B24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="inlineStr">
+      <c r="A25" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B25" s="25" t="inlineStr">
+      <c r="B25" s="26" t="inlineStr">
         <is>
           <t>Registra CADA serie por separado para un seguimiento más detallado.</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="inlineStr">
+      <c r="A26" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B26" s="25" t="inlineStr">
+      <c r="B26" s="26" t="inlineStr">
         <is>
           <t>O registra el total de series/reps por ejercicio si prefieres algo rápido.</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="inlineStr">
+      <c r="A27" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B27" s="25" t="inlineStr">
+      <c r="B27" s="26" t="inlineStr">
         <is>
           <t>Revisa la hoja de Progreso regularmente para ver tu avance.</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="inlineStr">
+      <c r="A28" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B28" s="25" t="inlineStr">
+      <c r="B28" s="26" t="inlineStr">
         <is>
           <t>¡La constancia es la clave! Intenta entrenar al menos 3-4 días por semana.</t>
         </is>

--- a/Entrenamiento_Casa.xlsx
+++ b/Entrenamiento_Casa.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Registro" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Datos" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Rutinas" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Progreso" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Instrucciones" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -28,10 +28,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,6 +77,18 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="22"/>
     </font>
   </fonts>
   <fills count="12">
@@ -162,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -230,9 +243,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -307,6 +361,409 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Sesiones por Día</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Dashboard'!C10</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="2E5090"/>
+            </a:solidFill>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Dashboard'!$B$11:$B$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Dashboard'!$C$11:$C$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Sesiones</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Distribución por Rutina</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Dashboard'!C10</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="0"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="2E5090"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="27AE60"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="2"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="E67E22"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="3"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="E74C3C"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <dPt>
+            <idx val="4"/>
+            <spPr>
+              <a:solidFill>
+                <a:srgbClr val="1B2A4A"/>
+              </a:solidFill>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <cat>
+            <numRef>
+              <f>'Dashboard'!$B$11:$B$15</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Dashboard'!$C$11:$C$15</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showCatName val="1"/>
+          <showPercent val="1"/>
+        </dLbls>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Peso Levantado por Sesión</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Registro'!F11</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln w="22000">
+              <a:solidFill>
+                <a:srgbClr val="27AE60"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Registro'!$F$12:$F$200</f>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Entrada</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso (kg)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7200000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7200000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7200000" cy="4320000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3625,539 +4082,687 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="2" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>RESUMEN DE PROGRESO</t>
+          <t>DASHBOARD DE ENTRENAMIENTO</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="2" t="n"/>
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="27" t="inlineStr">
         <is>
-          <t>Estadísticas calculadas automáticamente desde tu historial.</t>
+          <t>Resumen visual de tu progreso. Los datos se actualizan automáticamente desde la hoja Registro.</t>
         </is>
       </c>
       <c r="B2" s="28" t="n"/>
       <c r="C2" s="28" t="n"/>
       <c r="D2" s="28" t="n"/>
       <c r="E2" s="28" t="n"/>
+      <c r="F2" s="28" t="n"/>
+      <c r="G2" s="28" t="n"/>
+      <c r="H2" s="28" t="n"/>
+      <c r="I2" s="28" t="n"/>
+      <c r="J2" s="28" t="n"/>
+      <c r="K2" s="28" t="n"/>
+      <c r="L2" s="28" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>ESTADÍSTICAS GENERALES</t>
+          <t>MÉTRICAS CLAVE</t>
         </is>
       </c>
       <c r="B4" s="6" t="n"/>
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="6" t="n"/>
+      <c r="K4" s="6" t="n"/>
+      <c r="L4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="inlineStr">
-        <is>
-          <t>Total sesiones registradas</t>
-        </is>
-      </c>
-      <c r="B5" s="9">
+      <c r="B5" s="29" t="inlineStr">
+        <is>
+          <t>Total Sesiones</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="n"/>
+      <c r="D5" s="30" t="inlineStr">
+        <is>
+          <t>Último Entreno</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="31" t="inlineStr">
+        <is>
+          <t>Peso Máx (kg)</t>
+        </is>
+      </c>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="32" t="inlineStr">
+        <is>
+          <t>Prom. Reps</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="33" t="inlineStr">
+        <is>
+          <t>Volumen Total</t>
+        </is>
+      </c>
+      <c r="K5" s="16" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="34">
         <f>COUNTA(Registro!A12:A200)</f>
         <v/>
       </c>
-      <c r="C5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="29" t="inlineStr">
-        <is>
-          <t>Último entrenamiento</t>
-        </is>
-      </c>
-      <c r="B6" s="8">
-        <f>MAX(Registro!A12:A200)</f>
-        <v/>
-      </c>
-      <c r="C6" s="4" t="n"/>
+      <c r="C6" s="12" t="n"/>
+      <c r="D6" s="35">
+        <f>IF(COUNTA(Registro!A12:A200)&gt;0,MAX(Registro!A12:A200),"-")</f>
+        <v/>
+      </c>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="36">
+        <f>IF(MAX(Registro!F12:F200)&gt;0,MAX(Registro!F12:F200),"-")</f>
+        <v/>
+      </c>
+      <c r="G6" s="14" t="n"/>
+      <c r="H6" s="37">
+        <f>IFERROR(ROUND(AVERAGE(Registro!E12:E200),1),"-")</f>
+        <v/>
+      </c>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="38">
+        <f>IFERROR(SUMPRODUCT((Registro!D12:D200)*(Registro!E12:E200)),"-")</f>
+        <v/>
+      </c>
+      <c r="K6" s="16" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="29" t="inlineStr">
-        <is>
-          <t>Peso máximo levantado (kg)</t>
-        </is>
-      </c>
-      <c r="B7" s="9">
-        <f>MAX(Registro!F12:F200)</f>
-        <v/>
-      </c>
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="29" t="inlineStr">
-        <is>
-          <t>Promedio de repeticiones</t>
-        </is>
-      </c>
-      <c r="B8" s="9">
-        <f>IFERROR(AVERAGE(Registro!E12:E200),"")</f>
-        <v/>
-      </c>
-      <c r="C8" s="4" t="n"/>
+      <c r="B7" s="12" t="n"/>
+      <c r="C7" s="12" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="16" t="n"/>
+      <c r="K7" s="16" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>VOLUMEN POR DÍA DE RUTINA</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="11" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Sesiones</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>Series</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>Reps</t>
+        </is>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Peso Prom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="39" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="C11" s="20">
+        <f>COUNTIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps")</f>
+        <v/>
+      </c>
+      <c r="D11" s="20">
+        <f>SUMIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps",Registro!D$12:D$200)</f>
+        <v/>
+      </c>
+      <c r="E11" s="20">
+        <f>SUMIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps",Registro!E$12:E$200)</f>
+        <v/>
+      </c>
+      <c r="F11" s="20">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps",Registro!F$12:F$200),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="40" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="C12" s="22">
+        <f>COUNTIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps")</f>
+        <v/>
+      </c>
+      <c r="D12" s="22">
+        <f>SUMIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps",Registro!D$12:D$200)</f>
+        <v/>
+      </c>
+      <c r="E12" s="22">
+        <f>SUMIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps",Registro!E$12:E$200)</f>
+        <v/>
+      </c>
+      <c r="F12" s="22">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps",Registro!F$12:F$200),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="39" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="C13" s="20">
+        <f>COUNTIF(Registro!B$12:B$200,"Miércoles - Piernas")</f>
+        <v/>
+      </c>
+      <c r="D13" s="20">
+        <f>SUMIF(Registro!B$12:B$200,"Miércoles - Piernas",Registro!D$12:D$200)</f>
+        <v/>
+      </c>
+      <c r="E13" s="20">
+        <f>SUMIF(Registro!B$12:B$200,"Miércoles - Piernas",Registro!E$12:E$200)</f>
+        <v/>
+      </c>
+      <c r="F13" s="20">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Miércoles - Piernas",Registro!F$12:F$200),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="40" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="C14" s="22">
+        <f>COUNTIF(Registro!B$12:B$200,"Jueves - Hombros y Core")</f>
+        <v/>
+      </c>
+      <c r="D14" s="22">
+        <f>SUMIF(Registro!B$12:B$200,"Jueves - Hombros y Core",Registro!D$12:D$200)</f>
+        <v/>
+      </c>
+      <c r="E14" s="22">
+        <f>SUMIF(Registro!B$12:B$200,"Jueves - Hombros y Core",Registro!E$12:E$200)</f>
+        <v/>
+      </c>
+      <c r="F14" s="22">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Jueves - Hombros y Core",Registro!F$12:F$200),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="39" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="C15" s="20">
+        <f>COUNTIF(Registro!B$12:B$200,"Viernes - Full Body")</f>
+        <v/>
+      </c>
+      <c r="D15" s="20">
+        <f>SUMIF(Registro!B$12:B$200,"Viernes - Full Body",Registro!D$12:D$200)</f>
+        <v/>
+      </c>
+      <c r="E15" s="20">
+        <f>SUMIF(Registro!B$12:B$200,"Viernes - Full Body",Registro!E$12:E$200)</f>
+        <v/>
+      </c>
+      <c r="F15" s="20">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Viernes - Full Body",Registro!F$12:F$200),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>INSIGHTS</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="39" t="inlineStr">
+        <is>
+          <t>Días sin entrenar</t>
+        </is>
+      </c>
+      <c r="C18" s="41">
+        <f>IF(COUNTA(Registro!A12:A200)&gt;0,TODAY()-MAX(Registro!A12:A200),"-")</f>
+        <v/>
+      </c>
+      <c r="D18" s="42" t="n"/>
+      <c r="E18" s="42" t="n"/>
+      <c r="F18" s="42" t="n"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="40" t="inlineStr">
+        <is>
+          <t>Sesiones esta semana</t>
+        </is>
+      </c>
+      <c r="C19" s="43">
+        <f>COUNTIFS(Registro!A12:A200,"&gt;="&amp;(TODAY()-WEEKDAY(TODAY(),2)+1),Registro!A12:A200,"&lt;="&amp;TODAY())</f>
+        <v/>
+      </c>
+      <c r="D19" s="44" t="n"/>
+      <c r="E19" s="44" t="n"/>
+      <c r="F19" s="44" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="39" t="inlineStr">
+        <is>
+          <t>Sesiones este mes</t>
+        </is>
+      </c>
+      <c r="C20" s="41">
+        <f>COUNTIFS(Registro!A12:A200,"&gt;="&amp;DATE(YEAR(TODAY()),MONTH(TODAY()),1),Registro!A12:A200,"&lt;="&amp;TODAY())</f>
+        <v/>
+      </c>
+      <c r="D20" s="42" t="n"/>
+      <c r="E20" s="42" t="n"/>
+      <c r="F20" s="42" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="40" t="inlineStr">
         <is>
           <t>Ejercicio más frecuente</t>
         </is>
       </c>
-      <c r="B9" s="9">
-        <f>IFERROR(INDEX(Registro!C12:C200,MATCH(MAX(COUNTIF(Registro!C12:C200,Registro!C12:C200)),COUNTIF(Registro!C12:C200,Registro!C12:C200),0)),"")</f>
-        <v/>
-      </c>
-      <c r="C9" s="4" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>VOLUMEN POR DÍA DE RUTINA</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
-      <c r="E12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>Día / Rutina</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="inlineStr">
-        <is>
-          <t>Sesiones</t>
-        </is>
-      </c>
-      <c r="C13" s="11" t="inlineStr">
-        <is>
-          <t>Total Series</t>
-        </is>
-      </c>
-      <c r="D13" s="11" t="inlineStr">
-        <is>
-          <t>Total Reps</t>
-        </is>
-      </c>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>Peso Prom. (kg)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="26" t="inlineStr">
-        <is>
-          <t>Lunes - Pecho y Tríceps</t>
-        </is>
-      </c>
-      <c r="B14" s="20">
-        <f>COUNTIF(Registro!B12:B200,A14)</f>
-        <v/>
-      </c>
-      <c r="C14" s="20">
-        <f>SUMIF(Registro!B12:B200,A14,Registro!D12:D200)</f>
-        <v/>
-      </c>
-      <c r="D14" s="20">
-        <f>SUMIF(Registro!B12:B200,A14,Registro!E12:E200)</f>
-        <v/>
-      </c>
-      <c r="E14" s="20">
-        <f>IFERROR(AVERAGEIF(Registro!B12:B200,A14,Registro!F12:F200),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="25" t="inlineStr">
-        <is>
-          <t>Martes - Espalda y Bíceps</t>
-        </is>
-      </c>
-      <c r="B15" s="22">
-        <f>COUNTIF(Registro!B12:B200,A15)</f>
-        <v/>
-      </c>
-      <c r="C15" s="22">
-        <f>SUMIF(Registro!B12:B200,A15,Registro!D12:D200)</f>
-        <v/>
-      </c>
-      <c r="D15" s="22">
-        <f>SUMIF(Registro!B12:B200,A15,Registro!E12:E200)</f>
-        <v/>
-      </c>
-      <c r="E15" s="22">
-        <f>IFERROR(AVERAGEIF(Registro!B12:B200,A15,Registro!F12:F200),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="26" t="inlineStr">
-        <is>
-          <t>Miércoles - Piernas</t>
-        </is>
-      </c>
-      <c r="B16" s="20">
-        <f>COUNTIF(Registro!B12:B200,A16)</f>
-        <v/>
-      </c>
-      <c r="C16" s="20">
-        <f>SUMIF(Registro!B12:B200,A16,Registro!D12:D200)</f>
-        <v/>
-      </c>
-      <c r="D16" s="20">
-        <f>SUMIF(Registro!B12:B200,A16,Registro!E12:E200)</f>
-        <v/>
-      </c>
-      <c r="E16" s="20">
-        <f>IFERROR(AVERAGEIF(Registro!B12:B200,A16,Registro!F12:F200),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="25" t="inlineStr">
-        <is>
-          <t>Jueves - Hombros y Core</t>
-        </is>
-      </c>
-      <c r="B17" s="22">
-        <f>COUNTIF(Registro!B12:B200,A17)</f>
-        <v/>
-      </c>
-      <c r="C17" s="22">
-        <f>SUMIF(Registro!B12:B200,A17,Registro!D12:D200)</f>
-        <v/>
-      </c>
-      <c r="D17" s="22">
-        <f>SUMIF(Registro!B12:B200,A17,Registro!E12:E200)</f>
-        <v/>
-      </c>
-      <c r="E17" s="22">
-        <f>IFERROR(AVERAGEIF(Registro!B12:B200,A17,Registro!F12:F200),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="26" t="inlineStr">
-        <is>
-          <t>Viernes - Full Body</t>
-        </is>
-      </c>
-      <c r="B18" s="20">
-        <f>COUNTIF(Registro!B12:B200,A18)</f>
-        <v/>
-      </c>
-      <c r="C18" s="20">
-        <f>SUMIF(Registro!B12:B200,A18,Registro!D12:D200)</f>
-        <v/>
-      </c>
-      <c r="D18" s="20">
-        <f>SUMIF(Registro!B12:B200,A18,Registro!E12:E200)</f>
-        <v/>
-      </c>
-      <c r="E18" s="20">
-        <f>IFERROR(AVERAGEIF(Registro!B12:B200,A18,Registro!F12:F200),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="C21" s="43">
+        <f>IFERROR(INDEX(Registro!C12:C200,MATCH(MAX(COUNTIF(Registro!C12:C200,Registro!C12:C200)),COUNTIF(Registro!C12:C200,Registro!C12:C200),0)),"-")</f>
+        <v/>
+      </c>
+      <c r="D21" s="44" t="n"/>
+      <c r="E21" s="44" t="n"/>
+      <c r="F21" s="44" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="39" t="inlineStr">
+        <is>
+          <t>Prom. series por sesión</t>
+        </is>
+      </c>
+      <c r="C22" s="41">
+        <f>IFERROR(ROUND(AVERAGE(Registro!D12:D200),1),"-")</f>
+        <v/>
+      </c>
+      <c r="D22" s="42" t="n"/>
+      <c r="E22" s="42" t="n"/>
+      <c r="F22" s="42" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="40" t="inlineStr">
+        <is>
+          <t>Mayor volumen en 1 registro</t>
+        </is>
+      </c>
+      <c r="C23" s="43">
+        <f>IFERROR(MAX(Registro!D12:D200*Registro!E12:E200),"-")</f>
+        <v/>
+      </c>
+      <c r="D23" s="44" t="n"/>
+      <c r="E23" s="44" t="n"/>
+      <c r="F23" s="44" t="n"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="17" t="inlineStr">
         <is>
           <t>ÚLTIMOS 10 REGISTROS</t>
         </is>
       </c>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
-      <c r="D21" s="6" t="n"/>
-      <c r="E21" s="6" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="11" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Rutina</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="D27" s="11" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="E27" s="11" t="inlineStr">
         <is>
           <t>Reps</t>
         </is>
       </c>
-      <c r="E22" s="11" t="inlineStr">
+      <c r="F27" s="11" t="inlineStr">
         <is>
           <t>Peso (kg)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="19">
+    <row r="28">
+      <c r="B28" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
-      <c r="B23" s="20">
+      <c r="C28" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
-      <c r="C23" s="20">
+      <c r="D28" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
-      <c r="D23" s="20">
+      <c r="E28" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
-      <c r="E23" s="20">
+      <c r="F28" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="21">
+    <row r="29">
+      <c r="B29" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
-      <c r="B24" s="22">
+      <c r="C29" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
-      <c r="C24" s="22">
+      <c r="D29" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
-      <c r="D24" s="22">
+      <c r="E29" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
-      <c r="E24" s="22">
+      <c r="F29" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="19">
+    <row r="30">
+      <c r="B30" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
-      <c r="B25" s="20">
+      <c r="C30" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
-      <c r="C25" s="20">
+      <c r="D30" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
-      <c r="D25" s="20">
+      <c r="E30" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
-      <c r="E25" s="20">
+      <c r="F30" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="21">
+    <row r="31">
+      <c r="B31" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
-      <c r="B26" s="22">
+      <c r="C31" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
-      <c r="C26" s="22">
+      <c r="D31" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
-      <c r="D26" s="22">
+      <c r="E31" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
-      <c r="E26" s="22">
+      <c r="F31" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="19">
+    <row r="32">
+      <c r="B32" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
-      <c r="B27" s="20">
+      <c r="C32" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
-      <c r="C27" s="20">
+      <c r="D32" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
-      <c r="D27" s="20">
+      <c r="E32" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
-      <c r="E27" s="20">
+      <c r="F32" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
         <v/>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="21">
+    <row r="33">
+      <c r="B33" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
-      <c r="B28" s="22">
+      <c r="C33" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
-      <c r="C28" s="22">
+      <c r="D33" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
-      <c r="D28" s="22">
+      <c r="E33" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
-      <c r="E28" s="22">
+      <c r="F33" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="19">
+    <row r="34">
+      <c r="B34" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
-      <c r="B29" s="20">
+      <c r="C34" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
-      <c r="C29" s="20">
+      <c r="D34" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
-      <c r="D29" s="20">
+      <c r="E34" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
-      <c r="E29" s="20">
+      <c r="F34" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
         <v/>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="21">
+    <row r="35">
+      <c r="B35" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
-      <c r="B30" s="22">
+      <c r="C35" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
-      <c r="C30" s="22">
+      <c r="D35" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
-      <c r="D30" s="22">
+      <c r="E35" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
-      <c r="E30" s="22">
+      <c r="F35" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="19">
+    <row r="36">
+      <c r="B36" s="19">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
-      <c r="B31" s="20">
+      <c r="C36" s="20">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
-      <c r="C31" s="20">
+      <c r="D36" s="20">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
-      <c r="D31" s="20">
+      <c r="E36" s="20">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
-      <c r="E31" s="20">
+      <c r="F36" s="20">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="21">
+    <row r="37">
+      <c r="B37" s="21">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="B32" s="22">
+      <c r="C37" s="22">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="C32" s="22">
+      <c r="D37" s="22">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="D32" s="22">
+      <c r="E37" s="22">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="E32" s="22">
+      <c r="F37" s="22">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A2:E2"/>
+  <mergeCells count="22">
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H6:I7"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4168,7 +4773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4351,7 +4956,7 @@
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>HOJA 'PROGRESO'</t>
+          <t>HOJA 'DASHBOARD'</t>
         </is>
       </c>
       <c r="B19" s="6" t="n"/>
@@ -4364,7 +4969,7 @@
       </c>
       <c r="B20" s="26" t="inlineStr">
         <is>
-          <t>Muestra estadísticas automáticas calculadas desde tu historial.</t>
+          <t>Dashboard visual con KPIs, gráficos e insights de tu progreso.</t>
         </is>
       </c>
     </row>
@@ -4376,7 +4981,7 @@
       </c>
       <c r="B21" s="26" t="inlineStr">
         <is>
-          <t>Total de sesiones, peso máximo, promedios y volumen por día.</t>
+          <t>5 tarjetas de métricas clave: sesiones, último entreno, peso máx, etc.</t>
         </is>
       </c>
     </row>
@@ -4388,17 +4993,33 @@
       </c>
       <c r="B22" s="26" t="inlineStr">
         <is>
-          <t>Los últimos 10 registros se muestran al final.</t>
+          <t>Gráfico de barras: sesiones por día de rutina.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="20" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B23" s="26" t="inlineStr">
+        <is>
+          <t>Gráfico circular: distribución porcentual de entrenamientos.</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>TIPS</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n"/>
+      <c r="A24" s="20" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B24" s="26" t="inlineStr">
+        <is>
+          <t>Gráfico de línea: progresión del peso levantado por sesión.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="inlineStr">
@@ -4408,7 +5029,7 @@
       </c>
       <c r="B25" s="26" t="inlineStr">
         <is>
-          <t>Registra CADA serie por separado para un seguimiento más detallado.</t>
+          <t>Sección de insights: días sin entrenar, sesiones semanales/mensuales.</t>
         </is>
       </c>
     </row>
@@ -4420,29 +5041,61 @@
       </c>
       <c r="B26" s="26" t="inlineStr">
         <is>
+          <t>Los últimos 10 registros se muestran al final.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>TIPS</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="20" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B29" s="26" t="inlineStr">
+        <is>
+          <t>Registra CADA serie por separado para un seguimiento más detallado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B30" s="26" t="inlineStr">
+        <is>
           <t>O registra el total de series/reps por ejercicio si prefieres algo rápido.</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="20" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B27" s="26" t="inlineStr">
+      <c r="B31" s="26" t="inlineStr">
         <is>
           <t>Revisa la hoja de Progreso regularmente para ver tu avance.</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="20" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="20" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B28" s="26" t="inlineStr">
+      <c r="B32" s="26" t="inlineStr">
         <is>
           <t>¡La constancia es la clave! Intenta entrenar al menos 3-4 días por semana.</t>
         </is>
@@ -4450,8 +5103,8 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>

--- a/Entrenamiento_Casa.xlsx
+++ b/Entrenamiento_Casa.xlsx
@@ -20,6 +20,7 @@
     <definedName name="Dia_Jueves">Datos!$D$2:$D$7</definedName>
     <definedName name="Dia_Viernes">Datos!$E$2:$E$7</definedName>
     <definedName name="Dias_Lookup">Datos!$A$1:$E$1</definedName>
+    <definedName name="TablaEjercicios">Datos!$H$1:$J$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Registro'!$A$11:$H$200</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32,7 +33,7 @@
     <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,6 +72,18 @@
     <font>
       <color rgb="00FFFFFF"/>
       <sz val="1"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00333333"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="00555555"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -175,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -199,22 +212,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -243,34 +262,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="11" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -287,10 +306,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <color rgb="00CC0000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFCCCC"/>
+          <bgColor rgb="00FFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <b val="1"/>
+        <color rgb="00856404"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFF3CD"/>
+          <bgColor rgb="00FFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <color rgb="00155724"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00D4EDDA"/>
+          <bgColor rgb="00D4EDDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -745,7 +810,7 @@
     <from>
       <col>7</col>
       <colOff>0</colOff>
-      <row>35</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="7200000" cy="4320000"/>
@@ -1136,7 +1201,7 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Series:</t>
+          <t>Serie #:</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
@@ -1177,28 +1242,43 @@
         <v/>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="11">
+        <f>IF(C6="","",IF(ISERROR(VLOOKUP(C6,TablaEjercicios,2,FALSE)),"","Rango: "&amp;VLOOKUP(C6,TablaEjercicios,2,FALSE)&amp;" - "&amp;VLOOKUP(C6,TablaEjercicios,3,FALSE)&amp;" reps"))</f>
+        <v/>
+      </c>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="12">
+        <f>IF(OR(C6="",E6=""),"",IF(ISERROR(VLOOKUP(C6,TablaEjercicios,2,FALSE)),"",IF(E6&gt;VLOOKUP(C6,TablaEjercicios,3,FALSE),"⬆ SUPERA RANGO - SUBE PESO",IF(E6&lt;VLOOKUP(C6,TablaEjercicios,2,FALSE),"⬇ BAJO RANGO - BAJA PESO","✔ EN RANGO ÓPTIMO"))))</f>
+        <v/>
+      </c>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="4" t="n"/>
+      <c r="G7" s="4" t="n"/>
+    </row>
     <row r="8">
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>▶ REGISTRAR ENTRADA</t>
         </is>
       </c>
-      <c r="C8" s="12" t="n"/>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="C8" s="14" t="n"/>
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>✕ LIMPIAR CAMPOS</t>
         </is>
       </c>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="15" t="inlineStr">
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="17" t="inlineStr">
         <is>
           <t>⟳ DESHACER ÚLTIMO</t>
         </is>
       </c>
-      <c r="H8" s="16" t="n"/>
+      <c r="H8" s="18" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="inlineStr">
+      <c r="A10" s="19" t="inlineStr">
         <is>
           <t>HISTORIAL DE ENTRENAMIENTOS</t>
         </is>
@@ -1212,1954 +1292,1970 @@
       <c r="H10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="inlineStr">
+      <c r="A11" s="20" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="B11" s="20" t="inlineStr">
         <is>
           <t>Día / Rutina</t>
         </is>
       </c>
-      <c r="C11" s="18" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
-        <is>
-          <t>Series</t>
-        </is>
-      </c>
-      <c r="E11" s="18" t="inlineStr">
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>Serie #</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
         <is>
           <t>Reps</t>
         </is>
       </c>
-      <c r="F11" s="18" t="inlineStr">
+      <c r="F11" s="20" t="inlineStr">
         <is>
           <t>Peso (kg)</t>
         </is>
       </c>
-      <c r="G11" s="18" t="inlineStr">
+      <c r="G11" s="20" t="inlineStr">
         <is>
           <t>Descanso (s)</t>
         </is>
       </c>
-      <c r="H11" s="18" t="inlineStr">
+      <c r="H11" s="20" t="inlineStr">
         <is>
           <t>Notas</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="inlineStr"/>
-      <c r="B12" s="20" t="inlineStr"/>
-      <c r="C12" s="20" t="inlineStr"/>
-      <c r="D12" s="20" t="inlineStr"/>
-      <c r="E12" s="20" t="inlineStr"/>
-      <c r="F12" s="20" t="inlineStr"/>
-      <c r="G12" s="20" t="inlineStr"/>
-      <c r="H12" s="20" t="inlineStr"/>
+      <c r="A12" s="21" t="inlineStr"/>
+      <c r="B12" s="22" t="inlineStr"/>
+      <c r="C12" s="22" t="inlineStr"/>
+      <c r="D12" s="22" t="inlineStr"/>
+      <c r="E12" s="22" t="inlineStr"/>
+      <c r="F12" s="22" t="inlineStr"/>
+      <c r="G12" s="22" t="inlineStr"/>
+      <c r="H12" s="22" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="inlineStr"/>
-      <c r="B13" s="22" t="inlineStr"/>
-      <c r="C13" s="22" t="inlineStr"/>
-      <c r="D13" s="22" t="inlineStr"/>
-      <c r="E13" s="22" t="inlineStr"/>
-      <c r="F13" s="22" t="inlineStr"/>
-      <c r="G13" s="22" t="inlineStr"/>
-      <c r="H13" s="22" t="inlineStr"/>
+      <c r="A13" s="23" t="inlineStr"/>
+      <c r="B13" s="24" t="inlineStr"/>
+      <c r="C13" s="24" t="inlineStr"/>
+      <c r="D13" s="24" t="inlineStr"/>
+      <c r="E13" s="24" t="inlineStr"/>
+      <c r="F13" s="24" t="inlineStr"/>
+      <c r="G13" s="24" t="inlineStr"/>
+      <c r="H13" s="24" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="inlineStr"/>
-      <c r="B14" s="20" t="inlineStr"/>
-      <c r="C14" s="20" t="inlineStr"/>
-      <c r="D14" s="20" t="inlineStr"/>
-      <c r="E14" s="20" t="inlineStr"/>
-      <c r="F14" s="20" t="inlineStr"/>
-      <c r="G14" s="20" t="inlineStr"/>
-      <c r="H14" s="20" t="inlineStr"/>
+      <c r="A14" s="21" t="inlineStr"/>
+      <c r="B14" s="22" t="inlineStr"/>
+      <c r="C14" s="22" t="inlineStr"/>
+      <c r="D14" s="22" t="inlineStr"/>
+      <c r="E14" s="22" t="inlineStr"/>
+      <c r="F14" s="22" t="inlineStr"/>
+      <c r="G14" s="22" t="inlineStr"/>
+      <c r="H14" s="22" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="inlineStr"/>
-      <c r="B15" s="22" t="inlineStr"/>
-      <c r="C15" s="22" t="inlineStr"/>
-      <c r="D15" s="22" t="inlineStr"/>
-      <c r="E15" s="22" t="inlineStr"/>
-      <c r="F15" s="22" t="inlineStr"/>
-      <c r="G15" s="22" t="inlineStr"/>
-      <c r="H15" s="22" t="inlineStr"/>
+      <c r="A15" s="23" t="inlineStr"/>
+      <c r="B15" s="24" t="inlineStr"/>
+      <c r="C15" s="24" t="inlineStr"/>
+      <c r="D15" s="24" t="inlineStr"/>
+      <c r="E15" s="24" t="inlineStr"/>
+      <c r="F15" s="24" t="inlineStr"/>
+      <c r="G15" s="24" t="inlineStr"/>
+      <c r="H15" s="24" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="inlineStr"/>
-      <c r="B16" s="20" t="inlineStr"/>
-      <c r="C16" s="20" t="inlineStr"/>
-      <c r="D16" s="20" t="inlineStr"/>
-      <c r="E16" s="20" t="inlineStr"/>
-      <c r="F16" s="20" t="inlineStr"/>
-      <c r="G16" s="20" t="inlineStr"/>
-      <c r="H16" s="20" t="inlineStr"/>
+      <c r="A16" s="21" t="inlineStr"/>
+      <c r="B16" s="22" t="inlineStr"/>
+      <c r="C16" s="22" t="inlineStr"/>
+      <c r="D16" s="22" t="inlineStr"/>
+      <c r="E16" s="22" t="inlineStr"/>
+      <c r="F16" s="22" t="inlineStr"/>
+      <c r="G16" s="22" t="inlineStr"/>
+      <c r="H16" s="22" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="inlineStr"/>
-      <c r="B17" s="22" t="inlineStr"/>
-      <c r="C17" s="22" t="inlineStr"/>
-      <c r="D17" s="22" t="inlineStr"/>
-      <c r="E17" s="22" t="inlineStr"/>
-      <c r="F17" s="22" t="inlineStr"/>
-      <c r="G17" s="22" t="inlineStr"/>
-      <c r="H17" s="22" t="inlineStr"/>
+      <c r="A17" s="23" t="inlineStr"/>
+      <c r="B17" s="24" t="inlineStr"/>
+      <c r="C17" s="24" t="inlineStr"/>
+      <c r="D17" s="24" t="inlineStr"/>
+      <c r="E17" s="24" t="inlineStr"/>
+      <c r="F17" s="24" t="inlineStr"/>
+      <c r="G17" s="24" t="inlineStr"/>
+      <c r="H17" s="24" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="inlineStr"/>
-      <c r="B18" s="20" t="inlineStr"/>
-      <c r="C18" s="20" t="inlineStr"/>
-      <c r="D18" s="20" t="inlineStr"/>
-      <c r="E18" s="20" t="inlineStr"/>
-      <c r="F18" s="20" t="inlineStr"/>
-      <c r="G18" s="20" t="inlineStr"/>
-      <c r="H18" s="20" t="inlineStr"/>
+      <c r="A18" s="21" t="inlineStr"/>
+      <c r="B18" s="22" t="inlineStr"/>
+      <c r="C18" s="22" t="inlineStr"/>
+      <c r="D18" s="22" t="inlineStr"/>
+      <c r="E18" s="22" t="inlineStr"/>
+      <c r="F18" s="22" t="inlineStr"/>
+      <c r="G18" s="22" t="inlineStr"/>
+      <c r="H18" s="22" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="inlineStr"/>
-      <c r="B19" s="22" t="inlineStr"/>
-      <c r="C19" s="22" t="inlineStr"/>
-      <c r="D19" s="22" t="inlineStr"/>
-      <c r="E19" s="22" t="inlineStr"/>
-      <c r="F19" s="22" t="inlineStr"/>
-      <c r="G19" s="22" t="inlineStr"/>
-      <c r="H19" s="22" t="inlineStr"/>
+      <c r="A19" s="23" t="inlineStr"/>
+      <c r="B19" s="24" t="inlineStr"/>
+      <c r="C19" s="24" t="inlineStr"/>
+      <c r="D19" s="24" t="inlineStr"/>
+      <c r="E19" s="24" t="inlineStr"/>
+      <c r="F19" s="24" t="inlineStr"/>
+      <c r="G19" s="24" t="inlineStr"/>
+      <c r="H19" s="24" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="inlineStr"/>
-      <c r="B20" s="20" t="inlineStr"/>
-      <c r="C20" s="20" t="inlineStr"/>
-      <c r="D20" s="20" t="inlineStr"/>
-      <c r="E20" s="20" t="inlineStr"/>
-      <c r="F20" s="20" t="inlineStr"/>
-      <c r="G20" s="20" t="inlineStr"/>
-      <c r="H20" s="20" t="inlineStr"/>
+      <c r="A20" s="21" t="inlineStr"/>
+      <c r="B20" s="22" t="inlineStr"/>
+      <c r="C20" s="22" t="inlineStr"/>
+      <c r="D20" s="22" t="inlineStr"/>
+      <c r="E20" s="22" t="inlineStr"/>
+      <c r="F20" s="22" t="inlineStr"/>
+      <c r="G20" s="22" t="inlineStr"/>
+      <c r="H20" s="22" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="inlineStr"/>
-      <c r="B21" s="22" t="inlineStr"/>
-      <c r="C21" s="22" t="inlineStr"/>
-      <c r="D21" s="22" t="inlineStr"/>
-      <c r="E21" s="22" t="inlineStr"/>
-      <c r="F21" s="22" t="inlineStr"/>
-      <c r="G21" s="22" t="inlineStr"/>
-      <c r="H21" s="22" t="inlineStr"/>
+      <c r="A21" s="23" t="inlineStr"/>
+      <c r="B21" s="24" t="inlineStr"/>
+      <c r="C21" s="24" t="inlineStr"/>
+      <c r="D21" s="24" t="inlineStr"/>
+      <c r="E21" s="24" t="inlineStr"/>
+      <c r="F21" s="24" t="inlineStr"/>
+      <c r="G21" s="24" t="inlineStr"/>
+      <c r="H21" s="24" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="inlineStr"/>
-      <c r="B22" s="20" t="inlineStr"/>
-      <c r="C22" s="20" t="inlineStr"/>
-      <c r="D22" s="20" t="inlineStr"/>
-      <c r="E22" s="20" t="inlineStr"/>
-      <c r="F22" s="20" t="inlineStr"/>
-      <c r="G22" s="20" t="inlineStr"/>
-      <c r="H22" s="20" t="inlineStr"/>
+      <c r="A22" s="21" t="inlineStr"/>
+      <c r="B22" s="22" t="inlineStr"/>
+      <c r="C22" s="22" t="inlineStr"/>
+      <c r="D22" s="22" t="inlineStr"/>
+      <c r="E22" s="22" t="inlineStr"/>
+      <c r="F22" s="22" t="inlineStr"/>
+      <c r="G22" s="22" t="inlineStr"/>
+      <c r="H22" s="22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="inlineStr"/>
-      <c r="B23" s="22" t="inlineStr"/>
-      <c r="C23" s="22" t="inlineStr"/>
-      <c r="D23" s="22" t="inlineStr"/>
-      <c r="E23" s="22" t="inlineStr"/>
-      <c r="F23" s="22" t="inlineStr"/>
-      <c r="G23" s="22" t="inlineStr"/>
-      <c r="H23" s="22" t="inlineStr"/>
+      <c r="A23" s="23" t="inlineStr"/>
+      <c r="B23" s="24" t="inlineStr"/>
+      <c r="C23" s="24" t="inlineStr"/>
+      <c r="D23" s="24" t="inlineStr"/>
+      <c r="E23" s="24" t="inlineStr"/>
+      <c r="F23" s="24" t="inlineStr"/>
+      <c r="G23" s="24" t="inlineStr"/>
+      <c r="H23" s="24" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="inlineStr"/>
-      <c r="B24" s="20" t="inlineStr"/>
-      <c r="C24" s="20" t="inlineStr"/>
-      <c r="D24" s="20" t="inlineStr"/>
-      <c r="E24" s="20" t="inlineStr"/>
-      <c r="F24" s="20" t="inlineStr"/>
-      <c r="G24" s="20" t="inlineStr"/>
-      <c r="H24" s="20" t="inlineStr"/>
+      <c r="A24" s="21" t="inlineStr"/>
+      <c r="B24" s="22" t="inlineStr"/>
+      <c r="C24" s="22" t="inlineStr"/>
+      <c r="D24" s="22" t="inlineStr"/>
+      <c r="E24" s="22" t="inlineStr"/>
+      <c r="F24" s="22" t="inlineStr"/>
+      <c r="G24" s="22" t="inlineStr"/>
+      <c r="H24" s="22" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="inlineStr"/>
-      <c r="B25" s="22" t="inlineStr"/>
-      <c r="C25" s="22" t="inlineStr"/>
-      <c r="D25" s="22" t="inlineStr"/>
-      <c r="E25" s="22" t="inlineStr"/>
-      <c r="F25" s="22" t="inlineStr"/>
-      <c r="G25" s="22" t="inlineStr"/>
-      <c r="H25" s="22" t="inlineStr"/>
+      <c r="A25" s="23" t="inlineStr"/>
+      <c r="B25" s="24" t="inlineStr"/>
+      <c r="C25" s="24" t="inlineStr"/>
+      <c r="D25" s="24" t="inlineStr"/>
+      <c r="E25" s="24" t="inlineStr"/>
+      <c r="F25" s="24" t="inlineStr"/>
+      <c r="G25" s="24" t="inlineStr"/>
+      <c r="H25" s="24" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="inlineStr"/>
-      <c r="B26" s="20" t="inlineStr"/>
-      <c r="C26" s="20" t="inlineStr"/>
-      <c r="D26" s="20" t="inlineStr"/>
-      <c r="E26" s="20" t="inlineStr"/>
-      <c r="F26" s="20" t="inlineStr"/>
-      <c r="G26" s="20" t="inlineStr"/>
-      <c r="H26" s="20" t="inlineStr"/>
+      <c r="A26" s="21" t="inlineStr"/>
+      <c r="B26" s="22" t="inlineStr"/>
+      <c r="C26" s="22" t="inlineStr"/>
+      <c r="D26" s="22" t="inlineStr"/>
+      <c r="E26" s="22" t="inlineStr"/>
+      <c r="F26" s="22" t="inlineStr"/>
+      <c r="G26" s="22" t="inlineStr"/>
+      <c r="H26" s="22" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="inlineStr"/>
-      <c r="B27" s="22" t="inlineStr"/>
-      <c r="C27" s="22" t="inlineStr"/>
-      <c r="D27" s="22" t="inlineStr"/>
-      <c r="E27" s="22" t="inlineStr"/>
-      <c r="F27" s="22" t="inlineStr"/>
-      <c r="G27" s="22" t="inlineStr"/>
-      <c r="H27" s="22" t="inlineStr"/>
+      <c r="A27" s="23" t="inlineStr"/>
+      <c r="B27" s="24" t="inlineStr"/>
+      <c r="C27" s="24" t="inlineStr"/>
+      <c r="D27" s="24" t="inlineStr"/>
+      <c r="E27" s="24" t="inlineStr"/>
+      <c r="F27" s="24" t="inlineStr"/>
+      <c r="G27" s="24" t="inlineStr"/>
+      <c r="H27" s="24" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="inlineStr"/>
-      <c r="B28" s="20" t="inlineStr"/>
-      <c r="C28" s="20" t="inlineStr"/>
-      <c r="D28" s="20" t="inlineStr"/>
-      <c r="E28" s="20" t="inlineStr"/>
-      <c r="F28" s="20" t="inlineStr"/>
-      <c r="G28" s="20" t="inlineStr"/>
-      <c r="H28" s="20" t="inlineStr"/>
+      <c r="A28" s="21" t="inlineStr"/>
+      <c r="B28" s="22" t="inlineStr"/>
+      <c r="C28" s="22" t="inlineStr"/>
+      <c r="D28" s="22" t="inlineStr"/>
+      <c r="E28" s="22" t="inlineStr"/>
+      <c r="F28" s="22" t="inlineStr"/>
+      <c r="G28" s="22" t="inlineStr"/>
+      <c r="H28" s="22" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="inlineStr"/>
-      <c r="B29" s="22" t="inlineStr"/>
-      <c r="C29" s="22" t="inlineStr"/>
-      <c r="D29" s="22" t="inlineStr"/>
-      <c r="E29" s="22" t="inlineStr"/>
-      <c r="F29" s="22" t="inlineStr"/>
-      <c r="G29" s="22" t="inlineStr"/>
-      <c r="H29" s="22" t="inlineStr"/>
+      <c r="A29" s="23" t="inlineStr"/>
+      <c r="B29" s="24" t="inlineStr"/>
+      <c r="C29" s="24" t="inlineStr"/>
+      <c r="D29" s="24" t="inlineStr"/>
+      <c r="E29" s="24" t="inlineStr"/>
+      <c r="F29" s="24" t="inlineStr"/>
+      <c r="G29" s="24" t="inlineStr"/>
+      <c r="H29" s="24" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="inlineStr"/>
-      <c r="B30" s="20" t="inlineStr"/>
-      <c r="C30" s="20" t="inlineStr"/>
-      <c r="D30" s="20" t="inlineStr"/>
-      <c r="E30" s="20" t="inlineStr"/>
-      <c r="F30" s="20" t="inlineStr"/>
-      <c r="G30" s="20" t="inlineStr"/>
-      <c r="H30" s="20" t="inlineStr"/>
+      <c r="A30" s="21" t="inlineStr"/>
+      <c r="B30" s="22" t="inlineStr"/>
+      <c r="C30" s="22" t="inlineStr"/>
+      <c r="D30" s="22" t="inlineStr"/>
+      <c r="E30" s="22" t="inlineStr"/>
+      <c r="F30" s="22" t="inlineStr"/>
+      <c r="G30" s="22" t="inlineStr"/>
+      <c r="H30" s="22" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="inlineStr"/>
-      <c r="B31" s="22" t="inlineStr"/>
-      <c r="C31" s="22" t="inlineStr"/>
-      <c r="D31" s="22" t="inlineStr"/>
-      <c r="E31" s="22" t="inlineStr"/>
-      <c r="F31" s="22" t="inlineStr"/>
-      <c r="G31" s="22" t="inlineStr"/>
-      <c r="H31" s="22" t="inlineStr"/>
+      <c r="A31" s="23" t="inlineStr"/>
+      <c r="B31" s="24" t="inlineStr"/>
+      <c r="C31" s="24" t="inlineStr"/>
+      <c r="D31" s="24" t="inlineStr"/>
+      <c r="E31" s="24" t="inlineStr"/>
+      <c r="F31" s="24" t="inlineStr"/>
+      <c r="G31" s="24" t="inlineStr"/>
+      <c r="H31" s="24" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="inlineStr"/>
-      <c r="B32" s="20" t="inlineStr"/>
-      <c r="C32" s="20" t="inlineStr"/>
-      <c r="D32" s="20" t="inlineStr"/>
-      <c r="E32" s="20" t="inlineStr"/>
-      <c r="F32" s="20" t="inlineStr"/>
-      <c r="G32" s="20" t="inlineStr"/>
-      <c r="H32" s="20" t="inlineStr"/>
+      <c r="A32" s="21" t="inlineStr"/>
+      <c r="B32" s="22" t="inlineStr"/>
+      <c r="C32" s="22" t="inlineStr"/>
+      <c r="D32" s="22" t="inlineStr"/>
+      <c r="E32" s="22" t="inlineStr"/>
+      <c r="F32" s="22" t="inlineStr"/>
+      <c r="G32" s="22" t="inlineStr"/>
+      <c r="H32" s="22" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="inlineStr"/>
-      <c r="B33" s="22" t="inlineStr"/>
-      <c r="C33" s="22" t="inlineStr"/>
-      <c r="D33" s="22" t="inlineStr"/>
-      <c r="E33" s="22" t="inlineStr"/>
-      <c r="F33" s="22" t="inlineStr"/>
-      <c r="G33" s="22" t="inlineStr"/>
-      <c r="H33" s="22" t="inlineStr"/>
+      <c r="A33" s="23" t="inlineStr"/>
+      <c r="B33" s="24" t="inlineStr"/>
+      <c r="C33" s="24" t="inlineStr"/>
+      <c r="D33" s="24" t="inlineStr"/>
+      <c r="E33" s="24" t="inlineStr"/>
+      <c r="F33" s="24" t="inlineStr"/>
+      <c r="G33" s="24" t="inlineStr"/>
+      <c r="H33" s="24" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="inlineStr"/>
-      <c r="B34" s="20" t="inlineStr"/>
-      <c r="C34" s="20" t="inlineStr"/>
-      <c r="D34" s="20" t="inlineStr"/>
-      <c r="E34" s="20" t="inlineStr"/>
-      <c r="F34" s="20" t="inlineStr"/>
-      <c r="G34" s="20" t="inlineStr"/>
-      <c r="H34" s="20" t="inlineStr"/>
+      <c r="A34" s="21" t="inlineStr"/>
+      <c r="B34" s="22" t="inlineStr"/>
+      <c r="C34" s="22" t="inlineStr"/>
+      <c r="D34" s="22" t="inlineStr"/>
+      <c r="E34" s="22" t="inlineStr"/>
+      <c r="F34" s="22" t="inlineStr"/>
+      <c r="G34" s="22" t="inlineStr"/>
+      <c r="H34" s="22" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="inlineStr"/>
-      <c r="B35" s="22" t="inlineStr"/>
-      <c r="C35" s="22" t="inlineStr"/>
-      <c r="D35" s="22" t="inlineStr"/>
-      <c r="E35" s="22" t="inlineStr"/>
-      <c r="F35" s="22" t="inlineStr"/>
-      <c r="G35" s="22" t="inlineStr"/>
-      <c r="H35" s="22" t="inlineStr"/>
+      <c r="A35" s="23" t="inlineStr"/>
+      <c r="B35" s="24" t="inlineStr"/>
+      <c r="C35" s="24" t="inlineStr"/>
+      <c r="D35" s="24" t="inlineStr"/>
+      <c r="E35" s="24" t="inlineStr"/>
+      <c r="F35" s="24" t="inlineStr"/>
+      <c r="G35" s="24" t="inlineStr"/>
+      <c r="H35" s="24" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="inlineStr"/>
-      <c r="B36" s="20" t="inlineStr"/>
-      <c r="C36" s="20" t="inlineStr"/>
-      <c r="D36" s="20" t="inlineStr"/>
-      <c r="E36" s="20" t="inlineStr"/>
-      <c r="F36" s="20" t="inlineStr"/>
-      <c r="G36" s="20" t="inlineStr"/>
-      <c r="H36" s="20" t="inlineStr"/>
+      <c r="A36" s="21" t="inlineStr"/>
+      <c r="B36" s="22" t="inlineStr"/>
+      <c r="C36" s="22" t="inlineStr"/>
+      <c r="D36" s="22" t="inlineStr"/>
+      <c r="E36" s="22" t="inlineStr"/>
+      <c r="F36" s="22" t="inlineStr"/>
+      <c r="G36" s="22" t="inlineStr"/>
+      <c r="H36" s="22" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="inlineStr"/>
-      <c r="B37" s="22" t="inlineStr"/>
-      <c r="C37" s="22" t="inlineStr"/>
-      <c r="D37" s="22" t="inlineStr"/>
-      <c r="E37" s="22" t="inlineStr"/>
-      <c r="F37" s="22" t="inlineStr"/>
-      <c r="G37" s="22" t="inlineStr"/>
-      <c r="H37" s="22" t="inlineStr"/>
+      <c r="A37" s="23" t="inlineStr"/>
+      <c r="B37" s="24" t="inlineStr"/>
+      <c r="C37" s="24" t="inlineStr"/>
+      <c r="D37" s="24" t="inlineStr"/>
+      <c r="E37" s="24" t="inlineStr"/>
+      <c r="F37" s="24" t="inlineStr"/>
+      <c r="G37" s="24" t="inlineStr"/>
+      <c r="H37" s="24" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="inlineStr"/>
-      <c r="B38" s="20" t="inlineStr"/>
-      <c r="C38" s="20" t="inlineStr"/>
-      <c r="D38" s="20" t="inlineStr"/>
-      <c r="E38" s="20" t="inlineStr"/>
-      <c r="F38" s="20" t="inlineStr"/>
-      <c r="G38" s="20" t="inlineStr"/>
-      <c r="H38" s="20" t="inlineStr"/>
+      <c r="A38" s="21" t="inlineStr"/>
+      <c r="B38" s="22" t="inlineStr"/>
+      <c r="C38" s="22" t="inlineStr"/>
+      <c r="D38" s="22" t="inlineStr"/>
+      <c r="E38" s="22" t="inlineStr"/>
+      <c r="F38" s="22" t="inlineStr"/>
+      <c r="G38" s="22" t="inlineStr"/>
+      <c r="H38" s="22" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="inlineStr"/>
-      <c r="B39" s="22" t="inlineStr"/>
-      <c r="C39" s="22" t="inlineStr"/>
-      <c r="D39" s="22" t="inlineStr"/>
-      <c r="E39" s="22" t="inlineStr"/>
-      <c r="F39" s="22" t="inlineStr"/>
-      <c r="G39" s="22" t="inlineStr"/>
-      <c r="H39" s="22" t="inlineStr"/>
+      <c r="A39" s="23" t="inlineStr"/>
+      <c r="B39" s="24" t="inlineStr"/>
+      <c r="C39" s="24" t="inlineStr"/>
+      <c r="D39" s="24" t="inlineStr"/>
+      <c r="E39" s="24" t="inlineStr"/>
+      <c r="F39" s="24" t="inlineStr"/>
+      <c r="G39" s="24" t="inlineStr"/>
+      <c r="H39" s="24" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="inlineStr"/>
-      <c r="B40" s="20" t="inlineStr"/>
-      <c r="C40" s="20" t="inlineStr"/>
-      <c r="D40" s="20" t="inlineStr"/>
-      <c r="E40" s="20" t="inlineStr"/>
-      <c r="F40" s="20" t="inlineStr"/>
-      <c r="G40" s="20" t="inlineStr"/>
-      <c r="H40" s="20" t="inlineStr"/>
+      <c r="A40" s="21" t="inlineStr"/>
+      <c r="B40" s="22" t="inlineStr"/>
+      <c r="C40" s="22" t="inlineStr"/>
+      <c r="D40" s="22" t="inlineStr"/>
+      <c r="E40" s="22" t="inlineStr"/>
+      <c r="F40" s="22" t="inlineStr"/>
+      <c r="G40" s="22" t="inlineStr"/>
+      <c r="H40" s="22" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="inlineStr"/>
-      <c r="B41" s="22" t="inlineStr"/>
-      <c r="C41" s="22" t="inlineStr"/>
-      <c r="D41" s="22" t="inlineStr"/>
-      <c r="E41" s="22" t="inlineStr"/>
-      <c r="F41" s="22" t="inlineStr"/>
-      <c r="G41" s="22" t="inlineStr"/>
-      <c r="H41" s="22" t="inlineStr"/>
+      <c r="A41" s="23" t="inlineStr"/>
+      <c r="B41" s="24" t="inlineStr"/>
+      <c r="C41" s="24" t="inlineStr"/>
+      <c r="D41" s="24" t="inlineStr"/>
+      <c r="E41" s="24" t="inlineStr"/>
+      <c r="F41" s="24" t="inlineStr"/>
+      <c r="G41" s="24" t="inlineStr"/>
+      <c r="H41" s="24" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="inlineStr"/>
-      <c r="B42" s="20" t="inlineStr"/>
-      <c r="C42" s="20" t="inlineStr"/>
-      <c r="D42" s="20" t="inlineStr"/>
-      <c r="E42" s="20" t="inlineStr"/>
-      <c r="F42" s="20" t="inlineStr"/>
-      <c r="G42" s="20" t="inlineStr"/>
-      <c r="H42" s="20" t="inlineStr"/>
+      <c r="A42" s="21" t="inlineStr"/>
+      <c r="B42" s="22" t="inlineStr"/>
+      <c r="C42" s="22" t="inlineStr"/>
+      <c r="D42" s="22" t="inlineStr"/>
+      <c r="E42" s="22" t="inlineStr"/>
+      <c r="F42" s="22" t="inlineStr"/>
+      <c r="G42" s="22" t="inlineStr"/>
+      <c r="H42" s="22" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="inlineStr"/>
-      <c r="B43" s="22" t="inlineStr"/>
-      <c r="C43" s="22" t="inlineStr"/>
-      <c r="D43" s="22" t="inlineStr"/>
-      <c r="E43" s="22" t="inlineStr"/>
-      <c r="F43" s="22" t="inlineStr"/>
-      <c r="G43" s="22" t="inlineStr"/>
-      <c r="H43" s="22" t="inlineStr"/>
+      <c r="A43" s="23" t="inlineStr"/>
+      <c r="B43" s="24" t="inlineStr"/>
+      <c r="C43" s="24" t="inlineStr"/>
+      <c r="D43" s="24" t="inlineStr"/>
+      <c r="E43" s="24" t="inlineStr"/>
+      <c r="F43" s="24" t="inlineStr"/>
+      <c r="G43" s="24" t="inlineStr"/>
+      <c r="H43" s="24" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="19" t="inlineStr"/>
-      <c r="B44" s="20" t="inlineStr"/>
-      <c r="C44" s="20" t="inlineStr"/>
-      <c r="D44" s="20" t="inlineStr"/>
-      <c r="E44" s="20" t="inlineStr"/>
-      <c r="F44" s="20" t="inlineStr"/>
-      <c r="G44" s="20" t="inlineStr"/>
-      <c r="H44" s="20" t="inlineStr"/>
+      <c r="A44" s="21" t="inlineStr"/>
+      <c r="B44" s="22" t="inlineStr"/>
+      <c r="C44" s="22" t="inlineStr"/>
+      <c r="D44" s="22" t="inlineStr"/>
+      <c r="E44" s="22" t="inlineStr"/>
+      <c r="F44" s="22" t="inlineStr"/>
+      <c r="G44" s="22" t="inlineStr"/>
+      <c r="H44" s="22" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="inlineStr"/>
-      <c r="B45" s="22" t="inlineStr"/>
-      <c r="C45" s="22" t="inlineStr"/>
-      <c r="D45" s="22" t="inlineStr"/>
-      <c r="E45" s="22" t="inlineStr"/>
-      <c r="F45" s="22" t="inlineStr"/>
-      <c r="G45" s="22" t="inlineStr"/>
-      <c r="H45" s="22" t="inlineStr"/>
+      <c r="A45" s="23" t="inlineStr"/>
+      <c r="B45" s="24" t="inlineStr"/>
+      <c r="C45" s="24" t="inlineStr"/>
+      <c r="D45" s="24" t="inlineStr"/>
+      <c r="E45" s="24" t="inlineStr"/>
+      <c r="F45" s="24" t="inlineStr"/>
+      <c r="G45" s="24" t="inlineStr"/>
+      <c r="H45" s="24" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="19" t="inlineStr"/>
-      <c r="B46" s="20" t="inlineStr"/>
-      <c r="C46" s="20" t="inlineStr"/>
-      <c r="D46" s="20" t="inlineStr"/>
-      <c r="E46" s="20" t="inlineStr"/>
-      <c r="F46" s="20" t="inlineStr"/>
-      <c r="G46" s="20" t="inlineStr"/>
-      <c r="H46" s="20" t="inlineStr"/>
+      <c r="A46" s="21" t="inlineStr"/>
+      <c r="B46" s="22" t="inlineStr"/>
+      <c r="C46" s="22" t="inlineStr"/>
+      <c r="D46" s="22" t="inlineStr"/>
+      <c r="E46" s="22" t="inlineStr"/>
+      <c r="F46" s="22" t="inlineStr"/>
+      <c r="G46" s="22" t="inlineStr"/>
+      <c r="H46" s="22" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="inlineStr"/>
-      <c r="B47" s="22" t="inlineStr"/>
-      <c r="C47" s="22" t="inlineStr"/>
-      <c r="D47" s="22" t="inlineStr"/>
-      <c r="E47" s="22" t="inlineStr"/>
-      <c r="F47" s="22" t="inlineStr"/>
-      <c r="G47" s="22" t="inlineStr"/>
-      <c r="H47" s="22" t="inlineStr"/>
+      <c r="A47" s="23" t="inlineStr"/>
+      <c r="B47" s="24" t="inlineStr"/>
+      <c r="C47" s="24" t="inlineStr"/>
+      <c r="D47" s="24" t="inlineStr"/>
+      <c r="E47" s="24" t="inlineStr"/>
+      <c r="F47" s="24" t="inlineStr"/>
+      <c r="G47" s="24" t="inlineStr"/>
+      <c r="H47" s="24" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="19" t="inlineStr"/>
-      <c r="B48" s="20" t="inlineStr"/>
-      <c r="C48" s="20" t="inlineStr"/>
-      <c r="D48" s="20" t="inlineStr"/>
-      <c r="E48" s="20" t="inlineStr"/>
-      <c r="F48" s="20" t="inlineStr"/>
-      <c r="G48" s="20" t="inlineStr"/>
-      <c r="H48" s="20" t="inlineStr"/>
+      <c r="A48" s="21" t="inlineStr"/>
+      <c r="B48" s="22" t="inlineStr"/>
+      <c r="C48" s="22" t="inlineStr"/>
+      <c r="D48" s="22" t="inlineStr"/>
+      <c r="E48" s="22" t="inlineStr"/>
+      <c r="F48" s="22" t="inlineStr"/>
+      <c r="G48" s="22" t="inlineStr"/>
+      <c r="H48" s="22" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="21" t="inlineStr"/>
-      <c r="B49" s="22" t="inlineStr"/>
-      <c r="C49" s="22" t="inlineStr"/>
-      <c r="D49" s="22" t="inlineStr"/>
-      <c r="E49" s="22" t="inlineStr"/>
-      <c r="F49" s="22" t="inlineStr"/>
-      <c r="G49" s="22" t="inlineStr"/>
-      <c r="H49" s="22" t="inlineStr"/>
+      <c r="A49" s="23" t="inlineStr"/>
+      <c r="B49" s="24" t="inlineStr"/>
+      <c r="C49" s="24" t="inlineStr"/>
+      <c r="D49" s="24" t="inlineStr"/>
+      <c r="E49" s="24" t="inlineStr"/>
+      <c r="F49" s="24" t="inlineStr"/>
+      <c r="G49" s="24" t="inlineStr"/>
+      <c r="H49" s="24" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="19" t="inlineStr"/>
-      <c r="B50" s="20" t="inlineStr"/>
-      <c r="C50" s="20" t="inlineStr"/>
-      <c r="D50" s="20" t="inlineStr"/>
-      <c r="E50" s="20" t="inlineStr"/>
-      <c r="F50" s="20" t="inlineStr"/>
-      <c r="G50" s="20" t="inlineStr"/>
-      <c r="H50" s="20" t="inlineStr"/>
+      <c r="A50" s="21" t="inlineStr"/>
+      <c r="B50" s="22" t="inlineStr"/>
+      <c r="C50" s="22" t="inlineStr"/>
+      <c r="D50" s="22" t="inlineStr"/>
+      <c r="E50" s="22" t="inlineStr"/>
+      <c r="F50" s="22" t="inlineStr"/>
+      <c r="G50" s="22" t="inlineStr"/>
+      <c r="H50" s="22" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="21" t="inlineStr"/>
-      <c r="B51" s="22" t="inlineStr"/>
-      <c r="C51" s="22" t="inlineStr"/>
-      <c r="D51" s="22" t="inlineStr"/>
-      <c r="E51" s="22" t="inlineStr"/>
-      <c r="F51" s="22" t="inlineStr"/>
-      <c r="G51" s="22" t="inlineStr"/>
-      <c r="H51" s="22" t="inlineStr"/>
+      <c r="A51" s="23" t="inlineStr"/>
+      <c r="B51" s="24" t="inlineStr"/>
+      <c r="C51" s="24" t="inlineStr"/>
+      <c r="D51" s="24" t="inlineStr"/>
+      <c r="E51" s="24" t="inlineStr"/>
+      <c r="F51" s="24" t="inlineStr"/>
+      <c r="G51" s="24" t="inlineStr"/>
+      <c r="H51" s="24" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="19" t="inlineStr"/>
-      <c r="B52" s="20" t="inlineStr"/>
-      <c r="C52" s="20" t="inlineStr"/>
-      <c r="D52" s="20" t="inlineStr"/>
-      <c r="E52" s="20" t="inlineStr"/>
-      <c r="F52" s="20" t="inlineStr"/>
-      <c r="G52" s="20" t="inlineStr"/>
-      <c r="H52" s="20" t="inlineStr"/>
+      <c r="A52" s="21" t="inlineStr"/>
+      <c r="B52" s="22" t="inlineStr"/>
+      <c r="C52" s="22" t="inlineStr"/>
+      <c r="D52" s="22" t="inlineStr"/>
+      <c r="E52" s="22" t="inlineStr"/>
+      <c r="F52" s="22" t="inlineStr"/>
+      <c r="G52" s="22" t="inlineStr"/>
+      <c r="H52" s="22" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="inlineStr"/>
-      <c r="B53" s="22" t="inlineStr"/>
-      <c r="C53" s="22" t="inlineStr"/>
-      <c r="D53" s="22" t="inlineStr"/>
-      <c r="E53" s="22" t="inlineStr"/>
-      <c r="F53" s="22" t="inlineStr"/>
-      <c r="G53" s="22" t="inlineStr"/>
-      <c r="H53" s="22" t="inlineStr"/>
+      <c r="A53" s="23" t="inlineStr"/>
+      <c r="B53" s="24" t="inlineStr"/>
+      <c r="C53" s="24" t="inlineStr"/>
+      <c r="D53" s="24" t="inlineStr"/>
+      <c r="E53" s="24" t="inlineStr"/>
+      <c r="F53" s="24" t="inlineStr"/>
+      <c r="G53" s="24" t="inlineStr"/>
+      <c r="H53" s="24" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="19" t="inlineStr"/>
-      <c r="B54" s="20" t="inlineStr"/>
-      <c r="C54" s="20" t="inlineStr"/>
-      <c r="D54" s="20" t="inlineStr"/>
-      <c r="E54" s="20" t="inlineStr"/>
-      <c r="F54" s="20" t="inlineStr"/>
-      <c r="G54" s="20" t="inlineStr"/>
-      <c r="H54" s="20" t="inlineStr"/>
+      <c r="A54" s="21" t="inlineStr"/>
+      <c r="B54" s="22" t="inlineStr"/>
+      <c r="C54" s="22" t="inlineStr"/>
+      <c r="D54" s="22" t="inlineStr"/>
+      <c r="E54" s="22" t="inlineStr"/>
+      <c r="F54" s="22" t="inlineStr"/>
+      <c r="G54" s="22" t="inlineStr"/>
+      <c r="H54" s="22" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="21" t="inlineStr"/>
-      <c r="B55" s="22" t="inlineStr"/>
-      <c r="C55" s="22" t="inlineStr"/>
-      <c r="D55" s="22" t="inlineStr"/>
-      <c r="E55" s="22" t="inlineStr"/>
-      <c r="F55" s="22" t="inlineStr"/>
-      <c r="G55" s="22" t="inlineStr"/>
-      <c r="H55" s="22" t="inlineStr"/>
+      <c r="A55" s="23" t="inlineStr"/>
+      <c r="B55" s="24" t="inlineStr"/>
+      <c r="C55" s="24" t="inlineStr"/>
+      <c r="D55" s="24" t="inlineStr"/>
+      <c r="E55" s="24" t="inlineStr"/>
+      <c r="F55" s="24" t="inlineStr"/>
+      <c r="G55" s="24" t="inlineStr"/>
+      <c r="H55" s="24" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="19" t="inlineStr"/>
-      <c r="B56" s="20" t="inlineStr"/>
-      <c r="C56" s="20" t="inlineStr"/>
-      <c r="D56" s="20" t="inlineStr"/>
-      <c r="E56" s="20" t="inlineStr"/>
-      <c r="F56" s="20" t="inlineStr"/>
-      <c r="G56" s="20" t="inlineStr"/>
-      <c r="H56" s="20" t="inlineStr"/>
+      <c r="A56" s="21" t="inlineStr"/>
+      <c r="B56" s="22" t="inlineStr"/>
+      <c r="C56" s="22" t="inlineStr"/>
+      <c r="D56" s="22" t="inlineStr"/>
+      <c r="E56" s="22" t="inlineStr"/>
+      <c r="F56" s="22" t="inlineStr"/>
+      <c r="G56" s="22" t="inlineStr"/>
+      <c r="H56" s="22" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="21" t="inlineStr"/>
-      <c r="B57" s="22" t="inlineStr"/>
-      <c r="C57" s="22" t="inlineStr"/>
-      <c r="D57" s="22" t="inlineStr"/>
-      <c r="E57" s="22" t="inlineStr"/>
-      <c r="F57" s="22" t="inlineStr"/>
-      <c r="G57" s="22" t="inlineStr"/>
-      <c r="H57" s="22" t="inlineStr"/>
+      <c r="A57" s="23" t="inlineStr"/>
+      <c r="B57" s="24" t="inlineStr"/>
+      <c r="C57" s="24" t="inlineStr"/>
+      <c r="D57" s="24" t="inlineStr"/>
+      <c r="E57" s="24" t="inlineStr"/>
+      <c r="F57" s="24" t="inlineStr"/>
+      <c r="G57" s="24" t="inlineStr"/>
+      <c r="H57" s="24" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="19" t="inlineStr"/>
-      <c r="B58" s="20" t="inlineStr"/>
-      <c r="C58" s="20" t="inlineStr"/>
-      <c r="D58" s="20" t="inlineStr"/>
-      <c r="E58" s="20" t="inlineStr"/>
-      <c r="F58" s="20" t="inlineStr"/>
-      <c r="G58" s="20" t="inlineStr"/>
-      <c r="H58" s="20" t="inlineStr"/>
+      <c r="A58" s="21" t="inlineStr"/>
+      <c r="B58" s="22" t="inlineStr"/>
+      <c r="C58" s="22" t="inlineStr"/>
+      <c r="D58" s="22" t="inlineStr"/>
+      <c r="E58" s="22" t="inlineStr"/>
+      <c r="F58" s="22" t="inlineStr"/>
+      <c r="G58" s="22" t="inlineStr"/>
+      <c r="H58" s="22" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="inlineStr"/>
-      <c r="B59" s="22" t="inlineStr"/>
-      <c r="C59" s="22" t="inlineStr"/>
-      <c r="D59" s="22" t="inlineStr"/>
-      <c r="E59" s="22" t="inlineStr"/>
-      <c r="F59" s="22" t="inlineStr"/>
-      <c r="G59" s="22" t="inlineStr"/>
-      <c r="H59" s="22" t="inlineStr"/>
+      <c r="A59" s="23" t="inlineStr"/>
+      <c r="B59" s="24" t="inlineStr"/>
+      <c r="C59" s="24" t="inlineStr"/>
+      <c r="D59" s="24" t="inlineStr"/>
+      <c r="E59" s="24" t="inlineStr"/>
+      <c r="F59" s="24" t="inlineStr"/>
+      <c r="G59" s="24" t="inlineStr"/>
+      <c r="H59" s="24" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="19" t="inlineStr"/>
-      <c r="B60" s="20" t="inlineStr"/>
-      <c r="C60" s="20" t="inlineStr"/>
-      <c r="D60" s="20" t="inlineStr"/>
-      <c r="E60" s="20" t="inlineStr"/>
-      <c r="F60" s="20" t="inlineStr"/>
-      <c r="G60" s="20" t="inlineStr"/>
-      <c r="H60" s="20" t="inlineStr"/>
+      <c r="A60" s="21" t="inlineStr"/>
+      <c r="B60" s="22" t="inlineStr"/>
+      <c r="C60" s="22" t="inlineStr"/>
+      <c r="D60" s="22" t="inlineStr"/>
+      <c r="E60" s="22" t="inlineStr"/>
+      <c r="F60" s="22" t="inlineStr"/>
+      <c r="G60" s="22" t="inlineStr"/>
+      <c r="H60" s="22" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="inlineStr"/>
-      <c r="B61" s="22" t="inlineStr"/>
-      <c r="C61" s="22" t="inlineStr"/>
-      <c r="D61" s="22" t="inlineStr"/>
-      <c r="E61" s="22" t="inlineStr"/>
-      <c r="F61" s="22" t="inlineStr"/>
-      <c r="G61" s="22" t="inlineStr"/>
-      <c r="H61" s="22" t="inlineStr"/>
+      <c r="A61" s="23" t="inlineStr"/>
+      <c r="B61" s="24" t="inlineStr"/>
+      <c r="C61" s="24" t="inlineStr"/>
+      <c r="D61" s="24" t="inlineStr"/>
+      <c r="E61" s="24" t="inlineStr"/>
+      <c r="F61" s="24" t="inlineStr"/>
+      <c r="G61" s="24" t="inlineStr"/>
+      <c r="H61" s="24" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="19" t="inlineStr"/>
-      <c r="B62" s="20" t="inlineStr"/>
-      <c r="C62" s="20" t="inlineStr"/>
-      <c r="D62" s="20" t="inlineStr"/>
-      <c r="E62" s="20" t="inlineStr"/>
-      <c r="F62" s="20" t="inlineStr"/>
-      <c r="G62" s="20" t="inlineStr"/>
-      <c r="H62" s="20" t="inlineStr"/>
+      <c r="A62" s="21" t="inlineStr"/>
+      <c r="B62" s="22" t="inlineStr"/>
+      <c r="C62" s="22" t="inlineStr"/>
+      <c r="D62" s="22" t="inlineStr"/>
+      <c r="E62" s="22" t="inlineStr"/>
+      <c r="F62" s="22" t="inlineStr"/>
+      <c r="G62" s="22" t="inlineStr"/>
+      <c r="H62" s="22" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="inlineStr"/>
-      <c r="B63" s="22" t="inlineStr"/>
-      <c r="C63" s="22" t="inlineStr"/>
-      <c r="D63" s="22" t="inlineStr"/>
-      <c r="E63" s="22" t="inlineStr"/>
-      <c r="F63" s="22" t="inlineStr"/>
-      <c r="G63" s="22" t="inlineStr"/>
-      <c r="H63" s="22" t="inlineStr"/>
+      <c r="A63" s="23" t="inlineStr"/>
+      <c r="B63" s="24" t="inlineStr"/>
+      <c r="C63" s="24" t="inlineStr"/>
+      <c r="D63" s="24" t="inlineStr"/>
+      <c r="E63" s="24" t="inlineStr"/>
+      <c r="F63" s="24" t="inlineStr"/>
+      <c r="G63" s="24" t="inlineStr"/>
+      <c r="H63" s="24" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="19" t="inlineStr"/>
-      <c r="B64" s="20" t="inlineStr"/>
-      <c r="C64" s="20" t="inlineStr"/>
-      <c r="D64" s="20" t="inlineStr"/>
-      <c r="E64" s="20" t="inlineStr"/>
-      <c r="F64" s="20" t="inlineStr"/>
-      <c r="G64" s="20" t="inlineStr"/>
-      <c r="H64" s="20" t="inlineStr"/>
+      <c r="A64" s="21" t="inlineStr"/>
+      <c r="B64" s="22" t="inlineStr"/>
+      <c r="C64" s="22" t="inlineStr"/>
+      <c r="D64" s="22" t="inlineStr"/>
+      <c r="E64" s="22" t="inlineStr"/>
+      <c r="F64" s="22" t="inlineStr"/>
+      <c r="G64" s="22" t="inlineStr"/>
+      <c r="H64" s="22" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="inlineStr"/>
-      <c r="B65" s="22" t="inlineStr"/>
-      <c r="C65" s="22" t="inlineStr"/>
-      <c r="D65" s="22" t="inlineStr"/>
-      <c r="E65" s="22" t="inlineStr"/>
-      <c r="F65" s="22" t="inlineStr"/>
-      <c r="G65" s="22" t="inlineStr"/>
-      <c r="H65" s="22" t="inlineStr"/>
+      <c r="A65" s="23" t="inlineStr"/>
+      <c r="B65" s="24" t="inlineStr"/>
+      <c r="C65" s="24" t="inlineStr"/>
+      <c r="D65" s="24" t="inlineStr"/>
+      <c r="E65" s="24" t="inlineStr"/>
+      <c r="F65" s="24" t="inlineStr"/>
+      <c r="G65" s="24" t="inlineStr"/>
+      <c r="H65" s="24" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="19" t="inlineStr"/>
-      <c r="B66" s="20" t="inlineStr"/>
-      <c r="C66" s="20" t="inlineStr"/>
-      <c r="D66" s="20" t="inlineStr"/>
-      <c r="E66" s="20" t="inlineStr"/>
-      <c r="F66" s="20" t="inlineStr"/>
-      <c r="G66" s="20" t="inlineStr"/>
-      <c r="H66" s="20" t="inlineStr"/>
+      <c r="A66" s="21" t="inlineStr"/>
+      <c r="B66" s="22" t="inlineStr"/>
+      <c r="C66" s="22" t="inlineStr"/>
+      <c r="D66" s="22" t="inlineStr"/>
+      <c r="E66" s="22" t="inlineStr"/>
+      <c r="F66" s="22" t="inlineStr"/>
+      <c r="G66" s="22" t="inlineStr"/>
+      <c r="H66" s="22" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="inlineStr"/>
-      <c r="B67" s="22" t="inlineStr"/>
-      <c r="C67" s="22" t="inlineStr"/>
-      <c r="D67" s="22" t="inlineStr"/>
-      <c r="E67" s="22" t="inlineStr"/>
-      <c r="F67" s="22" t="inlineStr"/>
-      <c r="G67" s="22" t="inlineStr"/>
-      <c r="H67" s="22" t="inlineStr"/>
+      <c r="A67" s="23" t="inlineStr"/>
+      <c r="B67" s="24" t="inlineStr"/>
+      <c r="C67" s="24" t="inlineStr"/>
+      <c r="D67" s="24" t="inlineStr"/>
+      <c r="E67" s="24" t="inlineStr"/>
+      <c r="F67" s="24" t="inlineStr"/>
+      <c r="G67" s="24" t="inlineStr"/>
+      <c r="H67" s="24" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="19" t="inlineStr"/>
-      <c r="B68" s="20" t="inlineStr"/>
-      <c r="C68" s="20" t="inlineStr"/>
-      <c r="D68" s="20" t="inlineStr"/>
-      <c r="E68" s="20" t="inlineStr"/>
-      <c r="F68" s="20" t="inlineStr"/>
-      <c r="G68" s="20" t="inlineStr"/>
-      <c r="H68" s="20" t="inlineStr"/>
+      <c r="A68" s="21" t="inlineStr"/>
+      <c r="B68" s="22" t="inlineStr"/>
+      <c r="C68" s="22" t="inlineStr"/>
+      <c r="D68" s="22" t="inlineStr"/>
+      <c r="E68" s="22" t="inlineStr"/>
+      <c r="F68" s="22" t="inlineStr"/>
+      <c r="G68" s="22" t="inlineStr"/>
+      <c r="H68" s="22" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="inlineStr"/>
-      <c r="B69" s="22" t="inlineStr"/>
-      <c r="C69" s="22" t="inlineStr"/>
-      <c r="D69" s="22" t="inlineStr"/>
-      <c r="E69" s="22" t="inlineStr"/>
-      <c r="F69" s="22" t="inlineStr"/>
-      <c r="G69" s="22" t="inlineStr"/>
-      <c r="H69" s="22" t="inlineStr"/>
+      <c r="A69" s="23" t="inlineStr"/>
+      <c r="B69" s="24" t="inlineStr"/>
+      <c r="C69" s="24" t="inlineStr"/>
+      <c r="D69" s="24" t="inlineStr"/>
+      <c r="E69" s="24" t="inlineStr"/>
+      <c r="F69" s="24" t="inlineStr"/>
+      <c r="G69" s="24" t="inlineStr"/>
+      <c r="H69" s="24" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="19" t="inlineStr"/>
-      <c r="B70" s="20" t="inlineStr"/>
-      <c r="C70" s="20" t="inlineStr"/>
-      <c r="D70" s="20" t="inlineStr"/>
-      <c r="E70" s="20" t="inlineStr"/>
-      <c r="F70" s="20" t="inlineStr"/>
-      <c r="G70" s="20" t="inlineStr"/>
-      <c r="H70" s="20" t="inlineStr"/>
+      <c r="A70" s="21" t="inlineStr"/>
+      <c r="B70" s="22" t="inlineStr"/>
+      <c r="C70" s="22" t="inlineStr"/>
+      <c r="D70" s="22" t="inlineStr"/>
+      <c r="E70" s="22" t="inlineStr"/>
+      <c r="F70" s="22" t="inlineStr"/>
+      <c r="G70" s="22" t="inlineStr"/>
+      <c r="H70" s="22" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="inlineStr"/>
-      <c r="B71" s="22" t="inlineStr"/>
-      <c r="C71" s="22" t="inlineStr"/>
-      <c r="D71" s="22" t="inlineStr"/>
-      <c r="E71" s="22" t="inlineStr"/>
-      <c r="F71" s="22" t="inlineStr"/>
-      <c r="G71" s="22" t="inlineStr"/>
-      <c r="H71" s="22" t="inlineStr"/>
+      <c r="A71" s="23" t="inlineStr"/>
+      <c r="B71" s="24" t="inlineStr"/>
+      <c r="C71" s="24" t="inlineStr"/>
+      <c r="D71" s="24" t="inlineStr"/>
+      <c r="E71" s="24" t="inlineStr"/>
+      <c r="F71" s="24" t="inlineStr"/>
+      <c r="G71" s="24" t="inlineStr"/>
+      <c r="H71" s="24" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="19" t="inlineStr"/>
-      <c r="B72" s="20" t="inlineStr"/>
-      <c r="C72" s="20" t="inlineStr"/>
-      <c r="D72" s="20" t="inlineStr"/>
-      <c r="E72" s="20" t="inlineStr"/>
-      <c r="F72" s="20" t="inlineStr"/>
-      <c r="G72" s="20" t="inlineStr"/>
-      <c r="H72" s="20" t="inlineStr"/>
+      <c r="A72" s="21" t="inlineStr"/>
+      <c r="B72" s="22" t="inlineStr"/>
+      <c r="C72" s="22" t="inlineStr"/>
+      <c r="D72" s="22" t="inlineStr"/>
+      <c r="E72" s="22" t="inlineStr"/>
+      <c r="F72" s="22" t="inlineStr"/>
+      <c r="G72" s="22" t="inlineStr"/>
+      <c r="H72" s="22" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="inlineStr"/>
-      <c r="B73" s="22" t="inlineStr"/>
-      <c r="C73" s="22" t="inlineStr"/>
-      <c r="D73" s="22" t="inlineStr"/>
-      <c r="E73" s="22" t="inlineStr"/>
-      <c r="F73" s="22" t="inlineStr"/>
-      <c r="G73" s="22" t="inlineStr"/>
-      <c r="H73" s="22" t="inlineStr"/>
+      <c r="A73" s="23" t="inlineStr"/>
+      <c r="B73" s="24" t="inlineStr"/>
+      <c r="C73" s="24" t="inlineStr"/>
+      <c r="D73" s="24" t="inlineStr"/>
+      <c r="E73" s="24" t="inlineStr"/>
+      <c r="F73" s="24" t="inlineStr"/>
+      <c r="G73" s="24" t="inlineStr"/>
+      <c r="H73" s="24" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="19" t="inlineStr"/>
-      <c r="B74" s="20" t="inlineStr"/>
-      <c r="C74" s="20" t="inlineStr"/>
-      <c r="D74" s="20" t="inlineStr"/>
-      <c r="E74" s="20" t="inlineStr"/>
-      <c r="F74" s="20" t="inlineStr"/>
-      <c r="G74" s="20" t="inlineStr"/>
-      <c r="H74" s="20" t="inlineStr"/>
+      <c r="A74" s="21" t="inlineStr"/>
+      <c r="B74" s="22" t="inlineStr"/>
+      <c r="C74" s="22" t="inlineStr"/>
+      <c r="D74" s="22" t="inlineStr"/>
+      <c r="E74" s="22" t="inlineStr"/>
+      <c r="F74" s="22" t="inlineStr"/>
+      <c r="G74" s="22" t="inlineStr"/>
+      <c r="H74" s="22" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="21" t="inlineStr"/>
-      <c r="B75" s="22" t="inlineStr"/>
-      <c r="C75" s="22" t="inlineStr"/>
-      <c r="D75" s="22" t="inlineStr"/>
-      <c r="E75" s="22" t="inlineStr"/>
-      <c r="F75" s="22" t="inlineStr"/>
-      <c r="G75" s="22" t="inlineStr"/>
-      <c r="H75" s="22" t="inlineStr"/>
+      <c r="A75" s="23" t="inlineStr"/>
+      <c r="B75" s="24" t="inlineStr"/>
+      <c r="C75" s="24" t="inlineStr"/>
+      <c r="D75" s="24" t="inlineStr"/>
+      <c r="E75" s="24" t="inlineStr"/>
+      <c r="F75" s="24" t="inlineStr"/>
+      <c r="G75" s="24" t="inlineStr"/>
+      <c r="H75" s="24" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="19" t="inlineStr"/>
-      <c r="B76" s="20" t="inlineStr"/>
-      <c r="C76" s="20" t="inlineStr"/>
-      <c r="D76" s="20" t="inlineStr"/>
-      <c r="E76" s="20" t="inlineStr"/>
-      <c r="F76" s="20" t="inlineStr"/>
-      <c r="G76" s="20" t="inlineStr"/>
-      <c r="H76" s="20" t="inlineStr"/>
+      <c r="A76" s="21" t="inlineStr"/>
+      <c r="B76" s="22" t="inlineStr"/>
+      <c r="C76" s="22" t="inlineStr"/>
+      <c r="D76" s="22" t="inlineStr"/>
+      <c r="E76" s="22" t="inlineStr"/>
+      <c r="F76" s="22" t="inlineStr"/>
+      <c r="G76" s="22" t="inlineStr"/>
+      <c r="H76" s="22" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="21" t="inlineStr"/>
-      <c r="B77" s="22" t="inlineStr"/>
-      <c r="C77" s="22" t="inlineStr"/>
-      <c r="D77" s="22" t="inlineStr"/>
-      <c r="E77" s="22" t="inlineStr"/>
-      <c r="F77" s="22" t="inlineStr"/>
-      <c r="G77" s="22" t="inlineStr"/>
-      <c r="H77" s="22" t="inlineStr"/>
+      <c r="A77" s="23" t="inlineStr"/>
+      <c r="B77" s="24" t="inlineStr"/>
+      <c r="C77" s="24" t="inlineStr"/>
+      <c r="D77" s="24" t="inlineStr"/>
+      <c r="E77" s="24" t="inlineStr"/>
+      <c r="F77" s="24" t="inlineStr"/>
+      <c r="G77" s="24" t="inlineStr"/>
+      <c r="H77" s="24" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="19" t="inlineStr"/>
-      <c r="B78" s="20" t="inlineStr"/>
-      <c r="C78" s="20" t="inlineStr"/>
-      <c r="D78" s="20" t="inlineStr"/>
-      <c r="E78" s="20" t="inlineStr"/>
-      <c r="F78" s="20" t="inlineStr"/>
-      <c r="G78" s="20" t="inlineStr"/>
-      <c r="H78" s="20" t="inlineStr"/>
+      <c r="A78" s="21" t="inlineStr"/>
+      <c r="B78" s="22" t="inlineStr"/>
+      <c r="C78" s="22" t="inlineStr"/>
+      <c r="D78" s="22" t="inlineStr"/>
+      <c r="E78" s="22" t="inlineStr"/>
+      <c r="F78" s="22" t="inlineStr"/>
+      <c r="G78" s="22" t="inlineStr"/>
+      <c r="H78" s="22" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="21" t="inlineStr"/>
-      <c r="B79" s="22" t="inlineStr"/>
-      <c r="C79" s="22" t="inlineStr"/>
-      <c r="D79" s="22" t="inlineStr"/>
-      <c r="E79" s="22" t="inlineStr"/>
-      <c r="F79" s="22" t="inlineStr"/>
-      <c r="G79" s="22" t="inlineStr"/>
-      <c r="H79" s="22" t="inlineStr"/>
+      <c r="A79" s="23" t="inlineStr"/>
+      <c r="B79" s="24" t="inlineStr"/>
+      <c r="C79" s="24" t="inlineStr"/>
+      <c r="D79" s="24" t="inlineStr"/>
+      <c r="E79" s="24" t="inlineStr"/>
+      <c r="F79" s="24" t="inlineStr"/>
+      <c r="G79" s="24" t="inlineStr"/>
+      <c r="H79" s="24" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="19" t="inlineStr"/>
-      <c r="B80" s="20" t="inlineStr"/>
-      <c r="C80" s="20" t="inlineStr"/>
-      <c r="D80" s="20" t="inlineStr"/>
-      <c r="E80" s="20" t="inlineStr"/>
-      <c r="F80" s="20" t="inlineStr"/>
-      <c r="G80" s="20" t="inlineStr"/>
-      <c r="H80" s="20" t="inlineStr"/>
+      <c r="A80" s="21" t="inlineStr"/>
+      <c r="B80" s="22" t="inlineStr"/>
+      <c r="C80" s="22" t="inlineStr"/>
+      <c r="D80" s="22" t="inlineStr"/>
+      <c r="E80" s="22" t="inlineStr"/>
+      <c r="F80" s="22" t="inlineStr"/>
+      <c r="G80" s="22" t="inlineStr"/>
+      <c r="H80" s="22" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="21" t="inlineStr"/>
-      <c r="B81" s="22" t="inlineStr"/>
-      <c r="C81" s="22" t="inlineStr"/>
-      <c r="D81" s="22" t="inlineStr"/>
-      <c r="E81" s="22" t="inlineStr"/>
-      <c r="F81" s="22" t="inlineStr"/>
-      <c r="G81" s="22" t="inlineStr"/>
-      <c r="H81" s="22" t="inlineStr"/>
+      <c r="A81" s="23" t="inlineStr"/>
+      <c r="B81" s="24" t="inlineStr"/>
+      <c r="C81" s="24" t="inlineStr"/>
+      <c r="D81" s="24" t="inlineStr"/>
+      <c r="E81" s="24" t="inlineStr"/>
+      <c r="F81" s="24" t="inlineStr"/>
+      <c r="G81" s="24" t="inlineStr"/>
+      <c r="H81" s="24" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="19" t="inlineStr"/>
-      <c r="B82" s="20" t="inlineStr"/>
-      <c r="C82" s="20" t="inlineStr"/>
-      <c r="D82" s="20" t="inlineStr"/>
-      <c r="E82" s="20" t="inlineStr"/>
-      <c r="F82" s="20" t="inlineStr"/>
-      <c r="G82" s="20" t="inlineStr"/>
-      <c r="H82" s="20" t="inlineStr"/>
+      <c r="A82" s="21" t="inlineStr"/>
+      <c r="B82" s="22" t="inlineStr"/>
+      <c r="C82" s="22" t="inlineStr"/>
+      <c r="D82" s="22" t="inlineStr"/>
+      <c r="E82" s="22" t="inlineStr"/>
+      <c r="F82" s="22" t="inlineStr"/>
+      <c r="G82" s="22" t="inlineStr"/>
+      <c r="H82" s="22" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="21" t="inlineStr"/>
-      <c r="B83" s="22" t="inlineStr"/>
-      <c r="C83" s="22" t="inlineStr"/>
-      <c r="D83" s="22" t="inlineStr"/>
-      <c r="E83" s="22" t="inlineStr"/>
-      <c r="F83" s="22" t="inlineStr"/>
-      <c r="G83" s="22" t="inlineStr"/>
-      <c r="H83" s="22" t="inlineStr"/>
+      <c r="A83" s="23" t="inlineStr"/>
+      <c r="B83" s="24" t="inlineStr"/>
+      <c r="C83" s="24" t="inlineStr"/>
+      <c r="D83" s="24" t="inlineStr"/>
+      <c r="E83" s="24" t="inlineStr"/>
+      <c r="F83" s="24" t="inlineStr"/>
+      <c r="G83" s="24" t="inlineStr"/>
+      <c r="H83" s="24" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="19" t="inlineStr"/>
-      <c r="B84" s="20" t="inlineStr"/>
-      <c r="C84" s="20" t="inlineStr"/>
-      <c r="D84" s="20" t="inlineStr"/>
-      <c r="E84" s="20" t="inlineStr"/>
-      <c r="F84" s="20" t="inlineStr"/>
-      <c r="G84" s="20" t="inlineStr"/>
-      <c r="H84" s="20" t="inlineStr"/>
+      <c r="A84" s="21" t="inlineStr"/>
+      <c r="B84" s="22" t="inlineStr"/>
+      <c r="C84" s="22" t="inlineStr"/>
+      <c r="D84" s="22" t="inlineStr"/>
+      <c r="E84" s="22" t="inlineStr"/>
+      <c r="F84" s="22" t="inlineStr"/>
+      <c r="G84" s="22" t="inlineStr"/>
+      <c r="H84" s="22" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="21" t="inlineStr"/>
-      <c r="B85" s="22" t="inlineStr"/>
-      <c r="C85" s="22" t="inlineStr"/>
-      <c r="D85" s="22" t="inlineStr"/>
-      <c r="E85" s="22" t="inlineStr"/>
-      <c r="F85" s="22" t="inlineStr"/>
-      <c r="G85" s="22" t="inlineStr"/>
-      <c r="H85" s="22" t="inlineStr"/>
+      <c r="A85" s="23" t="inlineStr"/>
+      <c r="B85" s="24" t="inlineStr"/>
+      <c r="C85" s="24" t="inlineStr"/>
+      <c r="D85" s="24" t="inlineStr"/>
+      <c r="E85" s="24" t="inlineStr"/>
+      <c r="F85" s="24" t="inlineStr"/>
+      <c r="G85" s="24" t="inlineStr"/>
+      <c r="H85" s="24" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="19" t="inlineStr"/>
-      <c r="B86" s="20" t="inlineStr"/>
-      <c r="C86" s="20" t="inlineStr"/>
-      <c r="D86" s="20" t="inlineStr"/>
-      <c r="E86" s="20" t="inlineStr"/>
-      <c r="F86" s="20" t="inlineStr"/>
-      <c r="G86" s="20" t="inlineStr"/>
-      <c r="H86" s="20" t="inlineStr"/>
+      <c r="A86" s="21" t="inlineStr"/>
+      <c r="B86" s="22" t="inlineStr"/>
+      <c r="C86" s="22" t="inlineStr"/>
+      <c r="D86" s="22" t="inlineStr"/>
+      <c r="E86" s="22" t="inlineStr"/>
+      <c r="F86" s="22" t="inlineStr"/>
+      <c r="G86" s="22" t="inlineStr"/>
+      <c r="H86" s="22" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="21" t="inlineStr"/>
-      <c r="B87" s="22" t="inlineStr"/>
-      <c r="C87" s="22" t="inlineStr"/>
-      <c r="D87" s="22" t="inlineStr"/>
-      <c r="E87" s="22" t="inlineStr"/>
-      <c r="F87" s="22" t="inlineStr"/>
-      <c r="G87" s="22" t="inlineStr"/>
-      <c r="H87" s="22" t="inlineStr"/>
+      <c r="A87" s="23" t="inlineStr"/>
+      <c r="B87" s="24" t="inlineStr"/>
+      <c r="C87" s="24" t="inlineStr"/>
+      <c r="D87" s="24" t="inlineStr"/>
+      <c r="E87" s="24" t="inlineStr"/>
+      <c r="F87" s="24" t="inlineStr"/>
+      <c r="G87" s="24" t="inlineStr"/>
+      <c r="H87" s="24" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="19" t="inlineStr"/>
-      <c r="B88" s="20" t="inlineStr"/>
-      <c r="C88" s="20" t="inlineStr"/>
-      <c r="D88" s="20" t="inlineStr"/>
-      <c r="E88" s="20" t="inlineStr"/>
-      <c r="F88" s="20" t="inlineStr"/>
-      <c r="G88" s="20" t="inlineStr"/>
-      <c r="H88" s="20" t="inlineStr"/>
+      <c r="A88" s="21" t="inlineStr"/>
+      <c r="B88" s="22" t="inlineStr"/>
+      <c r="C88" s="22" t="inlineStr"/>
+      <c r="D88" s="22" t="inlineStr"/>
+      <c r="E88" s="22" t="inlineStr"/>
+      <c r="F88" s="22" t="inlineStr"/>
+      <c r="G88" s="22" t="inlineStr"/>
+      <c r="H88" s="22" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="21" t="inlineStr"/>
-      <c r="B89" s="22" t="inlineStr"/>
-      <c r="C89" s="22" t="inlineStr"/>
-      <c r="D89" s="22" t="inlineStr"/>
-      <c r="E89" s="22" t="inlineStr"/>
-      <c r="F89" s="22" t="inlineStr"/>
-      <c r="G89" s="22" t="inlineStr"/>
-      <c r="H89" s="22" t="inlineStr"/>
+      <c r="A89" s="23" t="inlineStr"/>
+      <c r="B89" s="24" t="inlineStr"/>
+      <c r="C89" s="24" t="inlineStr"/>
+      <c r="D89" s="24" t="inlineStr"/>
+      <c r="E89" s="24" t="inlineStr"/>
+      <c r="F89" s="24" t="inlineStr"/>
+      <c r="G89" s="24" t="inlineStr"/>
+      <c r="H89" s="24" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="19" t="inlineStr"/>
-      <c r="B90" s="20" t="inlineStr"/>
-      <c r="C90" s="20" t="inlineStr"/>
-      <c r="D90" s="20" t="inlineStr"/>
-      <c r="E90" s="20" t="inlineStr"/>
-      <c r="F90" s="20" t="inlineStr"/>
-      <c r="G90" s="20" t="inlineStr"/>
-      <c r="H90" s="20" t="inlineStr"/>
+      <c r="A90" s="21" t="inlineStr"/>
+      <c r="B90" s="22" t="inlineStr"/>
+      <c r="C90" s="22" t="inlineStr"/>
+      <c r="D90" s="22" t="inlineStr"/>
+      <c r="E90" s="22" t="inlineStr"/>
+      <c r="F90" s="22" t="inlineStr"/>
+      <c r="G90" s="22" t="inlineStr"/>
+      <c r="H90" s="22" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="21" t="inlineStr"/>
-      <c r="B91" s="22" t="inlineStr"/>
-      <c r="C91" s="22" t="inlineStr"/>
-      <c r="D91" s="22" t="inlineStr"/>
-      <c r="E91" s="22" t="inlineStr"/>
-      <c r="F91" s="22" t="inlineStr"/>
-      <c r="G91" s="22" t="inlineStr"/>
-      <c r="H91" s="22" t="inlineStr"/>
+      <c r="A91" s="23" t="inlineStr"/>
+      <c r="B91" s="24" t="inlineStr"/>
+      <c r="C91" s="24" t="inlineStr"/>
+      <c r="D91" s="24" t="inlineStr"/>
+      <c r="E91" s="24" t="inlineStr"/>
+      <c r="F91" s="24" t="inlineStr"/>
+      <c r="G91" s="24" t="inlineStr"/>
+      <c r="H91" s="24" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="19" t="inlineStr"/>
-      <c r="B92" s="20" t="inlineStr"/>
-      <c r="C92" s="20" t="inlineStr"/>
-      <c r="D92" s="20" t="inlineStr"/>
-      <c r="E92" s="20" t="inlineStr"/>
-      <c r="F92" s="20" t="inlineStr"/>
-      <c r="G92" s="20" t="inlineStr"/>
-      <c r="H92" s="20" t="inlineStr"/>
+      <c r="A92" s="21" t="inlineStr"/>
+      <c r="B92" s="22" t="inlineStr"/>
+      <c r="C92" s="22" t="inlineStr"/>
+      <c r="D92" s="22" t="inlineStr"/>
+      <c r="E92" s="22" t="inlineStr"/>
+      <c r="F92" s="22" t="inlineStr"/>
+      <c r="G92" s="22" t="inlineStr"/>
+      <c r="H92" s="22" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="21" t="inlineStr"/>
-      <c r="B93" s="22" t="inlineStr"/>
-      <c r="C93" s="22" t="inlineStr"/>
-      <c r="D93" s="22" t="inlineStr"/>
-      <c r="E93" s="22" t="inlineStr"/>
-      <c r="F93" s="22" t="inlineStr"/>
-      <c r="G93" s="22" t="inlineStr"/>
-      <c r="H93" s="22" t="inlineStr"/>
+      <c r="A93" s="23" t="inlineStr"/>
+      <c r="B93" s="24" t="inlineStr"/>
+      <c r="C93" s="24" t="inlineStr"/>
+      <c r="D93" s="24" t="inlineStr"/>
+      <c r="E93" s="24" t="inlineStr"/>
+      <c r="F93" s="24" t="inlineStr"/>
+      <c r="G93" s="24" t="inlineStr"/>
+      <c r="H93" s="24" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="19" t="inlineStr"/>
-      <c r="B94" s="20" t="inlineStr"/>
-      <c r="C94" s="20" t="inlineStr"/>
-      <c r="D94" s="20" t="inlineStr"/>
-      <c r="E94" s="20" t="inlineStr"/>
-      <c r="F94" s="20" t="inlineStr"/>
-      <c r="G94" s="20" t="inlineStr"/>
-      <c r="H94" s="20" t="inlineStr"/>
+      <c r="A94" s="21" t="inlineStr"/>
+      <c r="B94" s="22" t="inlineStr"/>
+      <c r="C94" s="22" t="inlineStr"/>
+      <c r="D94" s="22" t="inlineStr"/>
+      <c r="E94" s="22" t="inlineStr"/>
+      <c r="F94" s="22" t="inlineStr"/>
+      <c r="G94" s="22" t="inlineStr"/>
+      <c r="H94" s="22" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="21" t="inlineStr"/>
-      <c r="B95" s="22" t="inlineStr"/>
-      <c r="C95" s="22" t="inlineStr"/>
-      <c r="D95" s="22" t="inlineStr"/>
-      <c r="E95" s="22" t="inlineStr"/>
-      <c r="F95" s="22" t="inlineStr"/>
-      <c r="G95" s="22" t="inlineStr"/>
-      <c r="H95" s="22" t="inlineStr"/>
+      <c r="A95" s="23" t="inlineStr"/>
+      <c r="B95" s="24" t="inlineStr"/>
+      <c r="C95" s="24" t="inlineStr"/>
+      <c r="D95" s="24" t="inlineStr"/>
+      <c r="E95" s="24" t="inlineStr"/>
+      <c r="F95" s="24" t="inlineStr"/>
+      <c r="G95" s="24" t="inlineStr"/>
+      <c r="H95" s="24" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="19" t="inlineStr"/>
-      <c r="B96" s="20" t="inlineStr"/>
-      <c r="C96" s="20" t="inlineStr"/>
-      <c r="D96" s="20" t="inlineStr"/>
-      <c r="E96" s="20" t="inlineStr"/>
-      <c r="F96" s="20" t="inlineStr"/>
-      <c r="G96" s="20" t="inlineStr"/>
-      <c r="H96" s="20" t="inlineStr"/>
+      <c r="A96" s="21" t="inlineStr"/>
+      <c r="B96" s="22" t="inlineStr"/>
+      <c r="C96" s="22" t="inlineStr"/>
+      <c r="D96" s="22" t="inlineStr"/>
+      <c r="E96" s="22" t="inlineStr"/>
+      <c r="F96" s="22" t="inlineStr"/>
+      <c r="G96" s="22" t="inlineStr"/>
+      <c r="H96" s="22" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="21" t="inlineStr"/>
-      <c r="B97" s="22" t="inlineStr"/>
-      <c r="C97" s="22" t="inlineStr"/>
-      <c r="D97" s="22" t="inlineStr"/>
-      <c r="E97" s="22" t="inlineStr"/>
-      <c r="F97" s="22" t="inlineStr"/>
-      <c r="G97" s="22" t="inlineStr"/>
-      <c r="H97" s="22" t="inlineStr"/>
+      <c r="A97" s="23" t="inlineStr"/>
+      <c r="B97" s="24" t="inlineStr"/>
+      <c r="C97" s="24" t="inlineStr"/>
+      <c r="D97" s="24" t="inlineStr"/>
+      <c r="E97" s="24" t="inlineStr"/>
+      <c r="F97" s="24" t="inlineStr"/>
+      <c r="G97" s="24" t="inlineStr"/>
+      <c r="H97" s="24" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="19" t="inlineStr"/>
-      <c r="B98" s="20" t="inlineStr"/>
-      <c r="C98" s="20" t="inlineStr"/>
-      <c r="D98" s="20" t="inlineStr"/>
-      <c r="E98" s="20" t="inlineStr"/>
-      <c r="F98" s="20" t="inlineStr"/>
-      <c r="G98" s="20" t="inlineStr"/>
-      <c r="H98" s="20" t="inlineStr"/>
+      <c r="A98" s="21" t="inlineStr"/>
+      <c r="B98" s="22" t="inlineStr"/>
+      <c r="C98" s="22" t="inlineStr"/>
+      <c r="D98" s="22" t="inlineStr"/>
+      <c r="E98" s="22" t="inlineStr"/>
+      <c r="F98" s="22" t="inlineStr"/>
+      <c r="G98" s="22" t="inlineStr"/>
+      <c r="H98" s="22" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="21" t="inlineStr"/>
-      <c r="B99" s="22" t="inlineStr"/>
-      <c r="C99" s="22" t="inlineStr"/>
-      <c r="D99" s="22" t="inlineStr"/>
-      <c r="E99" s="22" t="inlineStr"/>
-      <c r="F99" s="22" t="inlineStr"/>
-      <c r="G99" s="22" t="inlineStr"/>
-      <c r="H99" s="22" t="inlineStr"/>
+      <c r="A99" s="23" t="inlineStr"/>
+      <c r="B99" s="24" t="inlineStr"/>
+      <c r="C99" s="24" t="inlineStr"/>
+      <c r="D99" s="24" t="inlineStr"/>
+      <c r="E99" s="24" t="inlineStr"/>
+      <c r="F99" s="24" t="inlineStr"/>
+      <c r="G99" s="24" t="inlineStr"/>
+      <c r="H99" s="24" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="19" t="inlineStr"/>
-      <c r="B100" s="20" t="inlineStr"/>
-      <c r="C100" s="20" t="inlineStr"/>
-      <c r="D100" s="20" t="inlineStr"/>
-      <c r="E100" s="20" t="inlineStr"/>
-      <c r="F100" s="20" t="inlineStr"/>
-      <c r="G100" s="20" t="inlineStr"/>
-      <c r="H100" s="20" t="inlineStr"/>
+      <c r="A100" s="21" t="inlineStr"/>
+      <c r="B100" s="22" t="inlineStr"/>
+      <c r="C100" s="22" t="inlineStr"/>
+      <c r="D100" s="22" t="inlineStr"/>
+      <c r="E100" s="22" t="inlineStr"/>
+      <c r="F100" s="22" t="inlineStr"/>
+      <c r="G100" s="22" t="inlineStr"/>
+      <c r="H100" s="22" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="21" t="inlineStr"/>
-      <c r="B101" s="22" t="inlineStr"/>
-      <c r="C101" s="22" t="inlineStr"/>
-      <c r="D101" s="22" t="inlineStr"/>
-      <c r="E101" s="22" t="inlineStr"/>
-      <c r="F101" s="22" t="inlineStr"/>
-      <c r="G101" s="22" t="inlineStr"/>
-      <c r="H101" s="22" t="inlineStr"/>
+      <c r="A101" s="23" t="inlineStr"/>
+      <c r="B101" s="24" t="inlineStr"/>
+      <c r="C101" s="24" t="inlineStr"/>
+      <c r="D101" s="24" t="inlineStr"/>
+      <c r="E101" s="24" t="inlineStr"/>
+      <c r="F101" s="24" t="inlineStr"/>
+      <c r="G101" s="24" t="inlineStr"/>
+      <c r="H101" s="24" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="19" t="inlineStr"/>
-      <c r="B102" s="20" t="inlineStr"/>
-      <c r="C102" s="20" t="inlineStr"/>
-      <c r="D102" s="20" t="inlineStr"/>
-      <c r="E102" s="20" t="inlineStr"/>
-      <c r="F102" s="20" t="inlineStr"/>
-      <c r="G102" s="20" t="inlineStr"/>
-      <c r="H102" s="20" t="inlineStr"/>
+      <c r="A102" s="21" t="inlineStr"/>
+      <c r="B102" s="22" t="inlineStr"/>
+      <c r="C102" s="22" t="inlineStr"/>
+      <c r="D102" s="22" t="inlineStr"/>
+      <c r="E102" s="22" t="inlineStr"/>
+      <c r="F102" s="22" t="inlineStr"/>
+      <c r="G102" s="22" t="inlineStr"/>
+      <c r="H102" s="22" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="21" t="inlineStr"/>
-      <c r="B103" s="22" t="inlineStr"/>
-      <c r="C103" s="22" t="inlineStr"/>
-      <c r="D103" s="22" t="inlineStr"/>
-      <c r="E103" s="22" t="inlineStr"/>
-      <c r="F103" s="22" t="inlineStr"/>
-      <c r="G103" s="22" t="inlineStr"/>
-      <c r="H103" s="22" t="inlineStr"/>
+      <c r="A103" s="23" t="inlineStr"/>
+      <c r="B103" s="24" t="inlineStr"/>
+      <c r="C103" s="24" t="inlineStr"/>
+      <c r="D103" s="24" t="inlineStr"/>
+      <c r="E103" s="24" t="inlineStr"/>
+      <c r="F103" s="24" t="inlineStr"/>
+      <c r="G103" s="24" t="inlineStr"/>
+      <c r="H103" s="24" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="19" t="inlineStr"/>
-      <c r="B104" s="20" t="inlineStr"/>
-      <c r="C104" s="20" t="inlineStr"/>
-      <c r="D104" s="20" t="inlineStr"/>
-      <c r="E104" s="20" t="inlineStr"/>
-      <c r="F104" s="20" t="inlineStr"/>
-      <c r="G104" s="20" t="inlineStr"/>
-      <c r="H104" s="20" t="inlineStr"/>
+      <c r="A104" s="21" t="inlineStr"/>
+      <c r="B104" s="22" t="inlineStr"/>
+      <c r="C104" s="22" t="inlineStr"/>
+      <c r="D104" s="22" t="inlineStr"/>
+      <c r="E104" s="22" t="inlineStr"/>
+      <c r="F104" s="22" t="inlineStr"/>
+      <c r="G104" s="22" t="inlineStr"/>
+      <c r="H104" s="22" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="21" t="inlineStr"/>
-      <c r="B105" s="22" t="inlineStr"/>
-      <c r="C105" s="22" t="inlineStr"/>
-      <c r="D105" s="22" t="inlineStr"/>
-      <c r="E105" s="22" t="inlineStr"/>
-      <c r="F105" s="22" t="inlineStr"/>
-      <c r="G105" s="22" t="inlineStr"/>
-      <c r="H105" s="22" t="inlineStr"/>
+      <c r="A105" s="23" t="inlineStr"/>
+      <c r="B105" s="24" t="inlineStr"/>
+      <c r="C105" s="24" t="inlineStr"/>
+      <c r="D105" s="24" t="inlineStr"/>
+      <c r="E105" s="24" t="inlineStr"/>
+      <c r="F105" s="24" t="inlineStr"/>
+      <c r="G105" s="24" t="inlineStr"/>
+      <c r="H105" s="24" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="19" t="inlineStr"/>
-      <c r="B106" s="20" t="inlineStr"/>
-      <c r="C106" s="20" t="inlineStr"/>
-      <c r="D106" s="20" t="inlineStr"/>
-      <c r="E106" s="20" t="inlineStr"/>
-      <c r="F106" s="20" t="inlineStr"/>
-      <c r="G106" s="20" t="inlineStr"/>
-      <c r="H106" s="20" t="inlineStr"/>
+      <c r="A106" s="21" t="inlineStr"/>
+      <c r="B106" s="22" t="inlineStr"/>
+      <c r="C106" s="22" t="inlineStr"/>
+      <c r="D106" s="22" t="inlineStr"/>
+      <c r="E106" s="22" t="inlineStr"/>
+      <c r="F106" s="22" t="inlineStr"/>
+      <c r="G106" s="22" t="inlineStr"/>
+      <c r="H106" s="22" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="21" t="inlineStr"/>
-      <c r="B107" s="22" t="inlineStr"/>
-      <c r="C107" s="22" t="inlineStr"/>
-      <c r="D107" s="22" t="inlineStr"/>
-      <c r="E107" s="22" t="inlineStr"/>
-      <c r="F107" s="22" t="inlineStr"/>
-      <c r="G107" s="22" t="inlineStr"/>
-      <c r="H107" s="22" t="inlineStr"/>
+      <c r="A107" s="23" t="inlineStr"/>
+      <c r="B107" s="24" t="inlineStr"/>
+      <c r="C107" s="24" t="inlineStr"/>
+      <c r="D107" s="24" t="inlineStr"/>
+      <c r="E107" s="24" t="inlineStr"/>
+      <c r="F107" s="24" t="inlineStr"/>
+      <c r="G107" s="24" t="inlineStr"/>
+      <c r="H107" s="24" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="19" t="inlineStr"/>
-      <c r="B108" s="20" t="inlineStr"/>
-      <c r="C108" s="20" t="inlineStr"/>
-      <c r="D108" s="20" t="inlineStr"/>
-      <c r="E108" s="20" t="inlineStr"/>
-      <c r="F108" s="20" t="inlineStr"/>
-      <c r="G108" s="20" t="inlineStr"/>
-      <c r="H108" s="20" t="inlineStr"/>
+      <c r="A108" s="21" t="inlineStr"/>
+      <c r="B108" s="22" t="inlineStr"/>
+      <c r="C108" s="22" t="inlineStr"/>
+      <c r="D108" s="22" t="inlineStr"/>
+      <c r="E108" s="22" t="inlineStr"/>
+      <c r="F108" s="22" t="inlineStr"/>
+      <c r="G108" s="22" t="inlineStr"/>
+      <c r="H108" s="22" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="21" t="inlineStr"/>
-      <c r="B109" s="22" t="inlineStr"/>
-      <c r="C109" s="22" t="inlineStr"/>
-      <c r="D109" s="22" t="inlineStr"/>
-      <c r="E109" s="22" t="inlineStr"/>
-      <c r="F109" s="22" t="inlineStr"/>
-      <c r="G109" s="22" t="inlineStr"/>
-      <c r="H109" s="22" t="inlineStr"/>
+      <c r="A109" s="23" t="inlineStr"/>
+      <c r="B109" s="24" t="inlineStr"/>
+      <c r="C109" s="24" t="inlineStr"/>
+      <c r="D109" s="24" t="inlineStr"/>
+      <c r="E109" s="24" t="inlineStr"/>
+      <c r="F109" s="24" t="inlineStr"/>
+      <c r="G109" s="24" t="inlineStr"/>
+      <c r="H109" s="24" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="19" t="inlineStr"/>
-      <c r="B110" s="20" t="inlineStr"/>
-      <c r="C110" s="20" t="inlineStr"/>
-      <c r="D110" s="20" t="inlineStr"/>
-      <c r="E110" s="20" t="inlineStr"/>
-      <c r="F110" s="20" t="inlineStr"/>
-      <c r="G110" s="20" t="inlineStr"/>
-      <c r="H110" s="20" t="inlineStr"/>
+      <c r="A110" s="21" t="inlineStr"/>
+      <c r="B110" s="22" t="inlineStr"/>
+      <c r="C110" s="22" t="inlineStr"/>
+      <c r="D110" s="22" t="inlineStr"/>
+      <c r="E110" s="22" t="inlineStr"/>
+      <c r="F110" s="22" t="inlineStr"/>
+      <c r="G110" s="22" t="inlineStr"/>
+      <c r="H110" s="22" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="21" t="inlineStr"/>
-      <c r="B111" s="22" t="inlineStr"/>
-      <c r="C111" s="22" t="inlineStr"/>
-      <c r="D111" s="22" t="inlineStr"/>
-      <c r="E111" s="22" t="inlineStr"/>
-      <c r="F111" s="22" t="inlineStr"/>
-      <c r="G111" s="22" t="inlineStr"/>
-      <c r="H111" s="22" t="inlineStr"/>
+      <c r="A111" s="23" t="inlineStr"/>
+      <c r="B111" s="24" t="inlineStr"/>
+      <c r="C111" s="24" t="inlineStr"/>
+      <c r="D111" s="24" t="inlineStr"/>
+      <c r="E111" s="24" t="inlineStr"/>
+      <c r="F111" s="24" t="inlineStr"/>
+      <c r="G111" s="24" t="inlineStr"/>
+      <c r="H111" s="24" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="19" t="inlineStr"/>
-      <c r="B112" s="20" t="inlineStr"/>
-      <c r="C112" s="20" t="inlineStr"/>
-      <c r="D112" s="20" t="inlineStr"/>
-      <c r="E112" s="20" t="inlineStr"/>
-      <c r="F112" s="20" t="inlineStr"/>
-      <c r="G112" s="20" t="inlineStr"/>
-      <c r="H112" s="20" t="inlineStr"/>
+      <c r="A112" s="21" t="inlineStr"/>
+      <c r="B112" s="22" t="inlineStr"/>
+      <c r="C112" s="22" t="inlineStr"/>
+      <c r="D112" s="22" t="inlineStr"/>
+      <c r="E112" s="22" t="inlineStr"/>
+      <c r="F112" s="22" t="inlineStr"/>
+      <c r="G112" s="22" t="inlineStr"/>
+      <c r="H112" s="22" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="21" t="inlineStr"/>
-      <c r="B113" s="22" t="inlineStr"/>
-      <c r="C113" s="22" t="inlineStr"/>
-      <c r="D113" s="22" t="inlineStr"/>
-      <c r="E113" s="22" t="inlineStr"/>
-      <c r="F113" s="22" t="inlineStr"/>
-      <c r="G113" s="22" t="inlineStr"/>
-      <c r="H113" s="22" t="inlineStr"/>
+      <c r="A113" s="23" t="inlineStr"/>
+      <c r="B113" s="24" t="inlineStr"/>
+      <c r="C113" s="24" t="inlineStr"/>
+      <c r="D113" s="24" t="inlineStr"/>
+      <c r="E113" s="24" t="inlineStr"/>
+      <c r="F113" s="24" t="inlineStr"/>
+      <c r="G113" s="24" t="inlineStr"/>
+      <c r="H113" s="24" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="19" t="inlineStr"/>
-      <c r="B114" s="20" t="inlineStr"/>
-      <c r="C114" s="20" t="inlineStr"/>
-      <c r="D114" s="20" t="inlineStr"/>
-      <c r="E114" s="20" t="inlineStr"/>
-      <c r="F114" s="20" t="inlineStr"/>
-      <c r="G114" s="20" t="inlineStr"/>
-      <c r="H114" s="20" t="inlineStr"/>
+      <c r="A114" s="21" t="inlineStr"/>
+      <c r="B114" s="22" t="inlineStr"/>
+      <c r="C114" s="22" t="inlineStr"/>
+      <c r="D114" s="22" t="inlineStr"/>
+      <c r="E114" s="22" t="inlineStr"/>
+      <c r="F114" s="22" t="inlineStr"/>
+      <c r="G114" s="22" t="inlineStr"/>
+      <c r="H114" s="22" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="21" t="inlineStr"/>
-      <c r="B115" s="22" t="inlineStr"/>
-      <c r="C115" s="22" t="inlineStr"/>
-      <c r="D115" s="22" t="inlineStr"/>
-      <c r="E115" s="22" t="inlineStr"/>
-      <c r="F115" s="22" t="inlineStr"/>
-      <c r="G115" s="22" t="inlineStr"/>
-      <c r="H115" s="22" t="inlineStr"/>
+      <c r="A115" s="23" t="inlineStr"/>
+      <c r="B115" s="24" t="inlineStr"/>
+      <c r="C115" s="24" t="inlineStr"/>
+      <c r="D115" s="24" t="inlineStr"/>
+      <c r="E115" s="24" t="inlineStr"/>
+      <c r="F115" s="24" t="inlineStr"/>
+      <c r="G115" s="24" t="inlineStr"/>
+      <c r="H115" s="24" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="19" t="inlineStr"/>
-      <c r="B116" s="20" t="inlineStr"/>
-      <c r="C116" s="20" t="inlineStr"/>
-      <c r="D116" s="20" t="inlineStr"/>
-      <c r="E116" s="20" t="inlineStr"/>
-      <c r="F116" s="20" t="inlineStr"/>
-      <c r="G116" s="20" t="inlineStr"/>
-      <c r="H116" s="20" t="inlineStr"/>
+      <c r="A116" s="21" t="inlineStr"/>
+      <c r="B116" s="22" t="inlineStr"/>
+      <c r="C116" s="22" t="inlineStr"/>
+      <c r="D116" s="22" t="inlineStr"/>
+      <c r="E116" s="22" t="inlineStr"/>
+      <c r="F116" s="22" t="inlineStr"/>
+      <c r="G116" s="22" t="inlineStr"/>
+      <c r="H116" s="22" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="21" t="inlineStr"/>
-      <c r="B117" s="22" t="inlineStr"/>
-      <c r="C117" s="22" t="inlineStr"/>
-      <c r="D117" s="22" t="inlineStr"/>
-      <c r="E117" s="22" t="inlineStr"/>
-      <c r="F117" s="22" t="inlineStr"/>
-      <c r="G117" s="22" t="inlineStr"/>
-      <c r="H117" s="22" t="inlineStr"/>
+      <c r="A117" s="23" t="inlineStr"/>
+      <c r="B117" s="24" t="inlineStr"/>
+      <c r="C117" s="24" t="inlineStr"/>
+      <c r="D117" s="24" t="inlineStr"/>
+      <c r="E117" s="24" t="inlineStr"/>
+      <c r="F117" s="24" t="inlineStr"/>
+      <c r="G117" s="24" t="inlineStr"/>
+      <c r="H117" s="24" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="19" t="inlineStr"/>
-      <c r="B118" s="20" t="inlineStr"/>
-      <c r="C118" s="20" t="inlineStr"/>
-      <c r="D118" s="20" t="inlineStr"/>
-      <c r="E118" s="20" t="inlineStr"/>
-      <c r="F118" s="20" t="inlineStr"/>
-      <c r="G118" s="20" t="inlineStr"/>
-      <c r="H118" s="20" t="inlineStr"/>
+      <c r="A118" s="21" t="inlineStr"/>
+      <c r="B118" s="22" t="inlineStr"/>
+      <c r="C118" s="22" t="inlineStr"/>
+      <c r="D118" s="22" t="inlineStr"/>
+      <c r="E118" s="22" t="inlineStr"/>
+      <c r="F118" s="22" t="inlineStr"/>
+      <c r="G118" s="22" t="inlineStr"/>
+      <c r="H118" s="22" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="21" t="inlineStr"/>
-      <c r="B119" s="22" t="inlineStr"/>
-      <c r="C119" s="22" t="inlineStr"/>
-      <c r="D119" s="22" t="inlineStr"/>
-      <c r="E119" s="22" t="inlineStr"/>
-      <c r="F119" s="22" t="inlineStr"/>
-      <c r="G119" s="22" t="inlineStr"/>
-      <c r="H119" s="22" t="inlineStr"/>
+      <c r="A119" s="23" t="inlineStr"/>
+      <c r="B119" s="24" t="inlineStr"/>
+      <c r="C119" s="24" t="inlineStr"/>
+      <c r="D119" s="24" t="inlineStr"/>
+      <c r="E119" s="24" t="inlineStr"/>
+      <c r="F119" s="24" t="inlineStr"/>
+      <c r="G119" s="24" t="inlineStr"/>
+      <c r="H119" s="24" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="19" t="inlineStr"/>
-      <c r="B120" s="20" t="inlineStr"/>
-      <c r="C120" s="20" t="inlineStr"/>
-      <c r="D120" s="20" t="inlineStr"/>
-      <c r="E120" s="20" t="inlineStr"/>
-      <c r="F120" s="20" t="inlineStr"/>
-      <c r="G120" s="20" t="inlineStr"/>
-      <c r="H120" s="20" t="inlineStr"/>
+      <c r="A120" s="21" t="inlineStr"/>
+      <c r="B120" s="22" t="inlineStr"/>
+      <c r="C120" s="22" t="inlineStr"/>
+      <c r="D120" s="22" t="inlineStr"/>
+      <c r="E120" s="22" t="inlineStr"/>
+      <c r="F120" s="22" t="inlineStr"/>
+      <c r="G120" s="22" t="inlineStr"/>
+      <c r="H120" s="22" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="21" t="inlineStr"/>
-      <c r="B121" s="22" t="inlineStr"/>
-      <c r="C121" s="22" t="inlineStr"/>
-      <c r="D121" s="22" t="inlineStr"/>
-      <c r="E121" s="22" t="inlineStr"/>
-      <c r="F121" s="22" t="inlineStr"/>
-      <c r="G121" s="22" t="inlineStr"/>
-      <c r="H121" s="22" t="inlineStr"/>
+      <c r="A121" s="23" t="inlineStr"/>
+      <c r="B121" s="24" t="inlineStr"/>
+      <c r="C121" s="24" t="inlineStr"/>
+      <c r="D121" s="24" t="inlineStr"/>
+      <c r="E121" s="24" t="inlineStr"/>
+      <c r="F121" s="24" t="inlineStr"/>
+      <c r="G121" s="24" t="inlineStr"/>
+      <c r="H121" s="24" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="19" t="inlineStr"/>
-      <c r="B122" s="20" t="inlineStr"/>
-      <c r="C122" s="20" t="inlineStr"/>
-      <c r="D122" s="20" t="inlineStr"/>
-      <c r="E122" s="20" t="inlineStr"/>
-      <c r="F122" s="20" t="inlineStr"/>
-      <c r="G122" s="20" t="inlineStr"/>
-      <c r="H122" s="20" t="inlineStr"/>
+      <c r="A122" s="21" t="inlineStr"/>
+      <c r="B122" s="22" t="inlineStr"/>
+      <c r="C122" s="22" t="inlineStr"/>
+      <c r="D122" s="22" t="inlineStr"/>
+      <c r="E122" s="22" t="inlineStr"/>
+      <c r="F122" s="22" t="inlineStr"/>
+      <c r="G122" s="22" t="inlineStr"/>
+      <c r="H122" s="22" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="21" t="inlineStr"/>
-      <c r="B123" s="22" t="inlineStr"/>
-      <c r="C123" s="22" t="inlineStr"/>
-      <c r="D123" s="22" t="inlineStr"/>
-      <c r="E123" s="22" t="inlineStr"/>
-      <c r="F123" s="22" t="inlineStr"/>
-      <c r="G123" s="22" t="inlineStr"/>
-      <c r="H123" s="22" t="inlineStr"/>
+      <c r="A123" s="23" t="inlineStr"/>
+      <c r="B123" s="24" t="inlineStr"/>
+      <c r="C123" s="24" t="inlineStr"/>
+      <c r="D123" s="24" t="inlineStr"/>
+      <c r="E123" s="24" t="inlineStr"/>
+      <c r="F123" s="24" t="inlineStr"/>
+      <c r="G123" s="24" t="inlineStr"/>
+      <c r="H123" s="24" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="19" t="inlineStr"/>
-      <c r="B124" s="20" t="inlineStr"/>
-      <c r="C124" s="20" t="inlineStr"/>
-      <c r="D124" s="20" t="inlineStr"/>
-      <c r="E124" s="20" t="inlineStr"/>
-      <c r="F124" s="20" t="inlineStr"/>
-      <c r="G124" s="20" t="inlineStr"/>
-      <c r="H124" s="20" t="inlineStr"/>
+      <c r="A124" s="21" t="inlineStr"/>
+      <c r="B124" s="22" t="inlineStr"/>
+      <c r="C124" s="22" t="inlineStr"/>
+      <c r="D124" s="22" t="inlineStr"/>
+      <c r="E124" s="22" t="inlineStr"/>
+      <c r="F124" s="22" t="inlineStr"/>
+      <c r="G124" s="22" t="inlineStr"/>
+      <c r="H124" s="22" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="21" t="inlineStr"/>
-      <c r="B125" s="22" t="inlineStr"/>
-      <c r="C125" s="22" t="inlineStr"/>
-      <c r="D125" s="22" t="inlineStr"/>
-      <c r="E125" s="22" t="inlineStr"/>
-      <c r="F125" s="22" t="inlineStr"/>
-      <c r="G125" s="22" t="inlineStr"/>
-      <c r="H125" s="22" t="inlineStr"/>
+      <c r="A125" s="23" t="inlineStr"/>
+      <c r="B125" s="24" t="inlineStr"/>
+      <c r="C125" s="24" t="inlineStr"/>
+      <c r="D125" s="24" t="inlineStr"/>
+      <c r="E125" s="24" t="inlineStr"/>
+      <c r="F125" s="24" t="inlineStr"/>
+      <c r="G125" s="24" t="inlineStr"/>
+      <c r="H125" s="24" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="19" t="inlineStr"/>
-      <c r="B126" s="20" t="inlineStr"/>
-      <c r="C126" s="20" t="inlineStr"/>
-      <c r="D126" s="20" t="inlineStr"/>
-      <c r="E126" s="20" t="inlineStr"/>
-      <c r="F126" s="20" t="inlineStr"/>
-      <c r="G126" s="20" t="inlineStr"/>
-      <c r="H126" s="20" t="inlineStr"/>
+      <c r="A126" s="21" t="inlineStr"/>
+      <c r="B126" s="22" t="inlineStr"/>
+      <c r="C126" s="22" t="inlineStr"/>
+      <c r="D126" s="22" t="inlineStr"/>
+      <c r="E126" s="22" t="inlineStr"/>
+      <c r="F126" s="22" t="inlineStr"/>
+      <c r="G126" s="22" t="inlineStr"/>
+      <c r="H126" s="22" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="21" t="inlineStr"/>
-      <c r="B127" s="22" t="inlineStr"/>
-      <c r="C127" s="22" t="inlineStr"/>
-      <c r="D127" s="22" t="inlineStr"/>
-      <c r="E127" s="22" t="inlineStr"/>
-      <c r="F127" s="22" t="inlineStr"/>
-      <c r="G127" s="22" t="inlineStr"/>
-      <c r="H127" s="22" t="inlineStr"/>
+      <c r="A127" s="23" t="inlineStr"/>
+      <c r="B127" s="24" t="inlineStr"/>
+      <c r="C127" s="24" t="inlineStr"/>
+      <c r="D127" s="24" t="inlineStr"/>
+      <c r="E127" s="24" t="inlineStr"/>
+      <c r="F127" s="24" t="inlineStr"/>
+      <c r="G127" s="24" t="inlineStr"/>
+      <c r="H127" s="24" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="19" t="inlineStr"/>
-      <c r="B128" s="20" t="inlineStr"/>
-      <c r="C128" s="20" t="inlineStr"/>
-      <c r="D128" s="20" t="inlineStr"/>
-      <c r="E128" s="20" t="inlineStr"/>
-      <c r="F128" s="20" t="inlineStr"/>
-      <c r="G128" s="20" t="inlineStr"/>
-      <c r="H128" s="20" t="inlineStr"/>
+      <c r="A128" s="21" t="inlineStr"/>
+      <c r="B128" s="22" t="inlineStr"/>
+      <c r="C128" s="22" t="inlineStr"/>
+      <c r="D128" s="22" t="inlineStr"/>
+      <c r="E128" s="22" t="inlineStr"/>
+      <c r="F128" s="22" t="inlineStr"/>
+      <c r="G128" s="22" t="inlineStr"/>
+      <c r="H128" s="22" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="21" t="inlineStr"/>
-      <c r="B129" s="22" t="inlineStr"/>
-      <c r="C129" s="22" t="inlineStr"/>
-      <c r="D129" s="22" t="inlineStr"/>
-      <c r="E129" s="22" t="inlineStr"/>
-      <c r="F129" s="22" t="inlineStr"/>
-      <c r="G129" s="22" t="inlineStr"/>
-      <c r="H129" s="22" t="inlineStr"/>
+      <c r="A129" s="23" t="inlineStr"/>
+      <c r="B129" s="24" t="inlineStr"/>
+      <c r="C129" s="24" t="inlineStr"/>
+      <c r="D129" s="24" t="inlineStr"/>
+      <c r="E129" s="24" t="inlineStr"/>
+      <c r="F129" s="24" t="inlineStr"/>
+      <c r="G129" s="24" t="inlineStr"/>
+      <c r="H129" s="24" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="19" t="inlineStr"/>
-      <c r="B130" s="20" t="inlineStr"/>
-      <c r="C130" s="20" t="inlineStr"/>
-      <c r="D130" s="20" t="inlineStr"/>
-      <c r="E130" s="20" t="inlineStr"/>
-      <c r="F130" s="20" t="inlineStr"/>
-      <c r="G130" s="20" t="inlineStr"/>
-      <c r="H130" s="20" t="inlineStr"/>
+      <c r="A130" s="21" t="inlineStr"/>
+      <c r="B130" s="22" t="inlineStr"/>
+      <c r="C130" s="22" t="inlineStr"/>
+      <c r="D130" s="22" t="inlineStr"/>
+      <c r="E130" s="22" t="inlineStr"/>
+      <c r="F130" s="22" t="inlineStr"/>
+      <c r="G130" s="22" t="inlineStr"/>
+      <c r="H130" s="22" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="21" t="inlineStr"/>
-      <c r="B131" s="22" t="inlineStr"/>
-      <c r="C131" s="22" t="inlineStr"/>
-      <c r="D131" s="22" t="inlineStr"/>
-      <c r="E131" s="22" t="inlineStr"/>
-      <c r="F131" s="22" t="inlineStr"/>
-      <c r="G131" s="22" t="inlineStr"/>
-      <c r="H131" s="22" t="inlineStr"/>
+      <c r="A131" s="23" t="inlineStr"/>
+      <c r="B131" s="24" t="inlineStr"/>
+      <c r="C131" s="24" t="inlineStr"/>
+      <c r="D131" s="24" t="inlineStr"/>
+      <c r="E131" s="24" t="inlineStr"/>
+      <c r="F131" s="24" t="inlineStr"/>
+      <c r="G131" s="24" t="inlineStr"/>
+      <c r="H131" s="24" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="19" t="inlineStr"/>
-      <c r="B132" s="20" t="inlineStr"/>
-      <c r="C132" s="20" t="inlineStr"/>
-      <c r="D132" s="20" t="inlineStr"/>
-      <c r="E132" s="20" t="inlineStr"/>
-      <c r="F132" s="20" t="inlineStr"/>
-      <c r="G132" s="20" t="inlineStr"/>
-      <c r="H132" s="20" t="inlineStr"/>
+      <c r="A132" s="21" t="inlineStr"/>
+      <c r="B132" s="22" t="inlineStr"/>
+      <c r="C132" s="22" t="inlineStr"/>
+      <c r="D132" s="22" t="inlineStr"/>
+      <c r="E132" s="22" t="inlineStr"/>
+      <c r="F132" s="22" t="inlineStr"/>
+      <c r="G132" s="22" t="inlineStr"/>
+      <c r="H132" s="22" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="21" t="inlineStr"/>
-      <c r="B133" s="22" t="inlineStr"/>
-      <c r="C133" s="22" t="inlineStr"/>
-      <c r="D133" s="22" t="inlineStr"/>
-      <c r="E133" s="22" t="inlineStr"/>
-      <c r="F133" s="22" t="inlineStr"/>
-      <c r="G133" s="22" t="inlineStr"/>
-      <c r="H133" s="22" t="inlineStr"/>
+      <c r="A133" s="23" t="inlineStr"/>
+      <c r="B133" s="24" t="inlineStr"/>
+      <c r="C133" s="24" t="inlineStr"/>
+      <c r="D133" s="24" t="inlineStr"/>
+      <c r="E133" s="24" t="inlineStr"/>
+      <c r="F133" s="24" t="inlineStr"/>
+      <c r="G133" s="24" t="inlineStr"/>
+      <c r="H133" s="24" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="19" t="inlineStr"/>
-      <c r="B134" s="20" t="inlineStr"/>
-      <c r="C134" s="20" t="inlineStr"/>
-      <c r="D134" s="20" t="inlineStr"/>
-      <c r="E134" s="20" t="inlineStr"/>
-      <c r="F134" s="20" t="inlineStr"/>
-      <c r="G134" s="20" t="inlineStr"/>
-      <c r="H134" s="20" t="inlineStr"/>
+      <c r="A134" s="21" t="inlineStr"/>
+      <c r="B134" s="22" t="inlineStr"/>
+      <c r="C134" s="22" t="inlineStr"/>
+      <c r="D134" s="22" t="inlineStr"/>
+      <c r="E134" s="22" t="inlineStr"/>
+      <c r="F134" s="22" t="inlineStr"/>
+      <c r="G134" s="22" t="inlineStr"/>
+      <c r="H134" s="22" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="21" t="inlineStr"/>
-      <c r="B135" s="22" t="inlineStr"/>
-      <c r="C135" s="22" t="inlineStr"/>
-      <c r="D135" s="22" t="inlineStr"/>
-      <c r="E135" s="22" t="inlineStr"/>
-      <c r="F135" s="22" t="inlineStr"/>
-      <c r="G135" s="22" t="inlineStr"/>
-      <c r="H135" s="22" t="inlineStr"/>
+      <c r="A135" s="23" t="inlineStr"/>
+      <c r="B135" s="24" t="inlineStr"/>
+      <c r="C135" s="24" t="inlineStr"/>
+      <c r="D135" s="24" t="inlineStr"/>
+      <c r="E135" s="24" t="inlineStr"/>
+      <c r="F135" s="24" t="inlineStr"/>
+      <c r="G135" s="24" t="inlineStr"/>
+      <c r="H135" s="24" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="19" t="inlineStr"/>
-      <c r="B136" s="20" t="inlineStr"/>
-      <c r="C136" s="20" t="inlineStr"/>
-      <c r="D136" s="20" t="inlineStr"/>
-      <c r="E136" s="20" t="inlineStr"/>
-      <c r="F136" s="20" t="inlineStr"/>
-      <c r="G136" s="20" t="inlineStr"/>
-      <c r="H136" s="20" t="inlineStr"/>
+      <c r="A136" s="21" t="inlineStr"/>
+      <c r="B136" s="22" t="inlineStr"/>
+      <c r="C136" s="22" t="inlineStr"/>
+      <c r="D136" s="22" t="inlineStr"/>
+      <c r="E136" s="22" t="inlineStr"/>
+      <c r="F136" s="22" t="inlineStr"/>
+      <c r="G136" s="22" t="inlineStr"/>
+      <c r="H136" s="22" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="21" t="inlineStr"/>
-      <c r="B137" s="22" t="inlineStr"/>
-      <c r="C137" s="22" t="inlineStr"/>
-      <c r="D137" s="22" t="inlineStr"/>
-      <c r="E137" s="22" t="inlineStr"/>
-      <c r="F137" s="22" t="inlineStr"/>
-      <c r="G137" s="22" t="inlineStr"/>
-      <c r="H137" s="22" t="inlineStr"/>
+      <c r="A137" s="23" t="inlineStr"/>
+      <c r="B137" s="24" t="inlineStr"/>
+      <c r="C137" s="24" t="inlineStr"/>
+      <c r="D137" s="24" t="inlineStr"/>
+      <c r="E137" s="24" t="inlineStr"/>
+      <c r="F137" s="24" t="inlineStr"/>
+      <c r="G137" s="24" t="inlineStr"/>
+      <c r="H137" s="24" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" s="19" t="inlineStr"/>
-      <c r="B138" s="20" t="inlineStr"/>
-      <c r="C138" s="20" t="inlineStr"/>
-      <c r="D138" s="20" t="inlineStr"/>
-      <c r="E138" s="20" t="inlineStr"/>
-      <c r="F138" s="20" t="inlineStr"/>
-      <c r="G138" s="20" t="inlineStr"/>
-      <c r="H138" s="20" t="inlineStr"/>
+      <c r="A138" s="21" t="inlineStr"/>
+      <c r="B138" s="22" t="inlineStr"/>
+      <c r="C138" s="22" t="inlineStr"/>
+      <c r="D138" s="22" t="inlineStr"/>
+      <c r="E138" s="22" t="inlineStr"/>
+      <c r="F138" s="22" t="inlineStr"/>
+      <c r="G138" s="22" t="inlineStr"/>
+      <c r="H138" s="22" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="21" t="inlineStr"/>
-      <c r="B139" s="22" t="inlineStr"/>
-      <c r="C139" s="22" t="inlineStr"/>
-      <c r="D139" s="22" t="inlineStr"/>
-      <c r="E139" s="22" t="inlineStr"/>
-      <c r="F139" s="22" t="inlineStr"/>
-      <c r="G139" s="22" t="inlineStr"/>
-      <c r="H139" s="22" t="inlineStr"/>
+      <c r="A139" s="23" t="inlineStr"/>
+      <c r="B139" s="24" t="inlineStr"/>
+      <c r="C139" s="24" t="inlineStr"/>
+      <c r="D139" s="24" t="inlineStr"/>
+      <c r="E139" s="24" t="inlineStr"/>
+      <c r="F139" s="24" t="inlineStr"/>
+      <c r="G139" s="24" t="inlineStr"/>
+      <c r="H139" s="24" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="19" t="inlineStr"/>
-      <c r="B140" s="20" t="inlineStr"/>
-      <c r="C140" s="20" t="inlineStr"/>
-      <c r="D140" s="20" t="inlineStr"/>
-      <c r="E140" s="20" t="inlineStr"/>
-      <c r="F140" s="20" t="inlineStr"/>
-      <c r="G140" s="20" t="inlineStr"/>
-      <c r="H140" s="20" t="inlineStr"/>
+      <c r="A140" s="21" t="inlineStr"/>
+      <c r="B140" s="22" t="inlineStr"/>
+      <c r="C140" s="22" t="inlineStr"/>
+      <c r="D140" s="22" t="inlineStr"/>
+      <c r="E140" s="22" t="inlineStr"/>
+      <c r="F140" s="22" t="inlineStr"/>
+      <c r="G140" s="22" t="inlineStr"/>
+      <c r="H140" s="22" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" s="21" t="inlineStr"/>
-      <c r="B141" s="22" t="inlineStr"/>
-      <c r="C141" s="22" t="inlineStr"/>
-      <c r="D141" s="22" t="inlineStr"/>
-      <c r="E141" s="22" t="inlineStr"/>
-      <c r="F141" s="22" t="inlineStr"/>
-      <c r="G141" s="22" t="inlineStr"/>
-      <c r="H141" s="22" t="inlineStr"/>
+      <c r="A141" s="23" t="inlineStr"/>
+      <c r="B141" s="24" t="inlineStr"/>
+      <c r="C141" s="24" t="inlineStr"/>
+      <c r="D141" s="24" t="inlineStr"/>
+      <c r="E141" s="24" t="inlineStr"/>
+      <c r="F141" s="24" t="inlineStr"/>
+      <c r="G141" s="24" t="inlineStr"/>
+      <c r="H141" s="24" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="19" t="inlineStr"/>
-      <c r="B142" s="20" t="inlineStr"/>
-      <c r="C142" s="20" t="inlineStr"/>
-      <c r="D142" s="20" t="inlineStr"/>
-      <c r="E142" s="20" t="inlineStr"/>
-      <c r="F142" s="20" t="inlineStr"/>
-      <c r="G142" s="20" t="inlineStr"/>
-      <c r="H142" s="20" t="inlineStr"/>
+      <c r="A142" s="21" t="inlineStr"/>
+      <c r="B142" s="22" t="inlineStr"/>
+      <c r="C142" s="22" t="inlineStr"/>
+      <c r="D142" s="22" t="inlineStr"/>
+      <c r="E142" s="22" t="inlineStr"/>
+      <c r="F142" s="22" t="inlineStr"/>
+      <c r="G142" s="22" t="inlineStr"/>
+      <c r="H142" s="22" t="inlineStr"/>
     </row>
     <row r="143">
-      <c r="A143" s="21" t="inlineStr"/>
-      <c r="B143" s="22" t="inlineStr"/>
-      <c r="C143" s="22" t="inlineStr"/>
-      <c r="D143" s="22" t="inlineStr"/>
-      <c r="E143" s="22" t="inlineStr"/>
-      <c r="F143" s="22" t="inlineStr"/>
-      <c r="G143" s="22" t="inlineStr"/>
-      <c r="H143" s="22" t="inlineStr"/>
+      <c r="A143" s="23" t="inlineStr"/>
+      <c r="B143" s="24" t="inlineStr"/>
+      <c r="C143" s="24" t="inlineStr"/>
+      <c r="D143" s="24" t="inlineStr"/>
+      <c r="E143" s="24" t="inlineStr"/>
+      <c r="F143" s="24" t="inlineStr"/>
+      <c r="G143" s="24" t="inlineStr"/>
+      <c r="H143" s="24" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="19" t="inlineStr"/>
-      <c r="B144" s="20" t="inlineStr"/>
-      <c r="C144" s="20" t="inlineStr"/>
-      <c r="D144" s="20" t="inlineStr"/>
-      <c r="E144" s="20" t="inlineStr"/>
-      <c r="F144" s="20" t="inlineStr"/>
-      <c r="G144" s="20" t="inlineStr"/>
-      <c r="H144" s="20" t="inlineStr"/>
+      <c r="A144" s="21" t="inlineStr"/>
+      <c r="B144" s="22" t="inlineStr"/>
+      <c r="C144" s="22" t="inlineStr"/>
+      <c r="D144" s="22" t="inlineStr"/>
+      <c r="E144" s="22" t="inlineStr"/>
+      <c r="F144" s="22" t="inlineStr"/>
+      <c r="G144" s="22" t="inlineStr"/>
+      <c r="H144" s="22" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" s="21" t="inlineStr"/>
-      <c r="B145" s="22" t="inlineStr"/>
-      <c r="C145" s="22" t="inlineStr"/>
-      <c r="D145" s="22" t="inlineStr"/>
-      <c r="E145" s="22" t="inlineStr"/>
-      <c r="F145" s="22" t="inlineStr"/>
-      <c r="G145" s="22" t="inlineStr"/>
-      <c r="H145" s="22" t="inlineStr"/>
+      <c r="A145" s="23" t="inlineStr"/>
+      <c r="B145" s="24" t="inlineStr"/>
+      <c r="C145" s="24" t="inlineStr"/>
+      <c r="D145" s="24" t="inlineStr"/>
+      <c r="E145" s="24" t="inlineStr"/>
+      <c r="F145" s="24" t="inlineStr"/>
+      <c r="G145" s="24" t="inlineStr"/>
+      <c r="H145" s="24" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="19" t="inlineStr"/>
-      <c r="B146" s="20" t="inlineStr"/>
-      <c r="C146" s="20" t="inlineStr"/>
-      <c r="D146" s="20" t="inlineStr"/>
-      <c r="E146" s="20" t="inlineStr"/>
-      <c r="F146" s="20" t="inlineStr"/>
-      <c r="G146" s="20" t="inlineStr"/>
-      <c r="H146" s="20" t="inlineStr"/>
+      <c r="A146" s="21" t="inlineStr"/>
+      <c r="B146" s="22" t="inlineStr"/>
+      <c r="C146" s="22" t="inlineStr"/>
+      <c r="D146" s="22" t="inlineStr"/>
+      <c r="E146" s="22" t="inlineStr"/>
+      <c r="F146" s="22" t="inlineStr"/>
+      <c r="G146" s="22" t="inlineStr"/>
+      <c r="H146" s="22" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="21" t="inlineStr"/>
-      <c r="B147" s="22" t="inlineStr"/>
-      <c r="C147" s="22" t="inlineStr"/>
-      <c r="D147" s="22" t="inlineStr"/>
-      <c r="E147" s="22" t="inlineStr"/>
-      <c r="F147" s="22" t="inlineStr"/>
-      <c r="G147" s="22" t="inlineStr"/>
-      <c r="H147" s="22" t="inlineStr"/>
+      <c r="A147" s="23" t="inlineStr"/>
+      <c r="B147" s="24" t="inlineStr"/>
+      <c r="C147" s="24" t="inlineStr"/>
+      <c r="D147" s="24" t="inlineStr"/>
+      <c r="E147" s="24" t="inlineStr"/>
+      <c r="F147" s="24" t="inlineStr"/>
+      <c r="G147" s="24" t="inlineStr"/>
+      <c r="H147" s="24" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" s="19" t="inlineStr"/>
-      <c r="B148" s="20" t="inlineStr"/>
-      <c r="C148" s="20" t="inlineStr"/>
-      <c r="D148" s="20" t="inlineStr"/>
-      <c r="E148" s="20" t="inlineStr"/>
-      <c r="F148" s="20" t="inlineStr"/>
-      <c r="G148" s="20" t="inlineStr"/>
-      <c r="H148" s="20" t="inlineStr"/>
+      <c r="A148" s="21" t="inlineStr"/>
+      <c r="B148" s="22" t="inlineStr"/>
+      <c r="C148" s="22" t="inlineStr"/>
+      <c r="D148" s="22" t="inlineStr"/>
+      <c r="E148" s="22" t="inlineStr"/>
+      <c r="F148" s="22" t="inlineStr"/>
+      <c r="G148" s="22" t="inlineStr"/>
+      <c r="H148" s="22" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="21" t="inlineStr"/>
-      <c r="B149" s="22" t="inlineStr"/>
-      <c r="C149" s="22" t="inlineStr"/>
-      <c r="D149" s="22" t="inlineStr"/>
-      <c r="E149" s="22" t="inlineStr"/>
-      <c r="F149" s="22" t="inlineStr"/>
-      <c r="G149" s="22" t="inlineStr"/>
-      <c r="H149" s="22" t="inlineStr"/>
+      <c r="A149" s="23" t="inlineStr"/>
+      <c r="B149" s="24" t="inlineStr"/>
+      <c r="C149" s="24" t="inlineStr"/>
+      <c r="D149" s="24" t="inlineStr"/>
+      <c r="E149" s="24" t="inlineStr"/>
+      <c r="F149" s="24" t="inlineStr"/>
+      <c r="G149" s="24" t="inlineStr"/>
+      <c r="H149" s="24" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="19" t="inlineStr"/>
-      <c r="B150" s="20" t="inlineStr"/>
-      <c r="C150" s="20" t="inlineStr"/>
-      <c r="D150" s="20" t="inlineStr"/>
-      <c r="E150" s="20" t="inlineStr"/>
-      <c r="F150" s="20" t="inlineStr"/>
-      <c r="G150" s="20" t="inlineStr"/>
-      <c r="H150" s="20" t="inlineStr"/>
+      <c r="A150" s="21" t="inlineStr"/>
+      <c r="B150" s="22" t="inlineStr"/>
+      <c r="C150" s="22" t="inlineStr"/>
+      <c r="D150" s="22" t="inlineStr"/>
+      <c r="E150" s="22" t="inlineStr"/>
+      <c r="F150" s="22" t="inlineStr"/>
+      <c r="G150" s="22" t="inlineStr"/>
+      <c r="H150" s="22" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="21" t="inlineStr"/>
-      <c r="B151" s="22" t="inlineStr"/>
-      <c r="C151" s="22" t="inlineStr"/>
-      <c r="D151" s="22" t="inlineStr"/>
-      <c r="E151" s="22" t="inlineStr"/>
-      <c r="F151" s="22" t="inlineStr"/>
-      <c r="G151" s="22" t="inlineStr"/>
-      <c r="H151" s="22" t="inlineStr"/>
+      <c r="A151" s="23" t="inlineStr"/>
+      <c r="B151" s="24" t="inlineStr"/>
+      <c r="C151" s="24" t="inlineStr"/>
+      <c r="D151" s="24" t="inlineStr"/>
+      <c r="E151" s="24" t="inlineStr"/>
+      <c r="F151" s="24" t="inlineStr"/>
+      <c r="G151" s="24" t="inlineStr"/>
+      <c r="H151" s="24" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="19" t="inlineStr"/>
-      <c r="B152" s="20" t="inlineStr"/>
-      <c r="C152" s="20" t="inlineStr"/>
-      <c r="D152" s="20" t="inlineStr"/>
-      <c r="E152" s="20" t="inlineStr"/>
-      <c r="F152" s="20" t="inlineStr"/>
-      <c r="G152" s="20" t="inlineStr"/>
-      <c r="H152" s="20" t="inlineStr"/>
+      <c r="A152" s="21" t="inlineStr"/>
+      <c r="B152" s="22" t="inlineStr"/>
+      <c r="C152" s="22" t="inlineStr"/>
+      <c r="D152" s="22" t="inlineStr"/>
+      <c r="E152" s="22" t="inlineStr"/>
+      <c r="F152" s="22" t="inlineStr"/>
+      <c r="G152" s="22" t="inlineStr"/>
+      <c r="H152" s="22" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" s="21" t="inlineStr"/>
-      <c r="B153" s="22" t="inlineStr"/>
-      <c r="C153" s="22" t="inlineStr"/>
-      <c r="D153" s="22" t="inlineStr"/>
-      <c r="E153" s="22" t="inlineStr"/>
-      <c r="F153" s="22" t="inlineStr"/>
-      <c r="G153" s="22" t="inlineStr"/>
-      <c r="H153" s="22" t="inlineStr"/>
+      <c r="A153" s="23" t="inlineStr"/>
+      <c r="B153" s="24" t="inlineStr"/>
+      <c r="C153" s="24" t="inlineStr"/>
+      <c r="D153" s="24" t="inlineStr"/>
+      <c r="E153" s="24" t="inlineStr"/>
+      <c r="F153" s="24" t="inlineStr"/>
+      <c r="G153" s="24" t="inlineStr"/>
+      <c r="H153" s="24" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="19" t="inlineStr"/>
-      <c r="B154" s="20" t="inlineStr"/>
-      <c r="C154" s="20" t="inlineStr"/>
-      <c r="D154" s="20" t="inlineStr"/>
-      <c r="E154" s="20" t="inlineStr"/>
-      <c r="F154" s="20" t="inlineStr"/>
-      <c r="G154" s="20" t="inlineStr"/>
-      <c r="H154" s="20" t="inlineStr"/>
+      <c r="A154" s="21" t="inlineStr"/>
+      <c r="B154" s="22" t="inlineStr"/>
+      <c r="C154" s="22" t="inlineStr"/>
+      <c r="D154" s="22" t="inlineStr"/>
+      <c r="E154" s="22" t="inlineStr"/>
+      <c r="F154" s="22" t="inlineStr"/>
+      <c r="G154" s="22" t="inlineStr"/>
+      <c r="H154" s="22" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" s="21" t="inlineStr"/>
-      <c r="B155" s="22" t="inlineStr"/>
-      <c r="C155" s="22" t="inlineStr"/>
-      <c r="D155" s="22" t="inlineStr"/>
-      <c r="E155" s="22" t="inlineStr"/>
-      <c r="F155" s="22" t="inlineStr"/>
-      <c r="G155" s="22" t="inlineStr"/>
-      <c r="H155" s="22" t="inlineStr"/>
+      <c r="A155" s="23" t="inlineStr"/>
+      <c r="B155" s="24" t="inlineStr"/>
+      <c r="C155" s="24" t="inlineStr"/>
+      <c r="D155" s="24" t="inlineStr"/>
+      <c r="E155" s="24" t="inlineStr"/>
+      <c r="F155" s="24" t="inlineStr"/>
+      <c r="G155" s="24" t="inlineStr"/>
+      <c r="H155" s="24" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="19" t="inlineStr"/>
-      <c r="B156" s="20" t="inlineStr"/>
-      <c r="C156" s="20" t="inlineStr"/>
-      <c r="D156" s="20" t="inlineStr"/>
-      <c r="E156" s="20" t="inlineStr"/>
-      <c r="F156" s="20" t="inlineStr"/>
-      <c r="G156" s="20" t="inlineStr"/>
-      <c r="H156" s="20" t="inlineStr"/>
+      <c r="A156" s="21" t="inlineStr"/>
+      <c r="B156" s="22" t="inlineStr"/>
+      <c r="C156" s="22" t="inlineStr"/>
+      <c r="D156" s="22" t="inlineStr"/>
+      <c r="E156" s="22" t="inlineStr"/>
+      <c r="F156" s="22" t="inlineStr"/>
+      <c r="G156" s="22" t="inlineStr"/>
+      <c r="H156" s="22" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="21" t="inlineStr"/>
-      <c r="B157" s="22" t="inlineStr"/>
-      <c r="C157" s="22" t="inlineStr"/>
-      <c r="D157" s="22" t="inlineStr"/>
-      <c r="E157" s="22" t="inlineStr"/>
-      <c r="F157" s="22" t="inlineStr"/>
-      <c r="G157" s="22" t="inlineStr"/>
-      <c r="H157" s="22" t="inlineStr"/>
+      <c r="A157" s="23" t="inlineStr"/>
+      <c r="B157" s="24" t="inlineStr"/>
+      <c r="C157" s="24" t="inlineStr"/>
+      <c r="D157" s="24" t="inlineStr"/>
+      <c r="E157" s="24" t="inlineStr"/>
+      <c r="F157" s="24" t="inlineStr"/>
+      <c r="G157" s="24" t="inlineStr"/>
+      <c r="H157" s="24" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="19" t="inlineStr"/>
-      <c r="B158" s="20" t="inlineStr"/>
-      <c r="C158" s="20" t="inlineStr"/>
-      <c r="D158" s="20" t="inlineStr"/>
-      <c r="E158" s="20" t="inlineStr"/>
-      <c r="F158" s="20" t="inlineStr"/>
-      <c r="G158" s="20" t="inlineStr"/>
-      <c r="H158" s="20" t="inlineStr"/>
+      <c r="A158" s="21" t="inlineStr"/>
+      <c r="B158" s="22" t="inlineStr"/>
+      <c r="C158" s="22" t="inlineStr"/>
+      <c r="D158" s="22" t="inlineStr"/>
+      <c r="E158" s="22" t="inlineStr"/>
+      <c r="F158" s="22" t="inlineStr"/>
+      <c r="G158" s="22" t="inlineStr"/>
+      <c r="H158" s="22" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="21" t="inlineStr"/>
-      <c r="B159" s="22" t="inlineStr"/>
-      <c r="C159" s="22" t="inlineStr"/>
-      <c r="D159" s="22" t="inlineStr"/>
-      <c r="E159" s="22" t="inlineStr"/>
-      <c r="F159" s="22" t="inlineStr"/>
-      <c r="G159" s="22" t="inlineStr"/>
-      <c r="H159" s="22" t="inlineStr"/>
+      <c r="A159" s="23" t="inlineStr"/>
+      <c r="B159" s="24" t="inlineStr"/>
+      <c r="C159" s="24" t="inlineStr"/>
+      <c r="D159" s="24" t="inlineStr"/>
+      <c r="E159" s="24" t="inlineStr"/>
+      <c r="F159" s="24" t="inlineStr"/>
+      <c r="G159" s="24" t="inlineStr"/>
+      <c r="H159" s="24" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="19" t="inlineStr"/>
-      <c r="B160" s="20" t="inlineStr"/>
-      <c r="C160" s="20" t="inlineStr"/>
-      <c r="D160" s="20" t="inlineStr"/>
-      <c r="E160" s="20" t="inlineStr"/>
-      <c r="F160" s="20" t="inlineStr"/>
-      <c r="G160" s="20" t="inlineStr"/>
-      <c r="H160" s="20" t="inlineStr"/>
+      <c r="A160" s="21" t="inlineStr"/>
+      <c r="B160" s="22" t="inlineStr"/>
+      <c r="C160" s="22" t="inlineStr"/>
+      <c r="D160" s="22" t="inlineStr"/>
+      <c r="E160" s="22" t="inlineStr"/>
+      <c r="F160" s="22" t="inlineStr"/>
+      <c r="G160" s="22" t="inlineStr"/>
+      <c r="H160" s="22" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" s="21" t="inlineStr"/>
-      <c r="B161" s="22" t="inlineStr"/>
-      <c r="C161" s="22" t="inlineStr"/>
-      <c r="D161" s="22" t="inlineStr"/>
-      <c r="E161" s="22" t="inlineStr"/>
-      <c r="F161" s="22" t="inlineStr"/>
-      <c r="G161" s="22" t="inlineStr"/>
-      <c r="H161" s="22" t="inlineStr"/>
+      <c r="A161" s="23" t="inlineStr"/>
+      <c r="B161" s="24" t="inlineStr"/>
+      <c r="C161" s="24" t="inlineStr"/>
+      <c r="D161" s="24" t="inlineStr"/>
+      <c r="E161" s="24" t="inlineStr"/>
+      <c r="F161" s="24" t="inlineStr"/>
+      <c r="G161" s="24" t="inlineStr"/>
+      <c r="H161" s="24" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="19" t="inlineStr"/>
-      <c r="B162" s="20" t="inlineStr"/>
-      <c r="C162" s="20" t="inlineStr"/>
-      <c r="D162" s="20" t="inlineStr"/>
-      <c r="E162" s="20" t="inlineStr"/>
-      <c r="F162" s="20" t="inlineStr"/>
-      <c r="G162" s="20" t="inlineStr"/>
-      <c r="H162" s="20" t="inlineStr"/>
+      <c r="A162" s="21" t="inlineStr"/>
+      <c r="B162" s="22" t="inlineStr"/>
+      <c r="C162" s="22" t="inlineStr"/>
+      <c r="D162" s="22" t="inlineStr"/>
+      <c r="E162" s="22" t="inlineStr"/>
+      <c r="F162" s="22" t="inlineStr"/>
+      <c r="G162" s="22" t="inlineStr"/>
+      <c r="H162" s="22" t="inlineStr"/>
     </row>
     <row r="163">
-      <c r="A163" s="21" t="inlineStr"/>
-      <c r="B163" s="22" t="inlineStr"/>
-      <c r="C163" s="22" t="inlineStr"/>
-      <c r="D163" s="22" t="inlineStr"/>
-      <c r="E163" s="22" t="inlineStr"/>
-      <c r="F163" s="22" t="inlineStr"/>
-      <c r="G163" s="22" t="inlineStr"/>
-      <c r="H163" s="22" t="inlineStr"/>
+      <c r="A163" s="23" t="inlineStr"/>
+      <c r="B163" s="24" t="inlineStr"/>
+      <c r="C163" s="24" t="inlineStr"/>
+      <c r="D163" s="24" t="inlineStr"/>
+      <c r="E163" s="24" t="inlineStr"/>
+      <c r="F163" s="24" t="inlineStr"/>
+      <c r="G163" s="24" t="inlineStr"/>
+      <c r="H163" s="24" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="19" t="inlineStr"/>
-      <c r="B164" s="20" t="inlineStr"/>
-      <c r="C164" s="20" t="inlineStr"/>
-      <c r="D164" s="20" t="inlineStr"/>
-      <c r="E164" s="20" t="inlineStr"/>
-      <c r="F164" s="20" t="inlineStr"/>
-      <c r="G164" s="20" t="inlineStr"/>
-      <c r="H164" s="20" t="inlineStr"/>
+      <c r="A164" s="21" t="inlineStr"/>
+      <c r="B164" s="22" t="inlineStr"/>
+      <c r="C164" s="22" t="inlineStr"/>
+      <c r="D164" s="22" t="inlineStr"/>
+      <c r="E164" s="22" t="inlineStr"/>
+      <c r="F164" s="22" t="inlineStr"/>
+      <c r="G164" s="22" t="inlineStr"/>
+      <c r="H164" s="22" t="inlineStr"/>
     </row>
     <row r="165">
-      <c r="A165" s="21" t="inlineStr"/>
-      <c r="B165" s="22" t="inlineStr"/>
-      <c r="C165" s="22" t="inlineStr"/>
-      <c r="D165" s="22" t="inlineStr"/>
-      <c r="E165" s="22" t="inlineStr"/>
-      <c r="F165" s="22" t="inlineStr"/>
-      <c r="G165" s="22" t="inlineStr"/>
-      <c r="H165" s="22" t="inlineStr"/>
+      <c r="A165" s="23" t="inlineStr"/>
+      <c r="B165" s="24" t="inlineStr"/>
+      <c r="C165" s="24" t="inlineStr"/>
+      <c r="D165" s="24" t="inlineStr"/>
+      <c r="E165" s="24" t="inlineStr"/>
+      <c r="F165" s="24" t="inlineStr"/>
+      <c r="G165" s="24" t="inlineStr"/>
+      <c r="H165" s="24" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="19" t="inlineStr"/>
-      <c r="B166" s="20" t="inlineStr"/>
-      <c r="C166" s="20" t="inlineStr"/>
-      <c r="D166" s="20" t="inlineStr"/>
-      <c r="E166" s="20" t="inlineStr"/>
-      <c r="F166" s="20" t="inlineStr"/>
-      <c r="G166" s="20" t="inlineStr"/>
-      <c r="H166" s="20" t="inlineStr"/>
+      <c r="A166" s="21" t="inlineStr"/>
+      <c r="B166" s="22" t="inlineStr"/>
+      <c r="C166" s="22" t="inlineStr"/>
+      <c r="D166" s="22" t="inlineStr"/>
+      <c r="E166" s="22" t="inlineStr"/>
+      <c r="F166" s="22" t="inlineStr"/>
+      <c r="G166" s="22" t="inlineStr"/>
+      <c r="H166" s="22" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="21" t="inlineStr"/>
-      <c r="B167" s="22" t="inlineStr"/>
-      <c r="C167" s="22" t="inlineStr"/>
-      <c r="D167" s="22" t="inlineStr"/>
-      <c r="E167" s="22" t="inlineStr"/>
-      <c r="F167" s="22" t="inlineStr"/>
-      <c r="G167" s="22" t="inlineStr"/>
-      <c r="H167" s="22" t="inlineStr"/>
+      <c r="A167" s="23" t="inlineStr"/>
+      <c r="B167" s="24" t="inlineStr"/>
+      <c r="C167" s="24" t="inlineStr"/>
+      <c r="D167" s="24" t="inlineStr"/>
+      <c r="E167" s="24" t="inlineStr"/>
+      <c r="F167" s="24" t="inlineStr"/>
+      <c r="G167" s="24" t="inlineStr"/>
+      <c r="H167" s="24" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="19" t="inlineStr"/>
-      <c r="B168" s="20" t="inlineStr"/>
-      <c r="C168" s="20" t="inlineStr"/>
-      <c r="D168" s="20" t="inlineStr"/>
-      <c r="E168" s="20" t="inlineStr"/>
-      <c r="F168" s="20" t="inlineStr"/>
-      <c r="G168" s="20" t="inlineStr"/>
-      <c r="H168" s="20" t="inlineStr"/>
+      <c r="A168" s="21" t="inlineStr"/>
+      <c r="B168" s="22" t="inlineStr"/>
+      <c r="C168" s="22" t="inlineStr"/>
+      <c r="D168" s="22" t="inlineStr"/>
+      <c r="E168" s="22" t="inlineStr"/>
+      <c r="F168" s="22" t="inlineStr"/>
+      <c r="G168" s="22" t="inlineStr"/>
+      <c r="H168" s="22" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="21" t="inlineStr"/>
-      <c r="B169" s="22" t="inlineStr"/>
-      <c r="C169" s="22" t="inlineStr"/>
-      <c r="D169" s="22" t="inlineStr"/>
-      <c r="E169" s="22" t="inlineStr"/>
-      <c r="F169" s="22" t="inlineStr"/>
-      <c r="G169" s="22" t="inlineStr"/>
-      <c r="H169" s="22" t="inlineStr"/>
+      <c r="A169" s="23" t="inlineStr"/>
+      <c r="B169" s="24" t="inlineStr"/>
+      <c r="C169" s="24" t="inlineStr"/>
+      <c r="D169" s="24" t="inlineStr"/>
+      <c r="E169" s="24" t="inlineStr"/>
+      <c r="F169" s="24" t="inlineStr"/>
+      <c r="G169" s="24" t="inlineStr"/>
+      <c r="H169" s="24" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" s="19" t="inlineStr"/>
-      <c r="B170" s="20" t="inlineStr"/>
-      <c r="C170" s="20" t="inlineStr"/>
-      <c r="D170" s="20" t="inlineStr"/>
-      <c r="E170" s="20" t="inlineStr"/>
-      <c r="F170" s="20" t="inlineStr"/>
-      <c r="G170" s="20" t="inlineStr"/>
-      <c r="H170" s="20" t="inlineStr"/>
+      <c r="A170" s="21" t="inlineStr"/>
+      <c r="B170" s="22" t="inlineStr"/>
+      <c r="C170" s="22" t="inlineStr"/>
+      <c r="D170" s="22" t="inlineStr"/>
+      <c r="E170" s="22" t="inlineStr"/>
+      <c r="F170" s="22" t="inlineStr"/>
+      <c r="G170" s="22" t="inlineStr"/>
+      <c r="H170" s="22" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="21" t="inlineStr"/>
-      <c r="B171" s="22" t="inlineStr"/>
-      <c r="C171" s="22" t="inlineStr"/>
-      <c r="D171" s="22" t="inlineStr"/>
-      <c r="E171" s="22" t="inlineStr"/>
-      <c r="F171" s="22" t="inlineStr"/>
-      <c r="G171" s="22" t="inlineStr"/>
-      <c r="H171" s="22" t="inlineStr"/>
+      <c r="A171" s="23" t="inlineStr"/>
+      <c r="B171" s="24" t="inlineStr"/>
+      <c r="C171" s="24" t="inlineStr"/>
+      <c r="D171" s="24" t="inlineStr"/>
+      <c r="E171" s="24" t="inlineStr"/>
+      <c r="F171" s="24" t="inlineStr"/>
+      <c r="G171" s="24" t="inlineStr"/>
+      <c r="H171" s="24" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" s="19" t="inlineStr"/>
-      <c r="B172" s="20" t="inlineStr"/>
-      <c r="C172" s="20" t="inlineStr"/>
-      <c r="D172" s="20" t="inlineStr"/>
-      <c r="E172" s="20" t="inlineStr"/>
-      <c r="F172" s="20" t="inlineStr"/>
-      <c r="G172" s="20" t="inlineStr"/>
-      <c r="H172" s="20" t="inlineStr"/>
+      <c r="A172" s="21" t="inlineStr"/>
+      <c r="B172" s="22" t="inlineStr"/>
+      <c r="C172" s="22" t="inlineStr"/>
+      <c r="D172" s="22" t="inlineStr"/>
+      <c r="E172" s="22" t="inlineStr"/>
+      <c r="F172" s="22" t="inlineStr"/>
+      <c r="G172" s="22" t="inlineStr"/>
+      <c r="H172" s="22" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" s="21" t="inlineStr"/>
-      <c r="B173" s="22" t="inlineStr"/>
-      <c r="C173" s="22" t="inlineStr"/>
-      <c r="D173" s="22" t="inlineStr"/>
-      <c r="E173" s="22" t="inlineStr"/>
-      <c r="F173" s="22" t="inlineStr"/>
-      <c r="G173" s="22" t="inlineStr"/>
-      <c r="H173" s="22" t="inlineStr"/>
+      <c r="A173" s="23" t="inlineStr"/>
+      <c r="B173" s="24" t="inlineStr"/>
+      <c r="C173" s="24" t="inlineStr"/>
+      <c r="D173" s="24" t="inlineStr"/>
+      <c r="E173" s="24" t="inlineStr"/>
+      <c r="F173" s="24" t="inlineStr"/>
+      <c r="G173" s="24" t="inlineStr"/>
+      <c r="H173" s="24" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="19" t="inlineStr"/>
-      <c r="B174" s="20" t="inlineStr"/>
-      <c r="C174" s="20" t="inlineStr"/>
-      <c r="D174" s="20" t="inlineStr"/>
-      <c r="E174" s="20" t="inlineStr"/>
-      <c r="F174" s="20" t="inlineStr"/>
-      <c r="G174" s="20" t="inlineStr"/>
-      <c r="H174" s="20" t="inlineStr"/>
+      <c r="A174" s="21" t="inlineStr"/>
+      <c r="B174" s="22" t="inlineStr"/>
+      <c r="C174" s="22" t="inlineStr"/>
+      <c r="D174" s="22" t="inlineStr"/>
+      <c r="E174" s="22" t="inlineStr"/>
+      <c r="F174" s="22" t="inlineStr"/>
+      <c r="G174" s="22" t="inlineStr"/>
+      <c r="H174" s="22" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="21" t="inlineStr"/>
-      <c r="B175" s="22" t="inlineStr"/>
-      <c r="C175" s="22" t="inlineStr"/>
-      <c r="D175" s="22" t="inlineStr"/>
-      <c r="E175" s="22" t="inlineStr"/>
-      <c r="F175" s="22" t="inlineStr"/>
-      <c r="G175" s="22" t="inlineStr"/>
-      <c r="H175" s="22" t="inlineStr"/>
+      <c r="A175" s="23" t="inlineStr"/>
+      <c r="B175" s="24" t="inlineStr"/>
+      <c r="C175" s="24" t="inlineStr"/>
+      <c r="D175" s="24" t="inlineStr"/>
+      <c r="E175" s="24" t="inlineStr"/>
+      <c r="F175" s="24" t="inlineStr"/>
+      <c r="G175" s="24" t="inlineStr"/>
+      <c r="H175" s="24" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="19" t="inlineStr"/>
-      <c r="B176" s="20" t="inlineStr"/>
-      <c r="C176" s="20" t="inlineStr"/>
-      <c r="D176" s="20" t="inlineStr"/>
-      <c r="E176" s="20" t="inlineStr"/>
-      <c r="F176" s="20" t="inlineStr"/>
-      <c r="G176" s="20" t="inlineStr"/>
-      <c r="H176" s="20" t="inlineStr"/>
+      <c r="A176" s="21" t="inlineStr"/>
+      <c r="B176" s="22" t="inlineStr"/>
+      <c r="C176" s="22" t="inlineStr"/>
+      <c r="D176" s="22" t="inlineStr"/>
+      <c r="E176" s="22" t="inlineStr"/>
+      <c r="F176" s="22" t="inlineStr"/>
+      <c r="G176" s="22" t="inlineStr"/>
+      <c r="H176" s="22" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="21" t="inlineStr"/>
-      <c r="B177" s="22" t="inlineStr"/>
-      <c r="C177" s="22" t="inlineStr"/>
-      <c r="D177" s="22" t="inlineStr"/>
-      <c r="E177" s="22" t="inlineStr"/>
-      <c r="F177" s="22" t="inlineStr"/>
-      <c r="G177" s="22" t="inlineStr"/>
-      <c r="H177" s="22" t="inlineStr"/>
+      <c r="A177" s="23" t="inlineStr"/>
+      <c r="B177" s="24" t="inlineStr"/>
+      <c r="C177" s="24" t="inlineStr"/>
+      <c r="D177" s="24" t="inlineStr"/>
+      <c r="E177" s="24" t="inlineStr"/>
+      <c r="F177" s="24" t="inlineStr"/>
+      <c r="G177" s="24" t="inlineStr"/>
+      <c r="H177" s="24" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" s="19" t="inlineStr"/>
-      <c r="B178" s="20" t="inlineStr"/>
-      <c r="C178" s="20" t="inlineStr"/>
-      <c r="D178" s="20" t="inlineStr"/>
-      <c r="E178" s="20" t="inlineStr"/>
-      <c r="F178" s="20" t="inlineStr"/>
-      <c r="G178" s="20" t="inlineStr"/>
-      <c r="H178" s="20" t="inlineStr"/>
+      <c r="A178" s="21" t="inlineStr"/>
+      <c r="B178" s="22" t="inlineStr"/>
+      <c r="C178" s="22" t="inlineStr"/>
+      <c r="D178" s="22" t="inlineStr"/>
+      <c r="E178" s="22" t="inlineStr"/>
+      <c r="F178" s="22" t="inlineStr"/>
+      <c r="G178" s="22" t="inlineStr"/>
+      <c r="H178" s="22" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="21" t="inlineStr"/>
-      <c r="B179" s="22" t="inlineStr"/>
-      <c r="C179" s="22" t="inlineStr"/>
-      <c r="D179" s="22" t="inlineStr"/>
-      <c r="E179" s="22" t="inlineStr"/>
-      <c r="F179" s="22" t="inlineStr"/>
-      <c r="G179" s="22" t="inlineStr"/>
-      <c r="H179" s="22" t="inlineStr"/>
+      <c r="A179" s="23" t="inlineStr"/>
+      <c r="B179" s="24" t="inlineStr"/>
+      <c r="C179" s="24" t="inlineStr"/>
+      <c r="D179" s="24" t="inlineStr"/>
+      <c r="E179" s="24" t="inlineStr"/>
+      <c r="F179" s="24" t="inlineStr"/>
+      <c r="G179" s="24" t="inlineStr"/>
+      <c r="H179" s="24" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="19" t="inlineStr"/>
-      <c r="B180" s="20" t="inlineStr"/>
-      <c r="C180" s="20" t="inlineStr"/>
-      <c r="D180" s="20" t="inlineStr"/>
-      <c r="E180" s="20" t="inlineStr"/>
-      <c r="F180" s="20" t="inlineStr"/>
-      <c r="G180" s="20" t="inlineStr"/>
-      <c r="H180" s="20" t="inlineStr"/>
+      <c r="A180" s="21" t="inlineStr"/>
+      <c r="B180" s="22" t="inlineStr"/>
+      <c r="C180" s="22" t="inlineStr"/>
+      <c r="D180" s="22" t="inlineStr"/>
+      <c r="E180" s="22" t="inlineStr"/>
+      <c r="F180" s="22" t="inlineStr"/>
+      <c r="G180" s="22" t="inlineStr"/>
+      <c r="H180" s="22" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="21" t="inlineStr"/>
-      <c r="B181" s="22" t="inlineStr"/>
-      <c r="C181" s="22" t="inlineStr"/>
-      <c r="D181" s="22" t="inlineStr"/>
-      <c r="E181" s="22" t="inlineStr"/>
-      <c r="F181" s="22" t="inlineStr"/>
-      <c r="G181" s="22" t="inlineStr"/>
-      <c r="H181" s="22" t="inlineStr"/>
+      <c r="A181" s="23" t="inlineStr"/>
+      <c r="B181" s="24" t="inlineStr"/>
+      <c r="C181" s="24" t="inlineStr"/>
+      <c r="D181" s="24" t="inlineStr"/>
+      <c r="E181" s="24" t="inlineStr"/>
+      <c r="F181" s="24" t="inlineStr"/>
+      <c r="G181" s="24" t="inlineStr"/>
+      <c r="H181" s="24" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="19" t="inlineStr"/>
-      <c r="B182" s="20" t="inlineStr"/>
-      <c r="C182" s="20" t="inlineStr"/>
-      <c r="D182" s="20" t="inlineStr"/>
-      <c r="E182" s="20" t="inlineStr"/>
-      <c r="F182" s="20" t="inlineStr"/>
-      <c r="G182" s="20" t="inlineStr"/>
-      <c r="H182" s="20" t="inlineStr"/>
+      <c r="A182" s="21" t="inlineStr"/>
+      <c r="B182" s="22" t="inlineStr"/>
+      <c r="C182" s="22" t="inlineStr"/>
+      <c r="D182" s="22" t="inlineStr"/>
+      <c r="E182" s="22" t="inlineStr"/>
+      <c r="F182" s="22" t="inlineStr"/>
+      <c r="G182" s="22" t="inlineStr"/>
+      <c r="H182" s="22" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" s="21" t="inlineStr"/>
-      <c r="B183" s="22" t="inlineStr"/>
-      <c r="C183" s="22" t="inlineStr"/>
-      <c r="D183" s="22" t="inlineStr"/>
-      <c r="E183" s="22" t="inlineStr"/>
-      <c r="F183" s="22" t="inlineStr"/>
-      <c r="G183" s="22" t="inlineStr"/>
-      <c r="H183" s="22" t="inlineStr"/>
+      <c r="A183" s="23" t="inlineStr"/>
+      <c r="B183" s="24" t="inlineStr"/>
+      <c r="C183" s="24" t="inlineStr"/>
+      <c r="D183" s="24" t="inlineStr"/>
+      <c r="E183" s="24" t="inlineStr"/>
+      <c r="F183" s="24" t="inlineStr"/>
+      <c r="G183" s="24" t="inlineStr"/>
+      <c r="H183" s="24" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="19" t="inlineStr"/>
-      <c r="B184" s="20" t="inlineStr"/>
-      <c r="C184" s="20" t="inlineStr"/>
-      <c r="D184" s="20" t="inlineStr"/>
-      <c r="E184" s="20" t="inlineStr"/>
-      <c r="F184" s="20" t="inlineStr"/>
-      <c r="G184" s="20" t="inlineStr"/>
-      <c r="H184" s="20" t="inlineStr"/>
+      <c r="A184" s="21" t="inlineStr"/>
+      <c r="B184" s="22" t="inlineStr"/>
+      <c r="C184" s="22" t="inlineStr"/>
+      <c r="D184" s="22" t="inlineStr"/>
+      <c r="E184" s="22" t="inlineStr"/>
+      <c r="F184" s="22" t="inlineStr"/>
+      <c r="G184" s="22" t="inlineStr"/>
+      <c r="H184" s="22" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="21" t="inlineStr"/>
-      <c r="B185" s="22" t="inlineStr"/>
-      <c r="C185" s="22" t="inlineStr"/>
-      <c r="D185" s="22" t="inlineStr"/>
-      <c r="E185" s="22" t="inlineStr"/>
-      <c r="F185" s="22" t="inlineStr"/>
-      <c r="G185" s="22" t="inlineStr"/>
-      <c r="H185" s="22" t="inlineStr"/>
+      <c r="A185" s="23" t="inlineStr"/>
+      <c r="B185" s="24" t="inlineStr"/>
+      <c r="C185" s="24" t="inlineStr"/>
+      <c r="D185" s="24" t="inlineStr"/>
+      <c r="E185" s="24" t="inlineStr"/>
+      <c r="F185" s="24" t="inlineStr"/>
+      <c r="G185" s="24" t="inlineStr"/>
+      <c r="H185" s="24" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="19" t="inlineStr"/>
-      <c r="B186" s="20" t="inlineStr"/>
-      <c r="C186" s="20" t="inlineStr"/>
-      <c r="D186" s="20" t="inlineStr"/>
-      <c r="E186" s="20" t="inlineStr"/>
-      <c r="F186" s="20" t="inlineStr"/>
-      <c r="G186" s="20" t="inlineStr"/>
-      <c r="H186" s="20" t="inlineStr"/>
+      <c r="A186" s="21" t="inlineStr"/>
+      <c r="B186" s="22" t="inlineStr"/>
+      <c r="C186" s="22" t="inlineStr"/>
+      <c r="D186" s="22" t="inlineStr"/>
+      <c r="E186" s="22" t="inlineStr"/>
+      <c r="F186" s="22" t="inlineStr"/>
+      <c r="G186" s="22" t="inlineStr"/>
+      <c r="H186" s="22" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" s="21" t="inlineStr"/>
-      <c r="B187" s="22" t="inlineStr"/>
-      <c r="C187" s="22" t="inlineStr"/>
-      <c r="D187" s="22" t="inlineStr"/>
-      <c r="E187" s="22" t="inlineStr"/>
-      <c r="F187" s="22" t="inlineStr"/>
-      <c r="G187" s="22" t="inlineStr"/>
-      <c r="H187" s="22" t="inlineStr"/>
+      <c r="A187" s="23" t="inlineStr"/>
+      <c r="B187" s="24" t="inlineStr"/>
+      <c r="C187" s="24" t="inlineStr"/>
+      <c r="D187" s="24" t="inlineStr"/>
+      <c r="E187" s="24" t="inlineStr"/>
+      <c r="F187" s="24" t="inlineStr"/>
+      <c r="G187" s="24" t="inlineStr"/>
+      <c r="H187" s="24" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="19" t="inlineStr"/>
-      <c r="B188" s="20" t="inlineStr"/>
-      <c r="C188" s="20" t="inlineStr"/>
-      <c r="D188" s="20" t="inlineStr"/>
-      <c r="E188" s="20" t="inlineStr"/>
-      <c r="F188" s="20" t="inlineStr"/>
-      <c r="G188" s="20" t="inlineStr"/>
-      <c r="H188" s="20" t="inlineStr"/>
+      <c r="A188" s="21" t="inlineStr"/>
+      <c r="B188" s="22" t="inlineStr"/>
+      <c r="C188" s="22" t="inlineStr"/>
+      <c r="D188" s="22" t="inlineStr"/>
+      <c r="E188" s="22" t="inlineStr"/>
+      <c r="F188" s="22" t="inlineStr"/>
+      <c r="G188" s="22" t="inlineStr"/>
+      <c r="H188" s="22" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" s="21" t="inlineStr"/>
-      <c r="B189" s="22" t="inlineStr"/>
-      <c r="C189" s="22" t="inlineStr"/>
-      <c r="D189" s="22" t="inlineStr"/>
-      <c r="E189" s="22" t="inlineStr"/>
-      <c r="F189" s="22" t="inlineStr"/>
-      <c r="G189" s="22" t="inlineStr"/>
-      <c r="H189" s="22" t="inlineStr"/>
+      <c r="A189" s="23" t="inlineStr"/>
+      <c r="B189" s="24" t="inlineStr"/>
+      <c r="C189" s="24" t="inlineStr"/>
+      <c r="D189" s="24" t="inlineStr"/>
+      <c r="E189" s="24" t="inlineStr"/>
+      <c r="F189" s="24" t="inlineStr"/>
+      <c r="G189" s="24" t="inlineStr"/>
+      <c r="H189" s="24" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" s="19" t="inlineStr"/>
-      <c r="B190" s="20" t="inlineStr"/>
-      <c r="C190" s="20" t="inlineStr"/>
-      <c r="D190" s="20" t="inlineStr"/>
-      <c r="E190" s="20" t="inlineStr"/>
-      <c r="F190" s="20" t="inlineStr"/>
-      <c r="G190" s="20" t="inlineStr"/>
-      <c r="H190" s="20" t="inlineStr"/>
+      <c r="A190" s="21" t="inlineStr"/>
+      <c r="B190" s="22" t="inlineStr"/>
+      <c r="C190" s="22" t="inlineStr"/>
+      <c r="D190" s="22" t="inlineStr"/>
+      <c r="E190" s="22" t="inlineStr"/>
+      <c r="F190" s="22" t="inlineStr"/>
+      <c r="G190" s="22" t="inlineStr"/>
+      <c r="H190" s="22" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="21" t="inlineStr"/>
-      <c r="B191" s="22" t="inlineStr"/>
-      <c r="C191" s="22" t="inlineStr"/>
-      <c r="D191" s="22" t="inlineStr"/>
-      <c r="E191" s="22" t="inlineStr"/>
-      <c r="F191" s="22" t="inlineStr"/>
-      <c r="G191" s="22" t="inlineStr"/>
-      <c r="H191" s="22" t="inlineStr"/>
+      <c r="A191" s="23" t="inlineStr"/>
+      <c r="B191" s="24" t="inlineStr"/>
+      <c r="C191" s="24" t="inlineStr"/>
+      <c r="D191" s="24" t="inlineStr"/>
+      <c r="E191" s="24" t="inlineStr"/>
+      <c r="F191" s="24" t="inlineStr"/>
+      <c r="G191" s="24" t="inlineStr"/>
+      <c r="H191" s="24" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" s="19" t="inlineStr"/>
-      <c r="B192" s="20" t="inlineStr"/>
-      <c r="C192" s="20" t="inlineStr"/>
-      <c r="D192" s="20" t="inlineStr"/>
-      <c r="E192" s="20" t="inlineStr"/>
-      <c r="F192" s="20" t="inlineStr"/>
-      <c r="G192" s="20" t="inlineStr"/>
-      <c r="H192" s="20" t="inlineStr"/>
+      <c r="A192" s="21" t="inlineStr"/>
+      <c r="B192" s="22" t="inlineStr"/>
+      <c r="C192" s="22" t="inlineStr"/>
+      <c r="D192" s="22" t="inlineStr"/>
+      <c r="E192" s="22" t="inlineStr"/>
+      <c r="F192" s="22" t="inlineStr"/>
+      <c r="G192" s="22" t="inlineStr"/>
+      <c r="H192" s="22" t="inlineStr"/>
     </row>
     <row r="193">
-      <c r="A193" s="21" t="inlineStr"/>
-      <c r="B193" s="22" t="inlineStr"/>
-      <c r="C193" s="22" t="inlineStr"/>
-      <c r="D193" s="22" t="inlineStr"/>
-      <c r="E193" s="22" t="inlineStr"/>
-      <c r="F193" s="22" t="inlineStr"/>
-      <c r="G193" s="22" t="inlineStr"/>
-      <c r="H193" s="22" t="inlineStr"/>
+      <c r="A193" s="23" t="inlineStr"/>
+      <c r="B193" s="24" t="inlineStr"/>
+      <c r="C193" s="24" t="inlineStr"/>
+      <c r="D193" s="24" t="inlineStr"/>
+      <c r="E193" s="24" t="inlineStr"/>
+      <c r="F193" s="24" t="inlineStr"/>
+      <c r="G193" s="24" t="inlineStr"/>
+      <c r="H193" s="24" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="19" t="inlineStr"/>
-      <c r="B194" s="20" t="inlineStr"/>
-      <c r="C194" s="20" t="inlineStr"/>
-      <c r="D194" s="20" t="inlineStr"/>
-      <c r="E194" s="20" t="inlineStr"/>
-      <c r="F194" s="20" t="inlineStr"/>
-      <c r="G194" s="20" t="inlineStr"/>
-      <c r="H194" s="20" t="inlineStr"/>
+      <c r="A194" s="21" t="inlineStr"/>
+      <c r="B194" s="22" t="inlineStr"/>
+      <c r="C194" s="22" t="inlineStr"/>
+      <c r="D194" s="22" t="inlineStr"/>
+      <c r="E194" s="22" t="inlineStr"/>
+      <c r="F194" s="22" t="inlineStr"/>
+      <c r="G194" s="22" t="inlineStr"/>
+      <c r="H194" s="22" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" s="21" t="inlineStr"/>
-      <c r="B195" s="22" t="inlineStr"/>
-      <c r="C195" s="22" t="inlineStr"/>
-      <c r="D195" s="22" t="inlineStr"/>
-      <c r="E195" s="22" t="inlineStr"/>
-      <c r="F195" s="22" t="inlineStr"/>
-      <c r="G195" s="22" t="inlineStr"/>
-      <c r="H195" s="22" t="inlineStr"/>
+      <c r="A195" s="23" t="inlineStr"/>
+      <c r="B195" s="24" t="inlineStr"/>
+      <c r="C195" s="24" t="inlineStr"/>
+      <c r="D195" s="24" t="inlineStr"/>
+      <c r="E195" s="24" t="inlineStr"/>
+      <c r="F195" s="24" t="inlineStr"/>
+      <c r="G195" s="24" t="inlineStr"/>
+      <c r="H195" s="24" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" s="19" t="inlineStr"/>
-      <c r="B196" s="20" t="inlineStr"/>
-      <c r="C196" s="20" t="inlineStr"/>
-      <c r="D196" s="20" t="inlineStr"/>
-      <c r="E196" s="20" t="inlineStr"/>
-      <c r="F196" s="20" t="inlineStr"/>
-      <c r="G196" s="20" t="inlineStr"/>
-      <c r="H196" s="20" t="inlineStr"/>
+      <c r="A196" s="21" t="inlineStr"/>
+      <c r="B196" s="22" t="inlineStr"/>
+      <c r="C196" s="22" t="inlineStr"/>
+      <c r="D196" s="22" t="inlineStr"/>
+      <c r="E196" s="22" t="inlineStr"/>
+      <c r="F196" s="22" t="inlineStr"/>
+      <c r="G196" s="22" t="inlineStr"/>
+      <c r="H196" s="22" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" s="21" t="inlineStr"/>
-      <c r="B197" s="22" t="inlineStr"/>
-      <c r="C197" s="22" t="inlineStr"/>
-      <c r="D197" s="22" t="inlineStr"/>
-      <c r="E197" s="22" t="inlineStr"/>
-      <c r="F197" s="22" t="inlineStr"/>
-      <c r="G197" s="22" t="inlineStr"/>
-      <c r="H197" s="22" t="inlineStr"/>
+      <c r="A197" s="23" t="inlineStr"/>
+      <c r="B197" s="24" t="inlineStr"/>
+      <c r="C197" s="24" t="inlineStr"/>
+      <c r="D197" s="24" t="inlineStr"/>
+      <c r="E197" s="24" t="inlineStr"/>
+      <c r="F197" s="24" t="inlineStr"/>
+      <c r="G197" s="24" t="inlineStr"/>
+      <c r="H197" s="24" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" s="19" t="inlineStr"/>
-      <c r="B198" s="20" t="inlineStr"/>
-      <c r="C198" s="20" t="inlineStr"/>
-      <c r="D198" s="20" t="inlineStr"/>
-      <c r="E198" s="20" t="inlineStr"/>
-      <c r="F198" s="20" t="inlineStr"/>
-      <c r="G198" s="20" t="inlineStr"/>
-      <c r="H198" s="20" t="inlineStr"/>
+      <c r="A198" s="21" t="inlineStr"/>
+      <c r="B198" s="22" t="inlineStr"/>
+      <c r="C198" s="22" t="inlineStr"/>
+      <c r="D198" s="22" t="inlineStr"/>
+      <c r="E198" s="22" t="inlineStr"/>
+      <c r="F198" s="22" t="inlineStr"/>
+      <c r="G198" s="22" t="inlineStr"/>
+      <c r="H198" s="22" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="21" t="inlineStr"/>
-      <c r="B199" s="22" t="inlineStr"/>
-      <c r="C199" s="22" t="inlineStr"/>
-      <c r="D199" s="22" t="inlineStr"/>
-      <c r="E199" s="22" t="inlineStr"/>
-      <c r="F199" s="22" t="inlineStr"/>
-      <c r="G199" s="22" t="inlineStr"/>
-      <c r="H199" s="22" t="inlineStr"/>
+      <c r="A199" s="23" t="inlineStr"/>
+      <c r="B199" s="24" t="inlineStr"/>
+      <c r="C199" s="24" t="inlineStr"/>
+      <c r="D199" s="24" t="inlineStr"/>
+      <c r="E199" s="24" t="inlineStr"/>
+      <c r="F199" s="24" t="inlineStr"/>
+      <c r="G199" s="24" t="inlineStr"/>
+      <c r="H199" s="24" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="19" t="inlineStr"/>
-      <c r="B200" s="20" t="inlineStr"/>
-      <c r="C200" s="20" t="inlineStr"/>
-      <c r="D200" s="20" t="inlineStr"/>
-      <c r="E200" s="20" t="inlineStr"/>
-      <c r="F200" s="20" t="inlineStr"/>
-      <c r="G200" s="20" t="inlineStr"/>
-      <c r="H200" s="20" t="inlineStr"/>
+      <c r="A200" s="21" t="inlineStr"/>
+      <c r="B200" s="22" t="inlineStr"/>
+      <c r="C200" s="22" t="inlineStr"/>
+      <c r="D200" s="22" t="inlineStr"/>
+      <c r="E200" s="22" t="inlineStr"/>
+      <c r="F200" s="22" t="inlineStr"/>
+      <c r="G200" s="22" t="inlineStr"/>
+      <c r="H200" s="22" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A11:H200"/>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A10:H10"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
   </mergeCells>
-  <dataValidations count="2">
+  <conditionalFormatting sqref="E12:E200">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>AND(E12&lt;&gt;"",NOT(ISERROR(VLOOKUP($C12,TablaEjercicios,3,FALSE))),E12&gt;VLOOKUP($C12,TablaEjercicios,3,FALSE))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>AND(E12&lt;&gt;"",NOT(ISERROR(VLOOKUP($C12,TablaEjercicios,2,FALSE))),E12&lt;VLOOKUP($C12,TablaEjercicios,2,FALSE))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="2">
+      <formula>AND(E12&lt;&gt;"",NOT(ISERROR(VLOOKUP($C12,TablaEjercicios,2,FALSE))),E12&gt;=VLOOKUP($C12,TablaEjercicios,2,FALSE),E12&lt;=VLOOKUP($C12,TablaEjercicios,3,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
     <dataValidation sqref="B6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Día inválido" error="Selecciona un día válido" promptTitle="Día" prompt="Selecciona el día de rutina" type="list">
       <formula1>"Lunes - Pecho y Tríceps,Martes - Espalda y Bíceps,Miércoles - Piernas,Jueves - Hombros y Core,Viernes - Full Body"</formula1>
     </dataValidation>
     <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Ejercicio inválido" error="Selecciona un ejercicio de la rutina" promptTitle="Ejercicio" prompt="Selecciona un ejercicio de la rutina del día" type="list">
       <formula1>=INDIRECT(I6)</formula1>
+    </dataValidation>
+    <dataValidation sqref="D6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" promptTitle="Serie #" prompt="Número de serie (1, 2, 3...)" type="list">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3172,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3206,6 +3302,21 @@
           <t>Viernes - Full Body</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ejercicio</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Reps Min</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Reps Max</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3233,6 +3344,17 @@
           <t>Burpees</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Flexiones clásicas</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3260,6 +3382,17 @@
           <t>Sentadilla con salto</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Flexiones diamante</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3287,6 +3420,17 @@
           <t>Flexiones</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Flexiones declinadas</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3314,6 +3458,17 @@
           <t>Remo con mancuernas</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fondos en silla</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3341,6 +3496,17 @@
           <t>Zancadas con salto</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Flexiones abiertas</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3367,6 +3533,316 @@
         <is>
           <t>Mountain climbers</t>
         </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Extensión tríceps con mancuerna</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Remo con mancuernas</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dominadas (o banda elástica)</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Remo invertido (mesa)</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Curl bíceps con mancuerna</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Curl martillo</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Superman</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sentadillas</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sentadilla búlgara</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Zancadas</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Peso muerto rumano</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Elevación de talones</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Puente de glúteos</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>12</v>
+      </c>
+      <c r="J19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Press militar con mancuernas</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Elevaciones laterales</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Elevaciones frontales</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Plancha frontal (seg)</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>30</v>
+      </c>
+      <c r="J23" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Plancha lateral (seg)</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Crunch abdominal</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>15</v>
+      </c>
+      <c r="J25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Burpees</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Sentadilla con salto</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Flexiones</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Zancadas con salto</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Mountain climbers</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>15</v>
+      </c>
+      <c r="J30" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3391,10 +3867,11 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3408,18 +3885,20 @@
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="inlineStr">
-        <is>
-          <t>Personaliza tus rutinas aquí. Los ejercicios aparecerán en la hoja de Registro.</t>
-        </is>
-      </c>
-      <c r="B2" s="24" t="n"/>
-      <c r="C2" s="24" t="n"/>
-      <c r="D2" s="24" t="n"/>
-      <c r="E2" s="24" t="n"/>
-      <c r="F2" s="24" t="n"/>
+      <c r="A2" s="25" t="inlineStr">
+        <is>
+          <t>Personaliza tus rutinas aquí. Ajusta los rangos de reps para recibir alertas automáticas.</t>
+        </is>
+      </c>
+      <c r="B2" s="26" t="n"/>
+      <c r="C2" s="26" t="n"/>
+      <c r="D2" s="26" t="n"/>
+      <c r="E2" s="26" t="n"/>
+      <c r="F2" s="26" t="n"/>
+      <c r="G2" s="26" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -3432,122 +3911,158 @@
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>Reps Obj.</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>Reps Min</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>Reps Max</t>
+        </is>
+      </c>
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="22" t="n">
+      <c r="A6" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="inlineStr">
+      <c r="B6" s="27" t="inlineStr">
         <is>
           <t>Flexiones clásicas</t>
         </is>
       </c>
-      <c r="C6" s="22" t="inlineStr"/>
-      <c r="D6" s="22" t="inlineStr"/>
-      <c r="E6" s="22" t="inlineStr"/>
-      <c r="F6" s="22" t="inlineStr"/>
+      <c r="C6" s="24" t="inlineStr"/>
+      <c r="D6" s="24" t="inlineStr"/>
+      <c r="E6" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" s="24" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="n">
+      <c r="A7" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="26" t="inlineStr">
+      <c r="B7" s="28" t="inlineStr">
         <is>
           <t>Flexiones diamante</t>
         </is>
       </c>
-      <c r="C7" s="20" t="inlineStr"/>
-      <c r="D7" s="20" t="inlineStr"/>
-      <c r="E7" s="20" t="inlineStr"/>
-      <c r="F7" s="20" t="inlineStr"/>
+      <c r="C7" s="22" t="inlineStr"/>
+      <c r="D7" s="22" t="inlineStr"/>
+      <c r="E7" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" s="22" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="22" t="n">
+      <c r="A8" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="inlineStr">
+      <c r="B8" s="27" t="inlineStr">
         <is>
           <t>Flexiones declinadas</t>
         </is>
       </c>
-      <c r="C8" s="22" t="inlineStr"/>
-      <c r="D8" s="22" t="inlineStr"/>
-      <c r="E8" s="22" t="inlineStr"/>
-      <c r="F8" s="22" t="inlineStr"/>
+      <c r="C8" s="24" t="inlineStr"/>
+      <c r="D8" s="24" t="inlineStr"/>
+      <c r="E8" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" s="24" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="26" t="inlineStr">
+      <c r="B9" s="28" t="inlineStr">
         <is>
           <t>Fondos en silla</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr"/>
-      <c r="D9" s="20" t="inlineStr"/>
-      <c r="E9" s="20" t="inlineStr"/>
-      <c r="F9" s="20" t="inlineStr"/>
+      <c r="C9" s="22" t="inlineStr"/>
+      <c r="D9" s="22" t="inlineStr"/>
+      <c r="E9" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" s="22" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="22" t="n">
+      <c r="A10" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="25" t="inlineStr">
+      <c r="B10" s="27" t="inlineStr">
         <is>
           <t>Flexiones abiertas</t>
         </is>
       </c>
-      <c r="C10" s="22" t="inlineStr"/>
-      <c r="D10" s="22" t="inlineStr"/>
-      <c r="E10" s="22" t="inlineStr"/>
-      <c r="F10" s="22" t="inlineStr"/>
+      <c r="C10" s="24" t="inlineStr"/>
+      <c r="D10" s="24" t="inlineStr"/>
+      <c r="E10" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="24" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="n">
+      <c r="A11" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="26" t="inlineStr">
+      <c r="B11" s="28" t="inlineStr">
         <is>
           <t>Extensión tríceps con mancuerna</t>
         </is>
       </c>
-      <c r="C11" s="20" t="inlineStr"/>
-      <c r="D11" s="20" t="inlineStr"/>
-      <c r="E11" s="20" t="inlineStr"/>
-      <c r="F11" s="20" t="inlineStr"/>
+      <c r="C11" s="22" t="inlineStr"/>
+      <c r="D11" s="22" t="inlineStr"/>
+      <c r="E11" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="22" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
@@ -3560,122 +4075,158 @@
       <c r="D13" s="6" t="n"/>
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="13" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="13" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="13" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
+      <c r="D14" s="13" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr">
-        <is>
-          <t>Reps Obj.</t>
-        </is>
-      </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>Reps Min</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>Reps Max</t>
+        </is>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="25" t="inlineStr">
+      <c r="B15" s="27" t="inlineStr">
         <is>
           <t>Remo con mancuernas</t>
         </is>
       </c>
-      <c r="C15" s="22" t="inlineStr"/>
-      <c r="D15" s="22" t="inlineStr"/>
-      <c r="E15" s="22" t="inlineStr"/>
-      <c r="F15" s="22" t="inlineStr"/>
+      <c r="C15" s="24" t="inlineStr"/>
+      <c r="D15" s="24" t="inlineStr"/>
+      <c r="E15" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" s="24" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="26" t="inlineStr">
+      <c r="B16" s="28" t="inlineStr">
         <is>
           <t>Dominadas (o banda elástica)</t>
         </is>
       </c>
-      <c r="C16" s="20" t="inlineStr"/>
-      <c r="D16" s="20" t="inlineStr"/>
-      <c r="E16" s="20" t="inlineStr"/>
-      <c r="F16" s="20" t="inlineStr"/>
+      <c r="C16" s="22" t="inlineStr"/>
+      <c r="D16" s="22" t="inlineStr"/>
+      <c r="E16" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" s="22" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="22" t="n">
+      <c r="A17" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B17" s="25" t="inlineStr">
+      <c r="B17" s="27" t="inlineStr">
         <is>
           <t>Remo invertido (mesa)</t>
         </is>
       </c>
-      <c r="C17" s="22" t="inlineStr"/>
-      <c r="D17" s="22" t="inlineStr"/>
-      <c r="E17" s="22" t="inlineStr"/>
-      <c r="F17" s="22" t="inlineStr"/>
+      <c r="C17" s="24" t="inlineStr"/>
+      <c r="D17" s="24" t="inlineStr"/>
+      <c r="E17" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G17" s="24" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="n">
+      <c r="A18" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="26" t="inlineStr">
+      <c r="B18" s="28" t="inlineStr">
         <is>
           <t>Curl bíceps con mancuerna</t>
         </is>
       </c>
-      <c r="C18" s="20" t="inlineStr"/>
-      <c r="D18" s="20" t="inlineStr"/>
-      <c r="E18" s="20" t="inlineStr"/>
-      <c r="F18" s="20" t="inlineStr"/>
+      <c r="C18" s="22" t="inlineStr"/>
+      <c r="D18" s="22" t="inlineStr"/>
+      <c r="E18" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G18" s="22" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="22" t="n">
+      <c r="A19" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B19" s="25" t="inlineStr">
+      <c r="B19" s="27" t="inlineStr">
         <is>
           <t>Curl martillo</t>
         </is>
       </c>
-      <c r="C19" s="22" t="inlineStr"/>
-      <c r="D19" s="22" t="inlineStr"/>
-      <c r="E19" s="22" t="inlineStr"/>
-      <c r="F19" s="22" t="inlineStr"/>
+      <c r="C19" s="24" t="inlineStr"/>
+      <c r="D19" s="24" t="inlineStr"/>
+      <c r="E19" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" s="24" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="n">
+      <c r="A20" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B20" s="26" t="inlineStr">
+      <c r="B20" s="28" t="inlineStr">
         <is>
           <t>Superman</t>
         </is>
       </c>
-      <c r="C20" s="20" t="inlineStr"/>
-      <c r="D20" s="20" t="inlineStr"/>
-      <c r="E20" s="20" t="inlineStr"/>
-      <c r="F20" s="20" t="inlineStr"/>
+      <c r="C20" s="22" t="inlineStr"/>
+      <c r="D20" s="22" t="inlineStr"/>
+      <c r="E20" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F20" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" s="22" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
@@ -3688,122 +4239,158 @@
       <c r="D22" s="6" t="n"/>
       <c r="E22" s="6" t="n"/>
       <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="A23" s="13" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B23" s="11" t="inlineStr">
+      <c r="B23" s="13" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="C23" s="13" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="13" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
-        <is>
-          <t>Reps Obj.</t>
-        </is>
-      </c>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>Reps Min</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>Reps Max</t>
+        </is>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="22" t="n">
+      <c r="A24" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="25" t="inlineStr">
+      <c r="B24" s="27" t="inlineStr">
         <is>
           <t>Sentadillas</t>
         </is>
       </c>
-      <c r="C24" s="22" t="inlineStr"/>
-      <c r="D24" s="22" t="inlineStr"/>
-      <c r="E24" s="22" t="inlineStr"/>
-      <c r="F24" s="22" t="inlineStr"/>
+      <c r="C24" s="24" t="inlineStr"/>
+      <c r="D24" s="24" t="inlineStr"/>
+      <c r="E24" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" s="24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="n">
+      <c r="A25" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="26" t="inlineStr">
+      <c r="B25" s="28" t="inlineStr">
         <is>
           <t>Sentadilla búlgara</t>
         </is>
       </c>
-      <c r="C25" s="20" t="inlineStr"/>
-      <c r="D25" s="20" t="inlineStr"/>
-      <c r="E25" s="20" t="inlineStr"/>
-      <c r="F25" s="20" t="inlineStr"/>
+      <c r="C25" s="22" t="inlineStr"/>
+      <c r="D25" s="22" t="inlineStr"/>
+      <c r="E25" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" s="22" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="22" t="n">
+      <c r="A26" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B26" s="25" t="inlineStr">
+      <c r="B26" s="27" t="inlineStr">
         <is>
           <t>Zancadas</t>
         </is>
       </c>
-      <c r="C26" s="22" t="inlineStr"/>
-      <c r="D26" s="22" t="inlineStr"/>
-      <c r="E26" s="22" t="inlineStr"/>
-      <c r="F26" s="22" t="inlineStr"/>
+      <c r="C26" s="24" t="inlineStr"/>
+      <c r="D26" s="24" t="inlineStr"/>
+      <c r="E26" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="G26" s="24" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="20" t="n">
+      <c r="A27" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B27" s="26" t="inlineStr">
+      <c r="B27" s="28" t="inlineStr">
         <is>
           <t>Peso muerto rumano</t>
         </is>
       </c>
-      <c r="C27" s="20" t="inlineStr"/>
-      <c r="D27" s="20" t="inlineStr"/>
-      <c r="E27" s="20" t="inlineStr"/>
-      <c r="F27" s="20" t="inlineStr"/>
+      <c r="C27" s="22" t="inlineStr"/>
+      <c r="D27" s="22" t="inlineStr"/>
+      <c r="E27" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G27" s="22" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="22" t="n">
+      <c r="A28" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B28" s="25" t="inlineStr">
+      <c r="B28" s="27" t="inlineStr">
         <is>
           <t>Elevación de talones</t>
         </is>
       </c>
-      <c r="C28" s="22" t="inlineStr"/>
-      <c r="D28" s="22" t="inlineStr"/>
-      <c r="E28" s="22" t="inlineStr"/>
-      <c r="F28" s="22" t="inlineStr"/>
+      <c r="C28" s="24" t="inlineStr"/>
+      <c r="D28" s="24" t="inlineStr"/>
+      <c r="E28" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" s="24" t="n">
+        <v>25</v>
+      </c>
+      <c r="G28" s="24" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="n">
+      <c r="A29" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B29" s="26" t="inlineStr">
+      <c r="B29" s="28" t="inlineStr">
         <is>
           <t>Puente de glúteos</t>
         </is>
       </c>
-      <c r="C29" s="20" t="inlineStr"/>
-      <c r="D29" s="20" t="inlineStr"/>
-      <c r="E29" s="20" t="inlineStr"/>
-      <c r="F29" s="20" t="inlineStr"/>
+      <c r="C29" s="22" t="inlineStr"/>
+      <c r="D29" s="22" t="inlineStr"/>
+      <c r="E29" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F29" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G29" s="22" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
@@ -3816,122 +4403,158 @@
       <c r="D31" s="6" t="n"/>
       <c r="E31" s="6" t="n"/>
       <c r="F31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+      <c r="A32" s="13" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr">
+      <c r="B32" s="13" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C32" s="13" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D32" s="11" t="inlineStr">
+      <c r="D32" s="13" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E32" s="11" t="inlineStr">
-        <is>
-          <t>Reps Obj.</t>
-        </is>
-      </c>
-      <c r="F32" s="11" t="inlineStr">
+      <c r="E32" s="13" t="inlineStr">
+        <is>
+          <t>Reps Min</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="inlineStr">
+        <is>
+          <t>Reps Max</t>
+        </is>
+      </c>
+      <c r="G32" s="13" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="n">
+      <c r="A33" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="25" t="inlineStr">
+      <c r="B33" s="27" t="inlineStr">
         <is>
           <t>Press militar con mancuernas</t>
         </is>
       </c>
-      <c r="C33" s="22" t="inlineStr"/>
-      <c r="D33" s="22" t="inlineStr"/>
-      <c r="E33" s="22" t="inlineStr"/>
-      <c r="F33" s="22" t="inlineStr"/>
+      <c r="C33" s="24" t="inlineStr"/>
+      <c r="D33" s="24" t="inlineStr"/>
+      <c r="E33" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G33" s="24" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="20" t="n">
+      <c r="A34" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="26" t="inlineStr">
+      <c r="B34" s="28" t="inlineStr">
         <is>
           <t>Elevaciones laterales</t>
         </is>
       </c>
-      <c r="C34" s="20" t="inlineStr"/>
-      <c r="D34" s="20" t="inlineStr"/>
-      <c r="E34" s="20" t="inlineStr"/>
-      <c r="F34" s="20" t="inlineStr"/>
+      <c r="C34" s="22" t="inlineStr"/>
+      <c r="D34" s="22" t="inlineStr"/>
+      <c r="E34" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G34" s="22" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="22" t="n">
+      <c r="A35" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B35" s="25" t="inlineStr">
+      <c r="B35" s="27" t="inlineStr">
         <is>
           <t>Elevaciones frontales</t>
         </is>
       </c>
-      <c r="C35" s="22" t="inlineStr"/>
-      <c r="D35" s="22" t="inlineStr"/>
-      <c r="E35" s="22" t="inlineStr"/>
-      <c r="F35" s="22" t="inlineStr"/>
+      <c r="C35" s="24" t="inlineStr"/>
+      <c r="D35" s="24" t="inlineStr"/>
+      <c r="E35" s="24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G35" s="24" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="20" t="n">
+      <c r="A36" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B36" s="26" t="inlineStr">
+      <c r="B36" s="28" t="inlineStr">
         <is>
           <t>Plancha frontal (seg)</t>
         </is>
       </c>
-      <c r="C36" s="20" t="inlineStr"/>
-      <c r="D36" s="20" t="inlineStr"/>
-      <c r="E36" s="20" t="inlineStr"/>
-      <c r="F36" s="20" t="inlineStr"/>
+      <c r="C36" s="22" t="inlineStr"/>
+      <c r="D36" s="22" t="inlineStr"/>
+      <c r="E36" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="F36" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="G36" s="22" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="22" t="n">
+      <c r="A37" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B37" s="25" t="inlineStr">
+      <c r="B37" s="27" t="inlineStr">
         <is>
           <t>Plancha lateral (seg)</t>
         </is>
       </c>
-      <c r="C37" s="22" t="inlineStr"/>
-      <c r="D37" s="22" t="inlineStr"/>
-      <c r="E37" s="22" t="inlineStr"/>
-      <c r="F37" s="22" t="inlineStr"/>
+      <c r="C37" s="24" t="inlineStr"/>
+      <c r="D37" s="24" t="inlineStr"/>
+      <c r="E37" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" s="24" t="n">
+        <v>45</v>
+      </c>
+      <c r="G37" s="24" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="20" t="n">
+      <c r="A38" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B38" s="26" t="inlineStr">
+      <c r="B38" s="28" t="inlineStr">
         <is>
           <t>Crunch abdominal</t>
         </is>
       </c>
-      <c r="C38" s="20" t="inlineStr"/>
-      <c r="D38" s="20" t="inlineStr"/>
-      <c r="E38" s="20" t="inlineStr"/>
-      <c r="F38" s="20" t="inlineStr"/>
+      <c r="C38" s="22" t="inlineStr"/>
+      <c r="D38" s="22" t="inlineStr"/>
+      <c r="E38" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" s="22" t="n">
+        <v>25</v>
+      </c>
+      <c r="G38" s="22" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
@@ -3944,132 +4567,168 @@
       <c r="D40" s="6" t="n"/>
       <c r="E40" s="6" t="n"/>
       <c r="F40" s="6" t="n"/>
+      <c r="G40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="inlineStr">
+      <c r="A41" s="13" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="B41" s="11" t="inlineStr">
+      <c r="B41" s="13" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="C41" s="11" t="inlineStr">
+      <c r="C41" s="13" t="inlineStr">
         <is>
           <t>Grupo Muscular</t>
         </is>
       </c>
-      <c r="D41" s="11" t="inlineStr">
+      <c r="D41" s="13" t="inlineStr">
         <is>
           <t>Series Obj.</t>
         </is>
       </c>
-      <c r="E41" s="11" t="inlineStr">
-        <is>
-          <t>Reps Obj.</t>
-        </is>
-      </c>
-      <c r="F41" s="11" t="inlineStr">
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>Reps Min</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>Reps Max</t>
+        </is>
+      </c>
+      <c r="G41" s="13" t="inlineStr">
         <is>
           <t>Peso Obj. (kg)</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="22" t="n">
+      <c r="A42" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B42" s="25" t="inlineStr">
+      <c r="B42" s="27" t="inlineStr">
         <is>
           <t>Burpees</t>
         </is>
       </c>
-      <c r="C42" s="22" t="inlineStr"/>
-      <c r="D42" s="22" t="inlineStr"/>
-      <c r="E42" s="22" t="inlineStr"/>
-      <c r="F42" s="22" t="inlineStr"/>
+      <c r="C42" s="24" t="inlineStr"/>
+      <c r="D42" s="24" t="inlineStr"/>
+      <c r="E42" s="24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F42" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G42" s="24" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="20" t="n">
+      <c r="A43" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="26" t="inlineStr">
+      <c r="B43" s="28" t="inlineStr">
         <is>
           <t>Sentadilla con salto</t>
         </is>
       </c>
-      <c r="C43" s="20" t="inlineStr"/>
-      <c r="D43" s="20" t="inlineStr"/>
-      <c r="E43" s="20" t="inlineStr"/>
-      <c r="F43" s="20" t="inlineStr"/>
+      <c r="C43" s="22" t="inlineStr"/>
+      <c r="D43" s="22" t="inlineStr"/>
+      <c r="E43" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F43" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G43" s="22" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="22" t="n">
+      <c r="A44" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="25" t="inlineStr">
+      <c r="B44" s="27" t="inlineStr">
         <is>
           <t>Flexiones</t>
         </is>
       </c>
-      <c r="C44" s="22" t="inlineStr"/>
-      <c r="D44" s="22" t="inlineStr"/>
-      <c r="E44" s="22" t="inlineStr"/>
-      <c r="F44" s="22" t="inlineStr"/>
+      <c r="C44" s="24" t="inlineStr"/>
+      <c r="D44" s="24" t="inlineStr"/>
+      <c r="E44" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" s="24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G44" s="24" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="20" t="n">
+      <c r="A45" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B45" s="26" t="inlineStr">
+      <c r="B45" s="28" t="inlineStr">
         <is>
           <t>Remo con mancuernas</t>
         </is>
       </c>
-      <c r="C45" s="20" t="inlineStr"/>
-      <c r="D45" s="20" t="inlineStr"/>
-      <c r="E45" s="20" t="inlineStr"/>
-      <c r="F45" s="20" t="inlineStr"/>
+      <c r="C45" s="22" t="inlineStr"/>
+      <c r="D45" s="22" t="inlineStr"/>
+      <c r="E45" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F45" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="G45" s="22" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="22" t="n">
+      <c r="A46" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B46" s="25" t="inlineStr">
+      <c r="B46" s="27" t="inlineStr">
         <is>
           <t>Zancadas con salto</t>
         </is>
       </c>
-      <c r="C46" s="22" t="inlineStr"/>
-      <c r="D46" s="22" t="inlineStr"/>
-      <c r="E46" s="22" t="inlineStr"/>
-      <c r="F46" s="22" t="inlineStr"/>
+      <c r="C46" s="24" t="inlineStr"/>
+      <c r="D46" s="24" t="inlineStr"/>
+      <c r="E46" s="24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" s="24" t="n">
+        <v>16</v>
+      </c>
+      <c r="G46" s="24" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="20" t="n">
+      <c r="A47" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B47" s="26" t="inlineStr">
+      <c r="B47" s="28" t="inlineStr">
         <is>
           <t>Mountain climbers</t>
         </is>
       </c>
-      <c r="C47" s="20" t="inlineStr"/>
-      <c r="D47" s="20" t="inlineStr"/>
-      <c r="E47" s="20" t="inlineStr"/>
-      <c r="F47" s="20" t="inlineStr"/>
+      <c r="C47" s="22" t="inlineStr"/>
+      <c r="D47" s="22" t="inlineStr"/>
+      <c r="E47" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F47" s="22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G47" s="22" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4082,7 +4741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -4124,22 +4783,22 @@
       <c r="L1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="27" t="inlineStr">
+      <c r="A2" s="29" t="inlineStr">
         <is>
           <t>Resumen visual de tu progreso. Los datos se actualizan automáticamente desde la hoja Registro.</t>
         </is>
       </c>
-      <c r="B2" s="28" t="n"/>
-      <c r="C2" s="28" t="n"/>
-      <c r="D2" s="28" t="n"/>
-      <c r="E2" s="28" t="n"/>
-      <c r="F2" s="28" t="n"/>
-      <c r="G2" s="28" t="n"/>
-      <c r="H2" s="28" t="n"/>
-      <c r="I2" s="28" t="n"/>
-      <c r="J2" s="28" t="n"/>
-      <c r="K2" s="28" t="n"/>
-      <c r="L2" s="28" t="n"/>
+      <c r="B2" s="30" t="n"/>
+      <c r="C2" s="30" t="n"/>
+      <c r="D2" s="30" t="n"/>
+      <c r="E2" s="30" t="n"/>
+      <c r="F2" s="30" t="n"/>
+      <c r="G2" s="30" t="n"/>
+      <c r="H2" s="30" t="n"/>
+      <c r="I2" s="30" t="n"/>
+      <c r="J2" s="30" t="n"/>
+      <c r="K2" s="30" t="n"/>
+      <c r="L2" s="30" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
@@ -4160,75 +4819,75 @@
       <c r="L4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="29" t="inlineStr">
+      <c r="B5" s="31" t="inlineStr">
         <is>
           <t>Total Sesiones</t>
         </is>
       </c>
-      <c r="C5" s="12" t="n"/>
-      <c r="D5" s="30" t="inlineStr">
+      <c r="C5" s="14" t="n"/>
+      <c r="D5" s="32" t="inlineStr">
         <is>
           <t>Último Entreno</t>
         </is>
       </c>
       <c r="E5" s="6" t="n"/>
-      <c r="F5" s="31" t="inlineStr">
+      <c r="F5" s="33" t="inlineStr">
         <is>
           <t>Peso Máx (kg)</t>
         </is>
       </c>
-      <c r="G5" s="14" t="n"/>
-      <c r="H5" s="32" t="inlineStr">
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="34" t="inlineStr">
         <is>
           <t>Prom. Reps</t>
         </is>
       </c>
       <c r="I5" s="2" t="n"/>
-      <c r="J5" s="33" t="inlineStr">
-        <is>
-          <t>Volumen Total</t>
-        </is>
-      </c>
-      <c r="K5" s="16" t="n"/>
+      <c r="J5" s="35" t="inlineStr">
+        <is>
+          <t>Total Sets</t>
+        </is>
+      </c>
+      <c r="K5" s="18" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="34">
+      <c r="B6" s="36">
         <f>COUNTA(Registro!A12:A200)</f>
         <v/>
       </c>
-      <c r="C6" s="12" t="n"/>
-      <c r="D6" s="35">
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="37">
         <f>IF(COUNTA(Registro!A12:A200)&gt;0,MAX(Registro!A12:A200),"-")</f>
         <v/>
       </c>
       <c r="E6" s="6" t="n"/>
-      <c r="F6" s="36">
+      <c r="F6" s="38">
         <f>IF(MAX(Registro!F12:F200)&gt;0,MAX(Registro!F12:F200),"-")</f>
         <v/>
       </c>
-      <c r="G6" s="14" t="n"/>
-      <c r="H6" s="37">
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="39">
         <f>IFERROR(ROUND(AVERAGE(Registro!E12:E200),1),"-")</f>
         <v/>
       </c>
       <c r="I6" s="2" t="n"/>
-      <c r="J6" s="38">
-        <f>IFERROR(SUMPRODUCT((Registro!D12:D200)*(Registro!E12:E200)),"-")</f>
-        <v/>
-      </c>
-      <c r="K6" s="16" t="n"/>
+      <c r="J6" s="40">
+        <f>IFERROR(COUNTA(Registro!D12:D200),"-")</f>
+        <v/>
+      </c>
+      <c r="K6" s="18" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="12" t="n"/>
-      <c r="C7" s="12" t="n"/>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="14" t="n"/>
       <c r="D7" s="6" t="n"/>
       <c r="E7" s="6" t="n"/>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="14" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="16" t="n"/>
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="n"/>
-      <c r="J7" s="16" t="n"/>
-      <c r="K7" s="16" t="n"/>
+      <c r="J7" s="18" t="n"/>
+      <c r="K7" s="18" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="5" t="inlineStr">
@@ -4242,149 +4901,149 @@
       <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="13" t="inlineStr">
         <is>
           <t>Día</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
-        <is>
-          <t>Sesiones</t>
-        </is>
-      </c>
-      <c r="D10" s="11" t="inlineStr">
-        <is>
-          <t>Series</t>
-        </is>
-      </c>
-      <c r="E10" s="11" t="inlineStr">
-        <is>
-          <t>Reps</t>
-        </is>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <t>Sets</t>
+        </is>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>Total Reps</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>Reps Prom.</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>Peso Prom.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="39" t="inlineStr">
+      <c r="B11" s="41" t="inlineStr">
         <is>
           <t>Lunes</t>
         </is>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <f>COUNTIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps")</f>
         <v/>
       </c>
-      <c r="D11" s="20">
-        <f>SUMIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps",Registro!D$12:D$200)</f>
-        <v/>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="22">
         <f>SUMIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps",Registro!E$12:E$200)</f>
         <v/>
       </c>
-      <c r="F11" s="20">
+      <c r="E11" s="22">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps",Registro!E$12:E$200),0)</f>
+        <v/>
+      </c>
+      <c r="F11" s="22">
         <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Lunes - Pecho y Tríceps",Registro!F$12:F$200),0)</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="40" t="inlineStr">
+      <c r="B12" s="42" t="inlineStr">
         <is>
           <t>Martes</t>
         </is>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="24">
         <f>COUNTIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps")</f>
         <v/>
       </c>
-      <c r="D12" s="22">
-        <f>SUMIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps",Registro!D$12:D$200)</f>
-        <v/>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="24">
         <f>SUMIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps",Registro!E$12:E$200)</f>
         <v/>
       </c>
-      <c r="F12" s="22">
+      <c r="E12" s="24">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps",Registro!E$12:E$200),0)</f>
+        <v/>
+      </c>
+      <c r="F12" s="24">
         <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Martes - Espalda y Bíceps",Registro!F$12:F$200),0)</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="39" t="inlineStr">
+      <c r="B13" s="41" t="inlineStr">
         <is>
           <t>Miércoles</t>
         </is>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="22">
         <f>COUNTIF(Registro!B$12:B$200,"Miércoles - Piernas")</f>
         <v/>
       </c>
-      <c r="D13" s="20">
-        <f>SUMIF(Registro!B$12:B$200,"Miércoles - Piernas",Registro!D$12:D$200)</f>
-        <v/>
-      </c>
-      <c r="E13" s="20">
+      <c r="D13" s="22">
         <f>SUMIF(Registro!B$12:B$200,"Miércoles - Piernas",Registro!E$12:E$200)</f>
         <v/>
       </c>
-      <c r="F13" s="20">
+      <c r="E13" s="22">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Miércoles - Piernas",Registro!E$12:E$200),0)</f>
+        <v/>
+      </c>
+      <c r="F13" s="22">
         <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Miércoles - Piernas",Registro!F$12:F$200),0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="40" t="inlineStr">
+      <c r="B14" s="42" t="inlineStr">
         <is>
           <t>Jueves</t>
         </is>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="24">
         <f>COUNTIF(Registro!B$12:B$200,"Jueves - Hombros y Core")</f>
         <v/>
       </c>
-      <c r="D14" s="22">
-        <f>SUMIF(Registro!B$12:B$200,"Jueves - Hombros y Core",Registro!D$12:D$200)</f>
-        <v/>
-      </c>
-      <c r="E14" s="22">
+      <c r="D14" s="24">
         <f>SUMIF(Registro!B$12:B$200,"Jueves - Hombros y Core",Registro!E$12:E$200)</f>
         <v/>
       </c>
-      <c r="F14" s="22">
+      <c r="E14" s="24">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Jueves - Hombros y Core",Registro!E$12:E$200),0)</f>
+        <v/>
+      </c>
+      <c r="F14" s="24">
         <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Jueves - Hombros y Core",Registro!F$12:F$200),0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="39" t="inlineStr">
+      <c r="B15" s="41" t="inlineStr">
         <is>
           <t>Viernes</t>
         </is>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="22">
         <f>COUNTIF(Registro!B$12:B$200,"Viernes - Full Body")</f>
         <v/>
       </c>
-      <c r="D15" s="20">
-        <f>SUMIF(Registro!B$12:B$200,"Viernes - Full Body",Registro!D$12:D$200)</f>
-        <v/>
-      </c>
-      <c r="E15" s="20">
+      <c r="D15" s="22">
         <f>SUMIF(Registro!B$12:B$200,"Viernes - Full Body",Registro!E$12:E$200)</f>
         <v/>
       </c>
-      <c r="F15" s="20">
+      <c r="E15" s="22">
+        <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Viernes - Full Body",Registro!E$12:E$200),0)</f>
+        <v/>
+      </c>
+      <c r="F15" s="22">
         <f>IFERROR(AVERAGEIF(Registro!B$12:B$200,"Viernes - Full Body",Registro!F$12:F$200),0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="17" t="inlineStr">
+      <c r="B17" s="19" t="inlineStr">
         <is>
           <t>INSIGHTS</t>
         </is>
@@ -4395,359 +5054,415 @@
       <c r="F17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="39" t="inlineStr">
+      <c r="B18" s="41" t="inlineStr">
         <is>
           <t>Días sin entrenar</t>
         </is>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="43">
         <f>IF(COUNTA(Registro!A12:A200)&gt;0,TODAY()-MAX(Registro!A12:A200),"-")</f>
         <v/>
       </c>
-      <c r="D18" s="42" t="n"/>
-      <c r="E18" s="42" t="n"/>
-      <c r="F18" s="42" t="n"/>
+      <c r="D18" s="44" t="n"/>
+      <c r="E18" s="44" t="n"/>
+      <c r="F18" s="44" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="40" t="inlineStr">
+      <c r="B19" s="42" t="inlineStr">
         <is>
           <t>Sesiones esta semana</t>
         </is>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="45">
         <f>COUNTIFS(Registro!A12:A200,"&gt;="&amp;(TODAY()-WEEKDAY(TODAY(),2)+1),Registro!A12:A200,"&lt;="&amp;TODAY())</f>
         <v/>
       </c>
-      <c r="D19" s="44" t="n"/>
-      <c r="E19" s="44" t="n"/>
-      <c r="F19" s="44" t="n"/>
+      <c r="D19" s="46" t="n"/>
+      <c r="E19" s="46" t="n"/>
+      <c r="F19" s="46" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="39" t="inlineStr">
+      <c r="B20" s="41" t="inlineStr">
         <is>
           <t>Sesiones este mes</t>
         </is>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="43">
         <f>COUNTIFS(Registro!A12:A200,"&gt;="&amp;DATE(YEAR(TODAY()),MONTH(TODAY()),1),Registro!A12:A200,"&lt;="&amp;TODAY())</f>
         <v/>
       </c>
-      <c r="D20" s="42" t="n"/>
-      <c r="E20" s="42" t="n"/>
-      <c r="F20" s="42" t="n"/>
+      <c r="D20" s="44" t="n"/>
+      <c r="E20" s="44" t="n"/>
+      <c r="F20" s="44" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="40" t="inlineStr">
+      <c r="B21" s="42" t="inlineStr">
         <is>
           <t>Ejercicio más frecuente</t>
         </is>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="45">
         <f>IFERROR(INDEX(Registro!C12:C200,MATCH(MAX(COUNTIF(Registro!C12:C200,Registro!C12:C200)),COUNTIF(Registro!C12:C200,Registro!C12:C200),0)),"-")</f>
         <v/>
       </c>
-      <c r="D21" s="44" t="n"/>
-      <c r="E21" s="44" t="n"/>
-      <c r="F21" s="44" t="n"/>
+      <c r="D21" s="46" t="n"/>
+      <c r="E21" s="46" t="n"/>
+      <c r="F21" s="46" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="39" t="inlineStr">
-        <is>
-          <t>Prom. series por sesión</t>
-        </is>
-      </c>
-      <c r="C22" s="41">
-        <f>IFERROR(ROUND(AVERAGE(Registro!D12:D200),1),"-")</f>
-        <v/>
-      </c>
-      <c r="D22" s="42" t="n"/>
-      <c r="E22" s="42" t="n"/>
-      <c r="F22" s="42" t="n"/>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t>Total reps acumuladas</t>
+        </is>
+      </c>
+      <c r="C22" s="43">
+        <f>IFERROR(SUM(Registro!E12:E200),"-")</f>
+        <v/>
+      </c>
+      <c r="D22" s="44" t="n"/>
+      <c r="E22" s="44" t="n"/>
+      <c r="F22" s="44" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="40" t="inlineStr">
-        <is>
-          <t>Mayor volumen en 1 registro</t>
-        </is>
-      </c>
-      <c r="C23" s="43">
-        <f>IFERROR(MAX(Registro!D12:D200*Registro!E12:E200),"-")</f>
-        <v/>
-      </c>
-      <c r="D23" s="44" t="n"/>
-      <c r="E23" s="44" t="n"/>
-      <c r="F23" s="44" t="n"/>
+      <c r="B23" s="42" t="inlineStr">
+        <is>
+          <t>Reps max en 1 set</t>
+        </is>
+      </c>
+      <c r="C23" s="45">
+        <f>IFERROR(MAX(Registro!E12:E200),"-")</f>
+        <v/>
+      </c>
+      <c r="D23" s="46" t="n"/>
+      <c r="E23" s="46" t="n"/>
+      <c r="F23" s="46" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="17" t="inlineStr">
+      <c r="B26" s="47" t="inlineStr">
+        <is>
+          <t>⚠ ALERTAS DE PROGRESO</t>
+        </is>
+      </c>
+      <c r="C26" s="18" t="n"/>
+      <c r="D26" s="18" t="n"/>
+      <c r="E26" s="18" t="n"/>
+      <c r="F26" s="18" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t>Registros SOBRE rango (subir peso)</t>
+        </is>
+      </c>
+      <c r="C27" s="43">
+        <f>IFERROR(SUMPRODUCT((Registro!E12:E200&lt;&gt;"")*NOT(ISERROR(VLOOKUP(Registro!C12:C200,TablaEjercicios,3,FALSE)))*(Registro!E12:E200&gt;VLOOKUP(Registro!C12:C200,TablaEjercicios,3,FALSE))),0)</f>
+        <v/>
+      </c>
+      <c r="D27" s="44" t="n"/>
+      <c r="E27" s="44" t="n"/>
+      <c r="F27" s="44" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="42" t="inlineStr">
+        <is>
+          <t>Registros BAJO rango (bajar peso)</t>
+        </is>
+      </c>
+      <c r="C28" s="45">
+        <f>IFERROR(SUMPRODUCT((Registro!E12:E200&lt;&gt;"")*NOT(ISERROR(VLOOKUP(Registro!C12:C200,TablaEjercicios,2,FALSE)))*(Registro!E12:E200&lt;VLOOKUP(Registro!C12:C200,TablaEjercicios,2,FALSE))),0)</f>
+        <v/>
+      </c>
+      <c r="D28" s="46" t="n"/>
+      <c r="E28" s="46" t="n"/>
+      <c r="F28" s="46" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t>% en rango óptimo</t>
+        </is>
+      </c>
+      <c r="C29" s="43">
+        <f>IFERROR(TEXT(1-((SUMPRODUCT((Registro!E12:E200&lt;&gt;"")*NOT(ISERROR(VLOOKUP(Registro!C12:C200,TablaEjercicios,3,FALSE)))*(Registro!E12:E200&gt;VLOOKUP(Registro!C12:C200,TablaEjercicios,3,FALSE)))+SUMPRODUCT((Registro!E12:E200&lt;&gt;"")*NOT(ISERROR(VLOOKUP(Registro!C12:C200,TablaEjercicios,2,FALSE)))*(Registro!E12:E200&lt;VLOOKUP(Registro!C12:C200,TablaEjercicios,2,FALSE))))/MAX(COUNTA(Registro!E12:E200),1)),"0%"),"-")</f>
+        <v/>
+      </c>
+      <c r="D29" s="44" t="n"/>
+      <c r="E29" s="44" t="n"/>
+      <c r="F29" s="44" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="19" t="inlineStr">
         <is>
           <t>ÚLTIMOS 10 REGISTROS</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="11" t="inlineStr">
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="13" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C32" s="13" t="inlineStr">
         <is>
           <t>Rutina</t>
         </is>
       </c>
-      <c r="D27" s="11" t="inlineStr">
+      <c r="D32" s="13" t="inlineStr">
         <is>
           <t>Ejercicio</t>
         </is>
       </c>
-      <c r="E27" s="11" t="inlineStr">
+      <c r="E32" s="13" t="inlineStr">
         <is>
           <t>Reps</t>
         </is>
       </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="F32" s="13" t="inlineStr">
         <is>
           <t>Peso (kg)</t>
         </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="19">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
-        <v/>
-      </c>
-      <c r="C28" s="20">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
-        <v/>
-      </c>
-      <c r="D28" s="20">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
-        <v/>
-      </c>
-      <c r="E28" s="20">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
-        <v/>
-      </c>
-      <c r="F28" s="20">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="21">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
-        <v/>
-      </c>
-      <c r="C29" s="22">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="22">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
-        <v/>
-      </c>
-      <c r="E29" s="22">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
-        <v/>
-      </c>
-      <c r="F29" s="22">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="19">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
-        <v/>
-      </c>
-      <c r="C30" s="20">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
-        <v/>
-      </c>
-      <c r="D30" s="20">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
-        <v/>
-      </c>
-      <c r="E30" s="20">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
-        <v/>
-      </c>
-      <c r="F30" s="20">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="21">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
-        <v/>
-      </c>
-      <c r="C31" s="22">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
-        <v/>
-      </c>
-      <c r="D31" s="22">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
-        <v/>
-      </c>
-      <c r="E31" s="22">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
-        <v/>
-      </c>
-      <c r="F31" s="22">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="19">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
-        <v/>
-      </c>
-      <c r="C32" s="20">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="20">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
-        <v/>
-      </c>
-      <c r="E32" s="20">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
-        <v/>
-      </c>
-      <c r="F32" s="20">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
-        <v/>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="21">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
       <c r="C33" s="22">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
       <c r="D33" s="22">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
       <c r="E33" s="22">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
       <c r="F33" s="22">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-0),"")</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="19">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
-        <v/>
-      </c>
-      <c r="C34" s="20">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
-        <v/>
-      </c>
-      <c r="D34" s="20">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
-        <v/>
-      </c>
-      <c r="E34" s="20">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
-        <v/>
-      </c>
-      <c r="F34" s="20">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
+      <c r="B34" s="23">
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
+        <v/>
+      </c>
+      <c r="C34" s="24">
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
+        <v/>
+      </c>
+      <c r="D34" s="24">
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
+        <v/>
+      </c>
+      <c r="E34" s="24">
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
+        <v/>
+      </c>
+      <c r="F34" s="24">
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="21">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
       <c r="C35" s="22">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
       <c r="D35" s="22">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
       <c r="E35" s="22">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
       <c r="F35" s="22">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-2),"")</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="19">
-        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
-        <v/>
-      </c>
-      <c r="C36" s="20">
-        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
-        <v/>
-      </c>
-      <c r="D36" s="20">
-        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
-        <v/>
-      </c>
-      <c r="E36" s="20">
-        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
-        <v/>
-      </c>
-      <c r="F36" s="20">
-        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
+      <c r="B36" s="23">
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
+        <v/>
+      </c>
+      <c r="C36" s="24">
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
+        <v/>
+      </c>
+      <c r="D36" s="24">
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
+        <v/>
+      </c>
+      <c r="E36" s="24">
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
+        <v/>
+      </c>
+      <c r="F36" s="24">
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-3),"")</f>
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="21">
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
+        <v/>
+      </c>
+      <c r="C37" s="22">
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="22">
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
+        <v/>
+      </c>
+      <c r="E37" s="22">
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
+        <v/>
+      </c>
+      <c r="F37" s="22">
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="23">
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <v/>
+      </c>
+      <c r="C38" s="24">
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="24">
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <v/>
+      </c>
+      <c r="E38" s="24">
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <v/>
+      </c>
+      <c r="F38" s="24">
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-5),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="21">
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
+        <v/>
+      </c>
+      <c r="C39" s="22">
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="22">
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
+        <v/>
+      </c>
+      <c r="E39" s="22">
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
+        <v/>
+      </c>
+      <c r="F39" s="22">
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-6),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="23">
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <v/>
+      </c>
+      <c r="C40" s="24">
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="24">
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <v/>
+      </c>
+      <c r="E40" s="24">
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <v/>
+      </c>
+      <c r="F40" s="24">
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-7),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="21">
+        <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
+        <v/>
+      </c>
+      <c r="C41" s="22">
+        <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="22">
+        <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
+        <v/>
+      </c>
+      <c r="E41" s="22">
+        <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
+        <v/>
+      </c>
+      <c r="F41" s="22">
+        <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-8),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="23">
         <f>IFERROR(INDEX(Registro!A$12:A$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="C37" s="22">
+      <c r="C42" s="24">
         <f>IFERROR(INDEX(Registro!B$12:B$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="D37" s="22">
+      <c r="D42" s="24">
         <f>IFERROR(INDEX(Registro!C$12:C$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="E37" s="22">
+      <c r="E42" s="24">
         <f>IFERROR(INDEX(Registro!E$12:E$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
-      <c r="F37" s="22">
+      <c r="F42" s="24">
         <f>IFERROR(INDEX(Registro!F$12:F$200,COUNTA(Registro!A$12:A$200)-9),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="26">
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C29:F29"/>
     <mergeCell ref="D6:E7"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="B9:F9"/>
@@ -4759,6 +5474,7 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C27:F27"/>
     <mergeCell ref="B26:F26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4773,7 +5489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4802,110 +5518,110 @@
       <c r="B3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="inlineStr">
+      <c r="A4" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B4" s="26" t="inlineStr">
-        <is>
-          <t>Esta es tu hoja principal. Aquí registras cada ejercicio que hagas.</t>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>Cada fila = UN SET de un ejercicio (Serie 1: 15 reps, Serie 2: 12 reps, etc.).</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="inlineStr">
+      <c r="A5" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B5" s="26" t="inlineStr">
+      <c r="B5" s="28" t="inlineStr">
         <is>
           <t>1. La FECHA se llena automáticamente con el día de hoy.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="inlineStr">
+      <c r="A6" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B6" s="26" t="inlineStr">
-        <is>
-          <t>2. Selecciona el DÍA/RUTINA del desplegable (Lunes-Pecho, Martes-Espalda, etc.).</t>
+      <c r="B6" s="28" t="inlineStr">
+        <is>
+          <t>2. Selecciona el DÍA/RUTINA y luego el EJERCICIO del desplegable dinámico.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="inlineStr">
+      <c r="A7" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B7" s="26" t="inlineStr">
-        <is>
-          <t>3. Escribe el nombre del EJERCICIO que realizaste.</t>
+      <c r="B7" s="28" t="inlineStr">
+        <is>
+          <t>3. Ingresa el SERIE # (1, 2, 3...), REPS y PESO de ese set.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="inlineStr">
+      <c r="A8" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B8" s="26" t="inlineStr">
-        <is>
-          <t>4. Ingresa el número de SERIES, REPETICIONES y PESO usado.</t>
+      <c r="B8" s="28" t="inlineStr">
+        <is>
+          <t>4. Al registrar, el Serie # sube automáticamente para el siguiente set.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="inlineStr">
+      <c r="A9" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B9" s="26" t="inlineStr">
-        <is>
-          <t>5. Opcionalmente agrega el tiempo de DESCANSO y NOTAS.</t>
+      <c r="B9" s="28" t="inlineStr">
+        <is>
+          <t>5. La fila 7 muestra si tus reps están EN RANGO, SOBRE o BAJO el óptimo.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="inlineStr">
+      <c r="A10" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B10" s="26" t="inlineStr">
-        <is>
-          <t>6. Haz clic en '▶ REGISTRAR ENTRADA' para mover los datos al historial.</t>
+      <c r="B10" s="28" t="inlineStr">
+        <is>
+          <t>6. En el historial: VERDE = en rango, ROJO = sube peso, AMARILLO = baja peso.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="inlineStr">
+      <c r="A11" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B11" s="26" t="inlineStr">
-        <is>
-          <t>7. Usa '✕ LIMPIAR CAMPOS' para borrar la zona de entrada.</t>
+      <c r="B11" s="28" t="inlineStr">
+        <is>
+          <t>7. Haz clic en '▶ REGISTRAR ENTRADA' para guardar el set.</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="inlineStr">
+      <c r="A12" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B12" s="26" t="inlineStr">
-        <is>
-          <t>8. Usa '⟳ DESHACER ÚLTIMO' para eliminar el último registro.</t>
+      <c r="B12" s="28" t="inlineStr">
+        <is>
+          <t>8. Usa '✕ LIMPIAR CAMPOS' o '⟳ DESHACER ÚLTIMO' según necesites.</t>
         </is>
       </c>
     </row>
@@ -4918,193 +5634,274 @@
       <c r="B14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="inlineStr">
+      <c r="A15" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B15" s="26" t="inlineStr">
-        <is>
-          <t>Aquí están las rutinas predefinidas para 5 días de la semana.</t>
+      <c r="B15" s="28" t="inlineStr">
+        <is>
+          <t>Rutinas predefinidas para 5 días con rangos de repeticiones óptimas.</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="20" t="inlineStr">
+      <c r="A16" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B16" s="26" t="inlineStr">
-        <is>
-          <t>Puedes editar los ejercicios, agregar objetivos de series/reps/peso.</t>
+      <c r="B16" s="28" t="inlineStr">
+        <is>
+          <t>Columnas Reps Min y Reps Max definen el rango ideal por ejercicio.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="inlineStr">
+      <c r="A17" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B17" s="26" t="inlineStr">
-        <is>
-          <t>Los nombres de los ejercicios te sirven de guía al llenar el Registro.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="B17" s="28" t="inlineStr">
+        <is>
+          <t>Si superas Reps Max consistentemente, es hora de SUBIR PESO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B18" s="28" t="inlineStr">
+        <is>
+          <t>Puedes editar los rangos para personalizar tus objetivos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>HOJA 'DASHBOARD'</t>
         </is>
       </c>
-      <c r="B19" s="6" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20" t="inlineStr">
+      <c r="B20" s="6" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B20" s="26" t="inlineStr">
+      <c r="B21" s="28" t="inlineStr">
         <is>
           <t>Dashboard visual con KPIs, gráficos e insights de tu progreso.</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="20" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B21" s="26" t="inlineStr">
+      <c r="B22" s="28" t="inlineStr">
         <is>
           <t>5 tarjetas de métricas clave: sesiones, último entreno, peso máx, etc.</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B22" s="26" t="inlineStr">
+      <c r="B23" s="28" t="inlineStr">
         <is>
           <t>Gráfico de barras: sesiones por día de rutina.</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B23" s="26" t="inlineStr">
+      <c r="B24" s="28" t="inlineStr">
         <is>
           <t>Gráfico circular: distribución porcentual de entrenamientos.</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="20" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B24" s="26" t="inlineStr">
+      <c r="B25" s="28" t="inlineStr">
         <is>
           <t>Gráfico de línea: progresión del peso levantado por sesión.</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B25" s="26" t="inlineStr">
+      <c r="B26" s="28" t="inlineStr">
         <is>
           <t>Sección de insights: días sin entrenar, sesiones semanales/mensuales.</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="20" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B26" s="26" t="inlineStr">
+      <c r="B27" s="28" t="inlineStr">
         <is>
           <t>Los últimos 10 registros se muestran al final.</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>SISTEMA DE ALERTAS</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="22" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B30" s="28" t="inlineStr">
+        <is>
+          <t>Cada ejercicio tiene un rango óptimo de repeticiones (Reps Min - Reps Max).</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="22" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B31" s="28" t="inlineStr">
+        <is>
+          <t>VERDE en la columna Reps = estás dentro del rango óptimo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="22" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B32" s="28" t="inlineStr">
+        <is>
+          <t>ROJO = superaste el máximo → SUBE EL PESO en tu próximo entrenamiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="22" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>AMARILLO = estás por debajo del mínimo → considera BAJAR PESO.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="22" t="inlineStr">
+        <is>
+          <t>•</t>
+        </is>
+      </c>
+      <c r="B34" s="28" t="inlineStr">
+        <is>
+          <t>El Dashboard muestra cuántos registros están fuera de rango.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>TIPS</t>
         </is>
       </c>
-      <c r="B28" s="6" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="20" t="inlineStr">
+      <c r="B36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B29" s="26" t="inlineStr">
-        <is>
-          <t>Registra CADA serie por separado para un seguimiento más detallado.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="20" t="inlineStr">
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Registra CADA SET por separado: Serie 1 (15 reps), Serie 2 (12 reps), etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B30" s="26" t="inlineStr">
-        <is>
-          <t>O registra el total de series/reps por ejercicio si prefieres algo rápido.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="20" t="inlineStr">
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>El Serie # sube solo al registrar — perfecto para múltiples sets seguidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B31" s="26" t="inlineStr">
-        <is>
-          <t>Revisa la hoja de Progreso regularmente para ver tu avance.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="20" t="inlineStr">
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Revisa el Dashboard regularmente para ver alertas y tu progreso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="22" t="inlineStr">
         <is>
           <t>•</t>
         </is>
       </c>
-      <c r="B32" s="26" t="inlineStr">
+      <c r="B40" s="28" t="inlineStr">
         <is>
           <t>¡La constancia es la clave! Intenta entrenar al menos 3-4 días por semana.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="6">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
